--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="992">
   <si>
     <t>Country</t>
   </si>
@@ -6109,6 +6109,18 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6120,18 +6132,6 @@
     </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8995,25 +8995,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="317"/>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="314" t="s">
         <v>791</v>
       </c>
-      <c r="C6" s="318"/>
-      <c r="D6" s="318"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
+      <c r="C6" s="314"/>
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="314"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -9030,14 +9030,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="319" t="s">
+      <c r="B8" s="315" t="s">
         <v>766</v>
       </c>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
+      <c r="C8" s="315"/>
+      <c r="D8" s="315"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="315"/>
+      <c r="G8" s="315"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -9054,14 +9054,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="320" t="s">
+      <c r="B10" s="316" t="s">
         <v>831</v>
       </c>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="316"/>
+      <c r="E10" s="316"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="316"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -9069,10 +9069,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="320"/>
+      <c r="D11" s="316"/>
+      <c r="E11" s="316"/>
+      <c r="F11" s="316"/>
+      <c r="G11" s="316"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -9145,23 +9145,23 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="314" t="s">
+      <c r="B17" s="318" t="s">
         <v>769</v>
       </c>
-      <c r="C17" s="314"/>
-      <c r="D17" s="314"/>
-      <c r="E17" s="314"/>
-      <c r="F17" s="314"/>
-      <c r="G17" s="314"/>
+      <c r="C17" s="318"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="318"/>
+      <c r="F17" s="318"/>
+      <c r="G17" s="318"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="315" t="s">
+      <c r="B18" s="319" t="s">
         <v>770</v>
       </c>
-      <c r="C18" s="315"/>
+      <c r="C18" s="319"/>
       <c r="D18" s="180" t="s">
         <v>771</v>
       </c>
@@ -9179,10 +9179,10 @@
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="316" t="s">
+      <c r="B19" s="320" t="s">
         <v>775</v>
       </c>
-      <c r="C19" s="316"/>
+      <c r="C19" s="320"/>
       <c r="D19" s="166" t="s">
         <v>776</v>
       </c>
@@ -9221,10 +9221,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="313" t="s">
+      <c r="B21" s="317" t="s">
         <v>778</v>
       </c>
-      <c r="C21" s="313"/>
+      <c r="C21" s="317"/>
       <c r="D21" s="167" t="s">
         <v>779</v>
       </c>
@@ -9242,10 +9242,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="313" t="s">
+      <c r="B22" s="317" t="s">
         <v>782</v>
       </c>
-      <c r="C22" s="313"/>
+      <c r="C22" s="317"/>
       <c r="D22" s="167" t="s">
         <v>783</v>
       </c>
@@ -9359,12 +9359,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -9373,6 +9367,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1"/>
@@ -13561,9 +13561,9 @@
   <dimension ref="A1:AB256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -14991,9 +14991,7 @@
       <c r="E86" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="F86" s="31" t="s">
-        <v>717</v>
-      </c>
+      <c r="F86" s="31"/>
       <c r="G86" s="38"/>
       <c r="H86" s="18"/>
     </row>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
@@ -26,8 +26,8 @@
     <definedName name="_C2factor">[1]Calc!$D$20</definedName>
     <definedName name="_C2factorIn">[1]DataIn!$D$16</definedName>
     <definedName name="_C2factors">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Template!$B$2:$G$240</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'User Guidance'!$B$2:$E$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Template!$B$2:$G$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'User Guidance'!$B$2:$E$229</definedName>
     <definedName name="BasicUncFact">#REF!</definedName>
     <definedName name="Country">#REF!</definedName>
     <definedName name="Crop">#REF!</definedName>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="980">
   <si>
     <t>Country</t>
   </si>
@@ -3126,42 +3126,6 @@
   </si>
   <si>
     <t>ratio_manureliquid_pig</t>
-  </si>
-  <si>
-    <t>ratio_composttype_</t>
-  </si>
-  <si>
-    <t>ratio_sewagesludge_</t>
-  </si>
-  <si>
-    <t>DO NOT DELETE</t>
-  </si>
-  <si>
-    <t>part_herbicides_</t>
-  </si>
-  <si>
-    <t>part_fungicides_</t>
-  </si>
-  <si>
-    <t>part_insecticides_</t>
-  </si>
-  <si>
-    <t>ratio_plantprotection_</t>
-  </si>
-  <si>
-    <t>ratio_soilcultivation_</t>
-  </si>
-  <si>
-    <t>ratio_sowingplanting_</t>
-  </si>
-  <si>
-    <t>ratio_fertilisation_</t>
-  </si>
-  <si>
-    <t>ratio_harvesting_</t>
-  </si>
-  <si>
-    <t>ratio_otherworkprocesses_</t>
   </si>
   <si>
     <t>utilities_wateruse_ground</t>
@@ -5271,7 +5235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5950,158 +5914,12 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7292,13 +7110,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7330,13 +7148,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7368,13 +7186,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>150567</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>430658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7412,13 +7230,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>150567</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>427483</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7456,13 +7274,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>150567</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>430658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7739,13 +7557,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7777,13 +7595,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7815,13 +7633,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>150567</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>2033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7859,13 +7677,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>150567</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>427483</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7903,13 +7721,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>150567</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559000</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>2033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7996,10 +7814,119 @@
     <sheetNames>
       <sheetName val="Calc"/>
       <sheetName val="DataIn"/>
+      <sheetName val="Revisions"/>
+      <sheetName val="ResOut"/>
+      <sheetName val="Tables"/>
+      <sheetName val="Input"/>
+      <sheetName val="Pesticide_names"/>
+      <sheetName val="Docu"/>
+      <sheetName val="Output"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="3">
+          <cell r="D3">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>40543</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>40908</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>-1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>-1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="D3">
+            <v>1000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="20">
+          <cell r="A20">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="9">
+          <cell r="D9">
+            <v>820</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="3">
+          <cell r="D3">
+            <v>1000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8995,25 +8922,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="313"/>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="313"/>
-      <c r="G5" s="313"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="314" t="s">
+      <c r="B6" s="258" t="s">
         <v>791</v>
       </c>
-      <c r="C6" s="314"/>
-      <c r="D6" s="314"/>
-      <c r="E6" s="314"/>
-      <c r="F6" s="314"/>
-      <c r="G6" s="314"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -9030,14 +8957,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="315" t="s">
+      <c r="B8" s="259" t="s">
         <v>766</v>
       </c>
-      <c r="C8" s="315"/>
-      <c r="D8" s="315"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="315"/>
-      <c r="G8" s="315"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="259"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -9054,14 +8981,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="316" t="s">
+      <c r="B10" s="260" t="s">
         <v>831</v>
       </c>
-      <c r="C10" s="316"/>
-      <c r="D10" s="316"/>
-      <c r="E10" s="316"/>
-      <c r="F10" s="316"/>
-      <c r="G10" s="316"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="260"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -9069,10 +8996,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="316"/>
-      <c r="E11" s="316"/>
-      <c r="F11" s="316"/>
-      <c r="G11" s="316"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -9082,12 +9009,12 @@
         <v>767</v>
       </c>
       <c r="C12" s="174"/>
-      <c r="D12" s="312" t="s">
+      <c r="D12" s="256" t="s">
         <v>768</v>
       </c>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
-      <c r="G12" s="312"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
       <c r="H12" s="156"/>
       <c r="I12" s="156"/>
     </row>
@@ -9097,12 +9024,12 @@
         <v>796</v>
       </c>
       <c r="C13" s="174"/>
-      <c r="D13" s="312" t="s">
+      <c r="D13" s="256" t="s">
         <v>798</v>
       </c>
-      <c r="E13" s="312"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="312"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
       <c r="H13" s="156"/>
       <c r="I13" s="156"/>
     </row>
@@ -9112,12 +9039,12 @@
         <v>797</v>
       </c>
       <c r="C14" s="174"/>
-      <c r="D14" s="312" t="s">
+      <c r="D14" s="256" t="s">
         <v>799</v>
       </c>
-      <c r="E14" s="312"/>
-      <c r="F14" s="312"/>
-      <c r="G14" s="312"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
       <c r="H14" s="156"/>
       <c r="I14" s="156"/>
     </row>
@@ -9125,10 +9052,10 @@
       <c r="A15" s="154"/>
       <c r="B15" s="175"/>
       <c r="C15" s="174"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="312"/>
-      <c r="G15" s="312"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
       <c r="H15" s="156"/>
       <c r="I15" s="156"/>
     </row>
@@ -9145,23 +9072,23 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="318" t="s">
+      <c r="B17" s="262" t="s">
         <v>769</v>
       </c>
-      <c r="C17" s="318"/>
-      <c r="D17" s="318"/>
-      <c r="E17" s="318"/>
-      <c r="F17" s="318"/>
-      <c r="G17" s="318"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="319" t="s">
+      <c r="B18" s="263" t="s">
         <v>770</v>
       </c>
-      <c r="C18" s="319"/>
+      <c r="C18" s="263"/>
       <c r="D18" s="180" t="s">
         <v>771</v>
       </c>
@@ -9179,10 +9106,10 @@
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="320" t="s">
+      <c r="B19" s="264" t="s">
         <v>775</v>
       </c>
-      <c r="C19" s="320"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="166" t="s">
         <v>776</v>
       </c>
@@ -9221,10 +9148,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="317" t="s">
+      <c r="B21" s="261" t="s">
         <v>778</v>
       </c>
-      <c r="C21" s="317"/>
+      <c r="C21" s="261"/>
       <c r="D21" s="167" t="s">
         <v>779</v>
       </c>
@@ -9242,10 +9169,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="317" t="s">
+      <c r="B22" s="261" t="s">
         <v>782</v>
       </c>
-      <c r="C22" s="317"/>
+      <c r="C22" s="261"/>
       <c r="D22" s="167" t="s">
         <v>783</v>
       </c>
@@ -9396,12 +9323,12 @@
     <tabColor rgb="FF9DAFCA"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z256"/>
+  <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="A214" sqref="A214:XFD214"/>
+      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -9431,12 +9358,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1">
-      <c r="B2" s="321" t="s">
+      <c r="B2" s="265" t="s">
         <v>800</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
       <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1" ht="15.95" customHeight="1">
@@ -9451,10 +9378,10 @@
       <c r="C4" s="196" t="s">
         <v>801</v>
       </c>
-      <c r="D4" s="322" t="s">
+      <c r="D4" s="266" t="s">
         <v>833</v>
       </c>
-      <c r="E4" s="322"/>
+      <c r="E4" s="266"/>
       <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1" ht="30.95" customHeight="1">
@@ -9462,10 +9389,10 @@
       <c r="C5" s="196" t="s">
         <v>802</v>
       </c>
-      <c r="D5" s="323" t="s">
+      <c r="D5" s="267" t="s">
         <v>832</v>
       </c>
-      <c r="E5" s="323"/>
+      <c r="E5" s="267"/>
       <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:6" ht="8.1" customHeight="1">
@@ -9580,7 +9507,7 @@
       <c r="E14" s="213"/>
       <c r="F14" s="64"/>
     </row>
-    <row r="15" spans="1:6" outlineLevel="1">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A15" s="153">
         <v>401</v>
       </c>
@@ -9595,7 +9522,7 @@
       </c>
       <c r="F15" s="64"/>
     </row>
-    <row r="16" spans="1:6" outlineLevel="1">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A16" s="153">
         <v>662</v>
       </c>
@@ -9610,7 +9537,7 @@
       </c>
       <c r="F16" s="64"/>
     </row>
-    <row r="17" spans="1:6" outlineLevel="1">
+    <row r="17" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A17" s="153">
         <v>493</v>
       </c>
@@ -9625,7 +9552,7 @@
       </c>
       <c r="F17" s="64"/>
     </row>
-    <row r="18" spans="1:6" outlineLevel="1">
+    <row r="18" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A18" s="153">
         <v>403</v>
       </c>
@@ -9640,7 +9567,7 @@
       </c>
       <c r="F18" s="64"/>
     </row>
-    <row r="19" spans="1:6" outlineLevel="1">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A19" s="153">
         <v>201</v>
       </c>
@@ -9655,7 +9582,7 @@
       </c>
       <c r="F19" s="64"/>
     </row>
-    <row r="20" spans="1:6" outlineLevel="1">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A20" s="153">
         <v>202</v>
       </c>
@@ -9670,7 +9597,7 @@
       </c>
       <c r="F20" s="64"/>
     </row>
-    <row r="21" spans="1:6" outlineLevel="1">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A21" s="153">
         <v>203</v>
       </c>
@@ -9685,7 +9612,7 @@
       </c>
       <c r="F21" s="64"/>
     </row>
-    <row r="22" spans="1:6" outlineLevel="1">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A22" s="153">
         <v>205</v>
       </c>
@@ -9700,7 +9627,7 @@
       </c>
       <c r="F22" s="64"/>
     </row>
-    <row r="23" spans="1:6" outlineLevel="1">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A23" s="153">
         <v>206</v>
       </c>
@@ -9715,7 +9642,7 @@
       </c>
       <c r="F23" s="64"/>
     </row>
-    <row r="24" spans="1:6" outlineLevel="1">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A24" s="153">
         <v>304</v>
       </c>
@@ -9730,7 +9657,7 @@
       </c>
       <c r="F24" s="64"/>
     </row>
-    <row r="25" spans="1:6" outlineLevel="1">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A25" s="153">
         <v>400</v>
       </c>
@@ -9745,7 +9672,7 @@
       </c>
       <c r="F25" s="64"/>
     </row>
-    <row r="26" spans="1:6" outlineLevel="1">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A26" s="153">
         <v>402</v>
       </c>
@@ -9760,7 +9687,7 @@
       </c>
       <c r="F26" s="64"/>
     </row>
-    <row r="27" spans="1:6" outlineLevel="1">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A27" s="153">
         <v>404</v>
       </c>
@@ -9775,7 +9702,7 @@
       </c>
       <c r="F27" s="64"/>
     </row>
-    <row r="28" spans="1:6" outlineLevel="1">
+    <row r="28" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A28" s="153">
         <v>490</v>
       </c>
@@ -9790,7 +9717,7 @@
       </c>
       <c r="F28" s="64"/>
     </row>
-    <row r="29" spans="1:6" outlineLevel="1">
+    <row r="29" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A29" s="153">
         <v>491</v>
       </c>
@@ -9805,7 +9732,7 @@
       </c>
       <c r="F29" s="64"/>
     </row>
-    <row r="30" spans="1:6" outlineLevel="1">
+    <row r="30" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A30" s="153">
         <v>492</v>
       </c>
@@ -9820,7 +9747,7 @@
       </c>
       <c r="F30" s="64"/>
     </row>
-    <row r="31" spans="1:6" outlineLevel="1">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A31" s="153">
         <v>494</v>
       </c>
@@ -9835,7 +9762,7 @@
       </c>
       <c r="F31" s="64"/>
     </row>
-    <row r="32" spans="1:6" outlineLevel="1">
+    <row r="32" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A32" s="153">
         <v>495</v>
       </c>
@@ -9850,7 +9777,7 @@
       </c>
       <c r="F32" s="64"/>
     </row>
-    <row r="33" spans="1:6" outlineLevel="1">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A33" s="153">
         <v>496</v>
       </c>
@@ -9865,7 +9792,7 @@
       </c>
       <c r="F33" s="64"/>
     </row>
-    <row r="34" spans="1:6" outlineLevel="1">
+    <row r="34" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A34" s="153">
         <v>497</v>
       </c>
@@ -9880,7 +9807,7 @@
       </c>
       <c r="F34" s="64"/>
     </row>
-    <row r="35" spans="1:6" outlineLevel="1">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A35" s="153">
         <v>498</v>
       </c>
@@ -9895,7 +9822,7 @@
       </c>
       <c r="F35" s="64"/>
     </row>
-    <row r="36" spans="1:6" outlineLevel="1">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A36" s="153">
         <v>499</v>
       </c>
@@ -9910,7 +9837,7 @@
       </c>
       <c r="F36" s="64"/>
     </row>
-    <row r="37" spans="1:6" outlineLevel="1">
+    <row r="37" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A37" s="153">
         <v>501</v>
       </c>
@@ -9925,7 +9852,7 @@
       </c>
       <c r="F37" s="64"/>
     </row>
-    <row r="38" spans="1:6" outlineLevel="1">
+    <row r="38" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A38" s="153">
         <v>502</v>
       </c>
@@ -9940,7 +9867,7 @@
       </c>
       <c r="F38" s="64"/>
     </row>
-    <row r="39" spans="1:6" outlineLevel="1">
+    <row r="39" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A39" s="153">
         <v>601</v>
       </c>
@@ -9955,7 +9882,7 @@
       </c>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="1:6" outlineLevel="1">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A40" s="153">
         <v>602</v>
       </c>
@@ -9970,7 +9897,7 @@
       </c>
       <c r="F40" s="64"/>
     </row>
-    <row r="41" spans="1:6" outlineLevel="1">
+    <row r="41" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A41" s="153">
         <v>603</v>
       </c>
@@ -9985,7 +9912,7 @@
       </c>
       <c r="F41" s="64"/>
     </row>
-    <row r="42" spans="1:6" outlineLevel="1">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A42" s="153">
         <v>611</v>
       </c>
@@ -10000,7 +9927,7 @@
       </c>
       <c r="F42" s="64"/>
     </row>
-    <row r="43" spans="1:6" outlineLevel="1">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A43" s="153">
         <v>663</v>
       </c>
@@ -10015,7 +9942,7 @@
       </c>
       <c r="F43" s="64"/>
     </row>
-    <row r="44" spans="1:6" outlineLevel="1">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A44" s="153">
         <v>692</v>
       </c>
@@ -10030,7 +9957,7 @@
       </c>
       <c r="F44" s="64"/>
     </row>
-    <row r="45" spans="1:6" outlineLevel="1">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A45" s="153">
         <v>722</v>
       </c>
@@ -10045,7 +9972,7 @@
       </c>
       <c r="F45" s="64"/>
     </row>
-    <row r="46" spans="1:6" outlineLevel="1">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A46" s="153">
         <v>724</v>
       </c>
@@ -10060,7 +9987,7 @@
       </c>
       <c r="F46" s="64"/>
     </row>
-    <row r="47" spans="1:6" outlineLevel="1">
+    <row r="47" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A47" s="153">
         <v>725</v>
       </c>
@@ -10075,7 +10002,7 @@
       </c>
       <c r="F47" s="64"/>
     </row>
-    <row r="48" spans="1:6" outlineLevel="1">
+    <row r="48" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A48" s="153">
         <v>726</v>
       </c>
@@ -10090,7 +10017,7 @@
       </c>
       <c r="F48" s="64"/>
     </row>
-    <row r="49" spans="1:6" outlineLevel="1">
+    <row r="49" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A49" s="153">
         <v>727</v>
       </c>
@@ -10105,7 +10032,7 @@
       </c>
       <c r="F49" s="64"/>
     </row>
-    <row r="50" spans="1:6" outlineLevel="1">
+    <row r="50" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A50" s="153">
         <v>751</v>
       </c>
@@ -10120,7 +10047,7 @@
       </c>
       <c r="F50" s="64"/>
     </row>
-    <row r="51" spans="1:6" outlineLevel="1">
+    <row r="51" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A51" s="153">
         <v>302</v>
       </c>
@@ -10135,7 +10062,7 @@
       </c>
       <c r="F51" s="64"/>
     </row>
-    <row r="52" spans="1:6" outlineLevel="1">
+    <row r="52" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A52" s="153">
         <v>756</v>
       </c>
@@ -10150,7 +10077,7 @@
       </c>
       <c r="F52" s="64"/>
     </row>
-    <row r="53" spans="1:6" outlineLevel="1">
+    <row r="53" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A53" s="153">
         <v>757</v>
       </c>
@@ -10165,7 +10092,7 @@
       </c>
       <c r="F53" s="64"/>
     </row>
-    <row r="54" spans="1:6" outlineLevel="1">
+    <row r="54" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A54" s="153">
         <v>758</v>
       </c>
@@ -10180,7 +10107,7 @@
       </c>
       <c r="F54" s="64"/>
     </row>
-    <row r="55" spans="1:6" outlineLevel="1">
+    <row r="55" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A55" s="153">
         <v>759</v>
       </c>
@@ -10195,7 +10122,7 @@
       </c>
       <c r="F55" s="64"/>
     </row>
-    <row r="56" spans="1:6" outlineLevel="1">
+    <row r="56" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A56" s="153">
         <v>760</v>
       </c>
@@ -10210,7 +10137,7 @@
       </c>
       <c r="F56" s="64"/>
     </row>
-    <row r="57" spans="1:6" outlineLevel="1">
+    <row r="57" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A57" s="153">
         <v>761</v>
       </c>
@@ -10225,7 +10152,7 @@
       </c>
       <c r="F57" s="64"/>
     </row>
-    <row r="58" spans="1:6" outlineLevel="1">
+    <row r="58" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A58" s="153">
         <v>762</v>
       </c>
@@ -10240,7 +10167,7 @@
       </c>
       <c r="F58" s="64"/>
     </row>
-    <row r="59" spans="1:6" outlineLevel="1">
+    <row r="59" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A59" s="153">
         <v>208</v>
       </c>
@@ -10255,7 +10182,7 @@
       </c>
       <c r="F59" s="64"/>
     </row>
-    <row r="60" spans="1:6" outlineLevel="1">
+    <row r="60" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A60" s="153">
         <v>5616</v>
       </c>
@@ -10270,7 +10197,7 @@
       </c>
       <c r="F60" s="64"/>
     </row>
-    <row r="61" spans="1:6" outlineLevel="1">
+    <row r="61" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A61" s="153">
         <v>5615</v>
       </c>
@@ -10285,7 +10212,7 @@
       </c>
       <c r="F61" s="64"/>
     </row>
-    <row r="62" spans="1:6" outlineLevel="1">
+    <row r="62" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A62" s="153">
         <v>5619</v>
       </c>
@@ -10300,7 +10227,7 @@
       </c>
       <c r="F62" s="64"/>
     </row>
-    <row r="63" spans="1:6" outlineLevel="1">
+    <row r="63" spans="1:6" outlineLevel="1" collapsed="1">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
         <v>869</v>
@@ -11558,132 +11485,142 @@
       </c>
       <c r="F149" s="65"/>
     </row>
-    <row r="150" spans="1:6" s="260" customFormat="1" ht="15.75" hidden="1" outlineLevel="2">
-      <c r="B150" s="262"/>
-      <c r="C150" s="264"/>
-      <c r="D150" s="263"/>
-      <c r="E150" s="268"/>
-      <c r="F150" s="266"/>
-    </row>
-    <row r="151" spans="1:6" outlineLevel="1" collapsed="1">
+    <row r="150" spans="1:6" outlineLevel="1">
+      <c r="B150" s="127"/>
+      <c r="C150" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="D150" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="215" t="s">
+        <v>100</v>
+      </c>
+      <c r="F150" s="65"/>
+    </row>
+    <row r="151" spans="1:6" outlineLevel="1">
       <c r="B151" s="127"/>
-      <c r="C151" s="246" t="s">
+      <c r="C151" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="D151" s="132" t="s">
+      <c r="D151" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E151" s="215" t="s">
-        <v>100</v>
+      <c r="E151" s="220" t="s">
+        <v>808</v>
       </c>
       <c r="F151" s="65"/>
     </row>
-    <row r="152" spans="1:6" outlineLevel="1">
-      <c r="B152" s="127"/>
-      <c r="C152" s="247" t="s">
-        <v>236</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>22</v>
+    <row r="152" spans="1:6" ht="15.75" outlineLevel="1">
+      <c r="A152" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C152" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E152" s="220" t="s">
         <v>808</v>
       </c>
       <c r="F152" s="65"/>
     </row>
-    <row r="153" spans="1:6" ht="15.75" outlineLevel="1">
-      <c r="A153" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C153" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>27</v>
+    <row r="153" spans="1:6" outlineLevel="1">
+      <c r="C153" s="150" t="s">
+        <v>371</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="E153" s="220" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F153" s="65"/>
     </row>
-    <row r="154" spans="1:6" s="260" customFormat="1" ht="15.75" hidden="1" outlineLevel="2">
-      <c r="B154" s="262"/>
-      <c r="C154" s="264"/>
-      <c r="D154" s="263"/>
-      <c r="E154" s="269"/>
-      <c r="F154" s="266"/>
-    </row>
-    <row r="155" spans="1:6" outlineLevel="1" collapsed="1">
-      <c r="C155" s="150" t="s">
+    <row r="154" spans="1:6" outlineLevel="1">
+      <c r="C154" s="248" t="s">
         <v>371</v>
       </c>
-      <c r="D155" s="20" t="s">
+      <c r="D154" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E155" s="220" t="s">
+      <c r="E154" s="220" t="s">
         <v>807</v>
       </c>
-      <c r="F155" s="65"/>
-    </row>
-    <row r="156" spans="1:6" outlineLevel="1">
-      <c r="C156" s="248" t="s">
-        <v>371</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="220" t="s">
-        <v>807</v>
-      </c>
-      <c r="F156" s="65"/>
-    </row>
-    <row r="157" spans="1:6" ht="35.1" customHeight="1">
-      <c r="B157" s="56"/>
-      <c r="C157" s="57" t="s">
+      <c r="F154" s="65"/>
+    </row>
+    <row r="155" spans="1:6" ht="35.1" customHeight="1">
+      <c r="B155" s="56"/>
+      <c r="C155" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D157" s="232" t="s">
+      <c r="D155" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="232" t="s">
+      <c r="E155" s="232" t="s">
         <v>803</v>
       </c>
+      <c r="F155" s="64"/>
+    </row>
+    <row r="156" spans="1:6" ht="30" outlineLevel="1">
+      <c r="A156" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" s="222" t="s">
+        <v>906</v>
+      </c>
+      <c r="F156" s="64"/>
+    </row>
+    <row r="157" spans="1:6" ht="21">
+      <c r="B157" s="58"/>
+      <c r="C157" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="59" t="s">
+        <v>803</v>
+      </c>
       <c r="F157" s="64"/>
     </row>
-    <row r="158" spans="1:6" ht="30" outlineLevel="1">
+    <row r="158" spans="1:6" outlineLevel="1">
       <c r="A158" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>97</v>
+        <v>316</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>812</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E158" s="222" t="s">
-        <v>906</v>
+      <c r="E158" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F158" s="64"/>
     </row>
-    <row r="159" spans="1:6" ht="21">
-      <c r="B159" s="58"/>
-      <c r="C159" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D159" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="59" t="s">
-        <v>803</v>
+    <row r="159" spans="1:6" outlineLevel="1">
+      <c r="C159" s="150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F159" s="64"/>
     </row>
     <row r="160" spans="1:6" outlineLevel="1">
-      <c r="A160" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>812</v>
+      <c r="C160" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>53</v>
@@ -11693,91 +11630,96 @@
       </c>
       <c r="F160" s="64"/>
     </row>
-    <row r="161" spans="1:6" s="273" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="B161" s="275"/>
-      <c r="C161" s="276"/>
-      <c r="D161" s="274"/>
-      <c r="E161" s="289"/>
-      <c r="F161" s="278"/>
-    </row>
-    <row r="162" spans="1:6" outlineLevel="1" collapsed="1">
-      <c r="C162" s="150" t="s">
+    <row r="161" spans="1:6" outlineLevel="1">
+      <c r="C161" s="150" t="s">
         <v>370</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F161" s="64"/>
+    </row>
+    <row r="162" spans="1:6" outlineLevel="1">
+      <c r="C162" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E162" s="223" t="s">
-        <v>100</v>
-      </c>
+      <c r="E162" s="223"/>
       <c r="F162" s="64"/>
     </row>
     <row r="163" spans="1:6" outlineLevel="1">
-      <c r="C163" s="150" t="s">
-        <v>370</v>
+      <c r="C163" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E163" s="223" t="s">
-        <v>100</v>
-      </c>
+      <c r="E163" s="223"/>
       <c r="F163" s="64"/>
     </row>
-    <row r="164" spans="1:6" outlineLevel="1">
-      <c r="C164" s="150" t="s">
-        <v>370</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E164" s="223" t="s">
-        <v>100</v>
+    <row r="164" spans="1:6" ht="21">
+      <c r="A164" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B164" s="58"/>
+      <c r="C164" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="59" t="s">
+        <v>803</v>
       </c>
       <c r="F164" s="64"/>
     </row>
     <row r="165" spans="1:6" outlineLevel="1">
-      <c r="C165" s="46" t="s">
-        <v>15</v>
+      <c r="A165" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>813</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E165" s="223"/>
+      <c r="E165" s="223" t="s">
+        <v>100</v>
+      </c>
       <c r="F165" s="64"/>
     </row>
     <row r="166" spans="1:6" outlineLevel="1">
-      <c r="C166" s="46" t="s">
-        <v>15</v>
+      <c r="C166" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E166" s="223"/>
+      <c r="E166" s="223" t="s">
+        <v>100</v>
+      </c>
       <c r="F166" s="64"/>
     </row>
-    <row r="167" spans="1:6" ht="21">
-      <c r="A167" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B167" s="58"/>
-      <c r="C167" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="59" t="s">
-        <v>803</v>
+    <row r="167" spans="1:6" outlineLevel="1">
+      <c r="C167" s="150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E167" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F167" s="64"/>
     </row>
     <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>813</v>
+      <c r="C168" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>53</v>
@@ -11787,40 +11729,48 @@
       </c>
       <c r="F168" s="64"/>
     </row>
-    <row r="169" spans="1:6" s="273" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="B169" s="275"/>
-      <c r="C169" s="276"/>
-      <c r="D169" s="274"/>
-      <c r="E169" s="289"/>
-      <c r="F169" s="278"/>
-    </row>
-    <row r="170" spans="1:6" outlineLevel="1" collapsed="1">
-      <c r="C170" s="150" t="s">
-        <v>370</v>
+    <row r="169" spans="1:6" outlineLevel="1">
+      <c r="C169" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" s="223"/>
+      <c r="F169" s="64"/>
+    </row>
+    <row r="170" spans="1:6" outlineLevel="1">
+      <c r="C170" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E170" s="223" t="s">
-        <v>100</v>
-      </c>
+      <c r="E170" s="223"/>
       <c r="F170" s="64"/>
     </row>
-    <row r="171" spans="1:6" outlineLevel="1">
-      <c r="C171" s="150" t="s">
-        <v>370</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E171" s="223" t="s">
-        <v>100</v>
+    <row r="171" spans="1:6" ht="21">
+      <c r="A171" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" s="58"/>
+      <c r="C171" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="59" t="s">
+        <v>803</v>
       </c>
       <c r="F171" s="64"/>
     </row>
     <row r="172" spans="1:6" outlineLevel="1">
-      <c r="C172" s="150" t="s">
-        <v>370</v>
+      <c r="A172" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>814</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>53</v>
@@ -11831,403 +11781,456 @@
       <c r="F172" s="64"/>
     </row>
     <row r="173" spans="1:6" outlineLevel="1">
-      <c r="C173" s="46" t="s">
-        <v>15</v>
+      <c r="C173" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E173" s="223"/>
+      <c r="E173" s="223" t="s">
+        <v>100</v>
+      </c>
       <c r="F173" s="64"/>
     </row>
     <row r="174" spans="1:6" outlineLevel="1">
-      <c r="C174" s="46" t="s">
-        <v>15</v>
+      <c r="C174" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E174" s="223"/>
+      <c r="E174" s="223" t="s">
+        <v>100</v>
+      </c>
       <c r="F174" s="64"/>
     </row>
-    <row r="175" spans="1:6" ht="21">
-      <c r="A175" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B175" s="58"/>
-      <c r="C175" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="59" t="s">
-        <v>803</v>
+    <row r="175" spans="1:6" outlineLevel="1">
+      <c r="C175" s="150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F175" s="64"/>
     </row>
     <row r="176" spans="1:6" outlineLevel="1">
-      <c r="A176" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C176" s="30" t="s">
-        <v>814</v>
+      <c r="C176" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E176" s="223" t="s">
-        <v>100</v>
-      </c>
+      <c r="E176" s="223"/>
       <c r="F176" s="64"/>
     </row>
-    <row r="177" spans="1:11" s="273" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="B177" s="275"/>
-      <c r="C177" s="276"/>
-      <c r="D177" s="274"/>
-      <c r="E177" s="289"/>
-      <c r="F177" s="278"/>
-    </row>
-    <row r="178" spans="1:11" outlineLevel="1" collapsed="1">
-      <c r="C178" s="150" t="s">
-        <v>370</v>
-      </c>
-      <c r="D178" s="7" t="s">
+    <row r="177" spans="1:11" outlineLevel="1">
+      <c r="C177" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E178" s="223" t="s">
-        <v>100</v>
+      <c r="E177" s="223"/>
+      <c r="F177" s="64"/>
+    </row>
+    <row r="178" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B178" s="58"/>
+      <c r="C178" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="59" t="s">
+        <v>803</v>
       </c>
       <c r="F178" s="64"/>
     </row>
     <row r="179" spans="1:11" outlineLevel="1">
-      <c r="C179" s="150" t="s">
-        <v>370</v>
+      <c r="A179" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C179" s="49" t="s">
+        <v>107</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E179" s="223" t="s">
+        <v>27</v>
+      </c>
+      <c r="E179" s="224" t="s">
         <v>100</v>
       </c>
       <c r="F179" s="64"/>
     </row>
-    <row r="180" spans="1:11" outlineLevel="1">
-      <c r="C180" s="150" t="s">
-        <v>370</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E180" s="223" t="s">
-        <v>100</v>
+    <row r="180" spans="1:11" ht="35.1" customHeight="1">
+      <c r="A180" s="115"/>
+      <c r="B180" s="116"/>
+      <c r="C180" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="231" t="s">
+        <v>803</v>
       </c>
       <c r="F180" s="64"/>
     </row>
-    <row r="181" spans="1:11" outlineLevel="1">
-      <c r="C181" s="46" t="s">
-        <v>15</v>
+    <row r="181" spans="1:11" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A181" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="5" t="s">
+        <v>897</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E181" s="223"/>
-      <c r="F181" s="64"/>
-    </row>
-    <row r="182" spans="1:11" outlineLevel="1">
-      <c r="C182" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E182" s="223"/>
-      <c r="F182" s="64"/>
-    </row>
-    <row r="183" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" s="214" t="s">
+        <v>100</v>
+      </c>
+      <c r="F181" s="84"/>
+      <c r="G181" s="90"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="90"/>
+      <c r="J181" s="90"/>
+      <c r="K181" s="91"/>
+    </row>
+    <row r="182" spans="1:11" s="194" customFormat="1" ht="21">
+      <c r="B182" s="117"/>
+      <c r="C182" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="D182" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="118" t="s">
+        <v>803</v>
+      </c>
+      <c r="F182" s="119"/>
+    </row>
+    <row r="183" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A183" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="B183" s="12"/>
+      <c r="C183" s="29" t="s">
+        <v>898</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F183" s="84"/>
+      <c r="G183" s="85"/>
+      <c r="H183" s="93"/>
+      <c r="I183" s="92"/>
+      <c r="J183" s="90"/>
+      <c r="K183" s="89"/>
+    </row>
+    <row r="184" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B184" s="12"/>
+      <c r="C184" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="215" t="s">
+        <v>815</v>
+      </c>
+      <c r="F184" s="84"/>
+      <c r="G184" s="85"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="92"/>
+      <c r="J184" s="90"/>
+      <c r="K184" s="94"/>
+    </row>
+    <row r="185" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B185" s="12"/>
+      <c r="C185" s="128" t="s">
+        <v>235</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="215" t="s">
+        <v>815</v>
+      </c>
+      <c r="F185" s="84"/>
+      <c r="G185" s="85"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="92"/>
+      <c r="J185" s="90"/>
+      <c r="K185" s="94"/>
+    </row>
+    <row r="186" spans="1:11" s="194" customFormat="1" ht="21">
+      <c r="A186" s="194" t="s">
         <v>284</v>
       </c>
-      <c r="B183" s="58"/>
-      <c r="C183" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D183" s="59" t="s">
+      <c r="B186" s="117"/>
+      <c r="C186" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="D186" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E183" s="59" t="s">
+      <c r="E186" s="118" t="s">
         <v>803</v>
       </c>
-      <c r="F183" s="64"/>
-    </row>
-    <row r="184" spans="1:11" outlineLevel="1">
-      <c r="A184" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C184" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D184" s="7" t="s">
+      <c r="F186" s="119"/>
+    </row>
+    <row r="187" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A187" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="B187" s="12"/>
+      <c r="C187" s="29" t="s">
+        <v>900</v>
+      </c>
+      <c r="D187" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E184" s="224" t="s">
-        <v>100</v>
-      </c>
-      <c r="F184" s="64"/>
-    </row>
-    <row r="185" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A185" s="115"/>
-      <c r="B185" s="116"/>
-      <c r="C185" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D185" s="231" t="s">
-        <v>8</v>
-      </c>
-      <c r="E185" s="231" t="s">
-        <v>803</v>
-      </c>
-      <c r="F185" s="64"/>
-    </row>
-    <row r="186" spans="1:11" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A186" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B186" s="7"/>
-      <c r="C186" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E186" s="214" t="s">
-        <v>100</v>
-      </c>
-      <c r="F186" s="84"/>
-      <c r="G186" s="90"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="90"/>
-      <c r="J186" s="90"/>
-      <c r="K186" s="91"/>
-    </row>
-    <row r="187" spans="1:11" s="194" customFormat="1" ht="21">
-      <c r="B187" s="117"/>
-      <c r="C187" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="D187" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" s="118" t="s">
-        <v>803</v>
-      </c>
-      <c r="F187" s="119"/>
+      <c r="E187" s="225" t="s">
+        <v>100</v>
+      </c>
+      <c r="F187" s="84"/>
+      <c r="G187" s="85"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="92"/>
+      <c r="J187" s="90"/>
+      <c r="K187" s="94"/>
     </row>
     <row r="188" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A188" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="B188" s="12"/>
-      <c r="C188" s="29" t="s">
-        <v>898</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E188" s="223" t="s">
-        <v>100</v>
+      <c r="B188" s="127"/>
+      <c r="C188" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="215" t="s">
+        <v>816</v>
       </c>
       <c r="F188" s="84"/>
       <c r="G188" s="85"/>
-      <c r="H188" s="93"/>
+      <c r="H188" s="12"/>
       <c r="I188" s="92"/>
       <c r="J188" s="90"/>
-      <c r="K188" s="89"/>
-    </row>
-    <row r="189" spans="1:11" s="302" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B189" s="297"/>
-      <c r="C189" s="298"/>
-      <c r="D189" s="297"/>
-      <c r="E189" s="311"/>
-      <c r="F189" s="300"/>
-      <c r="G189" s="301"/>
-      <c r="H189" s="306"/>
-      <c r="I189" s="305"/>
-      <c r="J189" s="304"/>
-      <c r="K189" s="303"/>
-    </row>
-    <row r="190" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B190" s="12"/>
-      <c r="C190" s="129" t="s">
+      <c r="K188" s="94"/>
+    </row>
+    <row r="189" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B189" s="12"/>
+      <c r="C189" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="D190" s="20" t="s">
+      <c r="D189" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E190" s="215" t="s">
-        <v>815</v>
-      </c>
-      <c r="F190" s="84"/>
-      <c r="G190" s="85"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="92"/>
-      <c r="J190" s="90"/>
-      <c r="K190" s="94"/>
+      <c r="E189" s="215" t="s">
+        <v>816</v>
+      </c>
+      <c r="F189" s="84"/>
+      <c r="G189" s="85"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="92"/>
+      <c r="J189" s="90"/>
+      <c r="K189" s="94"/>
+    </row>
+    <row r="190" spans="1:11" s="194" customFormat="1" ht="21">
+      <c r="A190" s="195" t="s">
+        <v>284</v>
+      </c>
+      <c r="B190" s="117"/>
+      <c r="C190" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D190" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="118" t="s">
+        <v>803</v>
+      </c>
+      <c r="F190" s="119"/>
     </row>
     <row r="191" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A191" s="87" t="s">
+        <v>325</v>
+      </c>
       <c r="B191" s="12"/>
-      <c r="C191" s="128" t="s">
-        <v>235</v>
-      </c>
-      <c r="D191" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191" s="215" t="s">
-        <v>815</v>
+      <c r="C191" s="134" t="s">
+        <v>901</v>
+      </c>
+      <c r="D191" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F191" s="84"/>
-      <c r="G191" s="85"/>
+      <c r="G191" s="3"/>
       <c r="H191" s="12"/>
       <c r="I191" s="92"/>
       <c r="J191" s="90"/>
       <c r="K191" s="94"/>
     </row>
-    <row r="192" spans="1:11" s="194" customFormat="1" ht="21">
-      <c r="A192" s="194" t="s">
-        <v>284</v>
-      </c>
-      <c r="B192" s="117"/>
-      <c r="C192" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="D192" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" s="118" t="s">
-        <v>803</v>
-      </c>
-      <c r="F192" s="119"/>
+    <row r="192" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B192" s="12"/>
+      <c r="C192" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D192" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="215" t="s">
+        <v>817</v>
+      </c>
+      <c r="F192" s="84"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="92"/>
+      <c r="J192" s="90"/>
+      <c r="K192" s="94"/>
     </row>
     <row r="193" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A193" s="87" t="s">
-        <v>324</v>
-      </c>
       <c r="B193" s="12"/>
-      <c r="C193" s="29" t="s">
-        <v>900</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E193" s="225" t="s">
-        <v>100</v>
+      <c r="C193" s="128" t="s">
+        <v>235</v>
+      </c>
+      <c r="D193" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="215" t="s">
+        <v>817</v>
       </c>
       <c r="F193" s="84"/>
-      <c r="G193" s="85"/>
+      <c r="G193" s="3"/>
       <c r="H193" s="12"/>
       <c r="I193" s="92"/>
       <c r="J193" s="90"/>
       <c r="K193" s="94"/>
     </row>
-    <row r="194" spans="1:12" s="302" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B194" s="297"/>
-      <c r="C194" s="298"/>
-      <c r="D194" s="297"/>
-      <c r="E194" s="311"/>
-      <c r="F194" s="300"/>
-      <c r="G194" s="301"/>
-      <c r="H194" s="297"/>
-      <c r="I194" s="305"/>
-      <c r="J194" s="304"/>
-      <c r="K194" s="307"/>
-    </row>
-    <row r="195" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B195" s="127"/>
-      <c r="C195" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="D195" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E195" s="215" t="s">
-        <v>816</v>
+    <row r="194" spans="1:12" s="194" customFormat="1" ht="21">
+      <c r="A194" s="195" t="s">
+        <v>284</v>
+      </c>
+      <c r="B194" s="117"/>
+      <c r="C194" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="D194" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="118" t="s">
+        <v>803</v>
+      </c>
+      <c r="F194" s="119"/>
+    </row>
+    <row r="195" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A195" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="B195" s="12"/>
+      <c r="C195" s="29" t="s">
+        <v>902</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F195" s="84"/>
-      <c r="G195" s="85"/>
+      <c r="G195" s="3"/>
       <c r="H195" s="12"/>
       <c r="I195" s="92"/>
       <c r="J195" s="90"/>
       <c r="K195" s="94"/>
+      <c r="L195" s="96"/>
     </row>
     <row r="196" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B196" s="12"/>
-      <c r="C196" s="128" t="s">
+      <c r="C196" s="131" t="s">
         <v>235</v>
       </c>
       <c r="D196" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E196" s="215" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F196" s="84"/>
-      <c r="G196" s="85"/>
+      <c r="G196" s="3"/>
       <c r="H196" s="12"/>
       <c r="I196" s="92"/>
       <c r="J196" s="90"/>
-      <c r="K196" s="94"/>
-    </row>
-    <row r="197" spans="1:12" s="194" customFormat="1" ht="21">
-      <c r="A197" s="195" t="s">
+      <c r="K196" s="86"/>
+    </row>
+    <row r="197" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B197" s="12"/>
+      <c r="C197" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="D197" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="215" t="s">
+        <v>818</v>
+      </c>
+      <c r="F197" s="84"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="92"/>
+      <c r="J197" s="90"/>
+      <c r="K197" s="94"/>
+    </row>
+    <row r="198" spans="1:12" s="194" customFormat="1" ht="21">
+      <c r="A198" s="195" t="s">
         <v>284</v>
       </c>
-      <c r="B197" s="117"/>
-      <c r="C197" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="D197" s="118" t="s">
+      <c r="B198" s="117"/>
+      <c r="C198" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="D198" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E197" s="118" t="s">
+      <c r="E198" s="118" t="s">
         <v>803</v>
       </c>
-      <c r="F197" s="119"/>
-    </row>
-    <row r="198" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A198" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="B198" s="12"/>
-      <c r="C198" s="134" t="s">
-        <v>901</v>
-      </c>
-      <c r="D198" s="139" t="s">
+      <c r="F198" s="119"/>
+    </row>
+    <row r="199" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A199" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="B199" s="12"/>
+      <c r="C199" s="134" t="s">
+        <v>903</v>
+      </c>
+      <c r="D199" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E198" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F198" s="84"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="92"/>
-      <c r="J198" s="90"/>
-      <c r="K198" s="94"/>
-    </row>
-    <row r="199" spans="1:12" s="302" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B199" s="297"/>
-      <c r="C199" s="309"/>
-      <c r="D199" s="297"/>
-      <c r="E199" s="311"/>
-      <c r="F199" s="300"/>
-      <c r="G199" s="295"/>
-      <c r="H199" s="297"/>
-      <c r="I199" s="305"/>
-      <c r="J199" s="304"/>
-      <c r="K199" s="307"/>
-    </row>
-    <row r="200" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B200" s="12"/>
+      <c r="E199" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F199" s="84"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="92"/>
+      <c r="J199" s="90"/>
+      <c r="K199" s="94"/>
+    </row>
+    <row r="200" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B200" s="127"/>
       <c r="C200" s="129" t="s">
         <v>235</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>22</v>
       </c>
       <c r="E200" s="215" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="3"/>
@@ -12243,6 +12246,7 @@
       <c r="I200" s="92"/>
       <c r="J200" s="90"/>
       <c r="K200" s="94"/>
+      <c r="L200" s="96"/>
     </row>
     <row r="201" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B201" s="12"/>
@@ -12253,7 +12257,7 @@
         <v>22</v>
       </c>
       <c r="E201" s="215" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F201" s="84"/>
       <c r="G201" s="3"/>
@@ -12262,13 +12266,13 @@
       <c r="J201" s="90"/>
       <c r="K201" s="94"/>
     </row>
-    <row r="202" spans="1:12" s="194" customFormat="1" ht="21">
+    <row r="202" spans="1:12" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="195" t="s">
         <v>284</v>
       </c>
       <c r="B202" s="117"/>
       <c r="C202" s="117" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D202" s="118" t="s">
         <v>8</v>
@@ -12280,13 +12284,13 @@
     </row>
     <row r="203" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A203" s="87" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B203" s="12"/>
-      <c r="C203" s="29" t="s">
-        <v>902</v>
-      </c>
-      <c r="D203" s="12" t="s">
+      <c r="C203" s="134" t="s">
+        <v>904</v>
+      </c>
+      <c r="D203" s="139" t="s">
         <v>27</v>
       </c>
       <c r="E203" s="223" t="s">
@@ -12298,343 +12302,543 @@
       <c r="I203" s="92"/>
       <c r="J203" s="90"/>
       <c r="K203" s="94"/>
-      <c r="L203" s="96"/>
-    </row>
-    <row r="204" spans="1:12" s="302" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B204" s="297"/>
-      <c r="C204" s="298"/>
-      <c r="D204" s="297"/>
-      <c r="E204" s="311"/>
-      <c r="F204" s="300"/>
-      <c r="G204" s="295"/>
-      <c r="H204" s="297"/>
-      <c r="I204" s="305"/>
-      <c r="J204" s="304"/>
-      <c r="K204" s="307"/>
-      <c r="L204" s="308"/>
-    </row>
-    <row r="205" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
+    </row>
+    <row r="204" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B204" s="12"/>
+      <c r="C204" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="D204" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204" s="215" t="s">
+        <v>820</v>
+      </c>
+      <c r="F204" s="84"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="92"/>
+      <c r="J204" s="90"/>
+      <c r="K204" s="95"/>
+    </row>
+    <row r="205" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B205" s="12"/>
-      <c r="C205" s="131" t="s">
+      <c r="C205" s="128" t="s">
         <v>235</v>
       </c>
       <c r="D205" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E205" s="215" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F205" s="84"/>
       <c r="G205" s="3"/>
       <c r="H205" s="12"/>
       <c r="I205" s="92"/>
       <c r="J205" s="90"/>
-      <c r="K205" s="86"/>
-    </row>
-    <row r="206" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="B206" s="12"/>
-      <c r="C206" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="D206" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E206" s="215" t="s">
-        <v>818</v>
-      </c>
-      <c r="F206" s="84"/>
+      <c r="K205" s="94"/>
+    </row>
+    <row r="206" spans="1:12" ht="35.1" customHeight="1">
+      <c r="A206" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B206" s="120"/>
+      <c r="C206" s="122" t="s">
+        <v>892</v>
+      </c>
+      <c r="D206" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="123" t="s">
+        <v>803</v>
+      </c>
+      <c r="F206" s="18"/>
       <c r="G206" s="3"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="92"/>
-      <c r="J206" s="90"/>
-      <c r="K206" s="94"/>
-    </row>
-    <row r="207" spans="1:12" s="194" customFormat="1" ht="21">
-      <c r="A207" s="195" t="s">
-        <v>284</v>
-      </c>
-      <c r="B207" s="117"/>
-      <c r="C207" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="D207" s="118" t="s">
+      <c r="H206" s="76"/>
+      <c r="I206" s="77"/>
+      <c r="J206" s="78"/>
+      <c r="K206" s="79"/>
+    </row>
+    <row r="207" spans="1:12" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B207" s="199"/>
+      <c r="C207" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="D207" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="E207" s="118" t="s">
+      <c r="E207" s="228" t="s">
         <v>803</v>
       </c>
-      <c r="F207" s="119"/>
-    </row>
-    <row r="208" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A208" s="87" t="s">
-        <v>327</v>
+      <c r="F207" s="200"/>
+      <c r="G207" s="201"/>
+      <c r="H207" s="202"/>
+      <c r="I207" s="201"/>
+      <c r="J207" s="201"/>
+      <c r="K207" s="203"/>
+    </row>
+    <row r="208" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A208" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="B208" s="12"/>
-      <c r="C208" s="134" t="s">
-        <v>903</v>
-      </c>
-      <c r="D208" s="12" t="s">
+      <c r="C208" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E208" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F208" s="84"/>
+      <c r="G208" s="78"/>
+      <c r="H208" s="81"/>
+      <c r="I208" s="80"/>
+      <c r="J208" s="78"/>
+      <c r="K208" s="82"/>
+    </row>
+    <row r="209" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A209" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B209" s="12"/>
+      <c r="C209" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E209" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F209" s="84"/>
+      <c r="G209" s="78"/>
+      <c r="H209" s="81"/>
+      <c r="I209" s="80"/>
+      <c r="J209" s="78"/>
+      <c r="K209" s="82"/>
+    </row>
+    <row r="210" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A210" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B210" s="12"/>
+      <c r="C210" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E210" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F210" s="84"/>
+      <c r="G210" s="78"/>
+      <c r="H210" s="81"/>
+      <c r="I210" s="80"/>
+      <c r="J210" s="78"/>
+      <c r="K210" s="82"/>
+    </row>
+    <row r="211" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B211" s="121"/>
+      <c r="C211" s="204" t="s">
+        <v>144</v>
+      </c>
+      <c r="D211" s="228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="228" t="s">
+        <v>803</v>
+      </c>
+      <c r="F211" s="84"/>
+      <c r="G211" s="80"/>
+      <c r="H211" s="76"/>
+      <c r="I211" s="80"/>
+      <c r="J211" s="80"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+      <c r="W211" s="4"/>
+      <c r="X211" s="4"/>
+      <c r="Y211" s="4"/>
+      <c r="Z211" s="4"/>
+    </row>
+    <row r="212" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A212" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="B212" s="12"/>
+      <c r="C212" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E208" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F208" s="84"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="12"/>
-      <c r="I208" s="92"/>
-      <c r="J208" s="90"/>
-      <c r="K208" s="94"/>
-    </row>
-    <row r="209" spans="1:26" s="302" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B209" s="297"/>
-      <c r="C209" s="309"/>
-      <c r="D209" s="297"/>
-      <c r="E209" s="311"/>
-      <c r="F209" s="300"/>
-      <c r="G209" s="295"/>
-      <c r="H209" s="297"/>
-      <c r="I209" s="305"/>
-      <c r="J209" s="304"/>
-      <c r="K209" s="307"/>
-    </row>
-    <row r="210" spans="1:26" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B210" s="127"/>
-      <c r="C210" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="D210" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E210" s="215" t="s">
-        <v>819</v>
-      </c>
-      <c r="F210" s="84"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="92"/>
-      <c r="J210" s="90"/>
-      <c r="K210" s="94"/>
-      <c r="L210" s="96"/>
-    </row>
-    <row r="211" spans="1:26" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="B211" s="12"/>
-      <c r="C211" s="128" t="s">
-        <v>235</v>
-      </c>
-      <c r="D211" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E211" s="215" t="s">
-        <v>819</v>
-      </c>
-      <c r="F211" s="84"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="12"/>
-      <c r="I211" s="92"/>
-      <c r="J211" s="90"/>
-      <c r="K211" s="94"/>
-    </row>
-    <row r="212" spans="1:26" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A212" s="195" t="s">
-        <v>284</v>
-      </c>
-      <c r="B212" s="117"/>
-      <c r="C212" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="D212" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E212" s="118" t="s">
-        <v>803</v>
-      </c>
-      <c r="F212" s="119"/>
-    </row>
-    <row r="213" spans="1:26" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A213" s="87" t="s">
-        <v>328</v>
+      <c r="E212" s="226" t="s">
+        <v>821</v>
+      </c>
+      <c r="F212" s="84"/>
+      <c r="G212" s="83"/>
+      <c r="H212" s="76"/>
+      <c r="I212" s="80"/>
+      <c r="J212" s="80"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="4"/>
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+      <c r="W212" s="4"/>
+      <c r="X212" s="4"/>
+      <c r="Y212" s="4"/>
+      <c r="Z212" s="4"/>
+    </row>
+    <row r="213" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A213" s="106" t="s">
+        <v>333</v>
       </c>
       <c r="B213" s="12"/>
-      <c r="C213" s="134" t="s">
-        <v>904</v>
-      </c>
-      <c r="D213" s="139" t="s">
+      <c r="C213" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E213" s="223" t="s">
-        <v>100</v>
+      <c r="E213" s="226" t="s">
+        <v>822</v>
       </c>
       <c r="F213" s="84"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="92"/>
-      <c r="J213" s="90"/>
-      <c r="K213" s="94"/>
-    </row>
-    <row r="214" spans="1:26" s="302" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B214" s="297"/>
-      <c r="C214" s="309"/>
-      <c r="D214" s="297"/>
-      <c r="E214" s="311"/>
-      <c r="F214" s="300"/>
-      <c r="G214" s="295"/>
-      <c r="H214" s="297"/>
-      <c r="I214" s="305"/>
-      <c r="J214" s="304"/>
-      <c r="K214" s="307"/>
-    </row>
-    <row r="215" spans="1:26" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="G213" s="83"/>
+      <c r="H213" s="76"/>
+      <c r="I213" s="80"/>
+      <c r="J213" s="80"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="4"/>
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+      <c r="W213" s="4"/>
+      <c r="X213" s="4"/>
+      <c r="Y213" s="4"/>
+      <c r="Z213" s="4"/>
+    </row>
+    <row r="214" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A214" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="B214" s="12"/>
+      <c r="C214" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="226" t="s">
+        <v>823</v>
+      </c>
+      <c r="F214" s="84"/>
+      <c r="G214" s="83"/>
+      <c r="H214" s="76"/>
+      <c r="I214" s="80"/>
+      <c r="J214" s="80"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="4"/>
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+      <c r="W214" s="4"/>
+      <c r="X214" s="4"/>
+      <c r="Y214" s="4"/>
+      <c r="Z214" s="4"/>
+    </row>
+    <row r="215" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A215" s="106" t="s">
+        <v>335</v>
+      </c>
       <c r="B215" s="12"/>
-      <c r="C215" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="D215" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E215" s="215" t="s">
-        <v>820</v>
+      <c r="C215" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E215" s="226" t="s">
+        <v>824</v>
       </c>
       <c r="F215" s="84"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="92"/>
-      <c r="J215" s="90"/>
-      <c r="K215" s="95"/>
-    </row>
-    <row r="216" spans="1:26" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="G215" s="83"/>
+      <c r="H215" s="76"/>
+      <c r="I215" s="80"/>
+      <c r="J215" s="80"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+      <c r="W215" s="4"/>
+      <c r="X215" s="4"/>
+      <c r="Y215" s="4"/>
+      <c r="Z215" s="4"/>
+    </row>
+    <row r="216" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A216" s="106" t="s">
+        <v>336</v>
+      </c>
       <c r="B216" s="12"/>
-      <c r="C216" s="128" t="s">
-        <v>235</v>
-      </c>
-      <c r="D216" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E216" s="215" t="s">
-        <v>820</v>
+      <c r="C216" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E216" s="226" t="s">
+        <v>825</v>
       </c>
       <c r="F216" s="84"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="92"/>
-      <c r="J216" s="90"/>
-      <c r="K216" s="94"/>
-    </row>
-    <row r="217" spans="1:26" ht="35.1" customHeight="1">
-      <c r="A217" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B217" s="120"/>
-      <c r="C217" s="122" t="s">
-        <v>892</v>
-      </c>
-      <c r="D217" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E217" s="123" t="s">
-        <v>803</v>
-      </c>
-      <c r="F217" s="18"/>
-      <c r="G217" s="3"/>
+      <c r="G216" s="83"/>
+      <c r="H216" s="76"/>
+      <c r="I216" s="80"/>
+      <c r="J216" s="80"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+      <c r="X216" s="4"/>
+      <c r="Y216" s="4"/>
+      <c r="Z216" s="4"/>
+    </row>
+    <row r="217" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A217" s="106" t="s">
+        <v>337</v>
+      </c>
+      <c r="B217" s="12"/>
+      <c r="C217" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E217" s="226" t="s">
+        <v>826</v>
+      </c>
+      <c r="F217" s="84"/>
+      <c r="G217" s="83"/>
       <c r="H217" s="76"/>
-      <c r="I217" s="77"/>
-      <c r="J217" s="78"/>
-      <c r="K217" s="79"/>
-    </row>
-    <row r="218" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B218" s="199"/>
-      <c r="C218" s="204" t="s">
-        <v>141</v>
-      </c>
-      <c r="D218" s="228" t="s">
-        <v>8</v>
-      </c>
-      <c r="E218" s="228" t="s">
-        <v>803</v>
-      </c>
-      <c r="F218" s="200"/>
-      <c r="G218" s="201"/>
-      <c r="H218" s="202"/>
-      <c r="I218" s="201"/>
-      <c r="J218" s="201"/>
-      <c r="K218" s="203"/>
-    </row>
-    <row r="219" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A219" s="9" t="s">
-        <v>329</v>
+      <c r="I217" s="80"/>
+      <c r="J217" s="80"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+      <c r="X217" s="4"/>
+      <c r="Y217" s="4"/>
+      <c r="Z217" s="4"/>
+    </row>
+    <row r="218" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A218" s="106" t="s">
+        <v>338</v>
+      </c>
+      <c r="B218" s="12"/>
+      <c r="C218" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E218" s="226" t="s">
+        <v>827</v>
+      </c>
+      <c r="F218" s="84"/>
+      <c r="G218" s="83"/>
+      <c r="H218" s="76"/>
+      <c r="I218" s="80"/>
+      <c r="J218" s="80"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="4"/>
+      <c r="Y218" s="4"/>
+      <c r="Z218" s="4"/>
+    </row>
+    <row r="219" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A219" s="106" t="s">
+        <v>339</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="26" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E219" s="223" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="E219" s="226" t="s">
+        <v>828</v>
       </c>
       <c r="F219" s="84"/>
-      <c r="G219" s="78"/>
-      <c r="H219" s="81"/>
+      <c r="G219" s="83"/>
+      <c r="H219" s="76"/>
       <c r="I219" s="80"/>
-      <c r="J219" s="78"/>
-      <c r="K219" s="82"/>
-    </row>
-    <row r="220" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A220" s="9" t="s">
-        <v>330</v>
+      <c r="J219" s="80"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="4"/>
+      <c r="Y219" s="4"/>
+      <c r="Z219" s="4"/>
+    </row>
+    <row r="220" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A220" s="106" t="s">
+        <v>340</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="26" t="s">
-        <v>890</v>
+        <v>154</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E220" s="223" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="E220" s="226" t="s">
+        <v>829</v>
       </c>
       <c r="F220" s="84"/>
-      <c r="G220" s="78"/>
-      <c r="H220" s="81"/>
+      <c r="G220" s="83"/>
+      <c r="H220" s="76"/>
       <c r="I220" s="80"/>
-      <c r="J220" s="78"/>
-      <c r="K220" s="82"/>
-    </row>
-    <row r="221" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A221" s="9" t="s">
-        <v>331</v>
+      <c r="J220" s="80"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="4"/>
+      <c r="S220" s="4"/>
+      <c r="T220" s="4"/>
+      <c r="U220" s="4"/>
+      <c r="V220" s="4"/>
+      <c r="W220" s="4"/>
+      <c r="X220" s="4"/>
+      <c r="Y220" s="4"/>
+      <c r="Z220" s="4"/>
+    </row>
+    <row r="221" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A221" s="106" t="s">
+        <v>341</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="26" t="s">
-        <v>891</v>
+        <v>155</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E221" s="223" t="s">
         <v>100</v>
       </c>
       <c r="F221" s="84"/>
-      <c r="G221" s="78"/>
-      <c r="H221" s="81"/>
+      <c r="G221" s="83"/>
+      <c r="H221" s="76"/>
       <c r="I221" s="80"/>
-      <c r="J221" s="78"/>
-      <c r="K221" s="82"/>
-    </row>
-    <row r="222" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B222" s="121"/>
-      <c r="C222" s="204" t="s">
-        <v>144</v>
-      </c>
-      <c r="D222" s="228" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" s="228" t="s">
-        <v>803</v>
+      <c r="J221" s="80"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+      <c r="W221" s="4"/>
+      <c r="X221" s="4"/>
+      <c r="Y221" s="4"/>
+      <c r="Z221" s="4"/>
+    </row>
+    <row r="222" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+      <c r="A222" s="106" t="s">
+        <v>342</v>
+      </c>
+      <c r="B222" s="12"/>
+      <c r="C222" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E222" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F222" s="84"/>
-      <c r="G222" s="80"/>
+      <c r="G222" s="83"/>
       <c r="H222" s="76"/>
       <c r="I222" s="80"/>
       <c r="J222" s="80"/>
@@ -12654,812 +12858,427 @@
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
     </row>
-    <row r="223" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A223" s="106" t="s">
-        <v>332</v>
-      </c>
-      <c r="B223" s="12"/>
-      <c r="C223" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E223" s="226" t="s">
-        <v>821</v>
-      </c>
-      <c r="F223" s="84"/>
-      <c r="G223" s="83"/>
-      <c r="H223" s="76"/>
-      <c r="I223" s="80"/>
-      <c r="J223" s="80"/>
-      <c r="L223" s="4"/>
-      <c r="M223" s="4"/>
-      <c r="N223" s="4"/>
-      <c r="O223" s="4"/>
-      <c r="P223" s="4"/>
-      <c r="Q223" s="4"/>
-      <c r="R223" s="4"/>
-      <c r="S223" s="4"/>
-      <c r="T223" s="4"/>
-      <c r="U223" s="4"/>
-      <c r="V223" s="4"/>
-      <c r="W223" s="4"/>
-      <c r="X223" s="4"/>
-      <c r="Y223" s="4"/>
-      <c r="Z223" s="4"/>
-    </row>
-    <row r="224" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A224" s="106" t="s">
-        <v>333</v>
+    <row r="223" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B223" s="199"/>
+      <c r="C223" s="204" t="s">
+        <v>893</v>
+      </c>
+      <c r="D223" s="228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="228" t="s">
+        <v>803</v>
+      </c>
+      <c r="F223" s="200"/>
+      <c r="G223" s="201"/>
+      <c r="H223" s="202"/>
+      <c r="I223" s="201"/>
+      <c r="J223" s="201"/>
+      <c r="K223" s="203"/>
+    </row>
+    <row r="224" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A224" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E224" s="226" t="s">
-        <v>822</v>
+        <v>33</v>
+      </c>
+      <c r="E224" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F224" s="84"/>
-      <c r="G224" s="83"/>
-      <c r="H224" s="76"/>
+      <c r="G224" s="78"/>
+      <c r="H224" s="81"/>
       <c r="I224" s="80"/>
-      <c r="J224" s="80"/>
-      <c r="L224" s="4"/>
-      <c r="M224" s="4"/>
-      <c r="N224" s="4"/>
-      <c r="O224" s="4"/>
-      <c r="P224" s="4"/>
-      <c r="Q224" s="4"/>
-      <c r="R224" s="4"/>
-      <c r="S224" s="4"/>
-      <c r="T224" s="4"/>
-      <c r="U224" s="4"/>
-      <c r="V224" s="4"/>
-      <c r="W224" s="4"/>
-      <c r="X224" s="4"/>
-      <c r="Y224" s="4"/>
-      <c r="Z224" s="4"/>
-    </row>
-    <row r="225" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A225" s="106" t="s">
-        <v>334</v>
+      <c r="J224" s="78"/>
+      <c r="K224" s="82"/>
+    </row>
+    <row r="225" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A225" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E225" s="226" t="s">
-        <v>823</v>
+        <v>33</v>
+      </c>
+      <c r="E225" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F225" s="84"/>
-      <c r="G225" s="83"/>
-      <c r="H225" s="76"/>
+      <c r="G225" s="78"/>
+      <c r="H225" s="81"/>
       <c r="I225" s="80"/>
-      <c r="J225" s="80"/>
-      <c r="L225" s="4"/>
-      <c r="M225" s="4"/>
-      <c r="N225" s="4"/>
-      <c r="O225" s="4"/>
-      <c r="P225" s="4"/>
-      <c r="Q225" s="4"/>
-      <c r="R225" s="4"/>
-      <c r="S225" s="4"/>
-      <c r="T225" s="4"/>
-      <c r="U225" s="4"/>
-      <c r="V225" s="4"/>
-      <c r="W225" s="4"/>
-      <c r="X225" s="4"/>
-      <c r="Y225" s="4"/>
-      <c r="Z225" s="4"/>
-    </row>
-    <row r="226" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A226" s="106" t="s">
-        <v>335</v>
+      <c r="J225" s="78"/>
+      <c r="K225" s="82"/>
+    </row>
+    <row r="226" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A226" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
-        <v>148</v>
+        <v>894</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E226" s="226" t="s">
-        <v>824</v>
+        <v>33</v>
+      </c>
+      <c r="E226" s="223" t="s">
+        <v>100</v>
       </c>
       <c r="F226" s="84"/>
-      <c r="G226" s="83"/>
-      <c r="H226" s="76"/>
+      <c r="G226" s="78"/>
+      <c r="H226" s="81"/>
       <c r="I226" s="80"/>
-      <c r="J226" s="80"/>
-      <c r="L226" s="4"/>
-      <c r="M226" s="4"/>
-      <c r="N226" s="4"/>
-      <c r="O226" s="4"/>
-      <c r="P226" s="4"/>
-      <c r="Q226" s="4"/>
-      <c r="R226" s="4"/>
-      <c r="S226" s="4"/>
-      <c r="T226" s="4"/>
-      <c r="U226" s="4"/>
-      <c r="V226" s="4"/>
-      <c r="W226" s="4"/>
-      <c r="X226" s="4"/>
-      <c r="Y226" s="4"/>
-      <c r="Z226" s="4"/>
-    </row>
-    <row r="227" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A227" s="106" t="s">
-        <v>336</v>
-      </c>
-      <c r="B227" s="12"/>
-      <c r="C227" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E227" s="226" t="s">
-        <v>825</v>
-      </c>
-      <c r="F227" s="84"/>
-      <c r="G227" s="83"/>
-      <c r="H227" s="76"/>
-      <c r="I227" s="80"/>
-      <c r="J227" s="80"/>
-      <c r="L227" s="4"/>
-      <c r="M227" s="4"/>
-      <c r="N227" s="4"/>
-      <c r="O227" s="4"/>
-      <c r="P227" s="4"/>
-      <c r="Q227" s="4"/>
-      <c r="R227" s="4"/>
-      <c r="S227" s="4"/>
-      <c r="T227" s="4"/>
-      <c r="U227" s="4"/>
-      <c r="V227" s="4"/>
-      <c r="W227" s="4"/>
-      <c r="X227" s="4"/>
-      <c r="Y227" s="4"/>
-      <c r="Z227" s="4"/>
-    </row>
-    <row r="228" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A228" s="106" t="s">
-        <v>337</v>
-      </c>
-      <c r="B228" s="12"/>
-      <c r="C228" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E228" s="226" t="s">
-        <v>826</v>
-      </c>
-      <c r="F228" s="84"/>
-      <c r="G228" s="83"/>
-      <c r="H228" s="76"/>
-      <c r="I228" s="80"/>
-      <c r="J228" s="80"/>
-      <c r="L228" s="4"/>
-      <c r="M228" s="4"/>
-      <c r="N228" s="4"/>
-      <c r="O228" s="4"/>
-      <c r="P228" s="4"/>
-      <c r="Q228" s="4"/>
-      <c r="R228" s="4"/>
-      <c r="S228" s="4"/>
-      <c r="T228" s="4"/>
-      <c r="U228" s="4"/>
-      <c r="V228" s="4"/>
-      <c r="W228" s="4"/>
-      <c r="X228" s="4"/>
-      <c r="Y228" s="4"/>
-      <c r="Z228" s="4"/>
-    </row>
-    <row r="229" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A229" s="106" t="s">
-        <v>338</v>
-      </c>
-      <c r="B229" s="12"/>
+      <c r="J226" s="78"/>
+      <c r="K226" s="82"/>
+    </row>
+    <row r="227" spans="1:26" ht="35.1" customHeight="1">
+      <c r="B227" s="61"/>
+      <c r="C227" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" s="126" t="s">
+        <v>803</v>
+      </c>
+      <c r="F227" s="18"/>
+    </row>
+    <row r="228" spans="1:26" ht="21">
+      <c r="B228" s="206"/>
+      <c r="C228" s="207" t="s">
+        <v>804</v>
+      </c>
+      <c r="D228" s="205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="205" t="s">
+        <v>803</v>
+      </c>
+      <c r="F228" s="64"/>
+    </row>
+    <row r="229" spans="1:26" ht="30" outlineLevel="1">
+      <c r="A229" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B229" s="7"/>
       <c r="C229" s="26" t="s">
-        <v>152</v>
+        <v>834</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E229" s="226" t="s">
-        <v>827</v>
-      </c>
-      <c r="F229" s="84"/>
-      <c r="G229" s="83"/>
-      <c r="H229" s="76"/>
-      <c r="I229" s="80"/>
-      <c r="J229" s="80"/>
-      <c r="L229" s="4"/>
-      <c r="M229" s="4"/>
-      <c r="N229" s="4"/>
-      <c r="O229" s="4"/>
-      <c r="P229" s="4"/>
-      <c r="Q229" s="4"/>
-      <c r="R229" s="4"/>
-      <c r="S229" s="4"/>
-      <c r="T229" s="4"/>
-      <c r="U229" s="4"/>
-      <c r="V229" s="4"/>
-      <c r="W229" s="4"/>
-      <c r="X229" s="4"/>
-      <c r="Y229" s="4"/>
-      <c r="Z229" s="4"/>
-    </row>
-    <row r="230" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A230" s="106" t="s">
-        <v>339</v>
-      </c>
-      <c r="B230" s="12"/>
+      <c r="E229" s="223" t="s">
+        <v>908</v>
+      </c>
+      <c r="F229" s="64"/>
+    </row>
+    <row r="230" spans="1:26" outlineLevel="1">
+      <c r="A230" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B230" s="7"/>
       <c r="C230" s="26" t="s">
-        <v>153</v>
+        <v>835</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E230" s="226" t="s">
-        <v>828</v>
-      </c>
-      <c r="F230" s="84"/>
-      <c r="G230" s="83"/>
-      <c r="H230" s="76"/>
-      <c r="I230" s="80"/>
-      <c r="J230" s="80"/>
-      <c r="L230" s="4"/>
-      <c r="M230" s="4"/>
-      <c r="N230" s="4"/>
-      <c r="O230" s="4"/>
-      <c r="P230" s="4"/>
-      <c r="Q230" s="4"/>
-      <c r="R230" s="4"/>
-      <c r="S230" s="4"/>
-      <c r="T230" s="4"/>
-      <c r="U230" s="4"/>
-      <c r="V230" s="4"/>
-      <c r="W230" s="4"/>
-      <c r="X230" s="4"/>
-      <c r="Y230" s="4"/>
-      <c r="Z230" s="4"/>
-    </row>
-    <row r="231" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A231" s="106" t="s">
-        <v>340</v>
-      </c>
-      <c r="B231" s="12"/>
+      <c r="E230" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F230" s="64"/>
+    </row>
+    <row r="231" spans="1:26" outlineLevel="1">
+      <c r="A231" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B231" s="7"/>
       <c r="C231" s="26" t="s">
-        <v>154</v>
+        <v>836</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E231" s="226" t="s">
-        <v>829</v>
-      </c>
-      <c r="F231" s="84"/>
-      <c r="G231" s="83"/>
-      <c r="H231" s="76"/>
-      <c r="I231" s="80"/>
-      <c r="J231" s="80"/>
-      <c r="L231" s="4"/>
-      <c r="M231" s="4"/>
-      <c r="N231" s="4"/>
-      <c r="O231" s="4"/>
-      <c r="P231" s="4"/>
-      <c r="Q231" s="4"/>
-      <c r="R231" s="4"/>
-      <c r="S231" s="4"/>
-      <c r="T231" s="4"/>
-      <c r="U231" s="4"/>
-      <c r="V231" s="4"/>
-      <c r="W231" s="4"/>
-      <c r="X231" s="4"/>
-      <c r="Y231" s="4"/>
-      <c r="Z231" s="4"/>
-    </row>
-    <row r="232" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A232" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="B232" s="12"/>
+      <c r="E231" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F231" s="64"/>
+    </row>
+    <row r="232" spans="1:26" outlineLevel="1">
+      <c r="A232" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B232" s="7"/>
       <c r="C232" s="26" t="s">
-        <v>155</v>
+        <v>837</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="E232" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="F232" s="84"/>
-      <c r="G232" s="83"/>
-      <c r="H232" s="76"/>
-      <c r="I232" s="80"/>
-      <c r="J232" s="80"/>
-      <c r="L232" s="4"/>
-      <c r="M232" s="4"/>
-      <c r="N232" s="4"/>
-      <c r="O232" s="4"/>
-      <c r="P232" s="4"/>
-      <c r="Q232" s="4"/>
-      <c r="R232" s="4"/>
-      <c r="S232" s="4"/>
-      <c r="T232" s="4"/>
-      <c r="U232" s="4"/>
-      <c r="V232" s="4"/>
-      <c r="W232" s="4"/>
-      <c r="X232" s="4"/>
-      <c r="Y232" s="4"/>
-      <c r="Z232" s="4"/>
-    </row>
-    <row r="233" spans="1:26" s="8" customFormat="1" outlineLevel="1">
-      <c r="A233" s="106" t="s">
-        <v>342</v>
-      </c>
-      <c r="B233" s="12"/>
-      <c r="C233" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E233" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F233" s="84"/>
-      <c r="G233" s="83"/>
-      <c r="H233" s="76"/>
-      <c r="I233" s="80"/>
-      <c r="J233" s="80"/>
-      <c r="L233" s="4"/>
-      <c r="M233" s="4"/>
-      <c r="N233" s="4"/>
-      <c r="O233" s="4"/>
-      <c r="P233" s="4"/>
-      <c r="Q233" s="4"/>
-      <c r="R233" s="4"/>
-      <c r="S233" s="4"/>
-      <c r="T233" s="4"/>
-      <c r="U233" s="4"/>
-      <c r="V233" s="4"/>
-      <c r="W233" s="4"/>
-      <c r="X233" s="4"/>
-      <c r="Y233" s="4"/>
-      <c r="Z233" s="4"/>
-    </row>
-    <row r="234" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B234" s="199"/>
-      <c r="C234" s="204" t="s">
-        <v>893</v>
-      </c>
-      <c r="D234" s="228" t="s">
+      <c r="F232" s="64"/>
+    </row>
+    <row r="233" spans="1:26" ht="21">
+      <c r="B233" s="206"/>
+      <c r="C233" s="207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="E234" s="228" t="s">
+      <c r="E233" s="205" t="s">
         <v>803</v>
       </c>
-      <c r="F234" s="200"/>
-      <c r="G234" s="201"/>
-      <c r="H234" s="202"/>
-      <c r="I234" s="201"/>
-      <c r="J234" s="201"/>
-      <c r="K234" s="203"/>
-    </row>
-    <row r="235" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A235" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B235" s="12"/>
+      <c r="F233" s="64"/>
+    </row>
+    <row r="234" spans="1:26" outlineLevel="1">
+      <c r="A234" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B234" s="7"/>
+      <c r="C234" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E234" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F234" s="64"/>
+    </row>
+    <row r="235" spans="1:26" outlineLevel="1">
+      <c r="A235" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B235" s="7"/>
       <c r="C235" s="26" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D235" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E235" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F235" s="64"/>
+    </row>
+    <row r="236" spans="1:26" outlineLevel="1">
+      <c r="A236" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B236" s="7"/>
+      <c r="C236" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E236" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F236" s="64"/>
+    </row>
+    <row r="237" spans="1:26" outlineLevel="1">
+      <c r="A237" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B237" s="7"/>
+      <c r="C237" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E237" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F237" s="64"/>
+    </row>
+    <row r="238" spans="1:26" outlineLevel="1">
+      <c r="A238" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E238" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F238" s="64"/>
+    </row>
+    <row r="239" spans="1:26" s="86" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B239" s="88"/>
+      <c r="C239" s="124" t="s">
+        <v>907</v>
+      </c>
+      <c r="D239" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" s="125" t="s">
+        <v>803</v>
+      </c>
+      <c r="F239" s="84"/>
+      <c r="G239" s="85"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="85"/>
+      <c r="J239" s="85"/>
+      <c r="L239" s="87"/>
+      <c r="M239" s="87"/>
+      <c r="N239" s="87"/>
+      <c r="O239" s="87"/>
+      <c r="P239" s="87"/>
+      <c r="Q239" s="87"/>
+      <c r="R239" s="87"/>
+      <c r="S239" s="87"/>
+      <c r="T239" s="87"/>
+      <c r="U239" s="87"/>
+      <c r="V239" s="87"/>
+      <c r="W239" s="87"/>
+      <c r="X239" s="87"/>
+      <c r="Y239" s="87"/>
+      <c r="Z239" s="87"/>
+    </row>
+    <row r="240" spans="1:26" s="87" customFormat="1" outlineLevel="1">
+      <c r="A240" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="B240" s="12"/>
+      <c r="C240" s="26" t="s">
+        <v>838</v>
+      </c>
+      <c r="D240" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E240" s="255" t="s">
+        <v>100</v>
+      </c>
+      <c r="F240" s="97"/>
+      <c r="G240" s="85"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="85"/>
+      <c r="J240" s="85"/>
+      <c r="K240" s="86"/>
+    </row>
+    <row r="241" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+      <c r="A241" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="B241" s="12"/>
+      <c r="C241" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="D241" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E241" s="224" t="s">
+        <v>100</v>
+      </c>
+      <c r="F241" s="97"/>
+      <c r="G241" s="85"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="85"/>
+      <c r="J241" s="85"/>
+      <c r="K241" s="86"/>
+    </row>
+    <row r="242" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+      <c r="A242" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="B242" s="12"/>
+      <c r="C242" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="D242" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E242" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F242" s="97"/>
+      <c r="G242" s="85"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="85"/>
+      <c r="J242" s="85"/>
+      <c r="K242" s="86"/>
+    </row>
+    <row r="243" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+      <c r="A243" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="B243" s="12"/>
+      <c r="C243" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="D243" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E235" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F235" s="84"/>
-      <c r="G235" s="78"/>
-      <c r="H235" s="81"/>
-      <c r="I235" s="80"/>
-      <c r="J235" s="78"/>
-      <c r="K235" s="82"/>
-    </row>
-    <row r="236" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A236" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B236" s="12"/>
-      <c r="C236" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="7" t="s">
+      <c r="E243" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F243" s="97"/>
+      <c r="G243" s="85"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="85"/>
+      <c r="J243" s="85"/>
+      <c r="K243" s="86"/>
+    </row>
+    <row r="244" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+      <c r="A244" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="B244" s="12"/>
+      <c r="C244" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="D244" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E236" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F236" s="84"/>
-      <c r="G236" s="78"/>
-      <c r="H236" s="81"/>
-      <c r="I236" s="80"/>
-      <c r="J236" s="78"/>
-      <c r="K236" s="82"/>
-    </row>
-    <row r="237" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A237" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B237" s="12"/>
-      <c r="C237" s="26" t="s">
-        <v>894</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E237" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F237" s="84"/>
-      <c r="G237" s="78"/>
-      <c r="H237" s="81"/>
-      <c r="I237" s="80"/>
-      <c r="J237" s="78"/>
-      <c r="K237" s="82"/>
-    </row>
-    <row r="238" spans="1:26" ht="35.1" customHeight="1">
-      <c r="B238" s="61"/>
-      <c r="C238" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D238" s="126" t="s">
-        <v>8</v>
-      </c>
-      <c r="E238" s="126" t="s">
-        <v>803</v>
-      </c>
-      <c r="F238" s="18"/>
-    </row>
-    <row r="239" spans="1:26" ht="21">
-      <c r="B239" s="206"/>
-      <c r="C239" s="207" t="s">
-        <v>804</v>
-      </c>
-      <c r="D239" s="205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239" s="205" t="s">
-        <v>803</v>
-      </c>
-      <c r="F239" s="64"/>
-    </row>
-    <row r="240" spans="1:26" ht="30" outlineLevel="1">
-      <c r="A240" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B240" s="7"/>
-      <c r="C240" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E240" s="223" t="s">
-        <v>908</v>
-      </c>
-      <c r="F240" s="64"/>
-    </row>
-    <row r="241" spans="1:26" outlineLevel="1">
-      <c r="A241" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B241" s="7"/>
-      <c r="C241" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E241" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F241" s="64"/>
-    </row>
-    <row r="242" spans="1:26" outlineLevel="1">
-      <c r="A242" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B242" s="7"/>
-      <c r="C242" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E242" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F242" s="64"/>
-    </row>
-    <row r="243" spans="1:26" outlineLevel="1">
-      <c r="A243" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B243" s="7"/>
-      <c r="C243" s="26" t="s">
-        <v>837</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E243" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F243" s="64"/>
-    </row>
-    <row r="244" spans="1:26" ht="21">
-      <c r="B244" s="206"/>
-      <c r="C244" s="207" t="s">
-        <v>20</v>
-      </c>
-      <c r="D244" s="205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E244" s="205" t="s">
-        <v>803</v>
-      </c>
-      <c r="F244" s="64"/>
-    </row>
-    <row r="245" spans="1:26" outlineLevel="1">
-      <c r="A245" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B245" s="7"/>
+      <c r="E244" s="223" t="s">
+        <v>100</v>
+      </c>
+      <c r="F244" s="97"/>
+      <c r="G244" s="85"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="85"/>
+      <c r="J244" s="85"/>
+      <c r="K244" s="86"/>
+    </row>
+    <row r="245" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+      <c r="A245" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>91</v>
+        <v>899</v>
+      </c>
+      <c r="D245" s="86" t="s">
+        <v>905</v>
       </c>
       <c r="E245" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="F245" s="64"/>
-    </row>
-    <row r="246" spans="1:26" outlineLevel="1">
-      <c r="A246" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B246" s="7"/>
-      <c r="C246" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E246" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F246" s="64"/>
-    </row>
-    <row r="247" spans="1:26" outlineLevel="1">
-      <c r="A247" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B247" s="7"/>
-      <c r="C247" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D247" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E247" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F247" s="64"/>
-    </row>
-    <row r="248" spans="1:26" outlineLevel="1">
-      <c r="A248" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B248" s="7"/>
-      <c r="C248" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E248" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F248" s="64"/>
-    </row>
-    <row r="249" spans="1:26" outlineLevel="1">
-      <c r="A249" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B249" s="7"/>
-      <c r="C249" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E249" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F249" s="64"/>
-    </row>
-    <row r="250" spans="1:26" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B250" s="88"/>
-      <c r="C250" s="124" t="s">
-        <v>907</v>
-      </c>
-      <c r="D250" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E250" s="125" t="s">
-        <v>803</v>
-      </c>
-      <c r="F250" s="84"/>
-      <c r="G250" s="85"/>
-      <c r="H250" s="12"/>
-      <c r="I250" s="85"/>
-      <c r="J250" s="85"/>
-      <c r="L250" s="87"/>
-      <c r="M250" s="87"/>
-      <c r="N250" s="87"/>
-      <c r="O250" s="87"/>
-      <c r="P250" s="87"/>
-      <c r="Q250" s="87"/>
-      <c r="R250" s="87"/>
-      <c r="S250" s="87"/>
-      <c r="T250" s="87"/>
-      <c r="U250" s="87"/>
-      <c r="V250" s="87"/>
-      <c r="W250" s="87"/>
-      <c r="X250" s="87"/>
-      <c r="Y250" s="87"/>
-      <c r="Z250" s="87"/>
-    </row>
-    <row r="251" spans="1:26" s="87" customFormat="1" outlineLevel="1">
-      <c r="A251" s="87" t="s">
-        <v>352</v>
-      </c>
-      <c r="B251" s="12"/>
-      <c r="C251" s="26" t="s">
-        <v>838</v>
-      </c>
-      <c r="D251" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="E251" s="311" t="s">
-        <v>100</v>
-      </c>
-      <c r="F251" s="97"/>
-      <c r="G251" s="85"/>
-      <c r="H251" s="12"/>
-      <c r="I251" s="85"/>
-      <c r="J251" s="85"/>
-      <c r="K251" s="86"/>
-    </row>
-    <row r="252" spans="1:26" s="87" customFormat="1" outlineLevel="1">
-      <c r="A252" s="87" t="s">
-        <v>353</v>
-      </c>
-      <c r="B252" s="12"/>
-      <c r="C252" s="150" t="s">
-        <v>158</v>
-      </c>
-      <c r="D252" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" s="224" t="s">
-        <v>100</v>
-      </c>
-      <c r="F252" s="97"/>
-      <c r="G252" s="85"/>
-      <c r="H252" s="12"/>
-      <c r="I252" s="85"/>
-      <c r="J252" s="85"/>
-      <c r="K252" s="86"/>
-    </row>
-    <row r="253" spans="1:26" s="87" customFormat="1" outlineLevel="1">
-      <c r="A253" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="B253" s="12"/>
-      <c r="C253" s="150" t="s">
-        <v>159</v>
-      </c>
-      <c r="D253" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E253" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F253" s="97"/>
-      <c r="G253" s="85"/>
-      <c r="H253" s="12"/>
-      <c r="I253" s="85"/>
-      <c r="J253" s="85"/>
-      <c r="K253" s="86"/>
-    </row>
-    <row r="254" spans="1:26" s="87" customFormat="1" outlineLevel="1">
-      <c r="A254" s="87" t="s">
-        <v>355</v>
-      </c>
-      <c r="B254" s="12"/>
-      <c r="C254" s="26" t="s">
-        <v>895</v>
-      </c>
-      <c r="D254" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E254" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F254" s="97"/>
-      <c r="G254" s="85"/>
-      <c r="H254" s="12"/>
-      <c r="I254" s="85"/>
-      <c r="J254" s="85"/>
-      <c r="K254" s="86"/>
-    </row>
-    <row r="255" spans="1:26" s="87" customFormat="1" outlineLevel="1">
-      <c r="A255" s="87" t="s">
-        <v>355</v>
-      </c>
-      <c r="B255" s="12"/>
-      <c r="C255" s="26" t="s">
-        <v>896</v>
-      </c>
-      <c r="D255" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E255" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F255" s="97"/>
-      <c r="G255" s="85"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="85"/>
-      <c r="J255" s="85"/>
-      <c r="K255" s="86"/>
-    </row>
-    <row r="256" spans="1:26" s="87" customFormat="1" outlineLevel="1">
-      <c r="A256" s="87" t="s">
-        <v>355</v>
-      </c>
-      <c r="B256" s="12"/>
-      <c r="C256" s="26" t="s">
-        <v>899</v>
-      </c>
-      <c r="D256" s="86" t="s">
-        <v>905</v>
-      </c>
-      <c r="E256" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F256" s="97"/>
-      <c r="G256" s="85"/>
-      <c r="H256" s="12"/>
-      <c r="I256" s="85"/>
-      <c r="J256" s="85"/>
-      <c r="K256" s="86"/>
+      <c r="F245" s="97"/>
+      <c r="G245" s="85"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="85"/>
+      <c r="J245" s="85"/>
+      <c r="K245" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13481,67 +13300,67 @@
           <x14:formula1>
             <xm:f>Lists!$H$2:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C215:C216</xm:sqref>
+          <xm:sqref>C204:C205</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$G$2:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C210:C211</xm:sqref>
+          <xm:sqref>C200:C201</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C205:C206</xm:sqref>
+          <xm:sqref>C196:C197</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C200:C201</xm:sqref>
+          <xm:sqref>C192:C193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$D$2:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C195:C196</xm:sqref>
+          <xm:sqref>C188:C189</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C190:C191</xm:sqref>
+          <xm:sqref>C184:C185</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C155:C156</xm:sqref>
+          <xm:sqref>C153:C154</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$K$2:$K$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C151:C152</xm:sqref>
+          <xm:sqref>C150:C151</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$N$2:$N$103</xm:f>
           </x14:formula1>
-          <xm:sqref>C170:C172</xm:sqref>
+          <xm:sqref>C166:C168</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$M$2:$M$142</xm:f>
           </x14:formula1>
-          <xm:sqref>C162:C164</xm:sqref>
+          <xm:sqref>C159:C161</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$O$2:$O$107</xm:f>
           </x14:formula1>
-          <xm:sqref>C178:C180</xm:sqref>
+          <xm:sqref>C173:C175</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13558,12 +13377,12 @@
     <tabColor rgb="FF9DAFCA"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB256"/>
+  <dimension ref="A1:AB245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -13601,14 +13420,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1">
-      <c r="B2" s="321" t="s">
+      <c r="B2" s="265" t="s">
         <v>800</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" ht="15.95" customHeight="1">
@@ -13626,14 +13445,14 @@
       </c>
       <c r="B4" s="188"/>
       <c r="C4" s="192" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="D4" s="190" t="s">
         <v>718</v>
       </c>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
       <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="21">
@@ -13642,14 +13461,14 @@
       </c>
       <c r="B5" s="189"/>
       <c r="C5" s="193" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="D5" s="191" t="s">
         <v>719</v>
       </c>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
       <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="8.1" customHeight="1">
@@ -13786,9 +13605,9 @@
       <c r="G14" s="144"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1">
-      <c r="A15" s="310" t="s">
-        <v>931</v>
+    <row r="15" spans="1:8" outlineLevel="2">
+      <c r="A15" s="254" t="s">
+        <v>919</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>720</v>
@@ -13803,9 +13622,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="1:8" outlineLevel="1">
+    <row r="16" spans="1:8" outlineLevel="2">
       <c r="A16" s="153" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>721</v>
@@ -13820,9 +13639,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1">
+    <row r="17" spans="1:8" outlineLevel="2">
       <c r="A17" s="153" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>722</v>
@@ -13837,9 +13656,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1">
-      <c r="A18" s="310" t="s">
-        <v>934</v>
+    <row r="18" spans="1:8" outlineLevel="2">
+      <c r="A18" s="254" t="s">
+        <v>922</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
@@ -13854,9 +13673,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:8" outlineLevel="1">
+    <row r="19" spans="1:8" outlineLevel="2">
       <c r="A19" s="153" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>723</v>
@@ -13871,9 +13690,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1">
+    <row r="20" spans="1:8" outlineLevel="2">
       <c r="A20" s="153" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>724</v>
@@ -13888,9 +13707,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="64"/>
     </row>
-    <row r="21" spans="1:8" outlineLevel="1">
+    <row r="21" spans="1:8" outlineLevel="2">
       <c r="A21" s="153" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>725</v>
@@ -13905,9 +13724,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1">
+    <row r="22" spans="1:8" outlineLevel="2">
       <c r="A22" s="153" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>726</v>
@@ -13922,9 +13741,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1">
+    <row r="23" spans="1:8" outlineLevel="2">
       <c r="A23" s="153" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>727</v>
@@ -13939,9 +13758,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="64"/>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1">
+    <row r="24" spans="1:8" outlineLevel="2">
       <c r="A24" s="153" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>728</v>
@@ -13956,9 +13775,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="1:8" outlineLevel="1">
+    <row r="25" spans="1:8" outlineLevel="2">
       <c r="A25" s="153" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>729</v>
@@ -13973,9 +13792,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1">
+    <row r="26" spans="1:8" outlineLevel="2">
       <c r="A26" s="153" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>730</v>
@@ -13990,9 +13809,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1">
+    <row r="27" spans="1:8" outlineLevel="2">
       <c r="A27" s="153" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>731</v>
@@ -14007,9 +13826,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="1:8" outlineLevel="1">
+    <row r="28" spans="1:8" outlineLevel="2">
       <c r="A28" s="153" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>732</v>
@@ -14024,9 +13843,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="1:8" outlineLevel="1">
+    <row r="29" spans="1:8" outlineLevel="2">
       <c r="A29" s="153" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>733</v>
@@ -14041,9 +13860,9 @@
       <c r="G29" s="3"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="1:8" outlineLevel="1">
+    <row r="30" spans="1:8" outlineLevel="2">
       <c r="A30" s="153" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>734</v>
@@ -14058,9 +13877,9 @@
       <c r="G30" s="3"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="1:8" outlineLevel="1">
+    <row r="31" spans="1:8" outlineLevel="2">
       <c r="A31" s="153" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>735</v>
@@ -14075,9 +13894,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1">
+    <row r="32" spans="1:8" outlineLevel="2">
       <c r="A32" s="153" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>736</v>
@@ -14092,9 +13911,9 @@
       <c r="G32" s="3"/>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="1:8" outlineLevel="1">
+    <row r="33" spans="1:8" outlineLevel="2">
       <c r="A33" s="153" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>737</v>
@@ -14109,9 +13928,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="64"/>
     </row>
-    <row r="34" spans="1:8" outlineLevel="1">
+    <row r="34" spans="1:8" outlineLevel="2">
       <c r="A34" s="153" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>738</v>
@@ -14126,9 +13945,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="1:8" outlineLevel="1">
+    <row r="35" spans="1:8" outlineLevel="2">
       <c r="A35" s="153" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>739</v>
@@ -14143,9 +13962,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="1:8" outlineLevel="1">
+    <row r="36" spans="1:8" outlineLevel="2">
       <c r="A36" s="153" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>740</v>
@@ -14160,9 +13979,9 @@
       <c r="G36" s="3"/>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="1:8" outlineLevel="1">
+    <row r="37" spans="1:8" outlineLevel="2">
       <c r="A37" s="153" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>741</v>
@@ -14177,9 +13996,9 @@
       <c r="G37" s="3"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="1:8" outlineLevel="1">
-      <c r="A38" s="310" t="s">
-        <v>954</v>
+    <row r="38" spans="1:8" outlineLevel="2">
+      <c r="A38" s="254" t="s">
+        <v>942</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>742</v>
@@ -14194,9 +14013,9 @@
       <c r="G38" s="3"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="1:8" outlineLevel="1">
+    <row r="39" spans="1:8" outlineLevel="2">
       <c r="A39" s="153" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>743</v>
@@ -14211,9 +14030,9 @@
       <c r="G39" s="3"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1">
+    <row r="40" spans="1:8" outlineLevel="2">
       <c r="A40" s="153" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>744</v>
@@ -14228,9 +14047,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="64"/>
     </row>
-    <row r="41" spans="1:8" outlineLevel="1">
+    <row r="41" spans="1:8" outlineLevel="2">
       <c r="A41" s="153" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>745</v>
@@ -14245,9 +14064,9 @@
       <c r="G41" s="3"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1">
+    <row r="42" spans="1:8" outlineLevel="2">
       <c r="A42" s="153" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>746</v>
@@ -14262,9 +14081,9 @@
       <c r="G42" s="3"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="1:8" outlineLevel="1">
+    <row r="43" spans="1:8" outlineLevel="2">
       <c r="A43" s="153" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>747</v>
@@ -14279,9 +14098,9 @@
       <c r="G43" s="3"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1">
+    <row r="44" spans="1:8" outlineLevel="2">
       <c r="A44" s="153" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>747</v>
@@ -14296,9 +14115,9 @@
       <c r="G44" s="3"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1">
+    <row r="45" spans="1:8" outlineLevel="2">
       <c r="A45" s="153" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>748</v>
@@ -14313,9 +14132,9 @@
       <c r="G45" s="3"/>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="1:8" outlineLevel="1">
+    <row r="46" spans="1:8" outlineLevel="2">
       <c r="A46" s="153" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>749</v>
@@ -14330,9 +14149,9 @@
       <c r="G46" s="3"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1">
+    <row r="47" spans="1:8" outlineLevel="2">
       <c r="A47" s="153" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>750</v>
@@ -14347,9 +14166,9 @@
       <c r="G47" s="3"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1">
+    <row r="48" spans="1:8" outlineLevel="2">
       <c r="A48" s="153" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>751</v>
@@ -14364,9 +14183,9 @@
       <c r="G48" s="3"/>
       <c r="H48" s="64"/>
     </row>
-    <row r="49" spans="1:8" outlineLevel="1">
+    <row r="49" spans="1:8" outlineLevel="2">
       <c r="A49" s="153" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>752</v>
@@ -14381,9 +14200,9 @@
       <c r="G49" s="3"/>
       <c r="H49" s="64"/>
     </row>
-    <row r="50" spans="1:8" outlineLevel="1">
+    <row r="50" spans="1:8" outlineLevel="2">
       <c r="A50" s="153" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>753</v>
@@ -14398,9 +14217,9 @@
       <c r="G50" s="3"/>
       <c r="H50" s="64"/>
     </row>
-    <row r="51" spans="1:8" outlineLevel="1">
+    <row r="51" spans="1:8" outlineLevel="2">
       <c r="A51" s="153" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>753</v>
@@ -14415,9 +14234,9 @@
       <c r="G51" s="3"/>
       <c r="H51" s="64"/>
     </row>
-    <row r="52" spans="1:8" outlineLevel="1">
+    <row r="52" spans="1:8" outlineLevel="2">
       <c r="A52" s="153" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>754</v>
@@ -14432,9 +14251,9 @@
       <c r="G52" s="3"/>
       <c r="H52" s="64"/>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1">
+    <row r="53" spans="1:8" outlineLevel="2">
       <c r="A53" s="153" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>755</v>
@@ -14449,9 +14268,9 @@
       <c r="G53" s="3"/>
       <c r="H53" s="64"/>
     </row>
-    <row r="54" spans="1:8" outlineLevel="1">
+    <row r="54" spans="1:8" outlineLevel="2">
       <c r="A54" s="153" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>756</v>
@@ -14466,9 +14285,9 @@
       <c r="G54" s="3"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="1:8" outlineLevel="1">
+    <row r="55" spans="1:8" outlineLevel="2">
       <c r="A55" s="153" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>757</v>
@@ -14483,9 +14302,9 @@
       <c r="G55" s="3"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="1:8" outlineLevel="1">
+    <row r="56" spans="1:8" outlineLevel="2">
       <c r="A56" s="153" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>758</v>
@@ -14500,9 +14319,9 @@
       <c r="G56" s="3"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="1:8" outlineLevel="1">
+    <row r="57" spans="1:8" outlineLevel="2">
       <c r="A57" s="153" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>759</v>
@@ -14517,9 +14336,9 @@
       <c r="G57" s="3"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="1:8" outlineLevel="1">
+    <row r="58" spans="1:8" outlineLevel="2">
       <c r="A58" s="153" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>760</v>
@@ -14534,9 +14353,9 @@
       <c r="G58" s="3"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="1:8" outlineLevel="1">
+    <row r="59" spans="1:8" outlineLevel="2">
       <c r="A59" s="153" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>761</v>
@@ -14551,9 +14370,9 @@
       <c r="G59" s="3"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="1:8" outlineLevel="1">
+    <row r="60" spans="1:8" outlineLevel="2">
       <c r="A60" s="153" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>762</v>
@@ -14568,9 +14387,9 @@
       <c r="G60" s="3"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="1:8" outlineLevel="1">
+    <row r="61" spans="1:8" outlineLevel="2">
       <c r="A61" s="153" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>763</v>
@@ -14585,9 +14404,9 @@
       <c r="G61" s="3"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="1:8" outlineLevel="1">
+    <row r="62" spans="1:8" outlineLevel="2">
       <c r="A62" s="153" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>764</v>
@@ -14615,7 +14434,7 @@
     </row>
     <row r="64" spans="1:8" outlineLevel="1">
       <c r="A64" s="153" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>870</v>
@@ -14632,7 +14451,7 @@
     </row>
     <row r="65" spans="1:8" outlineLevel="1">
       <c r="A65" s="153" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>872</v>
@@ -14649,7 +14468,7 @@
     </row>
     <row r="66" spans="1:8" outlineLevel="1">
       <c r="A66" s="153" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>873</v>
@@ -14666,7 +14485,7 @@
     </row>
     <row r="67" spans="1:8" outlineLevel="1">
       <c r="A67" s="153" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>876</v>
@@ -14683,7 +14502,7 @@
     </row>
     <row r="68" spans="1:8" outlineLevel="1">
       <c r="A68" s="153" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>874</v>
@@ -14700,7 +14519,7 @@
     </row>
     <row r="69" spans="1:8" outlineLevel="1">
       <c r="A69" s="153" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>875</v>
@@ -15882,7 +15701,7 @@
       <c r="H138" s="65"/>
     </row>
     <row r="139" spans="1:8" outlineLevel="1">
-      <c r="A139" s="251" t="s">
+      <c r="A139" s="250" t="s">
         <v>912</v>
       </c>
       <c r="C139" s="236" t="s">
@@ -15899,7 +15718,7 @@
       <c r="H139" s="65"/>
     </row>
     <row r="140" spans="1:8" outlineLevel="1">
-      <c r="A140" s="251" t="s">
+      <c r="A140" s="250" t="s">
         <v>275</v>
       </c>
       <c r="C140" s="236" t="s">
@@ -15916,7 +15735,7 @@
       <c r="H140" s="65"/>
     </row>
     <row r="141" spans="1:8" outlineLevel="1">
-      <c r="A141" s="251" t="s">
+      <c r="A141" s="250" t="s">
         <v>911</v>
       </c>
       <c r="C141" s="236" t="s">
@@ -16068,26 +15887,27 @@
       <c r="G149" s="38"/>
       <c r="H149" s="65"/>
     </row>
-    <row r="150" spans="1:8" s="251" customFormat="1" ht="15.75" hidden="1" outlineLevel="2">
-      <c r="A150" s="258" t="s">
-        <v>913</v>
-      </c>
-      <c r="B150" s="252"/>
-      <c r="C150" s="264" t="s">
-        <v>915</v>
-      </c>
-      <c r="D150" s="253"/>
-      <c r="E150" s="257"/>
-      <c r="F150" s="250"/>
-      <c r="G150" s="254"/>
-      <c r="H150" s="256"/>
-    </row>
-    <row r="151" spans="1:8" outlineLevel="1" collapsed="1">
+    <row r="150" spans="1:8" outlineLevel="1">
+      <c r="B150" s="127"/>
+      <c r="C150" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="D150" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F150" s="24"/>
+      <c r="G150" s="38"/>
+      <c r="H150" s="65"/>
+    </row>
+    <row r="151" spans="1:8" outlineLevel="1">
       <c r="B151" s="127"/>
       <c r="C151" s="133" t="s">
         <v>236</v>
       </c>
-      <c r="D151" s="132" t="s">
+      <c r="D151" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E151" s="22" t="s">
@@ -16097,145 +15917,144 @@
       <c r="G151" s="38"/>
       <c r="H151" s="65"/>
     </row>
-    <row r="152" spans="1:8" outlineLevel="1">
-      <c r="B152" s="127"/>
-      <c r="C152" s="133" t="s">
-        <v>236</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F152" s="24"/>
+    <row r="152" spans="1:8" ht="15.75" outlineLevel="1">
+      <c r="A152" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C152" s="237" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="38"/>
       <c r="H152" s="65"/>
     </row>
-    <row r="153" spans="1:8" ht="15.75" outlineLevel="1">
-      <c r="A153" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C153" s="237" t="s">
-        <v>37</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E153" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="F153" s="3"/>
+    <row r="153" spans="1:8" outlineLevel="1">
+      <c r="B153" s="127"/>
+      <c r="C153" s="150" t="s">
+        <v>371</v>
+      </c>
+      <c r="D153" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F153" s="24"/>
       <c r="G153" s="38"/>
       <c r="H153" s="65"/>
     </row>
-    <row r="154" spans="1:8" s="251" customFormat="1" ht="15.75" hidden="1" outlineLevel="2">
-      <c r="A154" s="260" t="s">
-        <v>914</v>
-      </c>
-      <c r="B154" s="252"/>
-      <c r="C154" s="255" t="s">
-        <v>915</v>
-      </c>
-      <c r="D154" s="253"/>
-      <c r="E154" s="257"/>
-      <c r="F154" s="250"/>
-      <c r="G154" s="254"/>
-      <c r="H154" s="256"/>
-    </row>
-    <row r="155" spans="1:8" outlineLevel="1" collapsed="1">
-      <c r="B155" s="127"/>
-      <c r="C155" s="150" t="s">
+    <row r="154" spans="1:8" outlineLevel="1">
+      <c r="C154" s="128" t="s">
         <v>371</v>
       </c>
-      <c r="D155" s="132" t="s">
+      <c r="D154" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E155" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F155" s="24"/>
-      <c r="G155" s="38"/>
-      <c r="H155" s="65"/>
-    </row>
-    <row r="156" spans="1:8" outlineLevel="1">
-      <c r="C156" s="128" t="s">
-        <v>371</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F156" s="24"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="65"/>
-    </row>
-    <row r="157" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A157" s="4" t="s">
+      <c r="E154" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F154" s="24"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="65"/>
+    </row>
+    <row r="155" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A155" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B157" s="56"/>
-      <c r="C157" s="57" t="s">
+      <c r="B155" s="56"/>
+      <c r="C155" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D157" s="232" t="s">
+      <c r="D155" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="232" t="s">
+      <c r="E155" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="F157" s="232" t="s">
+      <c r="F155" s="232" t="s">
         <v>104</v>
       </c>
-      <c r="G157" s="232" t="s">
+      <c r="G155" s="232" t="s">
         <v>103</v>
       </c>
+      <c r="H155" s="64"/>
+    </row>
+    <row r="156" spans="1:8" ht="30" outlineLevel="1">
+      <c r="A156" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="F156" s="48"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="64"/>
+    </row>
+    <row r="157" spans="1:8" ht="21">
+      <c r="B157" s="58"/>
+      <c r="C157" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F157" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G157" s="59" t="s">
+        <v>103</v>
+      </c>
       <c r="H157" s="64"/>
     </row>
-    <row r="158" spans="1:8" ht="30" outlineLevel="1">
+    <row r="158" spans="1:8" outlineLevel="1">
       <c r="A158" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>97</v>
+        <v>316</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>812</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E158" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="F158" s="48"/>
+      <c r="E158" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="64"/>
     </row>
-    <row r="159" spans="1:8" ht="21">
-      <c r="B159" s="58"/>
-      <c r="C159" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D159" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="F159" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="G159" s="59" t="s">
-        <v>103</v>
-      </c>
+    <row r="159" spans="1:8" outlineLevel="1">
+      <c r="C159" s="150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="64"/>
     </row>
     <row r="160" spans="1:8" outlineLevel="1">
-      <c r="A160" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>812</v>
+      <c r="C160" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>53</v>
@@ -16247,23 +16066,23 @@
       <c r="G160" s="3"/>
       <c r="H160" s="64"/>
     </row>
-    <row r="161" spans="1:8" s="260" customFormat="1" ht="15.75" hidden="1" outlineLevel="2">
-      <c r="A161" s="270" t="s">
-        <v>916</v>
-      </c>
-      <c r="B161" s="262"/>
-      <c r="C161" s="277" t="s">
-        <v>915</v>
-      </c>
-      <c r="D161" s="261"/>
-      <c r="E161" s="267"/>
-      <c r="F161" s="259"/>
-      <c r="G161" s="259"/>
-      <c r="H161" s="265"/>
-    </row>
-    <row r="162" spans="1:8" outlineLevel="1" collapsed="1">
-      <c r="C162" s="150" t="s">
+    <row r="161" spans="1:8" outlineLevel="1">
+      <c r="C161" s="150" t="s">
         <v>370</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="64"/>
+    </row>
+    <row r="162" spans="1:8" outlineLevel="1">
+      <c r="C162" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>53</v>
@@ -16276,8 +16095,8 @@
       <c r="H162" s="64"/>
     </row>
     <row r="163" spans="1:8" outlineLevel="1">
-      <c r="C163" s="150" t="s">
-        <v>370</v>
+      <c r="C163" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>53</v>
@@ -16289,23 +16108,34 @@
       <c r="G163" s="3"/>
       <c r="H163" s="64"/>
     </row>
-    <row r="164" spans="1:8" outlineLevel="1">
-      <c r="C164" s="150" t="s">
-        <v>370</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E164" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+    <row r="164" spans="1:8" ht="21">
+      <c r="A164" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B164" s="58"/>
+      <c r="C164" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F164" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G164" s="59" t="s">
+        <v>103</v>
+      </c>
       <c r="H164" s="64"/>
     </row>
     <row r="165" spans="1:8" outlineLevel="1">
-      <c r="C165" s="46" t="s">
-        <v>15</v>
+      <c r="A165" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>813</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>53</v>
@@ -16318,8 +16148,8 @@
       <c r="H165" s="64"/>
     </row>
     <row r="166" spans="1:8" outlineLevel="1">
-      <c r="C166" s="46" t="s">
-        <v>15</v>
+      <c r="C166" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>53</v>
@@ -16331,34 +16161,23 @@
       <c r="G166" s="3"/>
       <c r="H166" s="64"/>
     </row>
-    <row r="167" spans="1:8" ht="21">
-      <c r="A167" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B167" s="58"/>
-      <c r="C167" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="F167" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="G167" s="59" t="s">
-        <v>103</v>
-      </c>
+    <row r="167" spans="1:8" outlineLevel="1">
+      <c r="C167" s="150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E167" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
       <c r="H167" s="64"/>
     </row>
     <row r="168" spans="1:8" outlineLevel="1">
-      <c r="A168" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>813</v>
+      <c r="C168" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>53</v>
@@ -16370,23 +16189,23 @@
       <c r="G168" s="3"/>
       <c r="H168" s="64"/>
     </row>
-    <row r="169" spans="1:8" s="260" customFormat="1" ht="15.75" hidden="1" outlineLevel="2">
-      <c r="A169" s="271" t="s">
-        <v>917</v>
-      </c>
-      <c r="B169" s="262"/>
-      <c r="C169" s="277" t="s">
-        <v>915</v>
-      </c>
-      <c r="D169" s="261"/>
-      <c r="E169" s="267"/>
-      <c r="F169" s="259"/>
-      <c r="G169" s="259"/>
-      <c r="H169" s="265"/>
-    </row>
-    <row r="170" spans="1:8" outlineLevel="1" collapsed="1">
-      <c r="C170" s="150" t="s">
-        <v>370</v>
+    <row r="169" spans="1:8" outlineLevel="1">
+      <c r="C169" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="64"/>
+    </row>
+    <row r="170" spans="1:8" outlineLevel="1">
+      <c r="C170" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>53</v>
@@ -16398,23 +16217,34 @@
       <c r="G170" s="3"/>
       <c r="H170" s="64"/>
     </row>
-    <row r="171" spans="1:8" outlineLevel="1">
-      <c r="C171" s="150" t="s">
-        <v>370</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E171" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+    <row r="171" spans="1:8" ht="21">
+      <c r="A171" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" s="58"/>
+      <c r="C171" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F171" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G171" s="59" t="s">
+        <v>103</v>
+      </c>
       <c r="H171" s="64"/>
     </row>
     <row r="172" spans="1:8" outlineLevel="1">
-      <c r="C172" s="150" t="s">
-        <v>370</v>
+      <c r="A172" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>814</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>53</v>
@@ -16427,8 +16257,8 @@
       <c r="H172" s="64"/>
     </row>
     <row r="173" spans="1:8" outlineLevel="1">
-      <c r="C173" s="46" t="s">
-        <v>15</v>
+      <c r="C173" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>53</v>
@@ -16441,8 +16271,8 @@
       <c r="H173" s="64"/>
     </row>
     <row r="174" spans="1:8" outlineLevel="1">
-      <c r="C174" s="46" t="s">
-        <v>15</v>
+      <c r="C174" s="150" t="s">
+        <v>370</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>53</v>
@@ -16454,34 +16284,23 @@
       <c r="G174" s="3"/>
       <c r="H174" s="64"/>
     </row>
-    <row r="175" spans="1:8" ht="21">
-      <c r="A175" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B175" s="58"/>
-      <c r="C175" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="F175" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="G175" s="59" t="s">
-        <v>103</v>
-      </c>
+    <row r="175" spans="1:8" outlineLevel="1">
+      <c r="C175" s="150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
       <c r="H175" s="64"/>
     </row>
     <row r="176" spans="1:8" outlineLevel="1">
-      <c r="A176" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C176" s="30" t="s">
-        <v>814</v>
+      <c r="C176" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>53</v>
@@ -16493,360 +16312,403 @@
       <c r="G176" s="3"/>
       <c r="H176" s="64"/>
     </row>
-    <row r="177" spans="1:13" s="260" customFormat="1" ht="15.75" hidden="1" outlineLevel="2">
-      <c r="A177" s="273" t="s">
-        <v>918</v>
-      </c>
-      <c r="B177" s="262"/>
-      <c r="C177" s="277" t="s">
-        <v>915</v>
-      </c>
-      <c r="D177" s="261"/>
-      <c r="E177" s="267"/>
-      <c r="F177" s="259"/>
-      <c r="G177" s="259"/>
-      <c r="H177" s="265"/>
-    </row>
-    <row r="178" spans="1:13" outlineLevel="1" collapsed="1">
-      <c r="C178" s="150" t="s">
-        <v>370</v>
-      </c>
-      <c r="D178" s="7" t="s">
+    <row r="177" spans="1:13" outlineLevel="1">
+      <c r="C177" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E178" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="E177" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="64"/>
+    </row>
+    <row r="178" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B178" s="58"/>
+      <c r="C178" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F178" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G178" s="59" t="s">
+        <v>103</v>
+      </c>
       <c r="H178" s="64"/>
     </row>
     <row r="179" spans="1:13" outlineLevel="1">
-      <c r="C179" s="150" t="s">
-        <v>370</v>
+      <c r="A179" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C179" s="49" t="s">
+        <v>107</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E179" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E179" s="112" t="s">
         <v>100</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="64"/>
     </row>
-    <row r="180" spans="1:13" outlineLevel="1">
-      <c r="C180" s="150" t="s">
-        <v>370</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E180" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+    <row r="180" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A180" s="115"/>
+      <c r="B180" s="116"/>
+      <c r="C180" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="231" t="s">
+        <v>102</v>
+      </c>
+      <c r="F180" s="231" t="s">
+        <v>104</v>
+      </c>
+      <c r="G180" s="231" t="s">
+        <v>103</v>
+      </c>
       <c r="H180" s="64"/>
     </row>
-    <row r="181" spans="1:13" outlineLevel="1">
-      <c r="C181" s="46" t="s">
-        <v>15</v>
+    <row r="181" spans="1:13" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A181" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="5" t="s">
+        <v>897</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E181" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" s="108" t="s">
         <v>100</v>
       </c>
       <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="64"/>
-    </row>
-    <row r="182" spans="1:13" outlineLevel="1">
-      <c r="C182" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E182" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="64"/>
-    </row>
-    <row r="183" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B183" s="58"/>
-      <c r="C183" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D183" s="59" t="s">
+      <c r="G181" s="50"/>
+      <c r="H181" s="84"/>
+      <c r="I181" s="90"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="90"/>
+      <c r="L181" s="90"/>
+      <c r="M181" s="91"/>
+    </row>
+    <row r="182" spans="1:13" s="194" customFormat="1" ht="21">
+      <c r="B182" s="117"/>
+      <c r="C182" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="D182" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E183" s="59" t="s">
+      <c r="E182" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="F183" s="59" t="s">
+      <c r="F182" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="G183" s="59" t="s">
+      <c r="G182" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="H183" s="64"/>
-    </row>
-    <row r="184" spans="1:13" outlineLevel="1">
-      <c r="A184" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C184" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D184" s="7" t="s">
+      <c r="H182" s="84"/>
+    </row>
+    <row r="183" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A183" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="B183" s="12"/>
+      <c r="C183" s="29" t="s">
+        <v>898</v>
+      </c>
+      <c r="D183" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E184" s="112" t="s">
+      <c r="E183" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F183" s="3"/>
+      <c r="G183" s="136"/>
+      <c r="H183" s="84"/>
+      <c r="I183" s="85"/>
+      <c r="J183" s="93"/>
+      <c r="K183" s="92"/>
+      <c r="L183" s="90"/>
+      <c r="M183" s="89"/>
+    </row>
+    <row r="184" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B184" s="12"/>
+      <c r="C184" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D184" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
-      <c r="H184" s="64"/>
-    </row>
-    <row r="185" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A185" s="115"/>
-      <c r="B185" s="116"/>
-      <c r="C185" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D185" s="231" t="s">
+      <c r="H184" s="84"/>
+      <c r="I184" s="85"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="92"/>
+      <c r="L184" s="90"/>
+      <c r="M184" s="94"/>
+    </row>
+    <row r="185" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B185" s="12"/>
+      <c r="C185" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D185" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="84"/>
+      <c r="I185" s="85"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="92"/>
+      <c r="L185" s="90"/>
+      <c r="M185" s="94"/>
+    </row>
+    <row r="186" spans="1:13" s="194" customFormat="1" ht="21">
+      <c r="A186" s="194" t="s">
+        <v>284</v>
+      </c>
+      <c r="B186" s="117"/>
+      <c r="C186" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="D186" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E185" s="231" t="s">
+      <c r="E186" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="F185" s="231" t="s">
+      <c r="F186" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="G185" s="231" t="s">
+      <c r="G186" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="H185" s="64"/>
-    </row>
-    <row r="186" spans="1:13" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A186" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B186" s="7"/>
-      <c r="C186" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="D186" s="7" t="s">
+      <c r="H186" s="84"/>
+    </row>
+    <row r="187" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A187" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="B187" s="12"/>
+      <c r="C187" s="29" t="s">
+        <v>900</v>
+      </c>
+      <c r="D187" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E186" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="84"/>
-      <c r="I186" s="90"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="90"/>
-      <c r="L186" s="90"/>
-      <c r="M186" s="91"/>
-    </row>
-    <row r="187" spans="1:13" s="194" customFormat="1" ht="21">
-      <c r="B187" s="117"/>
-      <c r="C187" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="D187" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="F187" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="G187" s="118" t="s">
-        <v>103</v>
-      </c>
+      <c r="E187" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
       <c r="H187" s="84"/>
+      <c r="I187" s="85"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="92"/>
+      <c r="L187" s="90"/>
+      <c r="M187" s="94"/>
     </row>
     <row r="188" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A188" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="B188" s="12"/>
-      <c r="C188" s="29" t="s">
-        <v>898</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E188" s="111" t="s">
+      <c r="B188" s="127"/>
+      <c r="C188" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D188" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F188" s="3"/>
-      <c r="G188" s="136"/>
+      <c r="G188" s="3"/>
       <c r="H188" s="84"/>
       <c r="I188" s="85"/>
-      <c r="J188" s="93"/>
+      <c r="J188" s="12"/>
       <c r="K188" s="92"/>
       <c r="L188" s="90"/>
-      <c r="M188" s="89"/>
-    </row>
-    <row r="189" spans="1:13" s="281" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A189" s="290" t="s">
-        <v>919</v>
-      </c>
-      <c r="B189" s="275"/>
-      <c r="C189" s="299" t="s">
-        <v>915</v>
-      </c>
-      <c r="D189" s="275"/>
-      <c r="E189" s="288"/>
-      <c r="F189" s="272"/>
-      <c r="G189" s="272"/>
-      <c r="H189" s="279"/>
-      <c r="I189" s="280"/>
-      <c r="J189" s="285"/>
-      <c r="K189" s="284"/>
-      <c r="L189" s="283"/>
-      <c r="M189" s="282"/>
-    </row>
-    <row r="190" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B190" s="12"/>
-      <c r="C190" s="129" t="s">
+      <c r="M188" s="94"/>
+    </row>
+    <row r="189" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B189" s="12"/>
+      <c r="C189" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="D190" s="39" t="s">
+      <c r="D189" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E190" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+      <c r="E189" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="84"/>
+      <c r="I189" s="85"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="92"/>
+      <c r="L189" s="90"/>
+      <c r="M189" s="94"/>
+    </row>
+    <row r="190" spans="1:13" s="194" customFormat="1" ht="21">
+      <c r="A190" s="195" t="s">
+        <v>284</v>
+      </c>
+      <c r="B190" s="117"/>
+      <c r="C190" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D190" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="F190" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="G190" s="118" t="s">
+        <v>103</v>
+      </c>
       <c r="H190" s="84"/>
-      <c r="I190" s="85"/>
-      <c r="J190" s="12"/>
-      <c r="K190" s="92"/>
-      <c r="L190" s="90"/>
-      <c r="M190" s="94"/>
     </row>
     <row r="191" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A191" s="87" t="s">
+        <v>325</v>
+      </c>
       <c r="B191" s="12"/>
-      <c r="C191" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="D191" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191" s="22" t="s">
+      <c r="C191" s="134" t="s">
+        <v>901</v>
+      </c>
+      <c r="D191" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191" s="111" t="s">
         <v>100</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="84"/>
-      <c r="I191" s="85"/>
+      <c r="I191" s="3"/>
       <c r="J191" s="12"/>
       <c r="K191" s="92"/>
       <c r="L191" s="90"/>
       <c r="M191" s="94"/>
     </row>
-    <row r="192" spans="1:13" s="194" customFormat="1" ht="21">
-      <c r="A192" s="194" t="s">
-        <v>284</v>
-      </c>
-      <c r="B192" s="117"/>
-      <c r="C192" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="D192" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="F192" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="G192" s="118" t="s">
-        <v>103</v>
-      </c>
+    <row r="192" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B192" s="12"/>
+      <c r="C192" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D192" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
       <c r="H192" s="84"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="92"/>
+      <c r="L192" s="90"/>
+      <c r="M192" s="94"/>
     </row>
     <row r="193" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A193" s="87" t="s">
-        <v>324</v>
-      </c>
       <c r="B193" s="12"/>
-      <c r="C193" s="29" t="s">
-        <v>900</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E193" s="138" t="s">
+      <c r="C193" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="84"/>
-      <c r="I193" s="85"/>
+      <c r="I193" s="3"/>
       <c r="J193" s="12"/>
       <c r="K193" s="92"/>
       <c r="L193" s="90"/>
       <c r="M193" s="94"/>
     </row>
-    <row r="194" spans="1:14" s="281" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A194" s="291" t="s">
-        <v>920</v>
-      </c>
-      <c r="B194" s="275"/>
-      <c r="C194" s="299" t="s">
-        <v>915</v>
-      </c>
-      <c r="D194" s="275"/>
-      <c r="E194" s="288"/>
-      <c r="F194" s="272"/>
-      <c r="G194" s="272"/>
-      <c r="H194" s="279"/>
-      <c r="I194" s="280"/>
-      <c r="J194" s="275"/>
-      <c r="K194" s="284"/>
-      <c r="L194" s="283"/>
-      <c r="M194" s="286"/>
-    </row>
-    <row r="195" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B195" s="127"/>
-      <c r="C195" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="D195" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E195" s="22" t="s">
+    <row r="194" spans="1:14" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A194" s="195" t="s">
+        <v>284</v>
+      </c>
+      <c r="B194" s="117"/>
+      <c r="C194" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="D194" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="F194" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="G194" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="H194" s="84"/>
+    </row>
+    <row r="195" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A195" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="B195" s="12"/>
+      <c r="C195" s="29" t="s">
+        <v>902</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" s="111" t="s">
         <v>100</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="84"/>
-      <c r="I195" s="85"/>
+      <c r="I195" s="3"/>
       <c r="J195" s="12"/>
       <c r="K195" s="92"/>
       <c r="L195" s="90"/>
       <c r="M195" s="94"/>
+      <c r="N195" s="96"/>
     </row>
     <row r="196" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B196" s="12"/>
-      <c r="C196" s="129" t="s">
+      <c r="C196" s="131" t="s">
         <v>235</v>
       </c>
       <c r="D196" s="39" t="s">
@@ -16856,80 +16718,81 @@
         <v>100</v>
       </c>
       <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="G196" s="137"/>
       <c r="H196" s="84"/>
-      <c r="I196" s="85"/>
+      <c r="I196" s="3"/>
       <c r="J196" s="12"/>
       <c r="K196" s="92"/>
       <c r="L196" s="90"/>
-      <c r="M196" s="94"/>
-    </row>
-    <row r="197" spans="1:14" s="194" customFormat="1" ht="21">
-      <c r="A197" s="195" t="s">
+      <c r="M196" s="86"/>
+    </row>
+    <row r="197" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B197" s="12"/>
+      <c r="C197" s="131" t="s">
+        <v>235</v>
+      </c>
+      <c r="D197" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="84"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="92"/>
+      <c r="L197" s="90"/>
+      <c r="M197" s="94"/>
+    </row>
+    <row r="198" spans="1:14" s="194" customFormat="1" ht="21">
+      <c r="A198" s="195" t="s">
         <v>284</v>
       </c>
-      <c r="B197" s="117"/>
-      <c r="C197" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="D197" s="118" t="s">
+      <c r="B198" s="117"/>
+      <c r="C198" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="D198" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E197" s="118" t="s">
+      <c r="E198" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="F197" s="118" t="s">
+      <c r="F198" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="G197" s="118" t="s">
+      <c r="G198" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="H197" s="84"/>
-    </row>
-    <row r="198" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A198" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="B198" s="12"/>
-      <c r="C198" s="134" t="s">
-        <v>901</v>
-      </c>
-      <c r="D198" s="139" t="s">
+      <c r="H198" s="84"/>
+    </row>
+    <row r="199" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A199" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="B199" s="12"/>
+      <c r="C199" s="134" t="s">
+        <v>903</v>
+      </c>
+      <c r="D199" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E198" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="84"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="12"/>
-      <c r="K198" s="92"/>
-      <c r="L198" s="90"/>
-      <c r="M198" s="94"/>
-    </row>
-    <row r="199" spans="1:14" s="281" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A199" s="292" t="s">
-        <v>921</v>
-      </c>
-      <c r="B199" s="275"/>
-      <c r="C199" s="299" t="s">
-        <v>915</v>
-      </c>
-      <c r="D199" s="275"/>
-      <c r="E199" s="288"/>
-      <c r="F199" s="272"/>
-      <c r="G199" s="272"/>
-      <c r="H199" s="279"/>
-      <c r="I199" s="272"/>
-      <c r="J199" s="275"/>
-      <c r="K199" s="284"/>
-      <c r="L199" s="283"/>
-      <c r="M199" s="286"/>
-    </row>
-    <row r="200" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B200" s="12"/>
+      <c r="E199" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="84"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="92"/>
+      <c r="L199" s="90"/>
+      <c r="M199" s="94"/>
+    </row>
+    <row r="200" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B200" s="127"/>
       <c r="C200" s="129" t="s">
         <v>235</v>
       </c>
@@ -16939,7 +16802,7 @@
       <c r="E200" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="F200" s="3"/>
+      <c r="F200" s="137"/>
       <c r="G200" s="3"/>
       <c r="H200" s="84"/>
       <c r="I200" s="3"/>
@@ -16947,6 +16810,7 @@
       <c r="K200" s="92"/>
       <c r="L200" s="90"/>
       <c r="M200" s="94"/>
+      <c r="N200" s="96"/>
     </row>
     <row r="201" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B201" s="12"/>
@@ -16968,13 +16832,13 @@
       <c r="L201" s="90"/>
       <c r="M201" s="94"/>
     </row>
-    <row r="202" spans="1:14" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="202" spans="1:14" s="194" customFormat="1" ht="21">
       <c r="A202" s="195" t="s">
         <v>284</v>
       </c>
       <c r="B202" s="117"/>
       <c r="C202" s="117" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D202" s="118" t="s">
         <v>8</v>
@@ -16992,51 +16856,50 @@
     </row>
     <row r="203" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A203" s="87" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B203" s="12"/>
-      <c r="C203" s="29" t="s">
-        <v>902</v>
-      </c>
-      <c r="D203" s="12" t="s">
+      <c r="C203" s="134" t="s">
+        <v>904</v>
+      </c>
+      <c r="D203" s="139" t="s">
         <v>27</v>
       </c>
       <c r="E203" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
+      <c r="F203" s="136"/>
+      <c r="G203" s="136"/>
       <c r="H203" s="84"/>
       <c r="I203" s="3"/>
       <c r="J203" s="12"/>
       <c r="K203" s="92"/>
       <c r="L203" s="90"/>
       <c r="M203" s="94"/>
-      <c r="N203" s="96"/>
-    </row>
-    <row r="204" spans="1:14" s="281" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A204" s="293" t="s">
-        <v>922</v>
-      </c>
-      <c r="B204" s="275"/>
-      <c r="C204" s="299" t="s">
-        <v>915</v>
-      </c>
-      <c r="D204" s="275"/>
-      <c r="E204" s="288"/>
-      <c r="F204" s="272"/>
-      <c r="G204" s="272"/>
-      <c r="H204" s="279"/>
-      <c r="I204" s="272"/>
-      <c r="J204" s="275"/>
-      <c r="K204" s="284"/>
-      <c r="L204" s="283"/>
-      <c r="M204" s="286"/>
-      <c r="N204" s="287"/>
-    </row>
-    <row r="205" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
+    </row>
+    <row r="204" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="B204" s="12"/>
+      <c r="C204" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="D204" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="F204" s="137"/>
+      <c r="G204" s="137"/>
+      <c r="H204" s="84"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="92"/>
+      <c r="L204" s="90"/>
+      <c r="M204" s="95"/>
+    </row>
+    <row r="205" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B205" s="12"/>
-      <c r="C205" s="131" t="s">
+      <c r="C205" s="141" t="s">
         <v>235</v>
       </c>
       <c r="D205" s="39" t="s">
@@ -17046,382 +16909,560 @@
         <v>100</v>
       </c>
       <c r="F205" s="3"/>
-      <c r="G205" s="137"/>
+      <c r="G205" s="3"/>
       <c r="H205" s="84"/>
       <c r="I205" s="3"/>
       <c r="J205" s="12"/>
       <c r="K205" s="92"/>
       <c r="L205" s="90"/>
-      <c r="M205" s="86"/>
-    </row>
-    <row r="206" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="B206" s="12"/>
-      <c r="C206" s="131" t="s">
-        <v>235</v>
-      </c>
-      <c r="D206" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E206" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="84"/>
+      <c r="M205" s="94"/>
+    </row>
+    <row r="206" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A206" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B206" s="120"/>
+      <c r="C206" s="122" t="s">
+        <v>892</v>
+      </c>
+      <c r="D206" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="F206" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="G206" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="H206" s="18"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="12"/>
-      <c r="K206" s="92"/>
-      <c r="L206" s="90"/>
-      <c r="M206" s="94"/>
-    </row>
-    <row r="207" spans="1:14" s="194" customFormat="1" ht="21">
-      <c r="A207" s="195" t="s">
-        <v>284</v>
-      </c>
-      <c r="B207" s="117"/>
-      <c r="C207" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="D207" s="118" t="s">
+      <c r="J206" s="76"/>
+      <c r="K206" s="77"/>
+      <c r="L206" s="78"/>
+      <c r="M206" s="79"/>
+    </row>
+    <row r="207" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="B207" s="197"/>
+      <c r="C207" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="D207" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="E207" s="118" t="s">
+      <c r="E207" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="F207" s="118" t="s">
+      <c r="F207" s="229" t="s">
         <v>104</v>
       </c>
-      <c r="G207" s="118" t="s">
+      <c r="G207" s="229" t="s">
         <v>103</v>
       </c>
       <c r="H207" s="84"/>
-    </row>
-    <row r="208" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A208" s="87" t="s">
-        <v>327</v>
+      <c r="I207" s="80"/>
+      <c r="J207" s="76"/>
+      <c r="K207" s="80"/>
+      <c r="L207" s="80"/>
+      <c r="M207" s="8"/>
+    </row>
+    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A208" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="B208" s="12"/>
-      <c r="C208" s="134" t="s">
-        <v>903</v>
-      </c>
-      <c r="D208" s="12" t="s">
-        <v>27</v>
+      <c r="C208" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E208" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F208" s="3"/>
+      <c r="F208" s="24"/>
       <c r="G208" s="3"/>
       <c r="H208" s="84"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="12"/>
-      <c r="K208" s="92"/>
-      <c r="L208" s="90"/>
-      <c r="M208" s="94"/>
-    </row>
-    <row r="209" spans="1:28" s="281" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A209" s="294" t="s">
-        <v>923</v>
-      </c>
-      <c r="B209" s="275"/>
-      <c r="C209" s="299" t="s">
-        <v>915</v>
-      </c>
-      <c r="D209" s="275"/>
-      <c r="E209" s="288"/>
-      <c r="F209" s="272"/>
-      <c r="G209" s="272"/>
-      <c r="H209" s="279"/>
-      <c r="I209" s="272"/>
-      <c r="J209" s="275"/>
-      <c r="K209" s="284"/>
-      <c r="L209" s="283"/>
-      <c r="M209" s="286"/>
-    </row>
-    <row r="210" spans="1:28" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="B210" s="127"/>
-      <c r="C210" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="D210" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E210" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="F210" s="137"/>
+      <c r="I208" s="78"/>
+      <c r="J208" s="81"/>
+      <c r="K208" s="80"/>
+      <c r="L208" s="78"/>
+      <c r="M208" s="82"/>
+    </row>
+    <row r="209" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A209" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B209" s="12"/>
+      <c r="C209" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E209" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F209" s="24"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="84"/>
+      <c r="I209" s="78"/>
+      <c r="J209" s="81"/>
+      <c r="K209" s="80"/>
+      <c r="L209" s="78"/>
+      <c r="M209" s="82"/>
+    </row>
+    <row r="210" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A210" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B210" s="12"/>
+      <c r="C210" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E210" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F210" s="24"/>
       <c r="G210" s="3"/>
       <c r="H210" s="84"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="12"/>
-      <c r="K210" s="92"/>
-      <c r="L210" s="90"/>
-      <c r="M210" s="94"/>
-      <c r="N210" s="96"/>
-    </row>
-    <row r="211" spans="1:28" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="B211" s="12"/>
-      <c r="C211" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="D211" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E211" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
+      <c r="I210" s="78"/>
+      <c r="J210" s="81"/>
+      <c r="K210" s="80"/>
+      <c r="L210" s="78"/>
+      <c r="M210" s="82"/>
+    </row>
+    <row r="211" spans="1:28" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B211" s="197"/>
+      <c r="C211" s="204" t="s">
+        <v>144</v>
+      </c>
+      <c r="D211" s="228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="228" t="s">
+        <v>102</v>
+      </c>
+      <c r="F211" s="229" t="s">
+        <v>104</v>
+      </c>
+      <c r="G211" s="229" t="s">
+        <v>103</v>
+      </c>
       <c r="H211" s="84"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="12"/>
-      <c r="K211" s="92"/>
-      <c r="L211" s="90"/>
-      <c r="M211" s="94"/>
-    </row>
-    <row r="212" spans="1:28" s="194" customFormat="1" ht="21">
-      <c r="A212" s="195" t="s">
-        <v>284</v>
-      </c>
-      <c r="B212" s="117"/>
-      <c r="C212" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="D212" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E212" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="F212" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="G212" s="118" t="s">
-        <v>103</v>
-      </c>
+      <c r="I211" s="80"/>
+      <c r="J211" s="76"/>
+      <c r="K211" s="80"/>
+      <c r="L211" s="80"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+      <c r="W211" s="4"/>
+      <c r="X211" s="4"/>
+      <c r="Y211" s="4"/>
+      <c r="Z211" s="4"/>
+      <c r="AA211" s="4"/>
+      <c r="AB211" s="4"/>
+    </row>
+    <row r="212" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A212" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="B212" s="12"/>
+      <c r="C212" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E212" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F212" s="51"/>
+      <c r="G212" s="3"/>
       <c r="H212" s="84"/>
-    </row>
-    <row r="213" spans="1:28" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A213" s="87" t="s">
-        <v>328</v>
+      <c r="I212" s="83"/>
+      <c r="J212" s="76"/>
+      <c r="K212" s="80"/>
+      <c r="L212" s="80"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="4"/>
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+      <c r="W212" s="4"/>
+      <c r="X212" s="4"/>
+      <c r="Y212" s="4"/>
+      <c r="Z212" s="4"/>
+      <c r="AA212" s="4"/>
+      <c r="AB212" s="4"/>
+    </row>
+    <row r="213" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="A213" s="106" t="s">
+        <v>333</v>
       </c>
       <c r="B213" s="12"/>
-      <c r="C213" s="134" t="s">
-        <v>904</v>
-      </c>
-      <c r="D213" s="139" t="s">
+      <c r="C213" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E213" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F213" s="136"/>
-      <c r="G213" s="136"/>
+      <c r="F213" s="51"/>
+      <c r="G213" s="3"/>
       <c r="H213" s="84"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="92"/>
-      <c r="L213" s="90"/>
-      <c r="M213" s="94"/>
-    </row>
-    <row r="214" spans="1:28" s="281" customFormat="1" ht="14.1" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A214" s="302" t="s">
-        <v>924</v>
-      </c>
-      <c r="B214" s="275"/>
-      <c r="C214" s="299" t="s">
-        <v>915</v>
-      </c>
-      <c r="D214" s="275"/>
-      <c r="E214" s="288"/>
-      <c r="F214" s="272"/>
-      <c r="G214" s="272"/>
-      <c r="H214" s="279"/>
-      <c r="I214" s="272"/>
-      <c r="J214" s="275"/>
-      <c r="K214" s="284"/>
-      <c r="L214" s="283"/>
-      <c r="M214" s="286"/>
-    </row>
-    <row r="215" spans="1:28" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="I213" s="83"/>
+      <c r="J213" s="76"/>
+      <c r="K213" s="80"/>
+      <c r="L213" s="80"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="4"/>
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+      <c r="W213" s="4"/>
+      <c r="X213" s="4"/>
+      <c r="Y213" s="4"/>
+      <c r="Z213" s="4"/>
+      <c r="AA213" s="4"/>
+      <c r="AB213" s="4"/>
+    </row>
+    <row r="214" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A214" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="B214" s="12"/>
+      <c r="C214" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F214" s="51"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="84"/>
+      <c r="I214" s="83"/>
+      <c r="J214" s="76"/>
+      <c r="K214" s="80"/>
+      <c r="L214" s="80"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="4"/>
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+      <c r="W214" s="4"/>
+      <c r="X214" s="4"/>
+      <c r="Y214" s="4"/>
+      <c r="Z214" s="4"/>
+      <c r="AA214" s="4"/>
+      <c r="AB214" s="4"/>
+    </row>
+    <row r="215" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A215" s="106" t="s">
+        <v>335</v>
+      </c>
       <c r="B215" s="12"/>
-      <c r="C215" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="D215" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E215" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="F215" s="137"/>
-      <c r="G215" s="137"/>
+      <c r="C215" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E215" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F215" s="51"/>
+      <c r="G215" s="3"/>
       <c r="H215" s="84"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="12"/>
-      <c r="K215" s="92"/>
-      <c r="L215" s="90"/>
-      <c r="M215" s="95"/>
-    </row>
-    <row r="216" spans="1:28" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+      <c r="I215" s="83"/>
+      <c r="J215" s="76"/>
+      <c r="K215" s="80"/>
+      <c r="L215" s="80"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+      <c r="W215" s="4"/>
+      <c r="X215" s="4"/>
+      <c r="Y215" s="4"/>
+      <c r="Z215" s="4"/>
+      <c r="AA215" s="4"/>
+      <c r="AB215" s="4"/>
+    </row>
+    <row r="216" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A216" s="106" t="s">
+        <v>336</v>
+      </c>
       <c r="B216" s="12"/>
-      <c r="C216" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="D216" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E216" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F216" s="3"/>
+      <c r="C216" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E216" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F216" s="51"/>
       <c r="G216" s="3"/>
       <c r="H216" s="84"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="12"/>
-      <c r="K216" s="92"/>
-      <c r="L216" s="90"/>
-      <c r="M216" s="94"/>
-    </row>
-    <row r="217" spans="1:28" ht="35.1" customHeight="1">
-      <c r="A217" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B217" s="120"/>
-      <c r="C217" s="122" t="s">
-        <v>892</v>
-      </c>
-      <c r="D217" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E217" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="F217" s="123" t="s">
-        <v>104</v>
-      </c>
-      <c r="G217" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="H217" s="18"/>
-      <c r="I217" s="3"/>
+      <c r="I216" s="83"/>
+      <c r="J216" s="76"/>
+      <c r="K216" s="80"/>
+      <c r="L216" s="80"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+      <c r="X216" s="4"/>
+      <c r="Y216" s="4"/>
+      <c r="Z216" s="4"/>
+      <c r="AA216" s="4"/>
+      <c r="AB216" s="4"/>
+    </row>
+    <row r="217" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A217" s="106" t="s">
+        <v>337</v>
+      </c>
+      <c r="B217" s="12"/>
+      <c r="C217" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E217" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F217" s="51"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="84"/>
+      <c r="I217" s="83"/>
       <c r="J217" s="76"/>
-      <c r="K217" s="77"/>
-      <c r="L217" s="78"/>
-      <c r="M217" s="79"/>
-    </row>
-    <row r="218" spans="1:28" ht="20.100000000000001" customHeight="1">
-      <c r="B218" s="197"/>
-      <c r="C218" s="204" t="s">
-        <v>141</v>
-      </c>
-      <c r="D218" s="228" t="s">
-        <v>8</v>
-      </c>
-      <c r="E218" s="228" t="s">
-        <v>102</v>
-      </c>
-      <c r="F218" s="229" t="s">
-        <v>104</v>
-      </c>
-      <c r="G218" s="229" t="s">
-        <v>103</v>
-      </c>
+      <c r="K217" s="80"/>
+      <c r="L217" s="80"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+      <c r="X217" s="4"/>
+      <c r="Y217" s="4"/>
+      <c r="Z217" s="4"/>
+      <c r="AA217" s="4"/>
+      <c r="AB217" s="4"/>
+    </row>
+    <row r="218" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A218" s="106" t="s">
+        <v>338</v>
+      </c>
+      <c r="B218" s="12"/>
+      <c r="C218" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E218" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F218" s="51"/>
+      <c r="G218" s="3"/>
       <c r="H218" s="84"/>
-      <c r="I218" s="80"/>
+      <c r="I218" s="83"/>
       <c r="J218" s="76"/>
       <c r="K218" s="80"/>
       <c r="L218" s="80"/>
-      <c r="M218" s="8"/>
-    </row>
-    <row r="219" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A219" s="9" t="s">
-        <v>329</v>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="4"/>
+      <c r="Y218" s="4"/>
+      <c r="Z218" s="4"/>
+      <c r="AA218" s="4"/>
+      <c r="AB218" s="4"/>
+    </row>
+    <row r="219" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A219" s="106" t="s">
+        <v>339</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="26" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="E219" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F219" s="24"/>
+      <c r="F219" s="51"/>
       <c r="G219" s="3"/>
       <c r="H219" s="84"/>
-      <c r="I219" s="78"/>
-      <c r="J219" s="81"/>
+      <c r="I219" s="83"/>
+      <c r="J219" s="76"/>
       <c r="K219" s="80"/>
-      <c r="L219" s="78"/>
-      <c r="M219" s="82"/>
-    </row>
-    <row r="220" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A220" s="9" t="s">
-        <v>330</v>
+      <c r="L219" s="80"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="4"/>
+      <c r="Y219" s="4"/>
+      <c r="Z219" s="4"/>
+      <c r="AA219" s="4"/>
+      <c r="AB219" s="4"/>
+    </row>
+    <row r="220" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A220" s="106" t="s">
+        <v>340</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="26" t="s">
-        <v>890</v>
+        <v>154</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="E220" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F220" s="24"/>
+      <c r="F220" s="51"/>
       <c r="G220" s="3"/>
       <c r="H220" s="84"/>
-      <c r="I220" s="78"/>
-      <c r="J220" s="81"/>
+      <c r="I220" s="83"/>
+      <c r="J220" s="76"/>
       <c r="K220" s="80"/>
-      <c r="L220" s="78"/>
-      <c r="M220" s="82"/>
-    </row>
-    <row r="221" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A221" s="9" t="s">
-        <v>331</v>
+      <c r="L220" s="80"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="4"/>
+      <c r="S220" s="4"/>
+      <c r="T220" s="4"/>
+      <c r="U220" s="4"/>
+      <c r="V220" s="4"/>
+      <c r="W220" s="4"/>
+      <c r="X220" s="4"/>
+      <c r="Y220" s="4"/>
+      <c r="Z220" s="4"/>
+      <c r="AA220" s="4"/>
+      <c r="AB220" s="4"/>
+    </row>
+    <row r="221" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A221" s="106" t="s">
+        <v>341</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="26" t="s">
-        <v>891</v>
+        <v>155</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E221" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F221" s="24"/>
+      <c r="F221" s="51"/>
       <c r="G221" s="3"/>
       <c r="H221" s="84"/>
-      <c r="I221" s="78"/>
-      <c r="J221" s="81"/>
+      <c r="I221" s="83"/>
+      <c r="J221" s="76"/>
       <c r="K221" s="80"/>
-      <c r="L221" s="78"/>
-      <c r="M221" s="82"/>
-    </row>
-    <row r="222" spans="1:28" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B222" s="197"/>
-      <c r="C222" s="204" t="s">
-        <v>144</v>
-      </c>
-      <c r="D222" s="228" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" s="228" t="s">
-        <v>102</v>
-      </c>
-      <c r="F222" s="229" t="s">
-        <v>104</v>
-      </c>
-      <c r="G222" s="229" t="s">
-        <v>103</v>
-      </c>
+      <c r="L221" s="80"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+      <c r="W221" s="4"/>
+      <c r="X221" s="4"/>
+      <c r="Y221" s="4"/>
+      <c r="Z221" s="4"/>
+      <c r="AA221" s="4"/>
+      <c r="AB221" s="4"/>
+    </row>
+    <row r="222" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+      <c r="A222" s="106" t="s">
+        <v>342</v>
+      </c>
+      <c r="B222" s="12"/>
+      <c r="C222" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E222" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F222" s="51"/>
+      <c r="G222" s="3"/>
       <c r="H222" s="84"/>
-      <c r="I222" s="80"/>
+      <c r="I222" s="83"/>
       <c r="J222" s="76"/>
       <c r="K222" s="80"/>
       <c r="L222" s="80"/>
@@ -17441,235 +17482,144 @@
       <c r="AA222" s="4"/>
       <c r="AB222" s="4"/>
     </row>
-    <row r="223" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A223" s="106" t="s">
-        <v>332</v>
-      </c>
-      <c r="B223" s="12"/>
-      <c r="C223" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E223" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F223" s="51"/>
-      <c r="G223" s="3"/>
+    <row r="223" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="B223" s="197"/>
+      <c r="C223" s="204" t="s">
+        <v>893</v>
+      </c>
+      <c r="D223" s="228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="228" t="s">
+        <v>102</v>
+      </c>
+      <c r="F223" s="229" t="s">
+        <v>104</v>
+      </c>
+      <c r="G223" s="229" t="s">
+        <v>103</v>
+      </c>
       <c r="H223" s="84"/>
-      <c r="I223" s="83"/>
+      <c r="I223" s="80"/>
       <c r="J223" s="76"/>
       <c r="K223" s="80"/>
       <c r="L223" s="80"/>
-      <c r="N223" s="4"/>
-      <c r="O223" s="4"/>
-      <c r="P223" s="4"/>
-      <c r="Q223" s="4"/>
-      <c r="R223" s="4"/>
-      <c r="S223" s="4"/>
-      <c r="T223" s="4"/>
-      <c r="U223" s="4"/>
-      <c r="V223" s="4"/>
-      <c r="W223" s="4"/>
-      <c r="X223" s="4"/>
-      <c r="Y223" s="4"/>
-      <c r="Z223" s="4"/>
-      <c r="AA223" s="4"/>
-      <c r="AB223" s="4"/>
-    </row>
-    <row r="224" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
-      <c r="A224" s="106" t="s">
-        <v>333</v>
+      <c r="M223" s="8"/>
+    </row>
+    <row r="224" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A224" s="252" t="s">
+        <v>913</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E224" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F224" s="51"/>
+      <c r="F224" s="24"/>
       <c r="G224" s="3"/>
       <c r="H224" s="84"/>
-      <c r="I224" s="83"/>
-      <c r="J224" s="76"/>
+      <c r="I224" s="78"/>
+      <c r="J224" s="81"/>
       <c r="K224" s="80"/>
-      <c r="L224" s="80"/>
-      <c r="N224" s="4"/>
-      <c r="O224" s="4"/>
-      <c r="P224" s="4"/>
-      <c r="Q224" s="4"/>
-      <c r="R224" s="4"/>
-      <c r="S224" s="4"/>
-      <c r="T224" s="4"/>
-      <c r="U224" s="4"/>
-      <c r="V224" s="4"/>
-      <c r="W224" s="4"/>
-      <c r="X224" s="4"/>
-      <c r="Y224" s="4"/>
-      <c r="Z224" s="4"/>
-      <c r="AA224" s="4"/>
-      <c r="AB224" s="4"/>
-    </row>
-    <row r="225" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A225" s="106" t="s">
-        <v>334</v>
+      <c r="L224" s="78"/>
+      <c r="M224" s="82"/>
+    </row>
+    <row r="225" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A225" s="252" t="s">
+        <v>914</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E225" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F225" s="51"/>
+      <c r="F225" s="24"/>
       <c r="G225" s="3"/>
       <c r="H225" s="84"/>
-      <c r="I225" s="83"/>
-      <c r="J225" s="76"/>
+      <c r="I225" s="78"/>
+      <c r="J225" s="81"/>
       <c r="K225" s="80"/>
-      <c r="L225" s="80"/>
-      <c r="N225" s="4"/>
-      <c r="O225" s="4"/>
-      <c r="P225" s="4"/>
-      <c r="Q225" s="4"/>
-      <c r="R225" s="4"/>
-      <c r="S225" s="4"/>
-      <c r="T225" s="4"/>
-      <c r="U225" s="4"/>
-      <c r="V225" s="4"/>
-      <c r="W225" s="4"/>
-      <c r="X225" s="4"/>
-      <c r="Y225" s="4"/>
-      <c r="Z225" s="4"/>
-      <c r="AA225" s="4"/>
-      <c r="AB225" s="4"/>
-    </row>
-    <row r="226" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A226" s="106" t="s">
-        <v>335</v>
+      <c r="L225" s="78"/>
+      <c r="M225" s="82"/>
+    </row>
+    <row r="226" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A226" s="252" t="s">
+        <v>915</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E226" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F226" s="51"/>
+      <c r="F226" s="24"/>
       <c r="G226" s="3"/>
       <c r="H226" s="84"/>
-      <c r="I226" s="83"/>
-      <c r="J226" s="76"/>
+      <c r="I226" s="78"/>
+      <c r="J226" s="81"/>
       <c r="K226" s="80"/>
-      <c r="L226" s="80"/>
-      <c r="N226" s="4"/>
-      <c r="O226" s="4"/>
-      <c r="P226" s="4"/>
-      <c r="Q226" s="4"/>
-      <c r="R226" s="4"/>
-      <c r="S226" s="4"/>
-      <c r="T226" s="4"/>
-      <c r="U226" s="4"/>
-      <c r="V226" s="4"/>
-      <c r="W226" s="4"/>
-      <c r="X226" s="4"/>
-      <c r="Y226" s="4"/>
-      <c r="Z226" s="4"/>
-      <c r="AA226" s="4"/>
-      <c r="AB226" s="4"/>
-    </row>
-    <row r="227" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A227" s="106" t="s">
-        <v>336</v>
-      </c>
-      <c r="B227" s="12"/>
-      <c r="C227" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E227" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F227" s="51"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="84"/>
-      <c r="I227" s="83"/>
-      <c r="J227" s="76"/>
-      <c r="K227" s="80"/>
-      <c r="L227" s="80"/>
-      <c r="N227" s="4"/>
-      <c r="O227" s="4"/>
-      <c r="P227" s="4"/>
-      <c r="Q227" s="4"/>
-      <c r="R227" s="4"/>
-      <c r="S227" s="4"/>
-      <c r="T227" s="4"/>
-      <c r="U227" s="4"/>
-      <c r="V227" s="4"/>
-      <c r="W227" s="4"/>
-      <c r="X227" s="4"/>
-      <c r="Y227" s="4"/>
-      <c r="Z227" s="4"/>
-      <c r="AA227" s="4"/>
-      <c r="AB227" s="4"/>
-    </row>
-    <row r="228" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A228" s="106" t="s">
-        <v>337</v>
-      </c>
-      <c r="B228" s="12"/>
-      <c r="C228" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E228" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F228" s="51"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="84"/>
-      <c r="I228" s="83"/>
-      <c r="J228" s="76"/>
-      <c r="K228" s="80"/>
-      <c r="L228" s="80"/>
-      <c r="N228" s="4"/>
-      <c r="O228" s="4"/>
-      <c r="P228" s="4"/>
-      <c r="Q228" s="4"/>
-      <c r="R228" s="4"/>
-      <c r="S228" s="4"/>
-      <c r="T228" s="4"/>
-      <c r="U228" s="4"/>
-      <c r="V228" s="4"/>
-      <c r="W228" s="4"/>
-      <c r="X228" s="4"/>
-      <c r="Y228" s="4"/>
-      <c r="Z228" s="4"/>
-      <c r="AA228" s="4"/>
-      <c r="AB228" s="4"/>
-    </row>
-    <row r="229" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A229" s="106" t="s">
-        <v>338</v>
-      </c>
-      <c r="B229" s="12"/>
+      <c r="L226" s="78"/>
+      <c r="M226" s="82"/>
+    </row>
+    <row r="227" spans="1:28" ht="35.1" customHeight="1">
+      <c r="B227" s="61"/>
+      <c r="C227" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="F227" s="126" t="s">
+        <v>104</v>
+      </c>
+      <c r="G227" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="H227" s="18"/>
+    </row>
+    <row r="228" spans="1:28" ht="21">
+      <c r="B228" s="206"/>
+      <c r="C228" s="207" t="s">
+        <v>804</v>
+      </c>
+      <c r="D228" s="205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="205" t="s">
+        <v>102</v>
+      </c>
+      <c r="F228" s="230" t="s">
+        <v>104</v>
+      </c>
+      <c r="G228" s="230" t="s">
+        <v>103</v>
+      </c>
+      <c r="H228" s="64"/>
+    </row>
+    <row r="229" spans="1:28" outlineLevel="1">
+      <c r="A229" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B229" s="7"/>
       <c r="C229" s="26" t="s">
-        <v>152</v>
+        <v>834</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>27</v>
@@ -17679,34 +17629,15 @@
       </c>
       <c r="F229" s="51"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="84"/>
-      <c r="I229" s="83"/>
-      <c r="J229" s="76"/>
-      <c r="K229" s="80"/>
-      <c r="L229" s="80"/>
-      <c r="N229" s="4"/>
-      <c r="O229" s="4"/>
-      <c r="P229" s="4"/>
-      <c r="Q229" s="4"/>
-      <c r="R229" s="4"/>
-      <c r="S229" s="4"/>
-      <c r="T229" s="4"/>
-      <c r="U229" s="4"/>
-      <c r="V229" s="4"/>
-      <c r="W229" s="4"/>
-      <c r="X229" s="4"/>
-      <c r="Y229" s="4"/>
-      <c r="Z229" s="4"/>
-      <c r="AA229" s="4"/>
-      <c r="AB229" s="4"/>
-    </row>
-    <row r="230" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A230" s="106" t="s">
-        <v>339</v>
-      </c>
-      <c r="B230" s="12"/>
+      <c r="H229" s="64"/>
+    </row>
+    <row r="230" spans="1:28" outlineLevel="1">
+      <c r="A230" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B230" s="7"/>
       <c r="C230" s="26" t="s">
-        <v>153</v>
+        <v>835</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>27</v>
@@ -17716,34 +17647,15 @@
       </c>
       <c r="F230" s="51"/>
       <c r="G230" s="3"/>
-      <c r="H230" s="84"/>
-      <c r="I230" s="83"/>
-      <c r="J230" s="76"/>
-      <c r="K230" s="80"/>
-      <c r="L230" s="80"/>
-      <c r="N230" s="4"/>
-      <c r="O230" s="4"/>
-      <c r="P230" s="4"/>
-      <c r="Q230" s="4"/>
-      <c r="R230" s="4"/>
-      <c r="S230" s="4"/>
-      <c r="T230" s="4"/>
-      <c r="U230" s="4"/>
-      <c r="V230" s="4"/>
-      <c r="W230" s="4"/>
-      <c r="X230" s="4"/>
-      <c r="Y230" s="4"/>
-      <c r="Z230" s="4"/>
-      <c r="AA230" s="4"/>
-      <c r="AB230" s="4"/>
-    </row>
-    <row r="231" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A231" s="106" t="s">
-        <v>340</v>
-      </c>
-      <c r="B231" s="12"/>
+      <c r="H230" s="64"/>
+    </row>
+    <row r="231" spans="1:28" outlineLevel="1">
+      <c r="A231" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B231" s="7"/>
       <c r="C231" s="26" t="s">
-        <v>154</v>
+        <v>836</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>27</v>
@@ -17753,588 +17665,310 @@
       </c>
       <c r="F231" s="51"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="84"/>
-      <c r="I231" s="83"/>
-      <c r="J231" s="76"/>
-      <c r="K231" s="80"/>
-      <c r="L231" s="80"/>
-      <c r="N231" s="4"/>
-      <c r="O231" s="4"/>
-      <c r="P231" s="4"/>
-      <c r="Q231" s="4"/>
-      <c r="R231" s="4"/>
-      <c r="S231" s="4"/>
-      <c r="T231" s="4"/>
-      <c r="U231" s="4"/>
-      <c r="V231" s="4"/>
-      <c r="W231" s="4"/>
-      <c r="X231" s="4"/>
-      <c r="Y231" s="4"/>
-      <c r="Z231" s="4"/>
-      <c r="AA231" s="4"/>
-      <c r="AB231" s="4"/>
-    </row>
-    <row r="232" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A232" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="B232" s="12"/>
+      <c r="H231" s="64"/>
+    </row>
+    <row r="232" spans="1:28" outlineLevel="1">
+      <c r="A232" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B232" s="7"/>
       <c r="C232" s="26" t="s">
-        <v>155</v>
+        <v>837</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="E232" s="111" t="s">
         <v>100</v>
       </c>
       <c r="F232" s="51"/>
       <c r="G232" s="3"/>
-      <c r="H232" s="84"/>
-      <c r="I232" s="83"/>
-      <c r="J232" s="76"/>
-      <c r="K232" s="80"/>
-      <c r="L232" s="80"/>
-      <c r="N232" s="4"/>
-      <c r="O232" s="4"/>
-      <c r="P232" s="4"/>
-      <c r="Q232" s="4"/>
-      <c r="R232" s="4"/>
-      <c r="S232" s="4"/>
-      <c r="T232" s="4"/>
-      <c r="U232" s="4"/>
-      <c r="V232" s="4"/>
-      <c r="W232" s="4"/>
-      <c r="X232" s="4"/>
-      <c r="Y232" s="4"/>
-      <c r="Z232" s="4"/>
-      <c r="AA232" s="4"/>
-      <c r="AB232" s="4"/>
-    </row>
-    <row r="233" spans="1:28" s="8" customFormat="1" outlineLevel="1">
-      <c r="A233" s="106" t="s">
-        <v>342</v>
-      </c>
-      <c r="B233" s="12"/>
-      <c r="C233" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E233" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F233" s="51"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="84"/>
-      <c r="I233" s="83"/>
-      <c r="J233" s="76"/>
-      <c r="K233" s="80"/>
-      <c r="L233" s="80"/>
-      <c r="N233" s="4"/>
-      <c r="O233" s="4"/>
-      <c r="P233" s="4"/>
-      <c r="Q233" s="4"/>
-      <c r="R233" s="4"/>
-      <c r="S233" s="4"/>
-      <c r="T233" s="4"/>
-      <c r="U233" s="4"/>
-      <c r="V233" s="4"/>
-      <c r="W233" s="4"/>
-      <c r="X233" s="4"/>
-      <c r="Y233" s="4"/>
-      <c r="Z233" s="4"/>
-      <c r="AA233" s="4"/>
-      <c r="AB233" s="4"/>
-    </row>
-    <row r="234" spans="1:28" ht="20.100000000000001" customHeight="1">
-      <c r="B234" s="197"/>
-      <c r="C234" s="204" t="s">
-        <v>893</v>
-      </c>
-      <c r="D234" s="228" t="s">
+      <c r="H232" s="64"/>
+    </row>
+    <row r="233" spans="1:28" ht="21">
+      <c r="B233" s="206"/>
+      <c r="C233" s="207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="E234" s="228" t="s">
+      <c r="E233" s="205" t="s">
         <v>102</v>
       </c>
-      <c r="F234" s="229" t="s">
+      <c r="F233" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="G234" s="229" t="s">
+      <c r="G233" s="230" t="s">
         <v>103</v>
       </c>
-      <c r="H234" s="84"/>
-      <c r="I234" s="80"/>
-      <c r="J234" s="76"/>
-      <c r="K234" s="80"/>
-      <c r="L234" s="80"/>
-      <c r="M234" s="8"/>
-    </row>
-    <row r="235" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A235" s="296" t="s">
-        <v>925</v>
-      </c>
-      <c r="B235" s="12"/>
+      <c r="H233" s="64"/>
+    </row>
+    <row r="234" spans="1:28" outlineLevel="1">
+      <c r="A234" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B234" s="7"/>
+      <c r="C234" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E234" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F234" s="51"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="64"/>
+    </row>
+    <row r="235" spans="1:28" outlineLevel="1">
+      <c r="A235" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B235" s="7"/>
       <c r="C235" s="26" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E235" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F235" s="24"/>
+      <c r="F235" s="51"/>
       <c r="G235" s="3"/>
-      <c r="H235" s="84"/>
-      <c r="I235" s="78"/>
-      <c r="J235" s="81"/>
-      <c r="K235" s="80"/>
-      <c r="L235" s="78"/>
-      <c r="M235" s="82"/>
-    </row>
-    <row r="236" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A236" s="296" t="s">
-        <v>926</v>
-      </c>
-      <c r="B236" s="12"/>
+      <c r="H235" s="64"/>
+    </row>
+    <row r="236" spans="1:28" outlineLevel="1">
+      <c r="A236" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B236" s="7"/>
       <c r="C236" s="26" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E236" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F236" s="24"/>
+      <c r="F236" s="51"/>
       <c r="G236" s="3"/>
-      <c r="H236" s="84"/>
-      <c r="I236" s="78"/>
-      <c r="J236" s="81"/>
-      <c r="K236" s="80"/>
-      <c r="L236" s="78"/>
-      <c r="M236" s="82"/>
-    </row>
-    <row r="237" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A237" s="296" t="s">
-        <v>927</v>
-      </c>
-      <c r="B237" s="12"/>
+      <c r="H236" s="64"/>
+    </row>
+    <row r="237" spans="1:28" outlineLevel="1">
+      <c r="A237" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B237" s="7"/>
       <c r="C237" s="26" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E237" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="F237" s="24"/>
+      <c r="F237" s="51"/>
       <c r="G237" s="3"/>
-      <c r="H237" s="84"/>
-      <c r="I237" s="78"/>
-      <c r="J237" s="81"/>
-      <c r="K237" s="80"/>
-      <c r="L237" s="78"/>
-      <c r="M237" s="82"/>
-    </row>
-    <row r="238" spans="1:28" ht="35.1" customHeight="1">
-      <c r="B238" s="61"/>
-      <c r="C238" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D238" s="126" t="s">
+      <c r="H237" s="64"/>
+    </row>
+    <row r="238" spans="1:28" outlineLevel="1">
+      <c r="A238" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E238" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F238" s="51"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="64"/>
+    </row>
+    <row r="239" spans="1:28" s="86" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B239" s="88"/>
+      <c r="C239" s="124" t="s">
+        <v>907</v>
+      </c>
+      <c r="D239" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="E238" s="126" t="s">
+      <c r="E239" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="F238" s="126" t="s">
+      <c r="F239" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="G238" s="126" t="s">
+      <c r="G239" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="H238" s="18"/>
-    </row>
-    <row r="239" spans="1:28" ht="21">
-      <c r="B239" s="206"/>
-      <c r="C239" s="207" t="s">
-        <v>804</v>
-      </c>
-      <c r="D239" s="205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="F239" s="230" t="s">
-        <v>104</v>
-      </c>
-      <c r="G239" s="230" t="s">
-        <v>103</v>
-      </c>
-      <c r="H239" s="64"/>
-    </row>
-    <row r="240" spans="1:28" outlineLevel="1">
-      <c r="A240" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B240" s="7"/>
+      <c r="H239" s="84"/>
+      <c r="I239" s="85"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="85"/>
+      <c r="L239" s="85"/>
+      <c r="N239" s="87"/>
+      <c r="O239" s="87"/>
+      <c r="P239" s="87"/>
+      <c r="Q239" s="87"/>
+      <c r="R239" s="87"/>
+      <c r="S239" s="87"/>
+      <c r="T239" s="87"/>
+      <c r="U239" s="87"/>
+      <c r="V239" s="87"/>
+      <c r="W239" s="87"/>
+      <c r="X239" s="87"/>
+      <c r="Y239" s="87"/>
+      <c r="Z239" s="87"/>
+      <c r="AA239" s="87"/>
+      <c r="AB239" s="87"/>
+    </row>
+    <row r="240" spans="1:28" s="87" customFormat="1" outlineLevel="1">
+      <c r="A240" s="87" t="s">
+        <v>973</v>
+      </c>
+      <c r="B240" s="12"/>
       <c r="C240" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="D240" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="D240" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E240" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F240" s="51"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="64"/>
-    </row>
-    <row r="241" spans="1:28" outlineLevel="1">
-      <c r="A241" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B241" s="7"/>
-      <c r="C241" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E241" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F241" s="51"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="64"/>
-    </row>
-    <row r="242" spans="1:28" outlineLevel="1">
-      <c r="A242" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B242" s="7"/>
-      <c r="C242" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E242" s="111" t="s">
+      <c r="E240" s="251" t="s">
+        <v>100</v>
+      </c>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="97"/>
+      <c r="I240" s="85"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="85"/>
+      <c r="L240" s="85"/>
+      <c r="M240" s="86"/>
+    </row>
+    <row r="241" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+      <c r="A241" s="87" t="s">
+        <v>974</v>
+      </c>
+      <c r="B241" s="12"/>
+      <c r="C241" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="D241" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E241" s="249" t="s">
+        <v>100</v>
+      </c>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="97"/>
+      <c r="I241" s="85"/>
+      <c r="J241" s="12"/>
+      <c r="K241" s="85"/>
+      <c r="L241" s="85"/>
+      <c r="M241" s="86"/>
+    </row>
+    <row r="242" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+      <c r="A242" s="87" t="s">
+        <v>975</v>
+      </c>
+      <c r="B242" s="12"/>
+      <c r="C242" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="D242" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E242" s="249" t="s">
         <v>100</v>
       </c>
       <c r="F242" s="51"/>
       <c r="G242" s="3"/>
-      <c r="H242" s="64"/>
-    </row>
-    <row r="243" spans="1:28" outlineLevel="1">
-      <c r="A243" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B243" s="7"/>
+      <c r="H242" s="97"/>
+      <c r="I242" s="85"/>
+      <c r="J242" s="12"/>
+      <c r="K242" s="85"/>
+      <c r="L242" s="85"/>
+      <c r="M242" s="86"/>
+    </row>
+    <row r="243" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+      <c r="A243" s="253" t="s">
+        <v>916</v>
+      </c>
+      <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>837</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>27</v>
+        <v>895</v>
+      </c>
+      <c r="D243" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="E243" s="111" t="s">
         <v>100</v>
       </c>
       <c r="F243" s="51"/>
       <c r="G243" s="3"/>
-      <c r="H243" s="64"/>
-    </row>
-    <row r="244" spans="1:28" ht="21">
-      <c r="B244" s="206"/>
-      <c r="C244" s="207" t="s">
-        <v>20</v>
-      </c>
-      <c r="D244" s="205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E244" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="F244" s="230" t="s">
-        <v>104</v>
-      </c>
-      <c r="G244" s="230" t="s">
-        <v>103</v>
-      </c>
-      <c r="H244" s="64"/>
-    </row>
-    <row r="245" spans="1:28" outlineLevel="1">
-      <c r="A245" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B245" s="7"/>
+      <c r="H243" s="97"/>
+      <c r="I243" s="85"/>
+      <c r="J243" s="12"/>
+      <c r="K243" s="85"/>
+      <c r="L243" s="85"/>
+      <c r="M243" s="86"/>
+    </row>
+    <row r="244" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+      <c r="A244" s="253" t="s">
+        <v>917</v>
+      </c>
+      <c r="B244" s="12"/>
+      <c r="C244" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="D244" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E244" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F244" s="51"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="97"/>
+      <c r="I244" s="85"/>
+      <c r="J244" s="12"/>
+      <c r="K244" s="85"/>
+      <c r="L244" s="85"/>
+      <c r="M244" s="86"/>
+    </row>
+    <row r="245" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+      <c r="A245" s="253" t="s">
+        <v>918</v>
+      </c>
+      <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>91</v>
+        <v>899</v>
+      </c>
+      <c r="D245" s="86" t="s">
+        <v>905</v>
       </c>
       <c r="E245" s="111" t="s">
         <v>100</v>
       </c>
       <c r="F245" s="51"/>
       <c r="G245" s="3"/>
-      <c r="H245" s="64"/>
-    </row>
-    <row r="246" spans="1:28" outlineLevel="1">
-      <c r="A246" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B246" s="7"/>
-      <c r="C246" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E246" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F246" s="51"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="64"/>
-    </row>
-    <row r="247" spans="1:28" outlineLevel="1">
-      <c r="A247" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B247" s="7"/>
-      <c r="C247" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D247" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E247" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F247" s="51"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="64"/>
-    </row>
-    <row r="248" spans="1:28" outlineLevel="1">
-      <c r="A248" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B248" s="7"/>
-      <c r="C248" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E248" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F248" s="51"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="64"/>
-    </row>
-    <row r="249" spans="1:28" outlineLevel="1">
-      <c r="A249" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B249" s="7"/>
-      <c r="C249" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E249" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F249" s="51"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="64"/>
-    </row>
-    <row r="250" spans="1:28" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B250" s="88"/>
-      <c r="C250" s="124" t="s">
-        <v>907</v>
-      </c>
-      <c r="D250" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E250" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="F250" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="G250" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="H250" s="84"/>
-      <c r="I250" s="85"/>
-      <c r="J250" s="12"/>
-      <c r="K250" s="85"/>
-      <c r="L250" s="85"/>
-      <c r="N250" s="87"/>
-      <c r="O250" s="87"/>
-      <c r="P250" s="87"/>
-      <c r="Q250" s="87"/>
-      <c r="R250" s="87"/>
-      <c r="S250" s="87"/>
-      <c r="T250" s="87"/>
-      <c r="U250" s="87"/>
-      <c r="V250" s="87"/>
-      <c r="W250" s="87"/>
-      <c r="X250" s="87"/>
-      <c r="Y250" s="87"/>
-      <c r="Z250" s="87"/>
-      <c r="AA250" s="87"/>
-      <c r="AB250" s="87"/>
-    </row>
-    <row r="251" spans="1:28" s="87" customFormat="1" outlineLevel="1">
-      <c r="A251" s="87" t="s">
-        <v>985</v>
-      </c>
-      <c r="B251" s="12"/>
-      <c r="C251" s="26" t="s">
-        <v>838</v>
-      </c>
-      <c r="D251" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="E251" s="288" t="s">
-        <v>100</v>
-      </c>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
-      <c r="H251" s="97"/>
-      <c r="I251" s="85"/>
-      <c r="J251" s="12"/>
-      <c r="K251" s="85"/>
-      <c r="L251" s="85"/>
-      <c r="M251" s="86"/>
-    </row>
-    <row r="252" spans="1:28" s="87" customFormat="1" outlineLevel="1">
-      <c r="A252" s="87" t="s">
-        <v>986</v>
-      </c>
-      <c r="B252" s="12"/>
-      <c r="C252" s="150" t="s">
-        <v>158</v>
-      </c>
-      <c r="D252" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" s="249" t="s">
-        <v>100</v>
-      </c>
-      <c r="F252" s="11"/>
-      <c r="G252" s="11"/>
-      <c r="H252" s="97"/>
-      <c r="I252" s="85"/>
-      <c r="J252" s="12"/>
-      <c r="K252" s="85"/>
-      <c r="L252" s="85"/>
-      <c r="M252" s="86"/>
-    </row>
-    <row r="253" spans="1:28" s="87" customFormat="1" outlineLevel="1">
-      <c r="A253" s="87" t="s">
-        <v>987</v>
-      </c>
-      <c r="B253" s="12"/>
-      <c r="C253" s="150" t="s">
-        <v>159</v>
-      </c>
-      <c r="D253" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E253" s="249" t="s">
-        <v>100</v>
-      </c>
-      <c r="F253" s="51"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="97"/>
-      <c r="I253" s="85"/>
-      <c r="J253" s="12"/>
-      <c r="K253" s="85"/>
-      <c r="L253" s="85"/>
-      <c r="M253" s="86"/>
-    </row>
-    <row r="254" spans="1:28" s="87" customFormat="1" outlineLevel="1">
-      <c r="A254" s="302" t="s">
-        <v>928</v>
-      </c>
-      <c r="B254" s="12"/>
-      <c r="C254" s="26" t="s">
-        <v>895</v>
-      </c>
-      <c r="D254" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E254" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F254" s="51"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="97"/>
-      <c r="I254" s="85"/>
-      <c r="J254" s="12"/>
-      <c r="K254" s="85"/>
-      <c r="L254" s="85"/>
-      <c r="M254" s="86"/>
-    </row>
-    <row r="255" spans="1:28" s="87" customFormat="1" outlineLevel="1">
-      <c r="A255" s="302" t="s">
-        <v>929</v>
-      </c>
-      <c r="B255" s="12"/>
-      <c r="C255" s="26" t="s">
-        <v>896</v>
-      </c>
-      <c r="D255" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E255" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F255" s="51"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="97"/>
-      <c r="I255" s="85"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="85"/>
-      <c r="L255" s="85"/>
-      <c r="M255" s="86"/>
-    </row>
-    <row r="256" spans="1:28" s="87" customFormat="1" outlineLevel="1">
-      <c r="A256" s="302" t="s">
-        <v>930</v>
-      </c>
-      <c r="B256" s="12"/>
-      <c r="C256" s="26" t="s">
-        <v>899</v>
-      </c>
-      <c r="D256" s="86" t="s">
-        <v>905</v>
-      </c>
-      <c r="E256" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F256" s="51"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="97"/>
-      <c r="I256" s="85"/>
-      <c r="J256" s="12"/>
-      <c r="K256" s="85"/>
-      <c r="L256" s="85"/>
-      <c r="M256" s="86"/>
+      <c r="H245" s="97"/>
+      <c r="I245" s="85"/>
+      <c r="J245" s="12"/>
+      <c r="K245" s="85"/>
+      <c r="L245" s="85"/>
+      <c r="M245" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -18374,61 +18008,61 @@
           <x14:formula1>
             <xm:f>Lists!$K$2:$K$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C151:C152</xm:sqref>
+          <xm:sqref>C150:C151</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C155:C156</xm:sqref>
+          <xm:sqref>C153:C154</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$M$2:$M$142</xm:f>
           </x14:formula1>
-          <xm:sqref>C162:C164</xm:sqref>
+          <xm:sqref>C159:C161</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$N$2:$N$103</xm:f>
           </x14:formula1>
-          <xm:sqref>C170:C172</xm:sqref>
+          <xm:sqref>C166:C168</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C195:C196</xm:sqref>
+          <xm:sqref>C188:C189</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C190:C191</xm:sqref>
+          <xm:sqref>C184:C185</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C200:C201</xm:sqref>
+          <xm:sqref>C192:C193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C205:C206</xm:sqref>
+          <xm:sqref>C196:C197</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$G$2:$G$14</xm:f>
           </x14:formula1>
-          <xm:sqref>C210:C211</xm:sqref>
+          <xm:sqref>C200:C201</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$H$2:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C215:C216</xm:sqref>
+          <xm:sqref>C204:C205</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -18440,7 +18074,7 @@
           <x14:formula1>
             <xm:f>Lists!$O$2:$O$107</xm:f>
           </x14:formula1>
-          <xm:sqref>C178:C180</xm:sqref>
+          <xm:sqref>C173:C175</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18571,7 +18205,7 @@
         <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>169</v>
@@ -18662,7 +18296,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>181</v>
@@ -18715,7 +18349,7 @@
         <v>188</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>189</v>
@@ -18753,13 +18387,13 @@
         <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>193</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>194</v>
@@ -18889,7 +18523,7 @@
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1">
       <c r="D12" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>208</v>
@@ -18932,7 +18566,7 @@
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1">
       <c r="G14" s="9" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>233</v>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="885" windowWidth="24240" windowHeight="13740" tabRatio="463" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="945" windowWidth="24240" windowHeight="13680" tabRatio="463" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="127" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="976">
   <si>
     <t>Country</t>
   </si>
@@ -1292,27 +1292,18 @@
     <t>Atrazine</t>
   </si>
   <si>
-    <t>Aziprotryn</t>
-  </si>
-  <si>
     <t>Benazolin</t>
   </si>
   <si>
     <t>Benoxacor</t>
   </si>
   <si>
-    <t>Bentazon</t>
-  </si>
-  <si>
     <t>Benzoic acid</t>
   </si>
   <si>
     <t>Benzthiazuron</t>
   </si>
   <si>
-    <t>Succinic acid - 2,2-dimethylhydrazid</t>
-  </si>
-  <si>
     <t>Bifenox</t>
   </si>
   <si>
@@ -1322,12 +1313,6 @@
     <t>Bromoxynil</t>
   </si>
   <si>
-    <t>Bromoxynil-Octanoat</t>
-  </si>
-  <si>
-    <t>Bromphenoxim</t>
-  </si>
-  <si>
     <t>Butafenacil</t>
   </si>
   <si>
@@ -1358,9 +1343,6 @@
     <t>Chlorthal</t>
   </si>
   <si>
-    <t>Chlorotoluron</t>
-  </si>
-  <si>
     <t>Cinidon-ethyl</t>
   </si>
   <si>
@@ -1379,9 +1361,6 @@
     <t>Cloquintocet-mexyl</t>
   </si>
   <si>
-    <t>Cyanamid</t>
-  </si>
-  <si>
     <t>Cyanazine</t>
   </si>
   <si>
@@ -1430,12 +1409,6 @@
     <t>Ethofumesate</t>
   </si>
   <si>
-    <t>Fenoxapropethyl</t>
-  </si>
-  <si>
-    <t>Fenoxaprop-P-ethyl</t>
-  </si>
-  <si>
     <t>Flazasulfuron</t>
   </si>
   <si>
@@ -1454,36 +1427,18 @@
     <t>Fluoroglycofen</t>
   </si>
   <si>
-    <t>Flupyrsulfuron-methyl-sodium</t>
-  </si>
-  <si>
     <t>Flurenol</t>
   </si>
   <si>
-    <t>Flurochloridon</t>
-  </si>
-  <si>
     <t>Fluroxypyr</t>
   </si>
   <si>
-    <t>Fluroxypyr as ester</t>
-  </si>
-  <si>
-    <t>Fluroxypyr-meptyl</t>
-  </si>
-  <si>
     <t>Foramsulfuron</t>
   </si>
   <si>
     <t>Glufosinate</t>
   </si>
   <si>
-    <t>Glyphosat</t>
-  </si>
-  <si>
-    <t>Haloxyfop-(R)-methyl ester</t>
-  </si>
-  <si>
     <t>Imazamox</t>
   </si>
   <si>
@@ -1496,9 +1451,6 @@
     <t>Ioxynil</t>
   </si>
   <si>
-    <t>Ioxynil as ester</t>
-  </si>
-  <si>
     <t>Isoxadifen-ethyl</t>
   </si>
   <si>
@@ -1595,9 +1547,6 @@
     <t>Pinoxaden</t>
   </si>
   <si>
-    <t>Piperonyl butoxid</t>
-  </si>
-  <si>
     <t>Propachlor</t>
   </si>
   <si>
@@ -1610,9 +1559,6 @@
     <t>Propoxycarbazone-sodium</t>
   </si>
   <si>
-    <t>Propyzamide</t>
-  </si>
-  <si>
     <t>Prosulfocarb</t>
   </si>
   <si>
@@ -1640,15 +1586,9 @@
     <t>Simazine</t>
   </si>
   <si>
-    <t>S-Metolachlor</t>
-  </si>
-  <si>
     <t>Sulcotrione</t>
   </si>
   <si>
-    <t>Sulfosat</t>
-  </si>
-  <si>
     <t>Sulfosulfuron</t>
   </si>
   <si>
@@ -1661,9 +1601,6 @@
     <t>Terbacil</t>
   </si>
   <si>
-    <t>Terbuthylazine</t>
-  </si>
-  <si>
     <t>Terbutryn</t>
   </si>
   <si>
@@ -1697,15 +1634,6 @@
     <t>Acibenzolar-S-methyl</t>
   </si>
   <si>
-    <t>Aluminiumfosetyl (Fosetyl-Al)</t>
-  </si>
-  <si>
-    <t>Anilazin</t>
-  </si>
-  <si>
-    <t>Azaconazole</t>
-  </si>
-  <si>
     <t>Azoxystrobin</t>
   </si>
   <si>
@@ -1730,9 +1658,6 @@
     <t>Bupirimate</t>
   </si>
   <si>
-    <t>Calciumcyanamid</t>
-  </si>
-  <si>
     <t>Captan</t>
   </si>
   <si>
@@ -1754,9 +1679,6 @@
     <t>Cymoxanil</t>
   </si>
   <si>
-    <t>Cyproconazol</t>
-  </si>
-  <si>
     <t>Cyprodinil</t>
   </si>
   <si>
@@ -1769,18 +1691,12 @@
     <t>Diethofencarb</t>
   </si>
   <si>
-    <t>Difenoconazol</t>
-  </si>
-  <si>
     <t>Dimethomorph</t>
   </si>
   <si>
     <t>Dinocap</t>
   </si>
   <si>
-    <t>Dithianon</t>
-  </si>
-  <si>
     <t>Dodemorph</t>
   </si>
   <si>
@@ -1793,9 +1709,6 @@
     <t>Famoxadone</t>
   </si>
   <si>
-    <t>Fenamidon</t>
-  </si>
-  <si>
     <t>Fenbuconazole</t>
   </si>
   <si>
@@ -1844,9 +1757,6 @@
     <t>Guazatine</t>
   </si>
   <si>
-    <t>Hexaconazol</t>
-  </si>
-  <si>
     <t>Hymexazol</t>
   </si>
   <si>
@@ -1877,12 +1787,6 @@
     <t>Mepronil</t>
   </si>
   <si>
-    <t>Metalaxyl</t>
-  </si>
-  <si>
-    <t>Metconazol</t>
-  </si>
-  <si>
     <t>Metiram</t>
   </si>
   <si>
@@ -1892,9 +1796,6 @@
     <t>Nitrothal-isopropyl</t>
   </si>
   <si>
-    <t>Orthophenylphenol</t>
-  </si>
-  <si>
     <t>Oxadixyl</t>
   </si>
   <si>
@@ -1919,18 +1820,12 @@
     <t>Propamocarb-hydrochloride</t>
   </si>
   <si>
-    <t>Propiconazol</t>
-  </si>
-  <si>
     <t>Propineb</t>
   </si>
   <si>
     <t>Proquinazid</t>
   </si>
   <si>
-    <t>Prothioconazole</t>
-  </si>
-  <si>
     <t>Pyraclostrobin</t>
   </si>
   <si>
@@ -1985,12 +1880,6 @@
     <t>Zineb</t>
   </si>
   <si>
-    <t>Ziram</t>
-  </si>
-  <si>
-    <t>Zoxamid</t>
-  </si>
-  <si>
     <t>Fungicide, unspecified</t>
   </si>
   <si>
@@ -2027,15 +1916,6 @@
     <t>Bensultap</t>
   </si>
   <si>
-    <t>Benzoximat</t>
-  </si>
-  <si>
-    <t>beta-Cyfluthrin</t>
-  </si>
-  <si>
-    <t>Bioallethrin</t>
-  </si>
-  <si>
     <t>Bromopropylate</t>
   </si>
   <si>
@@ -2054,9 +1934,6 @@
     <t>Chlorfenvinphos</t>
   </si>
   <si>
-    <t>Chlorpyrifos-methyl</t>
-  </si>
-  <si>
     <t>Clofentezine</t>
   </si>
   <si>
@@ -2075,18 +1952,12 @@
     <t>Cypermethrin high-cis</t>
   </si>
   <si>
-    <t>Cyromazin</t>
-  </si>
-  <si>
     <t>Demeton-S-methylsulfon</t>
   </si>
   <si>
     <t>Diafenthiuron</t>
   </si>
   <si>
-    <t>Dialifos</t>
-  </si>
-  <si>
     <t>Diazinon</t>
   </si>
   <si>
@@ -2117,12 +1988,6 @@
     <t>Esfenvalerate</t>
   </si>
   <si>
-    <t>Ethiophencarb</t>
-  </si>
-  <si>
-    <t>Etoxazol</t>
-  </si>
-  <si>
     <t>Fenazaquin</t>
   </si>
   <si>
@@ -2165,12 +2030,6 @@
     <t>Lufenuron</t>
   </si>
   <si>
-    <t>Magnesiumphosphide</t>
-  </si>
-  <si>
-    <t>Metaldehyd</t>
-  </si>
-  <si>
     <t>Methidathion</t>
   </si>
   <si>
@@ -2186,24 +2045,12 @@
     <t>Methoxyfenozide</t>
   </si>
   <si>
-    <t>Mevinphos</t>
-  </si>
-  <si>
-    <t>Natriumhexafluorosilikat</t>
-  </si>
-  <si>
     <t>Novaluron</t>
   </si>
   <si>
-    <t>Octanoic acid (as Na- and Fe-salt)</t>
-  </si>
-  <si>
     <t>Oxamyl</t>
   </si>
   <si>
-    <t>Parathion-methyl</t>
-  </si>
-  <si>
     <t>Permethrin</t>
   </si>
   <si>
@@ -2213,9 +2060,6 @@
     <t>Phosmet</t>
   </si>
   <si>
-    <t>Pirimiphos-methyl</t>
-  </si>
-  <si>
     <t>Potassium soap</t>
   </si>
   <si>
@@ -2231,9 +2075,6 @@
     <t>Pyrethrum</t>
   </si>
   <si>
-    <t>Rotenon</t>
-  </si>
-  <si>
     <t>Spinosad</t>
   </si>
   <si>
@@ -2249,24 +2090,15 @@
     <t>Tebufenpyrad</t>
   </si>
   <si>
-    <t>Tetrachlorvinphos</t>
-  </si>
-  <si>
     <t>Thiacloprid</t>
   </si>
   <si>
     <t>Thiamethoxam</t>
   </si>
   <si>
-    <t>Thiocyclam hydrogen oxalat</t>
-  </si>
-  <si>
     <t>Thiophanate-methyl</t>
   </si>
   <si>
-    <t>Triazamat</t>
-  </si>
-  <si>
     <t>Trichlorfon</t>
   </si>
   <si>
@@ -2304,9 +2136,6 @@
   </si>
   <si>
     <t>Insecticide, unspecified</t>
-  </si>
-  <si>
-    <t>Sulphur (S)</t>
   </si>
   <si>
     <t>If no irrigation, put 0</t>
@@ -3056,9 +2885,6 @@
     <t>P rock phosphate</t>
   </si>
   <si>
-    <t>Para-tertiary Amylphenol</t>
-  </si>
-  <si>
     <t>Electricity, photovoltaic, produced on-site</t>
   </si>
   <si>
@@ -3327,6 +3153,168 @@
   </si>
   <si>
     <t>Select your country:</t>
+  </si>
+  <si>
+    <t>Aziprotryne</t>
+  </si>
+  <si>
+    <t>Bentazone</t>
+  </si>
+  <si>
+    <t>Daminozide</t>
+  </si>
+  <si>
+    <t>Bromoxynil octanoate</t>
+  </si>
+  <si>
+    <t>Bromofenoxim</t>
+  </si>
+  <si>
+    <t>Chlortoluron</t>
+  </si>
+  <si>
+    <t>Cyanamide</t>
+  </si>
+  <si>
+    <t>Fenoxaprop ethyl ester</t>
+  </si>
+  <si>
+    <t>Fenoxaprop-P ethyl ester</t>
+  </si>
+  <si>
+    <t>Flupyrsulfuron-methyl</t>
+  </si>
+  <si>
+    <t>Flurochloridone</t>
+  </si>
+  <si>
+    <t>Starane</t>
+  </si>
+  <si>
+    <t>Glyphosate</t>
+  </si>
+  <si>
+    <t>Haloxyfop-P-methyl</t>
+  </si>
+  <si>
+    <t>Ioxynil Methyl Ester</t>
+  </si>
+  <si>
+    <t>Piperonyl butoxide</t>
+  </si>
+  <si>
+    <t>Pronamide</t>
+  </si>
+  <si>
+    <t>Metolachlor, (S)</t>
+  </si>
+  <si>
+    <t>Sulfosate</t>
+  </si>
+  <si>
+    <t>Terbuthylazin</t>
+  </si>
+  <si>
+    <t>Fosetyl-aluminium</t>
+  </si>
+  <si>
+    <t>Anilazine</t>
+  </si>
+  <si>
+    <t>Azaconazol</t>
+  </si>
+  <si>
+    <t>Calcium cyanamide</t>
+  </si>
+  <si>
+    <t>Cyproconazole</t>
+  </si>
+  <si>
+    <t>Difenoconazole</t>
+  </si>
+  <si>
+    <t>Dithianone</t>
+  </si>
+  <si>
+    <t>Fenamidone</t>
+  </si>
+  <si>
+    <t>Hexaconazole</t>
+  </si>
+  <si>
+    <t>Metalaxil</t>
+  </si>
+  <si>
+    <t>Metconazole</t>
+  </si>
+  <si>
+    <t>2-Phenylphenol</t>
+  </si>
+  <si>
+    <t>Propiconazole</t>
+  </si>
+  <si>
+    <t>Prothioconazol</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>Benzoximate</t>
+  </si>
+  <si>
+    <t>Allethrin</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos methyl</t>
+  </si>
+  <si>
+    <t>Cyromazine</t>
+  </si>
+  <si>
+    <t>Dialifor</t>
+  </si>
+  <si>
+    <t>Ethiofencarb</t>
+  </si>
+  <si>
+    <t>Etoxazole</t>
+  </si>
+  <si>
+    <t>Magnesium phosphide</t>
+  </si>
+  <si>
+    <t>Metaldehyde</t>
+  </si>
+  <si>
+    <t>Mevinfos</t>
+  </si>
+  <si>
+    <t>Sodium fluorosilicate</t>
+  </si>
+  <si>
+    <t>Octanoic acid</t>
+  </si>
+  <si>
+    <t>P-tert-amylphenol</t>
+  </si>
+  <si>
+    <t>Parathion, methyl</t>
+  </si>
+  <si>
+    <t>Pirimiphos methyl</t>
+  </si>
+  <si>
+    <t>Rotenone</t>
+  </si>
+  <si>
+    <t>Rabon</t>
+  </si>
+  <si>
+    <t>Thiocyclam</t>
+  </si>
+  <si>
+    <t>Triazamate</t>
   </si>
 </sst>
 </file>
@@ -4202,7 +4190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -4547,6 +4535,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="613">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5235,7 +5238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5927,6 +5930,18 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5939,18 +5954,6 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5965,6 +5968,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="613">
@@ -8922,25 +8928,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="258" t="s">
-        <v>791</v>
-      </c>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
+      <c r="B6" s="262" t="s">
+        <v>734</v>
+      </c>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -8957,14 +8963,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="259" t="s">
-        <v>766</v>
-      </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
+      <c r="B8" s="263" t="s">
+        <v>709</v>
+      </c>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -8981,14 +8987,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="260" t="s">
-        <v>831</v>
-      </c>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
+      <c r="B10" s="264" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -8996,21 +9002,21 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="264"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
     <row r="12" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A12" s="154"/>
       <c r="B12" s="179" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
       <c r="C12" s="174"/>
       <c r="D12" s="256" t="s">
-        <v>768</v>
+        <v>711</v>
       </c>
       <c r="E12" s="256"/>
       <c r="F12" s="256"/>
@@ -9021,11 +9027,11 @@
     <row r="13" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A13" s="154"/>
       <c r="B13" s="179" t="s">
-        <v>796</v>
+        <v>739</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="256" t="s">
-        <v>798</v>
+        <v>741</v>
       </c>
       <c r="E13" s="256"/>
       <c r="F13" s="256"/>
@@ -9036,11 +9042,11 @@
     <row r="14" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A14" s="154"/>
       <c r="B14" s="179" t="s">
-        <v>797</v>
+        <v>740</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="256" t="s">
-        <v>799</v>
+        <v>742</v>
       </c>
       <c r="E14" s="256"/>
       <c r="F14" s="256"/>
@@ -9072,55 +9078,55 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="262" t="s">
-        <v>769</v>
-      </c>
-      <c r="C17" s="262"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
+      <c r="B17" s="258" t="s">
+        <v>712</v>
+      </c>
+      <c r="C17" s="258"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="258"/>
+      <c r="F17" s="258"/>
+      <c r="G17" s="258"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="263" t="s">
-        <v>770</v>
-      </c>
-      <c r="C18" s="263"/>
+      <c r="B18" s="259" t="s">
+        <v>713</v>
+      </c>
+      <c r="C18" s="259"/>
       <c r="D18" s="180" t="s">
-        <v>771</v>
+        <v>714</v>
       </c>
       <c r="E18" s="180" t="s">
-        <v>772</v>
+        <v>715</v>
       </c>
       <c r="F18" s="180" t="s">
-        <v>773</v>
+        <v>716</v>
       </c>
       <c r="G18" s="180" t="s">
-        <v>774</v>
+        <v>717</v>
       </c>
       <c r="H18" s="156"/>
       <c r="I18" s="156"/>
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="264" t="s">
-        <v>775</v>
-      </c>
-      <c r="C19" s="264"/>
+      <c r="B19" s="260" t="s">
+        <v>718</v>
+      </c>
+      <c r="C19" s="260"/>
       <c r="D19" s="166" t="s">
-        <v>776</v>
+        <v>719</v>
       </c>
       <c r="E19" s="167" t="s">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="F19" s="168" t="s">
-        <v>777</v>
+        <v>720</v>
       </c>
       <c r="G19" s="169" t="s">
-        <v>795</v>
+        <v>738</v>
       </c>
       <c r="H19" s="156"/>
       <c r="I19" s="156"/>
@@ -9128,62 +9134,62 @@
     <row r="20" spans="1:9" s="160" customFormat="1">
       <c r="A20" s="159"/>
       <c r="B20" s="208" t="s">
-        <v>839</v>
+        <v>782</v>
       </c>
       <c r="C20" s="208"/>
       <c r="D20" s="166" t="s">
-        <v>840</v>
+        <v>783</v>
       </c>
       <c r="E20" s="167" t="s">
-        <v>841</v>
+        <v>784</v>
       </c>
       <c r="F20" s="168" t="s">
-        <v>842</v>
+        <v>785</v>
       </c>
       <c r="G20" s="169" t="s">
-        <v>843</v>
+        <v>786</v>
       </c>
       <c r="H20" s="156"/>
       <c r="I20" s="156"/>
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="261" t="s">
-        <v>778</v>
-      </c>
-      <c r="C21" s="261"/>
+      <c r="B21" s="257" t="s">
+        <v>721</v>
+      </c>
+      <c r="C21" s="257"/>
       <c r="D21" s="167" t="s">
-        <v>779</v>
+        <v>722</v>
       </c>
       <c r="E21" s="167" t="s">
-        <v>793</v>
+        <v>736</v>
       </c>
       <c r="F21" s="170" t="s">
-        <v>780</v>
+        <v>723</v>
       </c>
       <c r="G21" s="169" t="s">
-        <v>781</v>
+        <v>724</v>
       </c>
       <c r="H21" s="156"/>
       <c r="I21" s="156"/>
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="261" t="s">
-        <v>782</v>
-      </c>
-      <c r="C22" s="261"/>
+      <c r="B22" s="257" t="s">
+        <v>725</v>
+      </c>
+      <c r="C22" s="257"/>
       <c r="D22" s="167" t="s">
-        <v>783</v>
+        <v>726</v>
       </c>
       <c r="E22" s="167" t="s">
-        <v>794</v>
+        <v>737</v>
       </c>
       <c r="F22" s="170" t="s">
-        <v>784</v>
+        <v>727</v>
       </c>
       <c r="G22" s="169" t="s">
-        <v>781</v>
+        <v>724</v>
       </c>
       <c r="H22" s="156"/>
       <c r="I22" s="156"/>
@@ -9210,7 +9216,7 @@
     <row r="25" spans="1:9" s="165" customFormat="1" ht="15.75">
       <c r="A25" s="164"/>
       <c r="B25" s="171" t="s">
-        <v>785</v>
+        <v>728</v>
       </c>
       <c r="C25" s="172"/>
       <c r="D25" s="178"/>
@@ -9221,7 +9227,7 @@
     <row r="26" spans="1:9" s="165" customFormat="1">
       <c r="A26" s="164"/>
       <c r="B26" s="172" t="s">
-        <v>830</v>
+        <v>773</v>
       </c>
       <c r="C26" s="172"/>
       <c r="D26" s="178"/>
@@ -9232,7 +9238,7 @@
     <row r="27" spans="1:9" s="165" customFormat="1">
       <c r="A27" s="164"/>
       <c r="B27" s="172" t="s">
-        <v>786</v>
+        <v>729</v>
       </c>
       <c r="C27" s="172"/>
       <c r="D27" s="178"/>
@@ -9243,7 +9249,7 @@
     <row r="28" spans="1:9" s="165" customFormat="1">
       <c r="A28" s="164"/>
       <c r="B28" s="172" t="s">
-        <v>787</v>
+        <v>730</v>
       </c>
       <c r="C28" s="172"/>
       <c r="D28" s="178"/>
@@ -9254,7 +9260,7 @@
     <row r="29" spans="1:9" s="165" customFormat="1">
       <c r="A29" s="164"/>
       <c r="B29" s="172" t="s">
-        <v>788</v>
+        <v>731</v>
       </c>
       <c r="C29" s="172"/>
       <c r="D29" s="178"/>
@@ -9265,7 +9271,7 @@
     <row r="30" spans="1:9" s="165" customFormat="1">
       <c r="A30" s="164"/>
       <c r="B30" s="172" t="s">
-        <v>789</v>
+        <v>732</v>
       </c>
       <c r="C30" s="172"/>
       <c r="D30" s="178"/>
@@ -9276,7 +9282,7 @@
     <row r="31" spans="1:9" s="165" customFormat="1">
       <c r="A31" s="164"/>
       <c r="B31" s="172" t="s">
-        <v>790</v>
+        <v>733</v>
       </c>
       <c r="C31" s="172"/>
       <c r="D31" s="178"/>
@@ -9286,6 +9292,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -9294,12 +9306,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1"/>
@@ -9359,7 +9365,7 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1">
       <c r="B2" s="265" t="s">
-        <v>800</v>
+        <v>743</v>
       </c>
       <c r="C2" s="265"/>
       <c r="D2" s="265"/>
@@ -9376,10 +9382,10 @@
     <row r="4" spans="1:6" s="11" customFormat="1" ht="60.95" customHeight="1">
       <c r="B4" s="185"/>
       <c r="C4" s="196" t="s">
-        <v>801</v>
+        <v>744</v>
       </c>
       <c r="D4" s="266" t="s">
-        <v>833</v>
+        <v>776</v>
       </c>
       <c r="E4" s="266"/>
       <c r="F4" s="63"/>
@@ -9387,10 +9393,10 @@
     <row r="5" spans="1:6" s="11" customFormat="1" ht="30.95" customHeight="1">
       <c r="B5" s="185"/>
       <c r="C5" s="196" t="s">
-        <v>802</v>
+        <v>745</v>
       </c>
       <c r="D5" s="267" t="s">
-        <v>832</v>
+        <v>775</v>
       </c>
       <c r="E5" s="267"/>
       <c r="F5" s="63"/>
@@ -9420,7 +9426,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="243" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F8" s="18"/>
     </row>
@@ -9501,7 +9507,7 @@
     </row>
     <row r="14" spans="1:6" outlineLevel="1">
       <c r="C14" s="32" t="s">
-        <v>765</v>
+        <v>708</v>
       </c>
       <c r="D14" s="142"/>
       <c r="E14" s="213"/>
@@ -9512,7 +9518,7 @@
         <v>401</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>21</v>
@@ -9527,7 +9533,7 @@
         <v>662</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>721</v>
+        <v>664</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>21</v>
@@ -9542,7 +9548,7 @@
         <v>493</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>722</v>
+        <v>665</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>21</v>
@@ -9572,7 +9578,7 @@
         <v>201</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>723</v>
+        <v>666</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>21</v>
@@ -9587,7 +9593,7 @@
         <v>202</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>21</v>
@@ -9602,7 +9608,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>21</v>
@@ -9617,7 +9623,7 @@
         <v>205</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>21</v>
@@ -9632,7 +9638,7 @@
         <v>206</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>21</v>
@@ -9647,7 +9653,7 @@
         <v>304</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>728</v>
+        <v>671</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>21</v>
@@ -9662,7 +9668,7 @@
         <v>400</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>21</v>
@@ -9677,7 +9683,7 @@
         <v>402</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>21</v>
@@ -9692,7 +9698,7 @@
         <v>404</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>21</v>
@@ -9707,7 +9713,7 @@
         <v>490</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>732</v>
+        <v>675</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>21</v>
@@ -9722,7 +9728,7 @@
         <v>491</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>733</v>
+        <v>676</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>21</v>
@@ -9737,7 +9743,7 @@
         <v>492</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>734</v>
+        <v>677</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>21</v>
@@ -9752,7 +9758,7 @@
         <v>494</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>735</v>
+        <v>678</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>21</v>
@@ -9767,7 +9773,7 @@
         <v>495</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>21</v>
@@ -9782,7 +9788,7 @@
         <v>496</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>737</v>
+        <v>680</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>21</v>
@@ -9797,7 +9803,7 @@
         <v>497</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>738</v>
+        <v>681</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>21</v>
@@ -9812,7 +9818,7 @@
         <v>498</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>739</v>
+        <v>682</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>21</v>
@@ -9827,7 +9833,7 @@
         <v>499</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>21</v>
@@ -9842,7 +9848,7 @@
         <v>501</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>21</v>
@@ -9857,7 +9863,7 @@
         <v>502</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>742</v>
+        <v>685</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>21</v>
@@ -9872,7 +9878,7 @@
         <v>601</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>743</v>
+        <v>686</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>21</v>
@@ -9887,7 +9893,7 @@
         <v>602</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>21</v>
@@ -9902,7 +9908,7 @@
         <v>603</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>745</v>
+        <v>688</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>21</v>
@@ -9917,7 +9923,7 @@
         <v>611</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>746</v>
+        <v>689</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>21</v>
@@ -9932,7 +9938,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>747</v>
+        <v>690</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>21</v>
@@ -9947,7 +9953,7 @@
         <v>692</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>747</v>
+        <v>690</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>21</v>
@@ -9962,7 +9968,7 @@
         <v>722</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>748</v>
+        <v>691</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>21</v>
@@ -9977,7 +9983,7 @@
         <v>724</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>749</v>
+        <v>692</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>21</v>
@@ -9992,7 +9998,7 @@
         <v>725</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>750</v>
+        <v>693</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>21</v>
@@ -10007,7 +10013,7 @@
         <v>726</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>751</v>
+        <v>694</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>21</v>
@@ -10022,7 +10028,7 @@
         <v>727</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>752</v>
+        <v>695</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>21</v>
@@ -10037,7 +10043,7 @@
         <v>751</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>753</v>
+        <v>696</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>21</v>
@@ -10052,7 +10058,7 @@
         <v>302</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>753</v>
+        <v>696</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>21</v>
@@ -10067,7 +10073,7 @@
         <v>756</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>754</v>
+        <v>697</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>21</v>
@@ -10082,7 +10088,7 @@
         <v>757</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>755</v>
+        <v>698</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>21</v>
@@ -10097,7 +10103,7 @@
         <v>758</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>21</v>
@@ -10112,7 +10118,7 @@
         <v>759</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>757</v>
+        <v>700</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>21</v>
@@ -10127,7 +10133,7 @@
         <v>760</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>758</v>
+        <v>701</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>21</v>
@@ -10142,7 +10148,7 @@
         <v>761</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>21</v>
@@ -10157,7 +10163,7 @@
         <v>762</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>760</v>
+        <v>703</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>21</v>
@@ -10172,7 +10178,7 @@
         <v>208</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>761</v>
+        <v>704</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>21</v>
@@ -10187,7 +10193,7 @@
         <v>5616</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>762</v>
+        <v>705</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>21</v>
@@ -10202,7 +10208,7 @@
         <v>5615</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>763</v>
+        <v>706</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>21</v>
@@ -10217,7 +10223,7 @@
         <v>5619</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>764</v>
+        <v>707</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>21</v>
@@ -10230,7 +10236,7 @@
     <row r="63" spans="1:6" outlineLevel="1" collapsed="1">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
-        <v>869</v>
+        <v>812</v>
       </c>
       <c r="D63" s="142"/>
       <c r="E63" s="143"/>
@@ -10239,10 +10245,10 @@
     <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="153"/>
       <c r="C64" s="19" t="s">
-        <v>870</v>
+        <v>813</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>100</v>
@@ -10252,10 +10258,10 @@
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="153"/>
       <c r="C65" s="19" t="s">
-        <v>872</v>
+        <v>815</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>100</v>
@@ -10265,10 +10271,10 @@
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="153"/>
       <c r="C66" s="19" t="s">
-        <v>873</v>
+        <v>816</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>100</v>
@@ -10278,10 +10284,10 @@
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="153"/>
       <c r="C67" s="19" t="s">
-        <v>876</v>
+        <v>819</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>100</v>
@@ -10291,10 +10297,10 @@
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="153"/>
       <c r="C68" s="19" t="s">
-        <v>874</v>
+        <v>817</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>100</v>
@@ -10304,10 +10310,10 @@
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="153"/>
       <c r="C69" s="19" t="s">
-        <v>875</v>
+        <v>818</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>100</v>
@@ -10323,7 +10329,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="242" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F70" s="64"/>
     </row>
@@ -10355,7 +10361,7 @@
         <v>248</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>878</v>
+        <v>821</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -10386,7 +10392,7 @@
       </c>
       <c r="D75" s="146"/>
       <c r="E75" s="216" t="s">
-        <v>805</v>
+        <v>748</v>
       </c>
       <c r="F75" s="64"/>
     </row>
@@ -10395,7 +10401,7 @@
         <v>250</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>877</v>
+        <v>820</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>101</v>
@@ -10410,13 +10416,13 @@
         <v>251</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>866</v>
+        <v>809</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>101</v>
       </c>
       <c r="E77" s="217" t="s">
-        <v>806</v>
+        <v>749</v>
       </c>
       <c r="F77" s="64"/>
     </row>
@@ -10425,13 +10431,13 @@
         <v>252</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>867</v>
+        <v>810</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>101</v>
       </c>
       <c r="E78" s="217" t="s">
-        <v>806</v>
+        <v>749</v>
       </c>
       <c r="F78" s="64"/>
     </row>
@@ -10440,13 +10446,13 @@
         <v>253</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>868</v>
+        <v>811</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>101</v>
       </c>
       <c r="E79" s="217" t="s">
-        <v>806</v>
+        <v>749</v>
       </c>
       <c r="F79" s="64"/>
     </row>
@@ -10534,7 +10540,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="241" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F85" s="18"/>
     </row>
@@ -10550,7 +10556,7 @@
         <v>29</v>
       </c>
       <c r="E86" s="218" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
       <c r="F86" s="18"/>
     </row>
@@ -10568,7 +10574,7 @@
         <v>260</v>
       </c>
       <c r="C88" s="151" t="s">
-        <v>847</v>
+        <v>790</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>22</v>
@@ -10583,7 +10589,7 @@
         <v>261</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>848</v>
+        <v>791</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>22</v>
@@ -10598,7 +10604,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>849</v>
+        <v>792</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>22</v>
@@ -10613,7 +10619,7 @@
         <v>263</v>
       </c>
       <c r="C91" s="151" t="s">
-        <v>850</v>
+        <v>793</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>22</v>
@@ -10628,7 +10634,7 @@
         <v>264</v>
       </c>
       <c r="C92" s="151" t="s">
-        <v>851</v>
+        <v>794</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>22</v>
@@ -10643,7 +10649,7 @@
         <v>265</v>
       </c>
       <c r="C93" s="151" t="s">
-        <v>852</v>
+        <v>795</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>22</v>
@@ -10658,7 +10664,7 @@
         <v>266</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>853</v>
+        <v>796</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>22</v>
@@ -10731,7 +10737,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="54" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F99" s="18"/>
     </row>
@@ -10746,7 +10752,7 @@
         <v>32</v>
       </c>
       <c r="E100" s="214" t="s">
-        <v>879</v>
+        <v>822</v>
       </c>
       <c r="F100" s="64"/>
     </row>
@@ -10759,7 +10765,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="74" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F101" s="18"/>
     </row>
@@ -10775,7 +10781,7 @@
         <v>8</v>
       </c>
       <c r="E102" s="72" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F102" s="64"/>
     </row>
@@ -10784,7 +10790,7 @@
         <v>285</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>811</v>
+        <v>754</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>38</v>
@@ -10829,7 +10835,7 @@
         <v>291</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>880</v>
+        <v>823</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>22</v>
@@ -10934,7 +10940,7 @@
         <v>288</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>881</v>
+        <v>824</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>22</v>
@@ -10956,7 +10962,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="72" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F114" s="64"/>
     </row>
@@ -10965,7 +10971,7 @@
         <v>296</v>
       </c>
       <c r="C115" s="44" t="s">
-        <v>809</v>
+        <v>752</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>47</v>
@@ -10980,7 +10986,7 @@
         <v>301</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>886</v>
+        <v>829</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>22</v>
@@ -10995,7 +11001,7 @@
         <v>300</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>885</v>
+        <v>828</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>22</v>
@@ -11010,7 +11016,7 @@
         <v>303</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>887</v>
+        <v>830</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>22</v>
@@ -11025,7 +11031,7 @@
         <v>299</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>884</v>
+        <v>827</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>22</v>
@@ -11040,7 +11046,7 @@
         <v>302</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>888</v>
+        <v>831</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>22</v>
@@ -11055,7 +11061,7 @@
         <v>298</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>883</v>
+        <v>826</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>22</v>
@@ -11070,7 +11076,7 @@
         <v>297</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>882</v>
+        <v>825</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>22</v>
@@ -11092,7 +11098,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="72" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F123" s="64"/>
     </row>
@@ -11101,7 +11107,7 @@
         <v>304</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>48</v>
@@ -11183,7 +11189,7 @@
         <v>8</v>
       </c>
       <c r="E129" s="72" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F129" s="64"/>
     </row>
@@ -11286,7 +11292,7 @@
         <v>8</v>
       </c>
       <c r="E136" s="72" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F136" s="64"/>
     </row>
@@ -11310,7 +11316,7 @@
         <v>272</v>
       </c>
       <c r="C138" s="236" t="s">
-        <v>854</v>
+        <v>797</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>22</v>
@@ -11325,7 +11331,7 @@
         <v>273</v>
       </c>
       <c r="C139" s="236" t="s">
-        <v>855</v>
+        <v>798</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>22</v>
@@ -11340,7 +11346,7 @@
         <v>274</v>
       </c>
       <c r="C140" s="236" t="s">
-        <v>856</v>
+        <v>799</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>22</v>
@@ -11355,7 +11361,7 @@
         <v>275</v>
       </c>
       <c r="C141" s="236" t="s">
-        <v>857</v>
+        <v>800</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>22</v>
@@ -11385,7 +11391,7 @@
         <v>277</v>
       </c>
       <c r="C143" s="236" t="s">
-        <v>858</v>
+        <v>801</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>22</v>
@@ -11400,7 +11406,7 @@
         <v>278</v>
       </c>
       <c r="C144" s="236" t="s">
-        <v>863</v>
+        <v>806</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>22</v>
@@ -11415,7 +11421,7 @@
         <v>279</v>
       </c>
       <c r="C145" s="236" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>22</v>
@@ -11430,7 +11436,7 @@
         <v>280</v>
       </c>
       <c r="C146" s="236" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>22</v>
@@ -11445,7 +11451,7 @@
         <v>281</v>
       </c>
       <c r="C147" s="236" t="s">
-        <v>861</v>
+        <v>804</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>22</v>
@@ -11460,7 +11466,7 @@
         <v>282</v>
       </c>
       <c r="C148" s="245" t="s">
-        <v>862</v>
+        <v>805</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>22</v>
@@ -11507,7 +11513,7 @@
         <v>22</v>
       </c>
       <c r="E151" s="220" t="s">
-        <v>808</v>
+        <v>751</v>
       </c>
       <c r="F151" s="65"/>
     </row>
@@ -11522,7 +11528,7 @@
         <v>27</v>
       </c>
       <c r="E152" s="220" t="s">
-        <v>808</v>
+        <v>751</v>
       </c>
       <c r="F152" s="65"/>
     </row>
@@ -11534,7 +11540,7 @@
         <v>22</v>
       </c>
       <c r="E153" s="220" t="s">
-        <v>807</v>
+        <v>750</v>
       </c>
       <c r="F153" s="65"/>
     </row>
@@ -11546,7 +11552,7 @@
         <v>22</v>
       </c>
       <c r="E154" s="220" t="s">
-        <v>807</v>
+        <v>750</v>
       </c>
       <c r="F154" s="65"/>
     </row>
@@ -11559,7 +11565,7 @@
         <v>8</v>
       </c>
       <c r="E155" s="232" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F155" s="64"/>
     </row>
@@ -11574,7 +11580,7 @@
         <v>53</v>
       </c>
       <c r="E156" s="222" t="s">
-        <v>906</v>
+        <v>848</v>
       </c>
       <c r="F156" s="64"/>
     </row>
@@ -11587,7 +11593,7 @@
         <v>8</v>
       </c>
       <c r="E157" s="59" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F157" s="64"/>
     </row>
@@ -11596,7 +11602,7 @@
         <v>316</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>812</v>
+        <v>755</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>53</v>
@@ -11674,7 +11680,7 @@
         <v>8</v>
       </c>
       <c r="E164" s="59" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F164" s="64"/>
     </row>
@@ -11683,7 +11689,7 @@
         <v>319</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>813</v>
+        <v>756</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>53</v>
@@ -11761,7 +11767,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="59" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F171" s="64"/>
     </row>
@@ -11770,7 +11776,7 @@
         <v>320</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>814</v>
+        <v>757</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>53</v>
@@ -11848,7 +11854,7 @@
         <v>8</v>
       </c>
       <c r="E178" s="59" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F178" s="64"/>
     </row>
@@ -11877,7 +11883,7 @@
         <v>8</v>
       </c>
       <c r="E180" s="231" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F180" s="64"/>
     </row>
@@ -11887,7 +11893,7 @@
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>897</v>
+        <v>839</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -11911,7 +11917,7 @@
         <v>8</v>
       </c>
       <c r="E182" s="118" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F182" s="119"/>
     </row>
@@ -11921,7 +11927,7 @@
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>898</v>
+        <v>840</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -11945,7 +11951,7 @@
         <v>22</v>
       </c>
       <c r="E184" s="215" t="s">
-        <v>815</v>
+        <v>758</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="85"/>
@@ -11963,7 +11969,7 @@
         <v>22</v>
       </c>
       <c r="E185" s="215" t="s">
-        <v>815</v>
+        <v>758</v>
       </c>
       <c r="F185" s="84"/>
       <c r="G185" s="85"/>
@@ -11984,7 +11990,7 @@
         <v>8</v>
       </c>
       <c r="E186" s="118" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F186" s="119"/>
     </row>
@@ -11994,7 +12000,7 @@
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>900</v>
+        <v>842</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -12018,7 +12024,7 @@
         <v>22</v>
       </c>
       <c r="E188" s="215" t="s">
-        <v>816</v>
+        <v>759</v>
       </c>
       <c r="F188" s="84"/>
       <c r="G188" s="85"/>
@@ -12036,7 +12042,7 @@
         <v>22</v>
       </c>
       <c r="E189" s="215" t="s">
-        <v>816</v>
+        <v>759</v>
       </c>
       <c r="F189" s="84"/>
       <c r="G189" s="85"/>
@@ -12057,7 +12063,7 @@
         <v>8</v>
       </c>
       <c r="E190" s="118" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F190" s="119"/>
     </row>
@@ -12067,7 +12073,7 @@
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>901</v>
+        <v>843</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -12091,7 +12097,7 @@
         <v>22</v>
       </c>
       <c r="E192" s="215" t="s">
-        <v>817</v>
+        <v>760</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="3"/>
@@ -12109,7 +12115,7 @@
         <v>22</v>
       </c>
       <c r="E193" s="215" t="s">
-        <v>817</v>
+        <v>760</v>
       </c>
       <c r="F193" s="84"/>
       <c r="G193" s="3"/>
@@ -12130,7 +12136,7 @@
         <v>8</v>
       </c>
       <c r="E194" s="118" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F194" s="119"/>
     </row>
@@ -12140,7 +12146,7 @@
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>902</v>
+        <v>844</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -12165,7 +12171,7 @@
         <v>22</v>
       </c>
       <c r="E196" s="215" t="s">
-        <v>818</v>
+        <v>761</v>
       </c>
       <c r="F196" s="84"/>
       <c r="G196" s="3"/>
@@ -12183,7 +12189,7 @@
         <v>22</v>
       </c>
       <c r="E197" s="215" t="s">
-        <v>818</v>
+        <v>761</v>
       </c>
       <c r="F197" s="84"/>
       <c r="G197" s="3"/>
@@ -12204,7 +12210,7 @@
         <v>8</v>
       </c>
       <c r="E198" s="118" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F198" s="119"/>
     </row>
@@ -12214,7 +12220,7 @@
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>903</v>
+        <v>845</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -12238,7 +12244,7 @@
         <v>22</v>
       </c>
       <c r="E200" s="215" t="s">
-        <v>819</v>
+        <v>762</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="3"/>
@@ -12257,7 +12263,7 @@
         <v>22</v>
       </c>
       <c r="E201" s="215" t="s">
-        <v>819</v>
+        <v>762</v>
       </c>
       <c r="F201" s="84"/>
       <c r="G201" s="3"/>
@@ -12278,7 +12284,7 @@
         <v>8</v>
       </c>
       <c r="E202" s="118" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F202" s="119"/>
     </row>
@@ -12288,7 +12294,7 @@
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>904</v>
+        <v>846</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -12312,7 +12318,7 @@
         <v>22</v>
       </c>
       <c r="E204" s="215" t="s">
-        <v>820</v>
+        <v>763</v>
       </c>
       <c r="F204" s="84"/>
       <c r="G204" s="3"/>
@@ -12330,7 +12336,7 @@
         <v>22</v>
       </c>
       <c r="E205" s="215" t="s">
-        <v>820</v>
+        <v>763</v>
       </c>
       <c r="F205" s="84"/>
       <c r="G205" s="3"/>
@@ -12345,13 +12351,13 @@
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>892</v>
+        <v>834</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
       </c>
       <c r="E206" s="123" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="3"/>
@@ -12369,7 +12375,7 @@
         <v>8</v>
       </c>
       <c r="E207" s="228" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F207" s="200"/>
       <c r="G207" s="201"/>
@@ -12405,7 +12411,7 @@
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>890</v>
+        <v>832</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>143</v>
@@ -12426,7 +12432,7 @@
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>891</v>
+        <v>833</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>143</v>
@@ -12450,7 +12456,7 @@
         <v>8</v>
       </c>
       <c r="E211" s="228" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F211" s="84"/>
       <c r="G211" s="80"/>
@@ -12485,7 +12491,7 @@
         <v>27</v>
       </c>
       <c r="E212" s="226" t="s">
-        <v>821</v>
+        <v>764</v>
       </c>
       <c r="F212" s="84"/>
       <c r="G212" s="83"/>
@@ -12520,7 +12526,7 @@
         <v>27</v>
       </c>
       <c r="E213" s="226" t="s">
-        <v>822</v>
+        <v>765</v>
       </c>
       <c r="F213" s="84"/>
       <c r="G213" s="83"/>
@@ -12555,7 +12561,7 @@
         <v>27</v>
       </c>
       <c r="E214" s="226" t="s">
-        <v>823</v>
+        <v>766</v>
       </c>
       <c r="F214" s="84"/>
       <c r="G214" s="83"/>
@@ -12590,7 +12596,7 @@
         <v>27</v>
       </c>
       <c r="E215" s="226" t="s">
-        <v>824</v>
+        <v>767</v>
       </c>
       <c r="F215" s="84"/>
       <c r="G215" s="83"/>
@@ -12625,7 +12631,7 @@
         <v>27</v>
       </c>
       <c r="E216" s="226" t="s">
-        <v>825</v>
+        <v>768</v>
       </c>
       <c r="F216" s="84"/>
       <c r="G216" s="83"/>
@@ -12660,7 +12666,7 @@
         <v>151</v>
       </c>
       <c r="E217" s="226" t="s">
-        <v>826</v>
+        <v>769</v>
       </c>
       <c r="F217" s="84"/>
       <c r="G217" s="83"/>
@@ -12695,7 +12701,7 @@
         <v>27</v>
       </c>
       <c r="E218" s="226" t="s">
-        <v>827</v>
+        <v>770</v>
       </c>
       <c r="F218" s="84"/>
       <c r="G218" s="83"/>
@@ -12730,7 +12736,7 @@
         <v>27</v>
       </c>
       <c r="E219" s="226" t="s">
-        <v>828</v>
+        <v>771</v>
       </c>
       <c r="F219" s="84"/>
       <c r="G219" s="83"/>
@@ -12765,7 +12771,7 @@
         <v>27</v>
       </c>
       <c r="E220" s="226" t="s">
-        <v>829</v>
+        <v>772</v>
       </c>
       <c r="F220" s="84"/>
       <c r="G220" s="83"/>
@@ -12861,13 +12867,13 @@
     <row r="223" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="199"/>
       <c r="C223" s="204" t="s">
-        <v>893</v>
+        <v>835</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
       </c>
       <c r="E223" s="228" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F223" s="200"/>
       <c r="G223" s="201"/>
@@ -12924,7 +12930,7 @@
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
-        <v>894</v>
+        <v>836</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>33</v>
@@ -12948,20 +12954,20 @@
         <v>8</v>
       </c>
       <c r="E227" s="126" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F227" s="18"/>
     </row>
     <row r="228" spans="1:26" ht="21">
       <c r="B228" s="206"/>
       <c r="C228" s="207" t="s">
-        <v>804</v>
+        <v>747</v>
       </c>
       <c r="D228" s="205" t="s">
         <v>8</v>
       </c>
       <c r="E228" s="205" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F228" s="64"/>
     </row>
@@ -12971,13 +12977,13 @@
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="26" t="s">
-        <v>834</v>
+        <v>777</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E229" s="223" t="s">
-        <v>908</v>
+        <v>850</v>
       </c>
       <c r="F229" s="64"/>
     </row>
@@ -12987,7 +12993,7 @@
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="26" t="s">
-        <v>835</v>
+        <v>778</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>27</v>
@@ -13003,7 +13009,7 @@
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="26" t="s">
-        <v>836</v>
+        <v>779</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>27</v>
@@ -13019,7 +13025,7 @@
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="26" t="s">
-        <v>837</v>
+        <v>780</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>27</v>
@@ -13038,7 +13044,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="205" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F233" s="64"/>
     </row>
@@ -13125,13 +13131,13 @@
     <row r="239" spans="1:26" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E239" s="125" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F239" s="84"/>
       <c r="G239" s="85"/>
@@ -13160,7 +13166,7 @@
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="26" t="s">
-        <v>838</v>
+        <v>781</v>
       </c>
       <c r="D240" s="86" t="s">
         <v>27</v>
@@ -13223,7 +13229,7 @@
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>895</v>
+        <v>837</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>33</v>
@@ -13244,7 +13250,7 @@
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>896</v>
+        <v>838</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>33</v>
@@ -13265,10 +13271,10 @@
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>899</v>
+        <v>841</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>905</v>
+        <v>847</v>
       </c>
       <c r="E245" s="223" t="s">
         <v>100</v>
@@ -13421,7 +13427,7 @@
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1">
       <c r="B2" s="265" t="s">
-        <v>800</v>
+        <v>743</v>
       </c>
       <c r="C2" s="265"/>
       <c r="D2" s="265"/>
@@ -13441,14 +13447,14 @@
     </row>
     <row r="4" spans="1:8" ht="21">
       <c r="A4" s="153" t="s">
-        <v>909</v>
+        <v>851</v>
       </c>
       <c r="B4" s="188"/>
       <c r="C4" s="192" t="s">
-        <v>978</v>
+        <v>920</v>
       </c>
       <c r="D4" s="190" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="E4" s="268"/>
       <c r="F4" s="268"/>
@@ -13457,14 +13463,14 @@
     </row>
     <row r="5" spans="1:8" ht="21">
       <c r="A5" s="153" t="s">
-        <v>910</v>
+        <v>852</v>
       </c>
       <c r="B5" s="189"/>
       <c r="C5" s="193" t="s">
-        <v>979</v>
+        <v>921</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
       <c r="E5" s="269"/>
       <c r="F5" s="269"/>
@@ -13597,7 +13603,7 @@
     </row>
     <row r="14" spans="1:8" outlineLevel="1">
       <c r="C14" s="32" t="s">
-        <v>765</v>
+        <v>708</v>
       </c>
       <c r="D14" s="142"/>
       <c r="E14" s="143"/>
@@ -13605,12 +13611,12 @@
       <c r="G14" s="144"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" outlineLevel="2">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A15" s="254" t="s">
-        <v>919</v>
+        <v>861</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>21</v>
@@ -13622,12 +13628,12 @@
       <c r="G15" s="3"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="1:8" outlineLevel="2">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A16" s="153" t="s">
-        <v>920</v>
+        <v>862</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>721</v>
+        <v>664</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>21</v>
@@ -13639,12 +13645,12 @@
       <c r="G16" s="3"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17" spans="1:8" outlineLevel="2">
+    <row r="17" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A17" s="153" t="s">
-        <v>921</v>
+        <v>863</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>722</v>
+        <v>665</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>21</v>
@@ -13656,9 +13662,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="1:8" outlineLevel="2">
+    <row r="18" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A18" s="254" t="s">
-        <v>922</v>
+        <v>864</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
@@ -13673,12 +13679,12 @@
       <c r="G18" s="3"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:8" outlineLevel="2">
+    <row r="19" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A19" s="153" t="s">
-        <v>923</v>
+        <v>865</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>723</v>
+        <v>666</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>21</v>
@@ -13690,12 +13696,12 @@
       <c r="G19" s="3"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20" spans="1:8" outlineLevel="2">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A20" s="153" t="s">
-        <v>924</v>
+        <v>866</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>21</v>
@@ -13707,12 +13713,12 @@
       <c r="G20" s="3"/>
       <c r="H20" s="64"/>
     </row>
-    <row r="21" spans="1:8" outlineLevel="2">
+    <row r="21" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A21" s="153" t="s">
-        <v>925</v>
+        <v>867</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>21</v>
@@ -13724,12 +13730,12 @@
       <c r="G21" s="3"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22" spans="1:8" outlineLevel="2">
+    <row r="22" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A22" s="153" t="s">
-        <v>926</v>
+        <v>868</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>21</v>
@@ -13741,12 +13747,12 @@
       <c r="G22" s="3"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23" spans="1:8" outlineLevel="2">
+    <row r="23" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A23" s="153" t="s">
-        <v>927</v>
+        <v>869</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>21</v>
@@ -13758,12 +13764,12 @@
       <c r="G23" s="3"/>
       <c r="H23" s="64"/>
     </row>
-    <row r="24" spans="1:8" outlineLevel="2">
+    <row r="24" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A24" s="153" t="s">
-        <v>928</v>
+        <v>870</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>728</v>
+        <v>671</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>21</v>
@@ -13775,12 +13781,12 @@
       <c r="G24" s="3"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="1:8" outlineLevel="2">
+    <row r="25" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A25" s="153" t="s">
-        <v>929</v>
+        <v>871</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>21</v>
@@ -13792,12 +13798,12 @@
       <c r="G25" s="3"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26" spans="1:8" outlineLevel="2">
+    <row r="26" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A26" s="153" t="s">
-        <v>930</v>
+        <v>872</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>21</v>
@@ -13809,12 +13815,12 @@
       <c r="G26" s="3"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="1:8" outlineLevel="2">
+    <row r="27" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A27" s="153" t="s">
-        <v>931</v>
+        <v>873</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>21</v>
@@ -13826,12 +13832,12 @@
       <c r="G27" s="3"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="1:8" outlineLevel="2">
+    <row r="28" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A28" s="153" t="s">
-        <v>932</v>
+        <v>874</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>732</v>
+        <v>675</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>21</v>
@@ -13843,12 +13849,12 @@
       <c r="G28" s="3"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="1:8" outlineLevel="2">
+    <row r="29" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A29" s="153" t="s">
-        <v>933</v>
+        <v>875</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>733</v>
+        <v>676</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>21</v>
@@ -13860,12 +13866,12 @@
       <c r="G29" s="3"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="1:8" outlineLevel="2">
+    <row r="30" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A30" s="153" t="s">
-        <v>934</v>
+        <v>876</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>734</v>
+        <v>677</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>21</v>
@@ -13877,12 +13883,12 @@
       <c r="G30" s="3"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="1:8" outlineLevel="2">
+    <row r="31" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A31" s="153" t="s">
-        <v>935</v>
+        <v>877</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>735</v>
+        <v>678</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>21</v>
@@ -13894,12 +13900,12 @@
       <c r="G31" s="3"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="1:8" outlineLevel="2">
+    <row r="32" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A32" s="153" t="s">
-        <v>936</v>
+        <v>878</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>21</v>
@@ -13911,12 +13917,12 @@
       <c r="G32" s="3"/>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="1:8" outlineLevel="2">
+    <row r="33" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A33" s="153" t="s">
-        <v>937</v>
+        <v>879</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>737</v>
+        <v>680</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>21</v>
@@ -13928,12 +13934,12 @@
       <c r="G33" s="3"/>
       <c r="H33" s="64"/>
     </row>
-    <row r="34" spans="1:8" outlineLevel="2">
+    <row r="34" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A34" s="153" t="s">
-        <v>938</v>
+        <v>880</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>738</v>
+        <v>681</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>21</v>
@@ -13945,12 +13951,12 @@
       <c r="G34" s="3"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="1:8" outlineLevel="2">
+    <row r="35" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A35" s="153" t="s">
-        <v>939</v>
+        <v>881</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>739</v>
+        <v>682</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>21</v>
@@ -13962,12 +13968,12 @@
       <c r="G35" s="3"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="1:8" outlineLevel="2">
+    <row r="36" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A36" s="153" t="s">
-        <v>940</v>
+        <v>882</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>21</v>
@@ -13979,12 +13985,12 @@
       <c r="G36" s="3"/>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="1:8" outlineLevel="2">
+    <row r="37" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A37" s="153" t="s">
-        <v>941</v>
+        <v>883</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>741</v>
+        <v>684</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>21</v>
@@ -13996,12 +14002,12 @@
       <c r="G37" s="3"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="1:8" outlineLevel="2">
+    <row r="38" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A38" s="254" t="s">
-        <v>942</v>
+        <v>884</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>742</v>
+        <v>685</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>21</v>
@@ -14013,12 +14019,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="1:8" outlineLevel="2">
+    <row r="39" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A39" s="153" t="s">
-        <v>943</v>
+        <v>885</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>743</v>
+        <v>686</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>21</v>
@@ -14030,12 +14036,12 @@
       <c r="G39" s="3"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="1:8" outlineLevel="2">
+    <row r="40" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A40" s="153" t="s">
-        <v>944</v>
+        <v>886</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>21</v>
@@ -14047,12 +14053,12 @@
       <c r="G40" s="3"/>
       <c r="H40" s="64"/>
     </row>
-    <row r="41" spans="1:8" outlineLevel="2">
+    <row r="41" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A41" s="153" t="s">
-        <v>945</v>
+        <v>887</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>745</v>
+        <v>688</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>21</v>
@@ -14064,12 +14070,12 @@
       <c r="G41" s="3"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42" spans="1:8" outlineLevel="2">
+    <row r="42" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A42" s="153" t="s">
-        <v>946</v>
+        <v>888</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>746</v>
+        <v>689</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>21</v>
@@ -14081,12 +14087,12 @@
       <c r="G42" s="3"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="1:8" outlineLevel="2">
+    <row r="43" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A43" s="153" t="s">
-        <v>947</v>
+        <v>889</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>747</v>
+        <v>690</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>21</v>
@@ -14098,12 +14104,12 @@
       <c r="G43" s="3"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="1:8" outlineLevel="2">
+    <row r="44" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A44" s="153" t="s">
-        <v>948</v>
+        <v>890</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>747</v>
+        <v>690</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>21</v>
@@ -14115,12 +14121,12 @@
       <c r="G44" s="3"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45" spans="1:8" outlineLevel="2">
+    <row r="45" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A45" s="153" t="s">
-        <v>949</v>
+        <v>891</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>748</v>
+        <v>691</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>21</v>
@@ -14132,12 +14138,12 @@
       <c r="G45" s="3"/>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="1:8" outlineLevel="2">
+    <row r="46" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A46" s="153" t="s">
-        <v>950</v>
+        <v>892</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>749</v>
+        <v>692</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>21</v>
@@ -14149,12 +14155,12 @@
       <c r="G46" s="3"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47" spans="1:8" outlineLevel="2">
+    <row r="47" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A47" s="153" t="s">
-        <v>951</v>
+        <v>893</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>750</v>
+        <v>693</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>21</v>
@@ -14166,12 +14172,12 @@
       <c r="G47" s="3"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48" spans="1:8" outlineLevel="2">
+    <row r="48" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A48" s="153" t="s">
-        <v>952</v>
+        <v>894</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>751</v>
+        <v>694</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>21</v>
@@ -14183,12 +14189,12 @@
       <c r="G48" s="3"/>
       <c r="H48" s="64"/>
     </row>
-    <row r="49" spans="1:8" outlineLevel="2">
+    <row r="49" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A49" s="153" t="s">
-        <v>953</v>
+        <v>895</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>752</v>
+        <v>695</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>21</v>
@@ -14200,12 +14206,12 @@
       <c r="G49" s="3"/>
       <c r="H49" s="64"/>
     </row>
-    <row r="50" spans="1:8" outlineLevel="2">
+    <row r="50" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A50" s="153" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>753</v>
+        <v>696</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>21</v>
@@ -14217,12 +14223,12 @@
       <c r="G50" s="3"/>
       <c r="H50" s="64"/>
     </row>
-    <row r="51" spans="1:8" outlineLevel="2">
+    <row r="51" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A51" s="153" t="s">
-        <v>955</v>
+        <v>897</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>753</v>
+        <v>696</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>21</v>
@@ -14234,12 +14240,12 @@
       <c r="G51" s="3"/>
       <c r="H51" s="64"/>
     </row>
-    <row r="52" spans="1:8" outlineLevel="2">
+    <row r="52" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A52" s="153" t="s">
-        <v>956</v>
+        <v>898</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>754</v>
+        <v>697</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>21</v>
@@ -14251,12 +14257,12 @@
       <c r="G52" s="3"/>
       <c r="H52" s="64"/>
     </row>
-    <row r="53" spans="1:8" outlineLevel="2">
+    <row r="53" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A53" s="153" t="s">
-        <v>957</v>
+        <v>899</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>755</v>
+        <v>698</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>21</v>
@@ -14268,12 +14274,12 @@
       <c r="G53" s="3"/>
       <c r="H53" s="64"/>
     </row>
-    <row r="54" spans="1:8" outlineLevel="2">
+    <row r="54" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A54" s="153" t="s">
-        <v>958</v>
+        <v>900</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>21</v>
@@ -14285,12 +14291,12 @@
       <c r="G54" s="3"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="1:8" outlineLevel="2">
+    <row r="55" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A55" s="153" t="s">
-        <v>959</v>
+        <v>901</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>757</v>
+        <v>700</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>21</v>
@@ -14302,12 +14308,12 @@
       <c r="G55" s="3"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="1:8" outlineLevel="2">
+    <row r="56" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A56" s="153" t="s">
-        <v>960</v>
+        <v>902</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>758</v>
+        <v>701</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>21</v>
@@ -14319,12 +14325,12 @@
       <c r="G56" s="3"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="1:8" outlineLevel="2">
+    <row r="57" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A57" s="153" t="s">
-        <v>961</v>
+        <v>903</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>759</v>
+        <v>702</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>21</v>
@@ -14336,12 +14342,12 @@
       <c r="G57" s="3"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="1:8" outlineLevel="2">
+    <row r="58" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A58" s="153" t="s">
-        <v>962</v>
+        <v>904</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>760</v>
+        <v>703</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>21</v>
@@ -14353,12 +14359,12 @@
       <c r="G58" s="3"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="1:8" outlineLevel="2">
+    <row r="59" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A59" s="153" t="s">
-        <v>963</v>
+        <v>905</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>761</v>
+        <v>704</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>21</v>
@@ -14370,12 +14376,12 @@
       <c r="G59" s="3"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="1:8" outlineLevel="2">
+    <row r="60" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A60" s="153" t="s">
-        <v>964</v>
+        <v>906</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>762</v>
+        <v>705</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>21</v>
@@ -14387,12 +14393,12 @@
       <c r="G60" s="3"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="1:8" outlineLevel="2">
+    <row r="61" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A61" s="153" t="s">
-        <v>965</v>
+        <v>907</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>763</v>
+        <v>706</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>21</v>
@@ -14404,12 +14410,12 @@
       <c r="G61" s="3"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="1:8" outlineLevel="2">
+    <row r="62" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A62" s="153" t="s">
-        <v>966</v>
+        <v>908</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>764</v>
+        <v>707</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>21</v>
@@ -14421,10 +14427,10 @@
       <c r="G62" s="3"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63" spans="1:8" outlineLevel="1">
+    <row r="63" spans="1:8" outlineLevel="1" collapsed="1">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
-        <v>869</v>
+        <v>812</v>
       </c>
       <c r="D63" s="142"/>
       <c r="E63" s="143"/>
@@ -14434,13 +14440,13 @@
     </row>
     <row r="64" spans="1:8" outlineLevel="1">
       <c r="A64" s="153" t="s">
-        <v>967</v>
+        <v>909</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>870</v>
+        <v>813</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>100</v>
@@ -14451,13 +14457,13 @@
     </row>
     <row r="65" spans="1:8" outlineLevel="1">
       <c r="A65" s="153" t="s">
-        <v>968</v>
+        <v>910</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>872</v>
+        <v>815</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>100</v>
@@ -14468,13 +14474,13 @@
     </row>
     <row r="66" spans="1:8" outlineLevel="1">
       <c r="A66" s="153" t="s">
-        <v>969</v>
+        <v>911</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>873</v>
+        <v>816</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>100</v>
@@ -14485,13 +14491,13 @@
     </row>
     <row r="67" spans="1:8" outlineLevel="1">
       <c r="A67" s="153" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>876</v>
+        <v>819</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>100</v>
@@ -14502,13 +14508,13 @@
     </row>
     <row r="68" spans="1:8" outlineLevel="1">
       <c r="A68" s="153" t="s">
-        <v>971</v>
+        <v>913</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>874</v>
+        <v>817</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E68" s="33" t="s">
         <v>100</v>
@@ -14519,13 +14525,13 @@
     </row>
     <row r="69" spans="1:8" outlineLevel="1">
       <c r="A69" s="153" t="s">
-        <v>972</v>
+        <v>914</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>875</v>
+        <v>818</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>100</v>
@@ -14585,7 +14591,7 @@
         <v>248</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>878</v>
+        <v>821</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -14629,7 +14635,7 @@
         <v>250</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>865</v>
+        <v>808</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>101</v>
@@ -14646,7 +14652,7 @@
         <v>251</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>866</v>
+        <v>809</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>101</v>
@@ -14663,7 +14669,7 @@
         <v>252</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>867</v>
+        <v>810</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>101</v>
@@ -14680,7 +14686,7 @@
         <v>253</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>868</v>
+        <v>811</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>101</v>
@@ -14830,7 +14836,7 @@
         <v>260</v>
       </c>
       <c r="C88" s="151" t="s">
-        <v>847</v>
+        <v>790</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>22</v>
@@ -14847,7 +14853,7 @@
         <v>261</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>848</v>
+        <v>791</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>22</v>
@@ -14864,7 +14870,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>849</v>
+        <v>792</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>22</v>
@@ -14881,7 +14887,7 @@
         <v>263</v>
       </c>
       <c r="C91" s="151" t="s">
-        <v>850</v>
+        <v>793</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>22</v>
@@ -14898,7 +14904,7 @@
         <v>264</v>
       </c>
       <c r="C92" s="151" t="s">
-        <v>851</v>
+        <v>794</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>22</v>
@@ -14915,7 +14921,7 @@
         <v>265</v>
       </c>
       <c r="C93" s="151" t="s">
-        <v>852</v>
+        <v>795</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>22</v>
@@ -14932,7 +14938,7 @@
         <v>266</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>853</v>
+        <v>796</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>22</v>
@@ -15085,7 +15091,7 @@
         <v>285</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>811</v>
+        <v>754</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>38</v>
@@ -15136,7 +15142,7 @@
         <v>291</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>880</v>
+        <v>823</v>
       </c>
       <c r="D106" s="39" t="s">
         <v>22</v>
@@ -15255,7 +15261,7 @@
         <v>288</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>881</v>
+        <v>824</v>
       </c>
       <c r="D113" s="39" t="s">
         <v>22</v>
@@ -15291,7 +15297,7 @@
         <v>296</v>
       </c>
       <c r="C115" s="44" t="s">
-        <v>809</v>
+        <v>752</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>47</v>
@@ -15308,7 +15314,7 @@
         <v>301</v>
       </c>
       <c r="C116" s="238" t="s">
-        <v>886</v>
+        <v>829</v>
       </c>
       <c r="D116" s="39" t="s">
         <v>22</v>
@@ -15325,7 +15331,7 @@
         <v>300</v>
       </c>
       <c r="C117" s="238" t="s">
-        <v>885</v>
+        <v>828</v>
       </c>
       <c r="D117" s="39" t="s">
         <v>22</v>
@@ -15342,7 +15348,7 @@
         <v>303</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>887</v>
+        <v>830</v>
       </c>
       <c r="D118" s="39" t="s">
         <v>22</v>
@@ -15359,7 +15365,7 @@
         <v>299</v>
       </c>
       <c r="C119" s="238" t="s">
-        <v>884</v>
+        <v>827</v>
       </c>
       <c r="D119" s="39" t="s">
         <v>22</v>
@@ -15376,7 +15382,7 @@
         <v>302</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>888</v>
+        <v>831</v>
       </c>
       <c r="D120" s="39" t="s">
         <v>22</v>
@@ -15393,7 +15399,7 @@
         <v>298</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>883</v>
+        <v>826</v>
       </c>
       <c r="D121" s="39" t="s">
         <v>22</v>
@@ -15410,7 +15416,7 @@
         <v>297</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>882</v>
+        <v>825</v>
       </c>
       <c r="D122" s="39" t="s">
         <v>22</v>
@@ -15446,7 +15452,7 @@
         <v>304</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>48</v>
@@ -15529,7 +15535,7 @@
     <row r="129" spans="1:8" ht="21">
       <c r="B129" s="70"/>
       <c r="C129" s="71" t="s">
-        <v>864</v>
+        <v>807</v>
       </c>
       <c r="D129" s="72" t="s">
         <v>8</v>
@@ -15688,7 +15694,7 @@
         <v>272</v>
       </c>
       <c r="C138" s="236" t="s">
-        <v>854</v>
+        <v>797</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>22</v>
@@ -15702,10 +15708,10 @@
     </row>
     <row r="139" spans="1:8" outlineLevel="1">
       <c r="A139" s="250" t="s">
-        <v>912</v>
+        <v>854</v>
       </c>
       <c r="C139" s="236" t="s">
-        <v>855</v>
+        <v>798</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>22</v>
@@ -15722,7 +15728,7 @@
         <v>275</v>
       </c>
       <c r="C140" s="236" t="s">
-        <v>856</v>
+        <v>799</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>22</v>
@@ -15736,10 +15742,10 @@
     </row>
     <row r="141" spans="1:8" outlineLevel="1">
       <c r="A141" s="250" t="s">
-        <v>911</v>
+        <v>853</v>
       </c>
       <c r="C141" s="236" t="s">
-        <v>857</v>
+        <v>800</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>22</v>
@@ -15773,7 +15779,7 @@
         <v>277</v>
       </c>
       <c r="C143" s="236" t="s">
-        <v>858</v>
+        <v>801</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>22</v>
@@ -15790,7 +15796,7 @@
         <v>278</v>
       </c>
       <c r="C144" s="236" t="s">
-        <v>863</v>
+        <v>806</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>22</v>
@@ -15807,7 +15813,7 @@
         <v>279</v>
       </c>
       <c r="C145" s="236" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>22</v>
@@ -15824,7 +15830,7 @@
         <v>280</v>
       </c>
       <c r="C146" s="236" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>22</v>
@@ -15841,7 +15847,7 @@
         <v>282</v>
       </c>
       <c r="C147" s="236" t="s">
-        <v>861</v>
+        <v>804</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>22</v>
@@ -15858,7 +15864,7 @@
         <v>283</v>
       </c>
       <c r="C148" s="236" t="s">
-        <v>862</v>
+        <v>805</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>22</v>
@@ -16026,7 +16032,7 @@
         <v>316</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>812</v>
+        <v>755</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>53</v>
@@ -16135,7 +16141,7 @@
         <v>319</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>813</v>
+        <v>756</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>53</v>
@@ -16244,7 +16250,7 @@
         <v>320</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>814</v>
+        <v>757</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>53</v>
@@ -16391,7 +16397,7 @@
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>897</v>
+        <v>839</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -16433,7 +16439,7 @@
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>898</v>
+        <v>840</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -16518,7 +16524,7 @@
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>900</v>
+        <v>842</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -16603,7 +16609,7 @@
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>901</v>
+        <v>843</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -16688,7 +16694,7 @@
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>902</v>
+        <v>844</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -16774,7 +16780,7 @@
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>903</v>
+        <v>845</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -16860,7 +16866,7 @@
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>904</v>
+        <v>846</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -16923,7 +16929,7 @@
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>892</v>
+        <v>834</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
@@ -16997,7 +17003,7 @@
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>890</v>
+        <v>832</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>143</v>
@@ -17020,7 +17026,7 @@
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>891</v>
+        <v>833</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>143</v>
@@ -17485,7 +17491,7 @@
     <row r="223" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="197"/>
       <c r="C223" s="204" t="s">
-        <v>893</v>
+        <v>835</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
@@ -17508,7 +17514,7 @@
     </row>
     <row r="224" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A224" s="252" t="s">
-        <v>913</v>
+        <v>855</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
@@ -17531,7 +17537,7 @@
     </row>
     <row r="225" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A225" s="252" t="s">
-        <v>914</v>
+        <v>856</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
@@ -17554,7 +17560,7 @@
     </row>
     <row r="226" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A226" s="252" t="s">
-        <v>915</v>
+        <v>857</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
@@ -17597,7 +17603,7 @@
     <row r="228" spans="1:28" ht="21">
       <c r="B228" s="206"/>
       <c r="C228" s="207" t="s">
-        <v>804</v>
+        <v>747</v>
       </c>
       <c r="D228" s="205" t="s">
         <v>8</v>
@@ -17619,7 +17625,7 @@
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="26" t="s">
-        <v>834</v>
+        <v>777</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>27</v>
@@ -17637,7 +17643,7 @@
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="26" t="s">
-        <v>835</v>
+        <v>778</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>27</v>
@@ -17655,7 +17661,7 @@
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="26" t="s">
-        <v>836</v>
+        <v>779</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>27</v>
@@ -17673,7 +17679,7 @@
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="26" t="s">
-        <v>837</v>
+        <v>780</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>27</v>
@@ -17797,7 +17803,7 @@
     <row r="239" spans="1:28" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
@@ -17834,11 +17840,11 @@
     </row>
     <row r="240" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A240" s="87" t="s">
-        <v>973</v>
+        <v>915</v>
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="26" t="s">
-        <v>838</v>
+        <v>781</v>
       </c>
       <c r="D240" s="86" t="s">
         <v>27</v>
@@ -17857,7 +17863,7 @@
     </row>
     <row r="241" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A241" s="87" t="s">
-        <v>974</v>
+        <v>916</v>
       </c>
       <c r="B241" s="12"/>
       <c r="C241" s="150" t="s">
@@ -17880,7 +17886,7 @@
     </row>
     <row r="242" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A242" s="87" t="s">
-        <v>975</v>
+        <v>917</v>
       </c>
       <c r="B242" s="12"/>
       <c r="C242" s="150" t="s">
@@ -17903,11 +17909,11 @@
     </row>
     <row r="243" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A243" s="253" t="s">
-        <v>916</v>
+        <v>858</v>
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>895</v>
+        <v>837</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>33</v>
@@ -17926,11 +17932,11 @@
     </row>
     <row r="244" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A244" s="253" t="s">
-        <v>917</v>
+        <v>859</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>896</v>
+        <v>838</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>33</v>
@@ -17949,14 +17955,14 @@
     </row>
     <row r="245" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A245" s="253" t="s">
-        <v>918</v>
+        <v>860</v>
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>899</v>
+        <v>841</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>905</v>
+        <v>847</v>
       </c>
       <c r="E245" s="111" t="s">
         <v>100</v>
@@ -18015,12 +18021,6 @@
             <xm:f>Lists!$L$2:$L$5</xm:f>
           </x14:formula1>
           <xm:sqref>C153:C154</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$M$2:$M$142</xm:f>
-          </x14:formula1>
-          <xm:sqref>C159:C161</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -18076,6 +18076,12 @@
           </x14:formula1>
           <xm:sqref>C173:C175</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lists!$M$2:$M$141</xm:f>
+          </x14:formula1>
+          <xm:sqref>C159:C161</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -18087,12 +18093,12 @@
   <sheetPr codeName="Tabelle4" enableFormatConditionsCalculation="0">
     <tabColor rgb="FF596B8F"/>
   </sheetPr>
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="O104" sqref="O104:O107"/>
+      <selection pane="bottomLeft" activeCell="O106" sqref="O3:O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18132,10 +18138,10 @@
         <v>0</v>
       </c>
       <c r="K1" s="235" t="s">
-        <v>844</v>
+        <v>787</v>
       </c>
       <c r="L1" s="235" t="s">
-        <v>845</v>
+        <v>788</v>
       </c>
       <c r="M1" s="235" t="s">
         <v>115</v>
@@ -18144,10 +18150,10 @@
         <v>116</v>
       </c>
       <c r="O1" s="235" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>368</v>
       </c>
@@ -18173,10 +18179,10 @@
         <v>235</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>236</v>
@@ -18184,7 +18190,7 @@
       <c r="L2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>370</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -18194,7 +18200,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -18205,7 +18211,7 @@
         <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>977</v>
+        <v>919</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>169</v>
@@ -18231,17 +18237,17 @@
       <c r="L3" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="270" t="s">
         <v>372</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
+      <c r="N3" s="270" t="s">
+        <v>953</v>
+      </c>
+      <c r="O3" s="270" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -18278,17 +18284,17 @@
       <c r="L4" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="270" t="s">
         <v>373</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1">
+      <c r="N4" s="270" t="s">
+        <v>491</v>
+      </c>
+      <c r="O4" s="270" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -18296,7 +18302,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>976</v>
+        <v>918</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>181</v>
@@ -18325,17 +18331,17 @@
       <c r="L5" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="270" t="s">
         <v>374</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1">
+      <c r="N5" s="270" t="s">
+        <v>943</v>
+      </c>
+      <c r="O5" s="270" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -18349,7 +18355,7 @@
         <v>188</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>976</v>
+        <v>918</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>189</v>
@@ -18366,17 +18372,17 @@
       <c r="K6" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="270" t="s">
         <v>375</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1">
+      <c r="N6" s="270" t="s">
+        <v>944</v>
+      </c>
+      <c r="O6" s="270" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
@@ -18387,13 +18393,13 @@
         <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>976</v>
+        <v>918</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>193</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>976</v>
+        <v>918</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>194</v>
@@ -18404,17 +18410,17 @@
       <c r="K7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="270" t="s">
         <v>376</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1">
+      <c r="N7" s="270" t="s">
+        <v>492</v>
+      </c>
+      <c r="O7" s="270" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -18433,17 +18439,17 @@
       <c r="K8" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="270" t="s">
         <v>377</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1">
+      <c r="N8" s="270" t="s">
+        <v>493</v>
+      </c>
+      <c r="O8" s="270" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D9" s="1" t="s">
         <v>199</v>
       </c>
@@ -18459,17 +18465,17 @@
       <c r="K9" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1">
+      <c r="M9" s="270" t="s">
+        <v>922</v>
+      </c>
+      <c r="N9" s="270" t="s">
+        <v>494</v>
+      </c>
+      <c r="O9" s="270" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D10" s="1" t="s">
         <v>202</v>
       </c>
@@ -18485,17 +18491,17 @@
       <c r="K10" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1">
+      <c r="M10" s="270" t="s">
+        <v>378</v>
+      </c>
+      <c r="N10" s="270" t="s">
+        <v>495</v>
+      </c>
+      <c r="O10" s="270" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="D11" s="1" t="s">
         <v>205</v>
       </c>
@@ -18511,19 +18517,19 @@
       <c r="K11" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1">
+      <c r="M11" s="270" t="s">
+        <v>379</v>
+      </c>
+      <c r="N11" s="270" t="s">
+        <v>496</v>
+      </c>
+      <c r="O11" s="270" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D12" s="1" t="s">
-        <v>976</v>
+        <v>918</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>208</v>
@@ -18534,17 +18540,17 @@
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1">
+      <c r="M12" s="270" t="s">
+        <v>923</v>
+      </c>
+      <c r="N12" s="270" t="s">
+        <v>497</v>
+      </c>
+      <c r="O12" s="270" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="G13" s="1" t="s">
         <v>209</v>
       </c>
@@ -18554,19 +18560,19 @@
       <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1">
+      <c r="M13" s="270" t="s">
+        <v>380</v>
+      </c>
+      <c r="N13" s="270" t="s">
+        <v>498</v>
+      </c>
+      <c r="O13" s="270" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="G14" s="9" t="s">
-        <v>976</v>
+        <v>918</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>233</v>
@@ -18574,1341 +18580,1336 @@
       <c r="J14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
+      <c r="M14" s="270" t="s">
+        <v>381</v>
+      </c>
+      <c r="N14" s="270" t="s">
+        <v>499</v>
+      </c>
+      <c r="O14" s="270" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I15" s="1" t="s">
         <v>211</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
+      <c r="M15" s="270" t="s">
+        <v>382</v>
+      </c>
+      <c r="N15" s="270" t="s">
+        <v>945</v>
+      </c>
+      <c r="O15" s="270" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I16" s="1" t="s">
         <v>212</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="O16" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="9:15" s="1" customFormat="1">
+      <c r="M16" s="270" t="s">
+        <v>926</v>
+      </c>
+      <c r="N16" s="270" t="s">
+        <v>500</v>
+      </c>
+      <c r="O16" s="270" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="17" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I17" s="1" t="s">
         <v>213</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="18" spans="9:15" s="1" customFormat="1">
+      <c r="M17" s="270" t="s">
+        <v>384</v>
+      </c>
+      <c r="N17" s="270" t="s">
+        <v>501</v>
+      </c>
+      <c r="O17" s="270" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I18" s="1" t="s">
         <v>214</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="19" spans="9:15" s="1" customFormat="1">
+      <c r="M18" s="270" t="s">
+        <v>383</v>
+      </c>
+      <c r="N18" s="270" t="s">
+        <v>502</v>
+      </c>
+      <c r="O18" s="270" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I19" s="1" t="s">
         <v>215</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="20" spans="9:15" s="1" customFormat="1">
+      <c r="M19" s="270" t="s">
+        <v>925</v>
+      </c>
+      <c r="N19" s="270" t="s">
+        <v>503</v>
+      </c>
+      <c r="O19" s="270" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="20" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I20" s="1" t="s">
         <v>216</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="21" spans="9:15" s="1" customFormat="1">
+      <c r="M20" s="270" t="s">
+        <v>385</v>
+      </c>
+      <c r="N20" s="270" t="s">
+        <v>504</v>
+      </c>
+      <c r="O20" s="270" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I21" s="1" t="s">
         <v>234</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="22" spans="9:15" s="1" customFormat="1">
+      <c r="M21" s="270" t="s">
+        <v>386</v>
+      </c>
+      <c r="N21" s="270" t="s">
+        <v>538</v>
+      </c>
+      <c r="O21" s="270" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I22" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="9:15" s="1" customFormat="1">
+      <c r="M22" s="270" t="s">
+        <v>387</v>
+      </c>
+      <c r="N22" s="270" t="s">
+        <v>505</v>
+      </c>
+      <c r="O22" s="270" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I23" s="1" t="s">
         <v>218</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="24" spans="9:15" s="1" customFormat="1">
+      <c r="M23" s="270" t="s">
+        <v>388</v>
+      </c>
+      <c r="N23" s="270" t="s">
+        <v>506</v>
+      </c>
+      <c r="O23" s="270" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I24" s="1" t="s">
         <v>219</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="O24" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="25" spans="9:15" s="1" customFormat="1">
+      <c r="M24" s="270" t="s">
+        <v>389</v>
+      </c>
+      <c r="N24" s="270" t="s">
+        <v>946</v>
+      </c>
+      <c r="O24" s="270" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="25" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I25" s="1" t="s">
         <v>220</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="26" spans="9:15" s="1" customFormat="1">
+      <c r="M25" s="270" t="s">
+        <v>390</v>
+      </c>
+      <c r="N25" s="270" t="s">
+        <v>507</v>
+      </c>
+      <c r="O25" s="270" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I26" s="1" t="s">
         <v>221</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="27" spans="9:15" s="1" customFormat="1">
+      <c r="M26" s="270" t="s">
+        <v>391</v>
+      </c>
+      <c r="N26" s="270" t="s">
+        <v>508</v>
+      </c>
+      <c r="O26" s="270" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I27" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="28" spans="9:15" s="1" customFormat="1">
+      <c r="M27" s="270" t="s">
+        <v>392</v>
+      </c>
+      <c r="N27" s="270" t="s">
+        <v>509</v>
+      </c>
+      <c r="O27" s="270" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I28" s="1" t="s">
         <v>223</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="29" spans="9:15" s="1" customFormat="1">
+      <c r="M28" s="270" t="s">
+        <v>393</v>
+      </c>
+      <c r="N28" s="270" t="s">
+        <v>510</v>
+      </c>
+      <c r="O28" s="270" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I29" s="1" t="s">
         <v>224</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="30" spans="9:15" s="1" customFormat="1">
+      <c r="M29" s="270" t="s">
+        <v>394</v>
+      </c>
+      <c r="N29" s="270" t="s">
+        <v>947</v>
+      </c>
+      <c r="O29" s="270" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I30" s="1" t="s">
         <v>229</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="31" spans="9:15" s="1" customFormat="1">
+      <c r="M30" s="270" t="s">
+        <v>927</v>
+      </c>
+      <c r="N30" s="270" t="s">
+        <v>511</v>
+      </c>
+      <c r="O30" s="270" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I31" s="1" t="s">
         <v>230</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="O31" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="32" spans="9:15" s="1" customFormat="1">
+      <c r="M31" s="270" t="s">
+        <v>395</v>
+      </c>
+      <c r="N31" s="270" t="s">
+        <v>512</v>
+      </c>
+      <c r="O31" s="270" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I32" s="1" t="s">
         <v>225</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="33" spans="9:15" s="1" customFormat="1">
+      <c r="M32" s="270" t="s">
+        <v>396</v>
+      </c>
+      <c r="N32" s="270" t="s">
+        <v>948</v>
+      </c>
+      <c r="O32" s="270" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I33" s="1" t="s">
         <v>231</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="34" spans="9:15" s="1" customFormat="1">
+      <c r="M33" s="270" t="s">
+        <v>397</v>
+      </c>
+      <c r="N33" s="270" t="s">
+        <v>513</v>
+      </c>
+      <c r="O33" s="270" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I34" s="1" t="s">
         <v>226</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="O34" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="35" spans="9:15" s="1" customFormat="1">
+      <c r="M34" s="270" t="s">
+        <v>398</v>
+      </c>
+      <c r="N34" s="270" t="s">
+        <v>514</v>
+      </c>
+      <c r="O34" s="270" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I35" s="1" t="s">
         <v>227</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="36" spans="9:15" s="1" customFormat="1">
+      <c r="M35" s="270" t="s">
+        <v>399</v>
+      </c>
+      <c r="N35" s="270" t="s">
+        <v>515</v>
+      </c>
+      <c r="O35" s="270" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I36" s="1" t="s">
         <v>228</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="37" spans="9:15" s="1" customFormat="1">
+      <c r="M36" s="270" t="s">
+        <v>400</v>
+      </c>
+      <c r="N36" s="270" t="s">
+        <v>516</v>
+      </c>
+      <c r="O36" s="270" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="J37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="38" spans="9:15" s="1" customFormat="1">
+      <c r="M37" s="270" t="s">
+        <v>928</v>
+      </c>
+      <c r="N37" s="270" t="s">
+        <v>949</v>
+      </c>
+      <c r="O37" s="270" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="J38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="39" spans="9:15" s="1" customFormat="1">
+      <c r="M38" s="270" t="s">
+        <v>401</v>
+      </c>
+      <c r="N38" s="270" t="s">
+        <v>517</v>
+      </c>
+      <c r="O38" s="270" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="J39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="270" t="s">
+        <v>402</v>
+      </c>
+      <c r="N39" s="270" t="s">
+        <v>518</v>
+      </c>
+      <c r="O39" s="270" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M40" s="270" t="s">
+        <v>403</v>
+      </c>
+      <c r="N40" s="270" t="s">
+        <v>519</v>
+      </c>
+      <c r="O40" s="270" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M41" s="270" t="s">
+        <v>924</v>
+      </c>
+      <c r="N41" s="270" t="s">
+        <v>520</v>
+      </c>
+      <c r="O41" s="270" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="42" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M42" s="270" t="s">
+        <v>405</v>
+      </c>
+      <c r="N42" s="270" t="s">
+        <v>521</v>
+      </c>
+      <c r="O42" s="270" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="43" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M43" s="270" t="s">
+        <v>406</v>
+      </c>
+      <c r="N43" s="270" t="s">
+        <v>522</v>
+      </c>
+      <c r="O43" s="270" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M44" s="270" t="s">
+        <v>407</v>
+      </c>
+      <c r="N44" s="270" t="s">
+        <v>523</v>
+      </c>
+      <c r="O44" s="270" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M45" s="270" t="s">
+        <v>408</v>
+      </c>
+      <c r="N45" s="270" t="s">
+        <v>524</v>
+      </c>
+      <c r="O45" s="270" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="46" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M46" s="270" t="s">
         <v>409</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N46" s="270" t="s">
+        <v>525</v>
+      </c>
+      <c r="O46" s="270" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="47" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M47" s="270" t="s">
+        <v>410</v>
+      </c>
+      <c r="N47" s="270" t="s">
+        <v>526</v>
+      </c>
+      <c r="O47" s="270" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="48" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M48" s="270" t="s">
+        <v>411</v>
+      </c>
+      <c r="N48" s="270" t="s">
+        <v>527</v>
+      </c>
+      <c r="O48" s="270" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M49" s="270" t="s">
+        <v>412</v>
+      </c>
+      <c r="N49" s="270" t="s">
+        <v>528</v>
+      </c>
+      <c r="O49" s="270" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M50" s="270" t="s">
+        <v>404</v>
+      </c>
+      <c r="N50" s="270" t="s">
+        <v>529</v>
+      </c>
+      <c r="O50" s="270" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M51" s="270" t="s">
+        <v>413</v>
+      </c>
+      <c r="N51" s="270" t="s">
+        <v>530</v>
+      </c>
+      <c r="O51" s="270" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="52" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M52" s="270" t="s">
+        <v>414</v>
+      </c>
+      <c r="N52" s="270" t="s">
+        <v>942</v>
+      </c>
+      <c r="O52" s="270" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="53" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M53" s="270" t="s">
+        <v>415</v>
+      </c>
+      <c r="N53" s="270" t="s">
+        <v>574</v>
+      </c>
+      <c r="O53" s="270" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M54" s="270" t="s">
+        <v>416</v>
+      </c>
+      <c r="N54" s="270" t="s">
+        <v>531</v>
+      </c>
+      <c r="O54" s="270" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M55" s="270" t="s">
+        <v>929</v>
+      </c>
+      <c r="N55" s="270" t="s">
+        <v>532</v>
+      </c>
+      <c r="O55" s="270" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M56" s="270" t="s">
+        <v>930</v>
+      </c>
+      <c r="N56" s="270" t="s">
+        <v>950</v>
+      </c>
+      <c r="O56" s="270" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="57" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M57" s="270" t="s">
+        <v>417</v>
+      </c>
+      <c r="N57" s="270" t="s">
+        <v>533</v>
+      </c>
+      <c r="O57" s="270" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="58" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M58" s="270" t="s">
+        <v>418</v>
+      </c>
+      <c r="N58" s="270" t="s">
+        <v>534</v>
+      </c>
+      <c r="O58" s="270" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M59" s="270" t="s">
+        <v>419</v>
+      </c>
+      <c r="N59" s="270" t="s">
+        <v>535</v>
+      </c>
+      <c r="O59" s="270" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M60" s="270" t="s">
+        <v>420</v>
+      </c>
+      <c r="N60" s="270" t="s">
+        <v>536</v>
+      </c>
+      <c r="O60" s="270" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M61" s="270" t="s">
+        <v>421</v>
+      </c>
+      <c r="N61" s="270" t="s">
+        <v>537</v>
+      </c>
+      <c r="O61" s="270" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="62" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M62" s="270" t="s">
+        <v>422</v>
+      </c>
+      <c r="N62" s="270" t="s">
+        <v>539</v>
+      </c>
+      <c r="O62" s="270" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="63" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M63" s="270" t="s">
+        <v>931</v>
+      </c>
+      <c r="N63" s="270" t="s">
+        <v>540</v>
+      </c>
+      <c r="O63" s="270" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="64" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M64" s="270" t="s">
+        <v>423</v>
+      </c>
+      <c r="N64" s="270" t="s">
+        <v>541</v>
+      </c>
+      <c r="O64" s="270" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="65" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M65" s="270" t="s">
+        <v>932</v>
+      </c>
+      <c r="N65" s="270" t="s">
+        <v>542</v>
+      </c>
+      <c r="O65" s="270" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M66" s="270" t="s">
+        <v>424</v>
+      </c>
+      <c r="N66" s="270" t="s">
+        <v>951</v>
+      </c>
+      <c r="O66" s="270" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M67" s="270" t="s">
+        <v>425</v>
+      </c>
+      <c r="N67" s="270" t="s">
+        <v>952</v>
+      </c>
+      <c r="O67" s="270" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="68" spans="13:15" ht="27" thickBot="1">
+      <c r="M68" s="270" t="s">
+        <v>426</v>
+      </c>
+      <c r="N68" s="270" t="s">
+        <v>543</v>
+      </c>
+      <c r="O68" s="270" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="69" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M69" s="270" t="s">
+        <v>934</v>
+      </c>
+      <c r="N69" s="270" t="s">
+        <v>544</v>
+      </c>
+      <c r="O69" s="270" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="70" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M70" s="270" t="s">
+        <v>935</v>
+      </c>
+      <c r="N70" s="270" t="s">
+        <v>545</v>
+      </c>
+      <c r="O70" s="270" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M71" s="270" t="s">
+        <v>427</v>
+      </c>
+      <c r="N71" s="270" t="s">
+        <v>918</v>
+      </c>
+      <c r="O71" s="270" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M72" s="270" t="s">
+        <v>428</v>
+      </c>
+      <c r="N72" s="270" t="s">
+        <v>546</v>
+      </c>
+      <c r="O72" s="270" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="73" spans="13:15" ht="27" thickBot="1">
+      <c r="M73" s="270" t="s">
+        <v>429</v>
+      </c>
+      <c r="N73" s="270" t="s">
         <v>547</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O73" s="270" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="74" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M74" s="270" t="s">
+        <v>430</v>
+      </c>
+      <c r="N74" s="270" t="s">
+        <v>548</v>
+      </c>
+      <c r="O74" s="270" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="75" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M75" s="270" t="s">
+        <v>936</v>
+      </c>
+      <c r="N75" s="270" t="s">
+        <v>549</v>
+      </c>
+      <c r="O75" s="270" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M76" s="270" t="s">
+        <v>432</v>
+      </c>
+      <c r="N76" s="270" t="s">
+        <v>550</v>
+      </c>
+      <c r="O76" s="270" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="77" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M77" s="270" t="s">
+        <v>431</v>
+      </c>
+      <c r="N77" s="270" t="s">
+        <v>551</v>
+      </c>
+      <c r="O77" s="270" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="78" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M78" s="270" t="s">
+        <v>433</v>
+      </c>
+      <c r="N78" s="270" t="s">
+        <v>552</v>
+      </c>
+      <c r="O78" s="270" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" spans="13:15" ht="27" thickBot="1">
+      <c r="M79" s="270" t="s">
+        <v>434</v>
+      </c>
+      <c r="N79" s="270" t="s">
+        <v>553</v>
+      </c>
+      <c r="O79" s="270" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="80" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M80" s="270" t="s">
+        <v>435</v>
+      </c>
+      <c r="N80" s="270" t="s">
+        <v>954</v>
+      </c>
+      <c r="O80" s="270" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="81" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M81" s="270" t="s">
+        <v>436</v>
+      </c>
+      <c r="N81" s="270" t="s">
+        <v>554</v>
+      </c>
+      <c r="O81" s="270" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="82" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M82" s="270" t="s">
+        <v>437</v>
+      </c>
+      <c r="N82" s="270" t="s">
+        <v>555</v>
+      </c>
+      <c r="O82" s="270" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="83" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M83" s="270" t="s">
+        <v>438</v>
+      </c>
+      <c r="N83" s="270" t="s">
+        <v>955</v>
+      </c>
+      <c r="O83" s="270" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M84" s="270" t="s">
+        <v>439</v>
+      </c>
+      <c r="N84" s="270" t="s">
+        <v>556</v>
+      </c>
+      <c r="O84" s="270" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M85" s="270" t="s">
+        <v>440</v>
+      </c>
+      <c r="N85" s="270" t="s">
+        <v>557</v>
+      </c>
+      <c r="O85" s="270" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="86" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M86" s="270" t="s">
+        <v>441</v>
+      </c>
+      <c r="N86" s="270" t="s">
+        <v>558</v>
+      </c>
+      <c r="O86" s="270" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="87" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M87" s="270" t="s">
+        <v>442</v>
+      </c>
+      <c r="N87" s="270" t="s">
+        <v>559</v>
+      </c>
+      <c r="O87" s="270" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="88" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M88" s="270" t="s">
+        <v>443</v>
+      </c>
+      <c r="N88" s="270" t="s">
+        <v>560</v>
+      </c>
+      <c r="O88" s="270" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="89" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M89" s="270" t="s">
+        <v>444</v>
+      </c>
+      <c r="N89" s="270" t="s">
+        <v>561</v>
+      </c>
+      <c r="O89" s="270" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="90" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M90" s="270" t="s">
+        <v>445</v>
+      </c>
+      <c r="N90" s="270" t="s">
+        <v>956</v>
+      </c>
+      <c r="O90" s="270" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="91" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M91" s="270" t="s">
+        <v>446</v>
+      </c>
+      <c r="N91" s="270" t="s">
+        <v>562</v>
+      </c>
+      <c r="O91" s="270" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="92" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M92" s="270" t="s">
+        <v>447</v>
+      </c>
+      <c r="N92" s="270" t="s">
+        <v>563</v>
+      </c>
+      <c r="O92" s="270" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="93" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M93" s="270" t="s">
+        <v>939</v>
+      </c>
+      <c r="N93" s="270" t="s">
+        <v>564</v>
+      </c>
+      <c r="O93" s="270" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="94" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M94" s="270" t="s">
+        <v>448</v>
+      </c>
+      <c r="N94" s="270" t="s">
+        <v>565</v>
+      </c>
+      <c r="O94" s="270" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="95" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M95" s="270" t="s">
+        <v>449</v>
+      </c>
+      <c r="N95" s="270" t="s">
+        <v>566</v>
+      </c>
+      <c r="O95" s="270" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="96" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M96" s="270" t="s">
+        <v>450</v>
+      </c>
+      <c r="N96" s="270" t="s">
+        <v>567</v>
+      </c>
+      <c r="O96" s="270" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="97" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M97" s="270" t="s">
+        <v>451</v>
+      </c>
+      <c r="N97" s="270" t="s">
+        <v>568</v>
+      </c>
+      <c r="O97" s="270" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="98" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M98" s="270" t="s">
+        <v>452</v>
+      </c>
+      <c r="N98" s="270" t="s">
+        <v>569</v>
+      </c>
+      <c r="O98" s="270" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="40" spans="9:15" s="1" customFormat="1">
-      <c r="M40" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="O40" s="1" t="s">
+    <row r="99" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M99" s="270" t="s">
+        <v>453</v>
+      </c>
+      <c r="N99" s="270" t="s">
+        <v>570</v>
+      </c>
+      <c r="O99" s="270" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="41" spans="9:15" s="1" customFormat="1">
-      <c r="M41" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="O41" s="1" t="s">
+    <row r="100" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M100" s="270" t="s">
+        <v>454</v>
+      </c>
+      <c r="N100" s="270" t="s">
+        <v>571</v>
+      </c>
+      <c r="O100" s="270" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="101" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M101" s="270" t="s">
+        <v>455</v>
+      </c>
+      <c r="N101" s="270" t="s">
+        <v>572</v>
+      </c>
+      <c r="O101" s="270" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="9:15" s="1" customFormat="1">
-      <c r="M42" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="O42" s="1" t="s">
+    <row r="102" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M102" s="270" t="s">
+        <v>456</v>
+      </c>
+      <c r="N102" s="270" t="s">
+        <v>573</v>
+      </c>
+      <c r="O102" s="270" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="103" spans="13:15" ht="27" thickBot="1">
+      <c r="M103" s="270" t="s">
+        <v>458</v>
+      </c>
+      <c r="N103" s="270" t="s">
+        <v>574</v>
+      </c>
+      <c r="O103" s="270" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="43" spans="9:15" s="1" customFormat="1">
-      <c r="M43" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="O43" s="1" t="s">
+    <row r="104" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M104" s="270" t="s">
+        <v>457</v>
+      </c>
+      <c r="O104" s="270" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="44" spans="9:15" s="1" customFormat="1">
-      <c r="M44" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="O44" s="1" t="s">
+    <row r="105" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M105" s="270" t="s">
+        <v>459</v>
+      </c>
+      <c r="O105" s="270" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="9:15" s="1" customFormat="1">
-      <c r="M45" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="O45" s="1" t="s">
+    <row r="106" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M106" s="270" t="s">
+        <v>460</v>
+      </c>
+      <c r="O106" s="270" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="46" spans="9:15" s="1" customFormat="1">
-      <c r="M46" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="47" spans="9:15" s="1" customFormat="1">
-      <c r="M47" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="48" spans="9:15" s="1" customFormat="1">
-      <c r="M48" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="49" spans="13:15" s="1" customFormat="1">
-      <c r="M49" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="50" spans="13:15" s="1" customFormat="1">
-      <c r="M50" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="51" spans="13:15" s="1" customFormat="1">
-      <c r="M51" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="52" spans="13:15" s="1" customFormat="1">
-      <c r="M52" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="53" spans="13:15" s="1" customFormat="1">
-      <c r="M53" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="54" spans="13:15" s="1" customFormat="1">
-      <c r="M54" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="O54" s="1" t="s">
+    <row r="107" spans="13:15" ht="27" thickBot="1">
+      <c r="M107" s="270" t="s">
+        <v>461</v>
+      </c>
+      <c r="O107" s="270" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="55" spans="13:15" s="1" customFormat="1">
-      <c r="M55" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="56" spans="13:15" s="1" customFormat="1">
-      <c r="M56" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="57" spans="13:15" s="1" customFormat="1">
-      <c r="M57" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="58" spans="13:15" s="1" customFormat="1">
-      <c r="M58" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="59" spans="13:15" s="1" customFormat="1">
-      <c r="M59" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="60" spans="13:15" s="1" customFormat="1">
-      <c r="M60" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="61" spans="13:15" s="1" customFormat="1">
-      <c r="M61" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="62" spans="13:15" s="1" customFormat="1">
-      <c r="M62" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="63" spans="13:15" s="1" customFormat="1">
-      <c r="M63" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="O63" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="64" spans="13:15" s="1" customFormat="1">
-      <c r="M64" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="65" spans="13:15" s="1" customFormat="1">
-      <c r="M65" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="66" spans="13:15" s="1" customFormat="1">
-      <c r="M66" t="s">
-        <v>436</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="67" spans="13:15">
-      <c r="M67" t="s">
-        <v>437</v>
-      </c>
-      <c r="N67" t="s">
-        <v>576</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="68" spans="13:15">
-      <c r="M68" t="s">
-        <v>438</v>
-      </c>
-      <c r="N68" t="s">
-        <v>577</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="69" spans="13:15">
-      <c r="M69" t="s">
-        <v>439</v>
-      </c>
-      <c r="N69" t="s">
-        <v>578</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="70" spans="13:15">
-      <c r="M70" t="s">
-        <v>440</v>
-      </c>
-      <c r="N70" t="s">
-        <v>579</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="71" spans="13:15">
-      <c r="M71" t="s">
-        <v>441</v>
-      </c>
-      <c r="N71" t="s">
-        <v>580</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="72" spans="13:15">
-      <c r="M72" t="s">
-        <v>442</v>
-      </c>
-      <c r="N72" t="s">
-        <v>581</v>
-      </c>
-      <c r="O72" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="73" spans="13:15">
-      <c r="M73" t="s">
-        <v>443</v>
-      </c>
-      <c r="N73" t="s">
-        <v>582</v>
-      </c>
-      <c r="O73" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="74" spans="13:15">
-      <c r="M74" t="s">
-        <v>444</v>
-      </c>
-      <c r="N74" t="s">
-        <v>583</v>
-      </c>
-      <c r="O74" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="75" spans="13:15">
-      <c r="M75" t="s">
-        <v>445</v>
-      </c>
-      <c r="N75" t="s">
-        <v>584</v>
-      </c>
-      <c r="O75" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="76" spans="13:15">
-      <c r="M76" t="s">
-        <v>446</v>
-      </c>
-      <c r="N76" t="s">
-        <v>585</v>
-      </c>
-      <c r="O76" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="77" spans="13:15">
-      <c r="M77" t="s">
-        <v>448</v>
-      </c>
-      <c r="N77" t="s">
-        <v>586</v>
-      </c>
-      <c r="O77" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="78" spans="13:15">
-      <c r="M78" t="s">
-        <v>447</v>
-      </c>
-      <c r="N78" t="s">
-        <v>587</v>
-      </c>
-      <c r="O78" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="79" spans="13:15">
-      <c r="M79" t="s">
-        <v>449</v>
-      </c>
-      <c r="N79" t="s">
-        <v>588</v>
-      </c>
-      <c r="O79" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="80" spans="13:15">
-      <c r="M80" t="s">
-        <v>450</v>
-      </c>
-      <c r="N80" t="s">
-        <v>589</v>
-      </c>
-      <c r="O80" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="81" spans="13:15">
-      <c r="M81" t="s">
-        <v>451</v>
-      </c>
-      <c r="N81" t="s">
-        <v>590</v>
-      </c>
-      <c r="O81" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="82" spans="13:15">
-      <c r="M82" t="s">
-        <v>452</v>
-      </c>
-      <c r="N82" t="s">
-        <v>591</v>
-      </c>
-      <c r="O82" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="83" spans="13:15">
-      <c r="M83" t="s">
-        <v>453</v>
-      </c>
-      <c r="N83" t="s">
-        <v>592</v>
-      </c>
-      <c r="O83" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="84" spans="13:15">
-      <c r="M84" t="s">
-        <v>454</v>
-      </c>
-      <c r="N84" t="s">
-        <v>593</v>
-      </c>
-      <c r="O84" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="85" spans="13:15">
-      <c r="M85" t="s">
-        <v>455</v>
-      </c>
-      <c r="N85" t="s">
-        <v>594</v>
-      </c>
-      <c r="O85" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="86" spans="13:15">
-      <c r="M86" t="s">
-        <v>456</v>
-      </c>
-      <c r="N86" t="s">
-        <v>595</v>
-      </c>
-      <c r="O86" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="87" spans="13:15">
-      <c r="M87" t="s">
-        <v>457</v>
-      </c>
-      <c r="N87" t="s">
-        <v>596</v>
-      </c>
-      <c r="O87" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="88" spans="13:15">
-      <c r="M88" t="s">
-        <v>458</v>
-      </c>
-      <c r="N88" t="s">
-        <v>716</v>
-      </c>
-      <c r="O88" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="89" spans="13:15">
-      <c r="M89" t="s">
-        <v>459</v>
-      </c>
-      <c r="N89" t="s">
-        <v>597</v>
-      </c>
-      <c r="O89" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="90" spans="13:15">
-      <c r="M90" t="s">
-        <v>460</v>
-      </c>
-      <c r="N90" t="s">
-        <v>598</v>
-      </c>
-      <c r="O90" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="91" spans="13:15">
-      <c r="M91" t="s">
-        <v>461</v>
-      </c>
-      <c r="N91" t="s">
-        <v>599</v>
-      </c>
-      <c r="O91" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="92" spans="13:15">
-      <c r="M92" t="s">
+    <row r="108" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M108" s="270" t="s">
         <v>462</v>
       </c>
-      <c r="N92" t="s">
-        <v>600</v>
-      </c>
-      <c r="O92" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="93" spans="13:15">
-      <c r="M93" t="s">
+    </row>
+    <row r="109" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M109" s="270" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="110" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M110" s="270" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="111" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M111" s="270" t="s">
         <v>463</v>
       </c>
-      <c r="N93" t="s">
-        <v>601</v>
-      </c>
-      <c r="O93" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="94" spans="13:15">
-      <c r="M94" t="s">
+    </row>
+    <row r="112" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M112" s="270" t="s">
         <v>464</v>
       </c>
-      <c r="N94" t="s">
-        <v>602</v>
-      </c>
-      <c r="O94" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="95" spans="13:15">
-      <c r="M95" t="s">
+    </row>
+    <row r="113" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M113" s="270" t="s">
         <v>465</v>
       </c>
-      <c r="N95" t="s">
-        <v>603</v>
-      </c>
-      <c r="O95" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="96" spans="13:15">
-      <c r="M96" t="s">
+    </row>
+    <row r="114" spans="13:13" ht="27" thickBot="1">
+      <c r="M114" s="270" t="s">
         <v>466</v>
       </c>
-      <c r="N96" t="s">
-        <v>604</v>
-      </c>
-      <c r="O96" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="97" spans="13:15">
-      <c r="M97" t="s">
+    </row>
+    <row r="115" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M115" s="270" t="s">
         <v>467</v>
       </c>
-      <c r="N97" t="s">
-        <v>605</v>
-      </c>
-      <c r="O97" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="98" spans="13:15">
-      <c r="M98" t="s">
+    </row>
+    <row r="116" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M116" s="270" t="s">
         <v>468</v>
       </c>
-      <c r="N98" t="s">
-        <v>606</v>
-      </c>
-      <c r="O98" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="99" spans="13:15">
-      <c r="M99" t="s">
+    </row>
+    <row r="117" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M117" s="270" t="s">
         <v>469</v>
       </c>
-      <c r="N99" t="s">
-        <v>607</v>
-      </c>
-      <c r="O99" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="100" spans="13:15">
-      <c r="M100" t="s">
+    </row>
+    <row r="118" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M118" s="270" t="s">
         <v>470</v>
       </c>
-      <c r="N100" t="s">
-        <v>608</v>
-      </c>
-      <c r="O100" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="101" spans="13:15">
-      <c r="M101" t="s">
+    </row>
+    <row r="119" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M119" s="270" t="s">
         <v>471</v>
       </c>
-      <c r="N101" t="s">
-        <v>609</v>
-      </c>
-      <c r="O101" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="102" spans="13:15">
-      <c r="M102" t="s">
+    </row>
+    <row r="120" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M120" s="270" t="s">
         <v>472</v>
       </c>
-      <c r="N102" t="s">
-        <v>610</v>
-      </c>
-      <c r="O102" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="103" spans="13:15">
-      <c r="M103" t="s">
+    </row>
+    <row r="121" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M121" s="270" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M122" s="270" t="s">
         <v>474</v>
       </c>
-      <c r="N103" t="s">
-        <v>611</v>
-      </c>
-      <c r="O103" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="104" spans="13:15">
-      <c r="M104" t="s">
-        <v>473</v>
-      </c>
-      <c r="O104" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="105" spans="13:15">
-      <c r="M105" t="s">
+    </row>
+    <row r="123" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M123" s="270" t="s">
         <v>475</v>
       </c>
-      <c r="O105" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="106" spans="13:15">
-      <c r="M106" t="s">
+    </row>
+    <row r="124" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M124" s="270" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="125" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M125" s="270" t="s">
         <v>476</v>
       </c>
-      <c r="O106" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="107" spans="13:15">
-      <c r="M107" t="s">
+    </row>
+    <row r="126" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M126" s="270" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M127" s="270" t="s">
         <v>477</v>
       </c>
-      <c r="O107" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="108" spans="13:15">
-      <c r="M108" t="s">
+    </row>
+    <row r="128" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M128" s="270" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="109" spans="13:15">
-      <c r="M109" t="s">
+    <row r="129" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M129" s="270" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="110" spans="13:15">
-      <c r="M110" t="s">
+    <row r="130" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M130" s="270" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="111" spans="13:15">
-      <c r="M111" t="s">
+    <row r="131" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M131" s="270" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="132" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M132" s="270" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="112" spans="13:15">
-      <c r="M112" t="s">
+    <row r="133" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M133" s="270" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="13:13">
-      <c r="M113" t="s">
+    <row r="134" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M134" s="270" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="13:13">
-      <c r="M114" t="s">
+    <row r="135" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M135" s="270" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="115" spans="13:13">
-      <c r="M115" t="s">
+    <row r="136" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M136" s="270" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="116" spans="13:13">
-      <c r="M116" t="s">
+    <row r="137" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M137" s="270" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="117" spans="13:13">
-      <c r="M117" t="s">
+    <row r="138" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M138" s="270" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="139" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M139" s="270" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="118" spans="13:13">
-      <c r="M118" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="119" spans="13:13">
-      <c r="M119" t="s">
+    <row r="140" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M140" s="270" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="120" spans="13:13">
-      <c r="M120" t="s">
+    <row r="141" spans="13:13" ht="27" thickBot="1">
+      <c r="M141" s="270" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="121" spans="13:13">
-      <c r="M121" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="122" spans="13:13">
-      <c r="M122" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="123" spans="13:13">
-      <c r="M123" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="124" spans="13:13">
-      <c r="M124" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="125" spans="13:13">
-      <c r="M125" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="126" spans="13:13">
-      <c r="M126" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="127" spans="13:13">
-      <c r="M127" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="128" spans="13:13">
-      <c r="M128" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="129" spans="13:13">
-      <c r="M129" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="130" spans="13:13">
-      <c r="M130" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="131" spans="13:13">
-      <c r="M131" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="132" spans="13:13">
-      <c r="M132" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="133" spans="13:13">
-      <c r="M133" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="134" spans="13:13">
-      <c r="M134" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="135" spans="13:13">
-      <c r="M135" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="136" spans="13:13">
-      <c r="M136" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="137" spans="13:13">
-      <c r="M137" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="138" spans="13:13">
-      <c r="M138" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="139" spans="13:13">
-      <c r="M139" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="140" spans="13:13">
-      <c r="M140" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="141" spans="13:13">
-      <c r="M141" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="142" spans="13:13">
-      <c r="M142" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
@@ -2814,9 +2814,6 @@
     <t>Geographical representativeness (GR)</t>
   </si>
   <si>
-    <t>Time-related representativeness (TIR)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Completeness (C) </t>
   </si>
   <si>
@@ -2975,9 +2972,6 @@
     <t>ecospold_name</t>
   </si>
   <si>
-    <t>ecopsold_location</t>
-  </si>
-  <si>
     <t>ecospold_infra_process</t>
   </si>
   <si>
@@ -3315,6 +3309,12 @@
   </si>
   <si>
     <t>Triazamate</t>
+  </si>
+  <si>
+    <t>ecospold_location</t>
+  </si>
+  <si>
+    <t>Time-related representativeness (TiR)</t>
   </si>
 </sst>
 </file>
@@ -5927,9 +5927,24 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5942,18 +5957,6 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5968,9 +5971,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="613">
@@ -8928,25 +8928,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="259" t="s">
         <v>734</v>
       </c>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -8963,14 +8963,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="260" t="s">
         <v>709</v>
       </c>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -8987,14 +8987,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="261" t="s">
         <v>774</v>
       </c>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="264"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
+      <c r="G10" s="261"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -9002,10 +9002,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="264"/>
-      <c r="F11" s="264"/>
-      <c r="G11" s="264"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -9015,12 +9015,12 @@
         <v>710</v>
       </c>
       <c r="C12" s="174"/>
-      <c r="D12" s="256" t="s">
+      <c r="D12" s="257" t="s">
         <v>711</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
+      <c r="G12" s="257"/>
       <c r="H12" s="156"/>
       <c r="I12" s="156"/>
     </row>
@@ -9030,12 +9030,12 @@
         <v>739</v>
       </c>
       <c r="C13" s="174"/>
-      <c r="D13" s="256" t="s">
+      <c r="D13" s="257" t="s">
         <v>741</v>
       </c>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
       <c r="H13" s="156"/>
       <c r="I13" s="156"/>
     </row>
@@ -9045,12 +9045,12 @@
         <v>740</v>
       </c>
       <c r="C14" s="174"/>
-      <c r="D14" s="256" t="s">
+      <c r="D14" s="257" t="s">
         <v>742</v>
       </c>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="257"/>
+      <c r="G14" s="257"/>
       <c r="H14" s="156"/>
       <c r="I14" s="156"/>
     </row>
@@ -9058,10 +9058,10 @@
       <c r="A15" s="154"/>
       <c r="B15" s="175"/>
       <c r="C15" s="174"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
       <c r="H15" s="156"/>
       <c r="I15" s="156"/>
     </row>
@@ -9078,23 +9078,23 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="258" t="s">
+      <c r="B17" s="263" t="s">
         <v>712</v>
       </c>
-      <c r="C17" s="258"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="259" t="s">
+      <c r="B18" s="264" t="s">
         <v>713</v>
       </c>
-      <c r="C18" s="259"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="180" t="s">
         <v>714</v>
       </c>
@@ -9112,10 +9112,10 @@
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="260" t="s">
+      <c r="B19" s="265" t="s">
         <v>718</v>
       </c>
-      <c r="C19" s="260"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="166" t="s">
         <v>719</v>
       </c>
@@ -9154,10 +9154,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="257" t="s">
+      <c r="B21" s="262" t="s">
         <v>721</v>
       </c>
-      <c r="C21" s="257"/>
+      <c r="C21" s="262"/>
       <c r="D21" s="167" t="s">
         <v>722</v>
       </c>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="257" t="s">
+      <c r="B22" s="262" t="s">
         <v>725</v>
       </c>
-      <c r="C22" s="257"/>
+      <c r="C22" s="262"/>
       <c r="D22" s="167" t="s">
         <v>726</v>
       </c>
@@ -9292,12 +9292,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -9306,6 +9300,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1"/>
@@ -9331,10 +9331,10 @@
   </sheetPr>
   <dimension ref="A1:Z245"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -9364,12 +9364,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1">
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="266" t="s">
         <v>743</v>
       </c>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
       <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1" ht="15.95" customHeight="1">
@@ -9384,10 +9384,10 @@
       <c r="C4" s="196" t="s">
         <v>744</v>
       </c>
-      <c r="D4" s="266" t="s">
+      <c r="D4" s="267" t="s">
         <v>776</v>
       </c>
-      <c r="E4" s="266"/>
+      <c r="E4" s="267"/>
       <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1" ht="30.95" customHeight="1">
@@ -9395,10 +9395,10 @@
       <c r="C5" s="196" t="s">
         <v>745</v>
       </c>
-      <c r="D5" s="267" t="s">
+      <c r="D5" s="268" t="s">
         <v>775</v>
       </c>
-      <c r="E5" s="267"/>
+      <c r="E5" s="268"/>
       <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:6" ht="8.1" customHeight="1">
@@ -10271,7 +10271,7 @@
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="153"/>
       <c r="C66" s="19" t="s">
-        <v>816</v>
+        <v>975</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>814</v>
@@ -10284,7 +10284,7 @@
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="153"/>
       <c r="C67" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>814</v>
@@ -10297,7 +10297,7 @@
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="153"/>
       <c r="C68" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>814</v>
@@ -10310,7 +10310,7 @@
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="153"/>
       <c r="C69" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>814</v>
@@ -10361,7 +10361,7 @@
         <v>248</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -10401,7 +10401,7 @@
         <v>250</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>101</v>
@@ -10752,7 +10752,7 @@
         <v>32</v>
       </c>
       <c r="E100" s="214" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F100" s="64"/>
     </row>
@@ -10835,7 +10835,7 @@
         <v>291</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>22</v>
@@ -10940,7 +10940,7 @@
         <v>288</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>22</v>
@@ -10986,7 +10986,7 @@
         <v>301</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>22</v>
@@ -11001,7 +11001,7 @@
         <v>300</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>22</v>
@@ -11016,7 +11016,7 @@
         <v>303</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>22</v>
@@ -11031,7 +11031,7 @@
         <v>299</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>22</v>
@@ -11046,7 +11046,7 @@
         <v>302</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>22</v>
@@ -11061,7 +11061,7 @@
         <v>298</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>22</v>
@@ -11076,7 +11076,7 @@
         <v>297</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>22</v>
@@ -11580,7 +11580,7 @@
         <v>53</v>
       </c>
       <c r="E156" s="222" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F156" s="64"/>
     </row>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>143</v>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>143</v>
@@ -12867,7 +12867,7 @@
     <row r="223" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="199"/>
       <c r="C223" s="204" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>33</v>
@@ -12983,7 +12983,7 @@
         <v>27</v>
       </c>
       <c r="E229" s="223" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F229" s="64"/>
     </row>
@@ -13131,7 +13131,7 @@
     <row r="239" spans="1:26" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>33</v>
@@ -13250,7 +13250,7 @@
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>33</v>
@@ -13271,10 +13271,10 @@
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E245" s="223" t="s">
         <v>100</v>
@@ -13385,7 +13385,7 @@
   </sheetPr>
   <dimension ref="A1:AB245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
@@ -13393,7 +13393,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="51.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" style="8" customWidth="1"/>
@@ -13426,14 +13426,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1">
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="266" t="s">
         <v>743</v>
       </c>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" ht="15.95" customHeight="1">
@@ -13447,34 +13447,34 @@
     </row>
     <row r="4" spans="1:8" ht="21">
       <c r="A4" s="153" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B4" s="188"/>
       <c r="C4" s="192" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D4" s="190" t="s">
         <v>661</v>
       </c>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
       <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="21">
       <c r="A5" s="153" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B5" s="189"/>
       <c r="C5" s="193" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D5" s="191" t="s">
         <v>662</v>
       </c>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="270"/>
+      <c r="G5" s="270"/>
       <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="8.1" customHeight="1">
@@ -13613,7 +13613,7 @@
     </row>
     <row r="15" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A15" s="254" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>663</v>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="16" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A16" s="153" t="s">
-        <v>862</v>
+        <v>974</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>664</v>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="17" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A17" s="153" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>665</v>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="18" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A18" s="254" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="19" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A19" s="153" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>666</v>
@@ -13698,7 +13698,7 @@
     </row>
     <row r="20" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A20" s="153" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>667</v>
@@ -13715,7 +13715,7 @@
     </row>
     <row r="21" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A21" s="153" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>668</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="22" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A22" s="153" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>669</v>
@@ -13749,7 +13749,7 @@
     </row>
     <row r="23" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A23" s="153" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>670</v>
@@ -13766,7 +13766,7 @@
     </row>
     <row r="24" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A24" s="153" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>671</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="25" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A25" s="153" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>672</v>
@@ -13800,7 +13800,7 @@
     </row>
     <row r="26" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A26" s="153" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>673</v>
@@ -13817,7 +13817,7 @@
     </row>
     <row r="27" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A27" s="153" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>674</v>
@@ -13834,7 +13834,7 @@
     </row>
     <row r="28" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A28" s="153" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>675</v>
@@ -13851,7 +13851,7 @@
     </row>
     <row r="29" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A29" s="153" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>676</v>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="30" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A30" s="153" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>677</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="31" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A31" s="153" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>678</v>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="32" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A32" s="153" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>679</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="33" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A33" s="153" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>680</v>
@@ -13936,7 +13936,7 @@
     </row>
     <row r="34" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A34" s="153" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>681</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="35" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A35" s="153" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>682</v>
@@ -13970,7 +13970,7 @@
     </row>
     <row r="36" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A36" s="153" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>683</v>
@@ -13987,7 +13987,7 @@
     </row>
     <row r="37" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A37" s="153" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>684</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="38" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A38" s="254" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>685</v>
@@ -14021,7 +14021,7 @@
     </row>
     <row r="39" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A39" s="153" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>686</v>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="40" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A40" s="153" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>687</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="41" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A41" s="153" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>688</v>
@@ -14072,7 +14072,7 @@
     </row>
     <row r="42" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A42" s="153" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>689</v>
@@ -14089,7 +14089,7 @@
     </row>
     <row r="43" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A43" s="153" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>690</v>
@@ -14106,7 +14106,7 @@
     </row>
     <row r="44" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A44" s="153" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>690</v>
@@ -14123,7 +14123,7 @@
     </row>
     <row r="45" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A45" s="153" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>691</v>
@@ -14140,7 +14140,7 @@
     </row>
     <row r="46" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A46" s="153" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>692</v>
@@ -14157,7 +14157,7 @@
     </row>
     <row r="47" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A47" s="153" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>693</v>
@@ -14174,7 +14174,7 @@
     </row>
     <row r="48" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A48" s="153" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>694</v>
@@ -14191,7 +14191,7 @@
     </row>
     <row r="49" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A49" s="153" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>695</v>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="50" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A50" s="153" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>696</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="51" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A51" s="153" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>696</v>
@@ -14242,7 +14242,7 @@
     </row>
     <row r="52" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A52" s="153" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>697</v>
@@ -14259,7 +14259,7 @@
     </row>
     <row r="53" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A53" s="153" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>698</v>
@@ -14276,7 +14276,7 @@
     </row>
     <row r="54" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A54" s="153" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>699</v>
@@ -14293,7 +14293,7 @@
     </row>
     <row r="55" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A55" s="153" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>700</v>
@@ -14310,7 +14310,7 @@
     </row>
     <row r="56" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A56" s="153" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>701</v>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="57" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A57" s="153" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>702</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="58" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A58" s="153" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>703</v>
@@ -14361,7 +14361,7 @@
     </row>
     <row r="59" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A59" s="153" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>704</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A60" s="153" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>705</v>
@@ -14395,7 +14395,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A61" s="153" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>706</v>
@@ -14412,7 +14412,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A62" s="153" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>707</v>
@@ -14440,7 +14440,7 @@
     </row>
     <row r="64" spans="1:8" outlineLevel="1">
       <c r="A64" s="153" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>813</v>
@@ -14457,7 +14457,7 @@
     </row>
     <row r="65" spans="1:8" outlineLevel="1">
       <c r="A65" s="153" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>815</v>
@@ -14474,10 +14474,10 @@
     </row>
     <row r="66" spans="1:8" outlineLevel="1">
       <c r="A66" s="153" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>816</v>
+        <v>975</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>814</v>
@@ -14491,10 +14491,10 @@
     </row>
     <row r="67" spans="1:8" outlineLevel="1">
       <c r="A67" s="153" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>814</v>
@@ -14508,10 +14508,10 @@
     </row>
     <row r="68" spans="1:8" outlineLevel="1">
       <c r="A68" s="153" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>814</v>
@@ -14525,10 +14525,10 @@
     </row>
     <row r="69" spans="1:8" outlineLevel="1">
       <c r="A69" s="153" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>814</v>
@@ -14591,7 +14591,7 @@
         <v>248</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -15142,7 +15142,7 @@
         <v>291</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D106" s="39" t="s">
         <v>22</v>
@@ -15261,7 +15261,7 @@
         <v>288</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D113" s="39" t="s">
         <v>22</v>
@@ -15314,7 +15314,7 @@
         <v>301</v>
       </c>
       <c r="C116" s="238" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D116" s="39" t="s">
         <v>22</v>
@@ -15331,7 +15331,7 @@
         <v>300</v>
       </c>
       <c r="C117" s="238" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D117" s="39" t="s">
         <v>22</v>
@@ -15348,7 +15348,7 @@
         <v>303</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D118" s="39" t="s">
         <v>22</v>
@@ -15365,7 +15365,7 @@
         <v>299</v>
       </c>
       <c r="C119" s="238" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D119" s="39" t="s">
         <v>22</v>
@@ -15382,7 +15382,7 @@
         <v>302</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D120" s="39" t="s">
         <v>22</v>
@@ -15399,7 +15399,7 @@
         <v>298</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D121" s="39" t="s">
         <v>22</v>
@@ -15416,7 +15416,7 @@
         <v>297</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D122" s="39" t="s">
         <v>22</v>
@@ -15708,7 +15708,7 @@
     </row>
     <row r="139" spans="1:8" outlineLevel="1">
       <c r="A139" s="250" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C139" s="236" t="s">
         <v>798</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="141" spans="1:8" outlineLevel="1">
       <c r="A141" s="250" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C141" s="236" t="s">
         <v>800</v>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -16439,7 +16439,7 @@
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -16524,7 +16524,7 @@
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -16609,7 +16609,7 @@
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -16694,7 +16694,7 @@
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
@@ -17003,7 +17003,7 @@
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>143</v>
@@ -17026,7 +17026,7 @@
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>143</v>
@@ -17491,7 +17491,7 @@
     <row r="223" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="197"/>
       <c r="C223" s="204" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
@@ -17514,7 +17514,7 @@
     </row>
     <row r="224" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A224" s="252" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
@@ -17537,7 +17537,7 @@
     </row>
     <row r="225" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A225" s="252" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
@@ -17560,7 +17560,7 @@
     </row>
     <row r="226" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A226" s="252" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
@@ -17803,7 +17803,7 @@
     <row r="239" spans="1:28" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
@@ -17840,7 +17840,7 @@
     </row>
     <row r="240" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A240" s="87" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="26" t="s">
@@ -17863,7 +17863,7 @@
     </row>
     <row r="241" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A241" s="87" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B241" s="12"/>
       <c r="C241" s="150" t="s">
@@ -17886,7 +17886,7 @@
     </row>
     <row r="242" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A242" s="87" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B242" s="12"/>
       <c r="C242" s="150" t="s">
@@ -17909,11 +17909,11 @@
     </row>
     <row r="243" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A243" s="253" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>33</v>
@@ -17932,11 +17932,11 @@
     </row>
     <row r="244" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A244" s="253" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>33</v>
@@ -17955,14 +17955,14 @@
     </row>
     <row r="245" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A245" s="253" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E245" s="111" t="s">
         <v>100</v>
@@ -18211,7 +18211,7 @@
         <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>169</v>
@@ -18237,17 +18237,17 @@
       <c r="L3" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="M3" s="270" t="s">
+      <c r="M3" s="256" t="s">
         <v>372</v>
       </c>
-      <c r="N3" s="270" t="s">
-        <v>953</v>
-      </c>
-      <c r="O3" s="270" t="s">
+      <c r="N3" s="256" t="s">
+        <v>951</v>
+      </c>
+      <c r="O3" s="256" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -18284,13 +18284,13 @@
       <c r="L4" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="M4" s="270" t="s">
+      <c r="M4" s="256" t="s">
         <v>373</v>
       </c>
-      <c r="N4" s="270" t="s">
+      <c r="N4" s="256" t="s">
         <v>491</v>
       </c>
-      <c r="O4" s="270" t="s">
+      <c r="O4" s="256" t="s">
         <v>576</v>
       </c>
     </row>
@@ -18302,7 +18302,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>181</v>
@@ -18331,13 +18331,13 @@
       <c r="L5" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="M5" s="270" t="s">
+      <c r="M5" s="256" t="s">
         <v>374</v>
       </c>
-      <c r="N5" s="270" t="s">
-        <v>943</v>
-      </c>
-      <c r="O5" s="270" t="s">
+      <c r="N5" s="256" t="s">
+        <v>941</v>
+      </c>
+      <c r="O5" s="256" t="s">
         <v>577</v>
       </c>
     </row>
@@ -18355,7 +18355,7 @@
         <v>188</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>189</v>
@@ -18372,13 +18372,13 @@
       <c r="K6" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="M6" s="270" t="s">
+      <c r="M6" s="256" t="s">
         <v>375</v>
       </c>
-      <c r="N6" s="270" t="s">
-        <v>944</v>
-      </c>
-      <c r="O6" s="270" t="s">
+      <c r="N6" s="256" t="s">
+        <v>942</v>
+      </c>
+      <c r="O6" s="256" t="s">
         <v>578</v>
       </c>
     </row>
@@ -18393,13 +18393,13 @@
         <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>193</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>194</v>
@@ -18410,13 +18410,13 @@
       <c r="K7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="270" t="s">
+      <c r="M7" s="256" t="s">
         <v>376</v>
       </c>
-      <c r="N7" s="270" t="s">
+      <c r="N7" s="256" t="s">
         <v>492</v>
       </c>
-      <c r="O7" s="270" t="s">
+      <c r="O7" s="256" t="s">
         <v>579</v>
       </c>
     </row>
@@ -18439,14 +18439,14 @@
       <c r="K8" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="M8" s="270" t="s">
+      <c r="M8" s="256" t="s">
         <v>377</v>
       </c>
-      <c r="N8" s="270" t="s">
+      <c r="N8" s="256" t="s">
         <v>493</v>
       </c>
-      <c r="O8" s="270" t="s">
-        <v>958</v>
+      <c r="O8" s="256" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18465,13 +18465,13 @@
       <c r="K9" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="M9" s="270" t="s">
-        <v>922</v>
-      </c>
-      <c r="N9" s="270" t="s">
+      <c r="M9" s="256" t="s">
+        <v>920</v>
+      </c>
+      <c r="N9" s="256" t="s">
         <v>494</v>
       </c>
-      <c r="O9" s="270" t="s">
+      <c r="O9" s="256" t="s">
         <v>580</v>
       </c>
     </row>
@@ -18491,13 +18491,13 @@
       <c r="K10" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="M10" s="270" t="s">
+      <c r="M10" s="256" t="s">
         <v>378</v>
       </c>
-      <c r="N10" s="270" t="s">
+      <c r="N10" s="256" t="s">
         <v>495</v>
       </c>
-      <c r="O10" s="270" t="s">
+      <c r="O10" s="256" t="s">
         <v>581</v>
       </c>
     </row>
@@ -18517,19 +18517,19 @@
       <c r="K11" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="M11" s="270" t="s">
+      <c r="M11" s="256" t="s">
         <v>379</v>
       </c>
-      <c r="N11" s="270" t="s">
+      <c r="N11" s="256" t="s">
         <v>496</v>
       </c>
-      <c r="O11" s="270" t="s">
+      <c r="O11" s="256" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D12" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>208</v>
@@ -18540,13 +18540,13 @@
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="270" t="s">
-        <v>923</v>
-      </c>
-      <c r="N12" s="270" t="s">
+      <c r="M12" s="256" t="s">
+        <v>921</v>
+      </c>
+      <c r="N12" s="256" t="s">
         <v>497</v>
       </c>
-      <c r="O12" s="270" t="s">
+      <c r="O12" s="256" t="s">
         <v>583</v>
       </c>
     </row>
@@ -18560,19 +18560,19 @@
       <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="270" t="s">
+      <c r="M13" s="256" t="s">
         <v>380</v>
       </c>
-      <c r="N13" s="270" t="s">
+      <c r="N13" s="256" t="s">
         <v>498</v>
       </c>
-      <c r="O13" s="270" t="s">
+      <c r="O13" s="256" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="G14" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>233</v>
@@ -18580,13 +18580,13 @@
       <c r="J14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="270" t="s">
+      <c r="M14" s="256" t="s">
         <v>381</v>
       </c>
-      <c r="N14" s="270" t="s">
+      <c r="N14" s="256" t="s">
         <v>499</v>
       </c>
-      <c r="O14" s="270" t="s">
+      <c r="O14" s="256" t="s">
         <v>585</v>
       </c>
     </row>
@@ -18597,14 +18597,14 @@
       <c r="J15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="270" t="s">
+      <c r="M15" s="256" t="s">
         <v>382</v>
       </c>
-      <c r="N15" s="270" t="s">
-        <v>945</v>
-      </c>
-      <c r="O15" s="270" t="s">
-        <v>957</v>
+      <c r="N15" s="256" t="s">
+        <v>943</v>
+      </c>
+      <c r="O15" s="256" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18614,13 +18614,13 @@
       <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="270" t="s">
-        <v>926</v>
-      </c>
-      <c r="N16" s="270" t="s">
+      <c r="M16" s="256" t="s">
+        <v>924</v>
+      </c>
+      <c r="N16" s="256" t="s">
         <v>500</v>
       </c>
-      <c r="O16" s="270" t="s">
+      <c r="O16" s="256" t="s">
         <v>651</v>
       </c>
     </row>
@@ -18631,13 +18631,13 @@
       <c r="J17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="270" t="s">
+      <c r="M17" s="256" t="s">
         <v>384</v>
       </c>
-      <c r="N17" s="270" t="s">
+      <c r="N17" s="256" t="s">
         <v>501</v>
       </c>
-      <c r="O17" s="270" t="s">
+      <c r="O17" s="256" t="s">
         <v>586</v>
       </c>
     </row>
@@ -18648,13 +18648,13 @@
       <c r="J18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="270" t="s">
+      <c r="M18" s="256" t="s">
         <v>383</v>
       </c>
-      <c r="N18" s="270" t="s">
+      <c r="N18" s="256" t="s">
         <v>502</v>
       </c>
-      <c r="O18" s="270" t="s">
+      <c r="O18" s="256" t="s">
         <v>587</v>
       </c>
     </row>
@@ -18665,13 +18665,13 @@
       <c r="J19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="270" t="s">
-        <v>925</v>
-      </c>
-      <c r="N19" s="270" t="s">
+      <c r="M19" s="256" t="s">
+        <v>923</v>
+      </c>
+      <c r="N19" s="256" t="s">
         <v>503</v>
       </c>
-      <c r="O19" s="270" t="s">
+      <c r="O19" s="256" t="s">
         <v>588</v>
       </c>
     </row>
@@ -18682,13 +18682,13 @@
       <c r="J20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="270" t="s">
+      <c r="M20" s="256" t="s">
         <v>385</v>
       </c>
-      <c r="N20" s="270" t="s">
+      <c r="N20" s="256" t="s">
         <v>504</v>
       </c>
-      <c r="O20" s="270" t="s">
+      <c r="O20" s="256" t="s">
         <v>589</v>
       </c>
     </row>
@@ -18699,13 +18699,13 @@
       <c r="J21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="270" t="s">
+      <c r="M21" s="256" t="s">
         <v>386</v>
       </c>
-      <c r="N21" s="270" t="s">
+      <c r="N21" s="256" t="s">
         <v>538</v>
       </c>
-      <c r="O21" s="270" t="s">
+      <c r="O21" s="256" t="s">
         <v>590</v>
       </c>
     </row>
@@ -18716,13 +18716,13 @@
       <c r="J22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="270" t="s">
+      <c r="M22" s="256" t="s">
         <v>387</v>
       </c>
-      <c r="N22" s="270" t="s">
+      <c r="N22" s="256" t="s">
         <v>505</v>
       </c>
-      <c r="O22" s="270" t="s">
+      <c r="O22" s="256" t="s">
         <v>591</v>
       </c>
     </row>
@@ -18733,13 +18733,13 @@
       <c r="J23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="270" t="s">
+      <c r="M23" s="256" t="s">
         <v>388</v>
       </c>
-      <c r="N23" s="270" t="s">
+      <c r="N23" s="256" t="s">
         <v>506</v>
       </c>
-      <c r="O23" s="270" t="s">
+      <c r="O23" s="256" t="s">
         <v>652</v>
       </c>
     </row>
@@ -18750,14 +18750,14 @@
       <c r="J24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="270" t="s">
+      <c r="M24" s="256" t="s">
         <v>389</v>
       </c>
-      <c r="N24" s="270" t="s">
-        <v>946</v>
-      </c>
-      <c r="O24" s="270" t="s">
-        <v>959</v>
+      <c r="N24" s="256" t="s">
+        <v>944</v>
+      </c>
+      <c r="O24" s="256" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="25" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18767,13 +18767,13 @@
       <c r="J25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="270" t="s">
+      <c r="M25" s="256" t="s">
         <v>390</v>
       </c>
-      <c r="N25" s="270" t="s">
+      <c r="N25" s="256" t="s">
         <v>507</v>
       </c>
-      <c r="O25" s="270" t="s">
+      <c r="O25" s="256" t="s">
         <v>592</v>
       </c>
     </row>
@@ -18784,13 +18784,13 @@
       <c r="J26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="270" t="s">
+      <c r="M26" s="256" t="s">
         <v>391</v>
       </c>
-      <c r="N26" s="270" t="s">
+      <c r="N26" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="O26" s="270" t="s">
+      <c r="O26" s="256" t="s">
         <v>593</v>
       </c>
     </row>
@@ -18801,13 +18801,13 @@
       <c r="J27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="270" t="s">
+      <c r="M27" s="256" t="s">
         <v>392</v>
       </c>
-      <c r="N27" s="270" t="s">
+      <c r="N27" s="256" t="s">
         <v>509</v>
       </c>
-      <c r="O27" s="270" t="s">
+      <c r="O27" s="256" t="s">
         <v>594</v>
       </c>
     </row>
@@ -18818,13 +18818,13 @@
       <c r="J28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="270" t="s">
+      <c r="M28" s="256" t="s">
         <v>393</v>
       </c>
-      <c r="N28" s="270" t="s">
+      <c r="N28" s="256" t="s">
         <v>510</v>
       </c>
-      <c r="O28" s="270" t="s">
+      <c r="O28" s="256" t="s">
         <v>594</v>
       </c>
     </row>
@@ -18835,13 +18835,13 @@
       <c r="J29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M29" s="270" t="s">
+      <c r="M29" s="256" t="s">
         <v>394</v>
       </c>
-      <c r="N29" s="270" t="s">
-        <v>947</v>
-      </c>
-      <c r="O29" s="270" t="s">
+      <c r="N29" s="256" t="s">
+        <v>945</v>
+      </c>
+      <c r="O29" s="256" t="s">
         <v>595</v>
       </c>
     </row>
@@ -18852,13 +18852,13 @@
       <c r="J30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="270" t="s">
-        <v>927</v>
-      </c>
-      <c r="N30" s="270" t="s">
+      <c r="M30" s="256" t="s">
+        <v>925</v>
+      </c>
+      <c r="N30" s="256" t="s">
         <v>511</v>
       </c>
-      <c r="O30" s="270" t="s">
+      <c r="O30" s="256" t="s">
         <v>596</v>
       </c>
     </row>
@@ -18869,13 +18869,13 @@
       <c r="J31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="270" t="s">
+      <c r="M31" s="256" t="s">
         <v>395</v>
       </c>
-      <c r="N31" s="270" t="s">
+      <c r="N31" s="256" t="s">
         <v>512</v>
       </c>
-      <c r="O31" s="270" t="s">
+      <c r="O31" s="256" t="s">
         <v>653</v>
       </c>
     </row>
@@ -18886,13 +18886,13 @@
       <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="270" t="s">
+      <c r="M32" s="256" t="s">
         <v>396</v>
       </c>
-      <c r="N32" s="270" t="s">
-        <v>948</v>
-      </c>
-      <c r="O32" s="270" t="s">
+      <c r="N32" s="256" t="s">
+        <v>946</v>
+      </c>
+      <c r="O32" s="256" t="s">
         <v>597</v>
       </c>
     </row>
@@ -18903,14 +18903,14 @@
       <c r="J33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M33" s="270" t="s">
+      <c r="M33" s="256" t="s">
         <v>397</v>
       </c>
-      <c r="N33" s="270" t="s">
+      <c r="N33" s="256" t="s">
         <v>513</v>
       </c>
-      <c r="O33" s="270" t="s">
-        <v>960</v>
+      <c r="O33" s="256" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="34" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18920,13 +18920,13 @@
       <c r="J34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="270" t="s">
+      <c r="M34" s="256" t="s">
         <v>398</v>
       </c>
-      <c r="N34" s="270" t="s">
+      <c r="N34" s="256" t="s">
         <v>514</v>
       </c>
-      <c r="O34" s="270" t="s">
+      <c r="O34" s="256" t="s">
         <v>654</v>
       </c>
     </row>
@@ -18937,13 +18937,13 @@
       <c r="J35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M35" s="270" t="s">
+      <c r="M35" s="256" t="s">
         <v>399</v>
       </c>
-      <c r="N35" s="270" t="s">
+      <c r="N35" s="256" t="s">
         <v>515</v>
       </c>
-      <c r="O35" s="270" t="s">
+      <c r="O35" s="256" t="s">
         <v>598</v>
       </c>
     </row>
@@ -18954,13 +18954,13 @@
       <c r="J36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M36" s="270" t="s">
+      <c r="M36" s="256" t="s">
         <v>400</v>
       </c>
-      <c r="N36" s="270" t="s">
+      <c r="N36" s="256" t="s">
         <v>516</v>
       </c>
-      <c r="O36" s="270" t="s">
+      <c r="O36" s="256" t="s">
         <v>599</v>
       </c>
     </row>
@@ -18968,27 +18968,27 @@
       <c r="J37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M37" s="270" t="s">
-        <v>928</v>
-      </c>
-      <c r="N37" s="270" t="s">
-        <v>949</v>
-      </c>
-      <c r="O37" s="270" t="s">
-        <v>961</v>
+      <c r="M37" s="256" t="s">
+        <v>926</v>
+      </c>
+      <c r="N37" s="256" t="s">
+        <v>947</v>
+      </c>
+      <c r="O37" s="256" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="38" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="J38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M38" s="270" t="s">
+      <c r="M38" s="256" t="s">
         <v>401</v>
       </c>
-      <c r="N38" s="270" t="s">
+      <c r="N38" s="256" t="s">
         <v>517</v>
       </c>
-      <c r="O38" s="270" t="s">
+      <c r="O38" s="256" t="s">
         <v>600</v>
       </c>
     </row>
@@ -18996,919 +18996,919 @@
       <c r="J39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="270" t="s">
+      <c r="M39" s="256" t="s">
         <v>402</v>
       </c>
-      <c r="N39" s="270" t="s">
+      <c r="N39" s="256" t="s">
         <v>518</v>
       </c>
-      <c r="O39" s="270" t="s">
+      <c r="O39" s="256" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="40" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M40" s="270" t="s">
+      <c r="M40" s="256" t="s">
         <v>403</v>
       </c>
-      <c r="N40" s="270" t="s">
+      <c r="N40" s="256" t="s">
         <v>519</v>
       </c>
-      <c r="O40" s="270" t="s">
+      <c r="O40" s="256" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="41" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M41" s="270" t="s">
-        <v>924</v>
-      </c>
-      <c r="N41" s="270" t="s">
+      <c r="M41" s="256" t="s">
+        <v>922</v>
+      </c>
+      <c r="N41" s="256" t="s">
         <v>520</v>
       </c>
-      <c r="O41" s="270" t="s">
+      <c r="O41" s="256" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="42" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M42" s="270" t="s">
+      <c r="M42" s="256" t="s">
         <v>405</v>
       </c>
-      <c r="N42" s="270" t="s">
+      <c r="N42" s="256" t="s">
         <v>521</v>
       </c>
-      <c r="O42" s="270" t="s">
+      <c r="O42" s="256" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="43" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M43" s="270" t="s">
+      <c r="M43" s="256" t="s">
         <v>406</v>
       </c>
-      <c r="N43" s="270" t="s">
+      <c r="N43" s="256" t="s">
         <v>522</v>
       </c>
-      <c r="O43" s="270" t="s">
+      <c r="O43" s="256" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="44" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="M44" s="270" t="s">
+      <c r="M44" s="256" t="s">
         <v>407</v>
       </c>
-      <c r="N44" s="270" t="s">
+      <c r="N44" s="256" t="s">
         <v>523</v>
       </c>
-      <c r="O44" s="270" t="s">
+      <c r="O44" s="256" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="45" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M45" s="270" t="s">
+      <c r="M45" s="256" t="s">
         <v>408</v>
       </c>
-      <c r="N45" s="270" t="s">
+      <c r="N45" s="256" t="s">
         <v>524</v>
       </c>
-      <c r="O45" s="270" t="s">
+      <c r="O45" s="256" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="46" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M46" s="270" t="s">
+      <c r="M46" s="256" t="s">
         <v>409</v>
       </c>
-      <c r="N46" s="270" t="s">
+      <c r="N46" s="256" t="s">
         <v>525</v>
       </c>
-      <c r="O46" s="270" t="s">
+      <c r="O46" s="256" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="47" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M47" s="270" t="s">
+      <c r="M47" s="256" t="s">
         <v>410</v>
       </c>
-      <c r="N47" s="270" t="s">
+      <c r="N47" s="256" t="s">
         <v>526</v>
       </c>
-      <c r="O47" s="270" t="s">
+      <c r="O47" s="256" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="48" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M48" s="270" t="s">
+      <c r="M48" s="256" t="s">
         <v>411</v>
       </c>
-      <c r="N48" s="270" t="s">
+      <c r="N48" s="256" t="s">
         <v>527</v>
       </c>
-      <c r="O48" s="270" t="s">
+      <c r="O48" s="256" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M49" s="256" t="s">
+        <v>412</v>
+      </c>
+      <c r="N49" s="256" t="s">
+        <v>528</v>
+      </c>
+      <c r="O49" s="256" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M50" s="256" t="s">
+        <v>404</v>
+      </c>
+      <c r="N50" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="O50" s="256" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M51" s="256" t="s">
+        <v>413</v>
+      </c>
+      <c r="N51" s="256" t="s">
+        <v>530</v>
+      </c>
+      <c r="O51" s="256" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="52" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M52" s="256" t="s">
+        <v>414</v>
+      </c>
+      <c r="N52" s="256" t="s">
+        <v>940</v>
+      </c>
+      <c r="O52" s="256" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="53" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M53" s="256" t="s">
+        <v>415</v>
+      </c>
+      <c r="N53" s="256" t="s">
+        <v>574</v>
+      </c>
+      <c r="O53" s="256" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M54" s="256" t="s">
+        <v>416</v>
+      </c>
+      <c r="N54" s="256" t="s">
+        <v>531</v>
+      </c>
+      <c r="O54" s="256" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M55" s="256" t="s">
+        <v>927</v>
+      </c>
+      <c r="N55" s="256" t="s">
+        <v>532</v>
+      </c>
+      <c r="O55" s="256" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M56" s="256" t="s">
+        <v>928</v>
+      </c>
+      <c r="N56" s="256" t="s">
+        <v>948</v>
+      </c>
+      <c r="O56" s="256" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="57" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M57" s="256" t="s">
+        <v>417</v>
+      </c>
+      <c r="N57" s="256" t="s">
+        <v>533</v>
+      </c>
+      <c r="O57" s="256" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="58" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M58" s="256" t="s">
+        <v>418</v>
+      </c>
+      <c r="N58" s="256" t="s">
+        <v>534</v>
+      </c>
+      <c r="O58" s="256" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M59" s="256" t="s">
+        <v>419</v>
+      </c>
+      <c r="N59" s="256" t="s">
+        <v>535</v>
+      </c>
+      <c r="O59" s="256" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M60" s="256" t="s">
+        <v>420</v>
+      </c>
+      <c r="N60" s="256" t="s">
+        <v>536</v>
+      </c>
+      <c r="O60" s="256" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M61" s="256" t="s">
+        <v>421</v>
+      </c>
+      <c r="N61" s="256" t="s">
+        <v>537</v>
+      </c>
+      <c r="O61" s="256" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="62" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M62" s="256" t="s">
+        <v>422</v>
+      </c>
+      <c r="N62" s="256" t="s">
+        <v>539</v>
+      </c>
+      <c r="O62" s="256" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="63" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M63" s="256" t="s">
+        <v>929</v>
+      </c>
+      <c r="N63" s="256" t="s">
+        <v>540</v>
+      </c>
+      <c r="O63" s="256" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="64" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M64" s="256" t="s">
+        <v>423</v>
+      </c>
+      <c r="N64" s="256" t="s">
+        <v>541</v>
+      </c>
+      <c r="O64" s="256" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="65" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="M65" s="256" t="s">
+        <v>930</v>
+      </c>
+      <c r="N65" s="256" t="s">
+        <v>542</v>
+      </c>
+      <c r="O65" s="256" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="49" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M49" s="270" t="s">
-        <v>412</v>
-      </c>
-      <c r="N49" s="270" t="s">
-        <v>528</v>
-      </c>
-      <c r="O49" s="270" t="s">
+    <row r="66" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="M66" s="256" t="s">
+        <v>424</v>
+      </c>
+      <c r="N66" s="256" t="s">
+        <v>949</v>
+      </c>
+      <c r="O66" s="256" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="50" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M50" s="270" t="s">
-        <v>404</v>
-      </c>
-      <c r="N50" s="270" t="s">
-        <v>529</v>
-      </c>
-      <c r="O50" s="270" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="51" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M51" s="270" t="s">
-        <v>413</v>
-      </c>
-      <c r="N51" s="270" t="s">
-        <v>530</v>
-      </c>
-      <c r="O51" s="270" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="52" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M52" s="270" t="s">
-        <v>414</v>
-      </c>
-      <c r="N52" s="270" t="s">
-        <v>942</v>
-      </c>
-      <c r="O52" s="270" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="53" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="M53" s="270" t="s">
-        <v>415</v>
-      </c>
-      <c r="N53" s="270" t="s">
+    <row r="67" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M67" s="256" t="s">
+        <v>425</v>
+      </c>
+      <c r="N67" s="256" t="s">
+        <v>950</v>
+      </c>
+      <c r="O67" s="256" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="68" spans="13:15" ht="27" thickBot="1">
+      <c r="M68" s="256" t="s">
+        <v>426</v>
+      </c>
+      <c r="N68" s="256" t="s">
+        <v>543</v>
+      </c>
+      <c r="O68" s="256" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="69" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M69" s="256" t="s">
+        <v>932</v>
+      </c>
+      <c r="N69" s="256" t="s">
+        <v>544</v>
+      </c>
+      <c r="O69" s="256" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="70" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M70" s="256" t="s">
+        <v>933</v>
+      </c>
+      <c r="N70" s="256" t="s">
+        <v>545</v>
+      </c>
+      <c r="O70" s="256" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M71" s="256" t="s">
+        <v>427</v>
+      </c>
+      <c r="N71" s="256" t="s">
+        <v>916</v>
+      </c>
+      <c r="O71" s="256" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M72" s="256" t="s">
+        <v>428</v>
+      </c>
+      <c r="N72" s="256" t="s">
+        <v>546</v>
+      </c>
+      <c r="O72" s="256" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="73" spans="13:15" ht="27" thickBot="1">
+      <c r="M73" s="256" t="s">
+        <v>429</v>
+      </c>
+      <c r="N73" s="256" t="s">
+        <v>547</v>
+      </c>
+      <c r="O73" s="256" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="74" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M74" s="256" t="s">
+        <v>430</v>
+      </c>
+      <c r="N74" s="256" t="s">
+        <v>548</v>
+      </c>
+      <c r="O74" s="256" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="75" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M75" s="256" t="s">
+        <v>934</v>
+      </c>
+      <c r="N75" s="256" t="s">
+        <v>549</v>
+      </c>
+      <c r="O75" s="256" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M76" s="256" t="s">
+        <v>432</v>
+      </c>
+      <c r="N76" s="256" t="s">
+        <v>550</v>
+      </c>
+      <c r="O76" s="256" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="77" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M77" s="256" t="s">
+        <v>431</v>
+      </c>
+      <c r="N77" s="256" t="s">
+        <v>551</v>
+      </c>
+      <c r="O77" s="256" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="78" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M78" s="256" t="s">
+        <v>433</v>
+      </c>
+      <c r="N78" s="256" t="s">
+        <v>552</v>
+      </c>
+      <c r="O78" s="256" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" spans="13:15" ht="27" thickBot="1">
+      <c r="M79" s="256" t="s">
+        <v>434</v>
+      </c>
+      <c r="N79" s="256" t="s">
+        <v>553</v>
+      </c>
+      <c r="O79" s="256" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="80" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M80" s="256" t="s">
+        <v>435</v>
+      </c>
+      <c r="N80" s="256" t="s">
+        <v>952</v>
+      </c>
+      <c r="O80" s="256" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="81" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M81" s="256" t="s">
+        <v>436</v>
+      </c>
+      <c r="N81" s="256" t="s">
+        <v>554</v>
+      </c>
+      <c r="O81" s="256" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="82" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M82" s="256" t="s">
+        <v>437</v>
+      </c>
+      <c r="N82" s="256" t="s">
+        <v>555</v>
+      </c>
+      <c r="O82" s="256" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="83" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M83" s="256" t="s">
+        <v>438</v>
+      </c>
+      <c r="N83" s="256" t="s">
+        <v>953</v>
+      </c>
+      <c r="O83" s="256" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M84" s="256" t="s">
+        <v>439</v>
+      </c>
+      <c r="N84" s="256" t="s">
+        <v>556</v>
+      </c>
+      <c r="O84" s="256" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M85" s="256" t="s">
+        <v>440</v>
+      </c>
+      <c r="N85" s="256" t="s">
+        <v>557</v>
+      </c>
+      <c r="O85" s="256" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="86" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M86" s="256" t="s">
+        <v>441</v>
+      </c>
+      <c r="N86" s="256" t="s">
+        <v>558</v>
+      </c>
+      <c r="O86" s="256" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="87" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M87" s="256" t="s">
+        <v>442</v>
+      </c>
+      <c r="N87" s="256" t="s">
+        <v>559</v>
+      </c>
+      <c r="O87" s="256" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="88" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M88" s="256" t="s">
+        <v>443</v>
+      </c>
+      <c r="N88" s="256" t="s">
+        <v>560</v>
+      </c>
+      <c r="O88" s="256" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="89" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M89" s="256" t="s">
+        <v>444</v>
+      </c>
+      <c r="N89" s="256" t="s">
+        <v>561</v>
+      </c>
+      <c r="O89" s="256" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="90" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M90" s="256" t="s">
+        <v>445</v>
+      </c>
+      <c r="N90" s="256" t="s">
+        <v>954</v>
+      </c>
+      <c r="O90" s="256" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="91" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M91" s="256" t="s">
+        <v>446</v>
+      </c>
+      <c r="N91" s="256" t="s">
+        <v>562</v>
+      </c>
+      <c r="O91" s="256" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="92" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M92" s="256" t="s">
+        <v>447</v>
+      </c>
+      <c r="N92" s="256" t="s">
+        <v>563</v>
+      </c>
+      <c r="O92" s="256" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="93" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M93" s="256" t="s">
+        <v>937</v>
+      </c>
+      <c r="N93" s="256" t="s">
+        <v>564</v>
+      </c>
+      <c r="O93" s="256" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="94" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M94" s="256" t="s">
+        <v>448</v>
+      </c>
+      <c r="N94" s="256" t="s">
+        <v>565</v>
+      </c>
+      <c r="O94" s="256" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="95" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M95" s="256" t="s">
+        <v>449</v>
+      </c>
+      <c r="N95" s="256" t="s">
+        <v>566</v>
+      </c>
+      <c r="O95" s="256" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="96" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M96" s="256" t="s">
+        <v>450</v>
+      </c>
+      <c r="N96" s="256" t="s">
+        <v>567</v>
+      </c>
+      <c r="O96" s="256" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="97" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M97" s="256" t="s">
+        <v>451</v>
+      </c>
+      <c r="N97" s="256" t="s">
+        <v>568</v>
+      </c>
+      <c r="O97" s="256" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="98" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M98" s="256" t="s">
+        <v>452</v>
+      </c>
+      <c r="N98" s="256" t="s">
+        <v>569</v>
+      </c>
+      <c r="O98" s="256" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M99" s="256" t="s">
+        <v>453</v>
+      </c>
+      <c r="N99" s="256" t="s">
+        <v>570</v>
+      </c>
+      <c r="O99" s="256" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="100" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M100" s="256" t="s">
+        <v>454</v>
+      </c>
+      <c r="N100" s="256" t="s">
+        <v>571</v>
+      </c>
+      <c r="O100" s="256" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="101" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M101" s="256" t="s">
+        <v>455</v>
+      </c>
+      <c r="N101" s="256" t="s">
+        <v>572</v>
+      </c>
+      <c r="O101" s="256" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M102" s="256" t="s">
+        <v>456</v>
+      </c>
+      <c r="N102" s="256" t="s">
+        <v>573</v>
+      </c>
+      <c r="O102" s="256" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="103" spans="13:15" ht="27" thickBot="1">
+      <c r="M103" s="256" t="s">
+        <v>458</v>
+      </c>
+      <c r="N103" s="256" t="s">
         <v>574</v>
       </c>
-      <c r="O53" s="270" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="54" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M54" s="270" t="s">
-        <v>416</v>
-      </c>
-      <c r="N54" s="270" t="s">
-        <v>531</v>
-      </c>
-      <c r="O54" s="270" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="55" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="M55" s="270" t="s">
-        <v>929</v>
-      </c>
-      <c r="N55" s="270" t="s">
-        <v>532</v>
-      </c>
-      <c r="O55" s="270" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="56" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="M56" s="270" t="s">
-        <v>930</v>
-      </c>
-      <c r="N56" s="270" t="s">
-        <v>950</v>
-      </c>
-      <c r="O56" s="270" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="57" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M57" s="270" t="s">
-        <v>417</v>
-      </c>
-      <c r="N57" s="270" t="s">
-        <v>533</v>
-      </c>
-      <c r="O57" s="270" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="58" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M58" s="270" t="s">
-        <v>418</v>
-      </c>
-      <c r="N58" s="270" t="s">
-        <v>534</v>
-      </c>
-      <c r="O58" s="270" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="59" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M59" s="270" t="s">
-        <v>419</v>
-      </c>
-      <c r="N59" s="270" t="s">
-        <v>535</v>
-      </c>
-      <c r="O59" s="270" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="60" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M60" s="270" t="s">
-        <v>420</v>
-      </c>
-      <c r="N60" s="270" t="s">
-        <v>536</v>
-      </c>
-      <c r="O60" s="270" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="61" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M61" s="270" t="s">
-        <v>421</v>
-      </c>
-      <c r="N61" s="270" t="s">
-        <v>537</v>
-      </c>
-      <c r="O61" s="270" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="62" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M62" s="270" t="s">
-        <v>422</v>
-      </c>
-      <c r="N62" s="270" t="s">
-        <v>539</v>
-      </c>
-      <c r="O62" s="270" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="63" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="M63" s="270" t="s">
+      <c r="O103" s="256" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="104" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M104" s="256" t="s">
+        <v>457</v>
+      </c>
+      <c r="O104" s="256" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="105" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M105" s="256" t="s">
+        <v>459</v>
+      </c>
+      <c r="O105" s="256" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="106" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M106" s="256" t="s">
+        <v>460</v>
+      </c>
+      <c r="O106" s="256" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="107" spans="13:15" ht="27" thickBot="1">
+      <c r="M107" s="256" t="s">
+        <v>461</v>
+      </c>
+      <c r="O107" s="256" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="108" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M108" s="256" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="109" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M109" s="256" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="110" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M110" s="256" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="111" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M111" s="256" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="13:15" ht="15.75" thickBot="1">
+      <c r="M112" s="256" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M113" s="256" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="114" spans="13:13" ht="27" thickBot="1">
+      <c r="M114" s="256" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M115" s="256" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M116" s="256" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M117" s="256" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M118" s="256" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="119" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M119" s="256" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M120" s="256" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M121" s="256" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M122" s="256" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="123" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M123" s="256" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M124" s="256" t="s">
         <v>931</v>
       </c>
-      <c r="N63" s="270" t="s">
-        <v>540</v>
-      </c>
-      <c r="O63" s="270" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="64" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M64" s="270" t="s">
-        <v>423</v>
-      </c>
-      <c r="N64" s="270" t="s">
-        <v>541</v>
-      </c>
-      <c r="O64" s="270" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="65" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="M65" s="270" t="s">
-        <v>932</v>
-      </c>
-      <c r="N65" s="270" t="s">
-        <v>542</v>
-      </c>
-      <c r="O65" s="270" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="66" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M66" s="270" t="s">
-        <v>424</v>
-      </c>
-      <c r="N66" s="270" t="s">
-        <v>951</v>
-      </c>
-      <c r="O66" s="270" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="67" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M67" s="270" t="s">
-        <v>425</v>
-      </c>
-      <c r="N67" s="270" t="s">
-        <v>952</v>
-      </c>
-      <c r="O67" s="270" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="68" spans="13:15" ht="27" thickBot="1">
-      <c r="M68" s="270" t="s">
-        <v>426</v>
-      </c>
-      <c r="N68" s="270" t="s">
-        <v>543</v>
-      </c>
-      <c r="O68" s="270" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="69" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M69" s="270" t="s">
-        <v>934</v>
-      </c>
-      <c r="N69" s="270" t="s">
-        <v>544</v>
-      </c>
-      <c r="O69" s="270" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="70" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M70" s="270" t="s">
-        <v>935</v>
-      </c>
-      <c r="N70" s="270" t="s">
-        <v>545</v>
-      </c>
-      <c r="O70" s="270" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="71" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M71" s="270" t="s">
-        <v>427</v>
-      </c>
-      <c r="N71" s="270" t="s">
-        <v>918</v>
-      </c>
-      <c r="O71" s="270" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="72" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M72" s="270" t="s">
-        <v>428</v>
-      </c>
-      <c r="N72" s="270" t="s">
-        <v>546</v>
-      </c>
-      <c r="O72" s="270" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="73" spans="13:15" ht="27" thickBot="1">
-      <c r="M73" s="270" t="s">
-        <v>429</v>
-      </c>
-      <c r="N73" s="270" t="s">
-        <v>547</v>
-      </c>
-      <c r="O73" s="270" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="74" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M74" s="270" t="s">
-        <v>430</v>
-      </c>
-      <c r="N74" s="270" t="s">
-        <v>548</v>
-      </c>
-      <c r="O74" s="270" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="75" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M75" s="270" t="s">
-        <v>936</v>
-      </c>
-      <c r="N75" s="270" t="s">
-        <v>549</v>
-      </c>
-      <c r="O75" s="270" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="76" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M76" s="270" t="s">
-        <v>432</v>
-      </c>
-      <c r="N76" s="270" t="s">
-        <v>550</v>
-      </c>
-      <c r="O76" s="270" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="77" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M77" s="270" t="s">
-        <v>431</v>
-      </c>
-      <c r="N77" s="270" t="s">
-        <v>551</v>
-      </c>
-      <c r="O77" s="270" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="78" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M78" s="270" t="s">
-        <v>433</v>
-      </c>
-      <c r="N78" s="270" t="s">
-        <v>552</v>
-      </c>
-      <c r="O78" s="270" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="79" spans="13:15" ht="27" thickBot="1">
-      <c r="M79" s="270" t="s">
-        <v>434</v>
-      </c>
-      <c r="N79" s="270" t="s">
-        <v>553</v>
-      </c>
-      <c r="O79" s="270" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="80" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M80" s="270" t="s">
-        <v>435</v>
-      </c>
-      <c r="N80" s="270" t="s">
-        <v>954</v>
-      </c>
-      <c r="O80" s="270" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="81" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M81" s="270" t="s">
-        <v>436</v>
-      </c>
-      <c r="N81" s="270" t="s">
-        <v>554</v>
-      </c>
-      <c r="O81" s="270" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="82" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M82" s="270" t="s">
-        <v>437</v>
-      </c>
-      <c r="N82" s="270" t="s">
-        <v>555</v>
-      </c>
-      <c r="O82" s="270" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="83" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M83" s="270" t="s">
-        <v>438</v>
-      </c>
-      <c r="N83" s="270" t="s">
-        <v>955</v>
-      </c>
-      <c r="O83" s="270" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="84" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M84" s="270" t="s">
-        <v>439</v>
-      </c>
-      <c r="N84" s="270" t="s">
-        <v>556</v>
-      </c>
-      <c r="O84" s="270" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="85" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M85" s="270" t="s">
-        <v>440</v>
-      </c>
-      <c r="N85" s="270" t="s">
-        <v>557</v>
-      </c>
-      <c r="O85" s="270" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="86" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M86" s="270" t="s">
-        <v>441</v>
-      </c>
-      <c r="N86" s="270" t="s">
-        <v>558</v>
-      </c>
-      <c r="O86" s="270" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="87" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M87" s="270" t="s">
-        <v>442</v>
-      </c>
-      <c r="N87" s="270" t="s">
-        <v>559</v>
-      </c>
-      <c r="O87" s="270" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="88" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M88" s="270" t="s">
-        <v>443</v>
-      </c>
-      <c r="N88" s="270" t="s">
-        <v>560</v>
-      </c>
-      <c r="O88" s="270" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="89" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M89" s="270" t="s">
-        <v>444</v>
-      </c>
-      <c r="N89" s="270" t="s">
-        <v>561</v>
-      </c>
-      <c r="O89" s="270" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="90" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M90" s="270" t="s">
-        <v>445</v>
-      </c>
-      <c r="N90" s="270" t="s">
-        <v>956</v>
-      </c>
-      <c r="O90" s="270" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="91" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M91" s="270" t="s">
-        <v>446</v>
-      </c>
-      <c r="N91" s="270" t="s">
-        <v>562</v>
-      </c>
-      <c r="O91" s="270" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="92" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M92" s="270" t="s">
-        <v>447</v>
-      </c>
-      <c r="N92" s="270" t="s">
-        <v>563</v>
-      </c>
-      <c r="O92" s="270" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="93" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M93" s="270" t="s">
+    </row>
+    <row r="125" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M125" s="256" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="126" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M126" s="256" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M127" s="256" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="128" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M128" s="256" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M129" s="256" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M130" s="256" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="131" spans="13:13" ht="15.75" thickBot="1">
+      <c r="M131" s="256" t="s">
         <v>939</v>
       </c>
-      <c r="N93" s="270" t="s">
-        <v>564</v>
-      </c>
-      <c r="O93" s="270" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="94" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M94" s="270" t="s">
-        <v>448</v>
-      </c>
-      <c r="N94" s="270" t="s">
-        <v>565</v>
-      </c>
-      <c r="O94" s="270" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="95" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M95" s="270" t="s">
-        <v>449</v>
-      </c>
-      <c r="N95" s="270" t="s">
-        <v>566</v>
-      </c>
-      <c r="O95" s="270" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="96" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M96" s="270" t="s">
-        <v>450</v>
-      </c>
-      <c r="N96" s="270" t="s">
-        <v>567</v>
-      </c>
-      <c r="O96" s="270" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="97" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M97" s="270" t="s">
-        <v>451</v>
-      </c>
-      <c r="N97" s="270" t="s">
-        <v>568</v>
-      </c>
-      <c r="O97" s="270" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="98" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M98" s="270" t="s">
-        <v>452</v>
-      </c>
-      <c r="N98" s="270" t="s">
-        <v>569</v>
-      </c>
-      <c r="O98" s="270" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="99" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M99" s="270" t="s">
-        <v>453</v>
-      </c>
-      <c r="N99" s="270" t="s">
-        <v>570</v>
-      </c>
-      <c r="O99" s="270" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="100" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M100" s="270" t="s">
-        <v>454</v>
-      </c>
-      <c r="N100" s="270" t="s">
-        <v>571</v>
-      </c>
-      <c r="O100" s="270" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="101" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M101" s="270" t="s">
-        <v>455</v>
-      </c>
-      <c r="N101" s="270" t="s">
-        <v>572</v>
-      </c>
-      <c r="O101" s="270" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="102" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M102" s="270" t="s">
-        <v>456</v>
-      </c>
-      <c r="N102" s="270" t="s">
-        <v>573</v>
-      </c>
-      <c r="O102" s="270" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="103" spans="13:15" ht="27" thickBot="1">
-      <c r="M103" s="270" t="s">
-        <v>458</v>
-      </c>
-      <c r="N103" s="270" t="s">
-        <v>574</v>
-      </c>
-      <c r="O103" s="270" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="104" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M104" s="270" t="s">
-        <v>457</v>
-      </c>
-      <c r="O104" s="270" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="105" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M105" s="270" t="s">
-        <v>459</v>
-      </c>
-      <c r="O105" s="270" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="106" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M106" s="270" t="s">
-        <v>460</v>
-      </c>
-      <c r="O106" s="270" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="107" spans="13:15" ht="27" thickBot="1">
-      <c r="M107" s="270" t="s">
-        <v>461</v>
-      </c>
-      <c r="O107" s="270" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="108" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M108" s="270" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="109" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M109" s="270" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="110" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M110" s="270" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="111" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M111" s="270" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="112" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M112" s="270" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="113" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M113" s="270" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="114" spans="13:13" ht="27" thickBot="1">
-      <c r="M114" s="270" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="115" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M115" s="270" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="116" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M116" s="270" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="117" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M117" s="270" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="118" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M118" s="270" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="119" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M119" s="270" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="120" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M120" s="270" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="121" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M121" s="270" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="122" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M122" s="270" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="123" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M123" s="270" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="124" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M124" s="270" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="125" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M125" s="270" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="126" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M126" s="270" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="127" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M127" s="270" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="128" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M128" s="270" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="129" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M129" s="270" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="130" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M130" s="270" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="131" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M131" s="270" t="s">
-        <v>941</v>
-      </c>
     </row>
     <row r="132" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M132" s="270" t="s">
+      <c r="M132" s="256" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="133" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M133" s="270" t="s">
+      <c r="M133" s="256" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="134" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M134" s="270" t="s">
+      <c r="M134" s="256" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="135" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M135" s="270" t="s">
+      <c r="M135" s="256" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="136" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M136" s="270" t="s">
+      <c r="M136" s="256" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="137" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M137" s="270" t="s">
+      <c r="M137" s="256" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="138" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M138" s="270" t="s">
+      <c r="M138" s="256" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="139" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M139" s="270" t="s">
+      <c r="M139" s="256" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="140" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M140" s="270" t="s">
+      <c r="M140" s="256" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="141" spans="13:13" ht="27" thickBot="1">
-      <c r="M141" s="270" t="s">
+      <c r="M141" s="256" t="s">
         <v>490</v>
       </c>
     </row>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
@@ -5933,6 +5933,18 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5944,18 +5956,6 @@
     </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8928,25 +8928,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="263" t="s">
         <v>734</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -8963,14 +8963,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="264" t="s">
         <v>709</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -8987,14 +8987,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="261" t="s">
+      <c r="B10" s="265" t="s">
         <v>774</v>
       </c>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="261"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -9002,10 +9002,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -9078,23 +9078,23 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="259" t="s">
         <v>712</v>
       </c>
-      <c r="C17" s="263"/>
-      <c r="D17" s="263"/>
-      <c r="E17" s="263"/>
-      <c r="F17" s="263"/>
-      <c r="G17" s="263"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="260" t="s">
         <v>713</v>
       </c>
-      <c r="C18" s="264"/>
+      <c r="C18" s="260"/>
       <c r="D18" s="180" t="s">
         <v>714</v>
       </c>
@@ -9112,10 +9112,10 @@
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="261" t="s">
         <v>718</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="261"/>
       <c r="D19" s="166" t="s">
         <v>719</v>
       </c>
@@ -9154,10 +9154,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="262" t="s">
+      <c r="B21" s="258" t="s">
         <v>721</v>
       </c>
-      <c r="C21" s="262"/>
+      <c r="C21" s="258"/>
       <c r="D21" s="167" t="s">
         <v>722</v>
       </c>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="258" t="s">
         <v>725</v>
       </c>
-      <c r="C22" s="262"/>
+      <c r="C22" s="258"/>
       <c r="D22" s="167" t="s">
         <v>726</v>
       </c>
@@ -9292,6 +9292,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -9300,12 +9306,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1"/>
@@ -13393,7 +13393,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="51.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" style="8" customWidth="1"/>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adauriat/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="945" windowWidth="24240" windowHeight="13680" tabRatio="463" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="940" windowWidth="28000" windowHeight="16020" tabRatio="463"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="127" r:id="rId1"/>
@@ -12,76 +17,16 @@
     <sheet name="Template" sheetId="125" r:id="rId3"/>
     <sheet name="Lists" sheetId="41" state="hidden" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_C1factor">[1]Calc!$D$19</definedName>
-    <definedName name="_C1factorIn">[1]DataIn!$D$15</definedName>
-    <definedName name="_C2fact">[1]DataIn!$D$10</definedName>
-    <definedName name="_C2factor">[1]Calc!$D$20</definedName>
-    <definedName name="_C2factorIn">[1]DataIn!$D$16</definedName>
-    <definedName name="_C2factors">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Template!$B$2:$G$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'User Guidance'!$B$2:$E$229</definedName>
-    <definedName name="BasicUncFact">#REF!</definedName>
-    <definedName name="Country">#REF!</definedName>
-    <definedName name="Crop">#REF!</definedName>
-    <definedName name="Data_generator_and_publication">#REF!</definedName>
-    <definedName name="Default">#REF!</definedName>
-    <definedName name="DefUncFact">#REF!</definedName>
-    <definedName name="Duration">[1]Calc!$D$17</definedName>
-    <definedName name="Ertrag">[2]Drying!$C$2</definedName>
-    <definedName name="Factor">[3]UnitConv!$D$2:$D$47</definedName>
-    <definedName name="Faktor">#REF!</definedName>
-    <definedName name="Faktor2">#REF!</definedName>
-    <definedName name="H2OErnte">[2]Drying!$B$3</definedName>
-    <definedName name="H2OVerkauf">[2]Drying!$C$3</definedName>
-    <definedName name="HarvDat0">[1]DataIn!$D$12</definedName>
-    <definedName name="HarvDat1">[1]DataIn!$D$13</definedName>
-    <definedName name="ID">[3]UnitConv!$C$2:$C$47</definedName>
-    <definedName name="_xlnm.Print_Titles">#REF!</definedName>
-    <definedName name="Indicator_score">#REF!</definedName>
-    <definedName name="Irrig">[1]DataIn!$D$5</definedName>
-    <definedName name="Kfactor">[1]Calc!$D$18</definedName>
-    <definedName name="KfactorIn">[1]DataIn!$D$14</definedName>
-    <definedName name="Kfactors">#REF!</definedName>
-    <definedName name="Level0">#REF!</definedName>
-    <definedName name="Level1">#REF!</definedName>
-    <definedName name="Level2">#REF!</definedName>
-    <definedName name="Level3">#REF!</definedName>
-    <definedName name="Level4">#REF!</definedName>
-    <definedName name="LSfact1">[1]Calc!$D$12</definedName>
-    <definedName name="LSfact2">[1]Calc!$D$13</definedName>
-    <definedName name="LSfact3">[1]Calc!$D$14</definedName>
-    <definedName name="LSfact4">[1]Calc!$D$15</definedName>
-    <definedName name="LSfactor">[1]Calc!$D$16</definedName>
-    <definedName name="o">#REF!</definedName>
-    <definedName name="p">#REF!</definedName>
-    <definedName name="Pfact">[1]DataIn!$D$11</definedName>
-    <definedName name="Pfactor">[1]Calc!$D$21</definedName>
-    <definedName name="PfactorIn">[1]DataIn!$D$17</definedName>
-    <definedName name="Pfactors">#REF!</definedName>
-    <definedName name="PIcodes">#REF!</definedName>
-    <definedName name="Prec">[1]DataIn!$D$3</definedName>
-    <definedName name="PrecCorr">[1]Calc!$D$9</definedName>
-    <definedName name="PSM_Herbizide">[4]PlantProtection!$B$16:$B$30</definedName>
-    <definedName name="Quality_rating_classes">[5]Liste!$AU$2:$AU$8</definedName>
-    <definedName name="Quality_rating_completeness">[5]Liste!$AW$2:$AW$7</definedName>
-    <definedName name="Quality_rating_precision">[5]Liste!$AV$2:$AV$7</definedName>
-    <definedName name="Rfactor">[1]Calc!$D$10</definedName>
-    <definedName name="Slope">[1]DataIn!$D$6</definedName>
-    <definedName name="SlopeL">[1]DataIn!$D$7</definedName>
-    <definedName name="Snow">[1]DataIn!$D$4</definedName>
-    <definedName name="Soil">[1]DataIn!$D$8</definedName>
-    <definedName name="Zeile1">#REF!</definedName>
-    <definedName name="Zeile2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2359,9 +2304,6 @@
   </si>
   <si>
     <t>www.quantis-intl.com</t>
-  </si>
-  <si>
-    <t>v0.1</t>
   </si>
   <si>
     <t>Manages the project</t>
@@ -3313,6 +3255,9 @@
   <si>
     <t>Time-related representativeness (TiR)</t>
   </si>
+  <si>
+    <t>v1.0</t>
+  </si>
 </sst>
 </file>
 
@@ -3346,7 +3291,7 @@
     <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="188" formatCode="0.00E+0;[=0]&quot;0&quot;;0.00E+0"/>
   </numFmts>
-  <fonts count="84">
+  <fonts count="84" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5986,6 +5931,7 @@
     <cellStyle name="Boden" xfId="7"/>
     <cellStyle name="Bold GHG Numbers (0.00)" xfId="8"/>
     <cellStyle name="Bold GHG Numbers (0.00) 2" xfId="214"/>
+    <cellStyle name="Comma" xfId="221" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="467"/>
     <cellStyle name="Comma 3" xfId="468"/>
     <cellStyle name="comment" xfId="9"/>
@@ -5994,8 +5940,8 @@
     <cellStyle name="Duizend" xfId="11"/>
     <cellStyle name="Duizend met sterren" xfId="12"/>
     <cellStyle name="Duizend zonder sterren" xfId="13"/>
+    <cellStyle name="Duizend_full4" xfId="15"/>
     <cellStyle name="Duizend,0" xfId="14"/>
-    <cellStyle name="Duizend_full4" xfId="15"/>
     <cellStyle name="EcoTitel" xfId="16"/>
     <cellStyle name="Euro" xfId="17"/>
     <cellStyle name="Excel Built-in Standard 3" xfId="428"/>
@@ -6006,9 +5952,509 @@
     <cellStyle name="F6" xfId="474"/>
     <cellStyle name="F7" xfId="475"/>
     <cellStyle name="F8" xfId="476"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
     <cellStyle name="Gekoppelde cel" xfId="477"/>
     <cellStyle name="Goed" xfId="478"/>
     <cellStyle name="Headline" xfId="18"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="219"/>
     <cellStyle name="Invoer" xfId="479"/>
     <cellStyle name="kg" xfId="19"/>
@@ -6018,511 +6464,10 @@
     <cellStyle name="Kop 3" xfId="482"/>
     <cellStyle name="Kop 4" xfId="483"/>
     <cellStyle name="l" xfId="20"/>
-    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="328" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="330" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="332" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="334" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="336" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="338" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="342" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="344" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="346" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="348" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="350" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="352" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="354" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="356" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="358" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="360" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="362" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="364" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="366" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="368" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="370" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="372" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="374" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="376" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="378" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="380" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="382" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="384" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="386" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="388" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="390" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="392" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="394" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="396" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="398" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="400" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="402" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="404" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="406" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="408" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="410" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="412" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="414" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="416" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="418" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="420" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="422" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="424" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="426" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="457" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="604" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="606" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="608" builtinId="9" hidden="1"/>
     <cellStyle name="Luft" xfId="21"/>
     <cellStyle name="m2" xfId="22"/>
     <cellStyle name="m2a" xfId="23"/>
     <cellStyle name="m3" xfId="24"/>
-    <cellStyle name="Milliers" xfId="221" builtinId="3"/>
     <cellStyle name="Milliers 2" xfId="156"/>
     <cellStyle name="Neutraal" xfId="484"/>
     <cellStyle name="Niels" xfId="25"/>
@@ -6546,8 +6491,8 @@
     <cellStyle name="Normalny_Arkusz1" xfId="493"/>
     <cellStyle name="Notitie" xfId="494"/>
     <cellStyle name="Ongeldig" xfId="495"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 3" xfId="496"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Pourcentage 2" xfId="65"/>
     <cellStyle name="Prozent 2" xfId="212"/>
     <cellStyle name="Prozent 3" xfId="218"/>
@@ -6579,18 +6524,18 @@
     <cellStyle name="Wasser" xfId="38"/>
     <cellStyle name="Wasseremission" xfId="39"/>
     <cellStyle name="wissenschaft" xfId="40"/>
-    <cellStyle name="wissenschaft+" xfId="41"/>
     <cellStyle name="wissenschaft-Eingabe" xfId="42"/>
     <cellStyle name="wissenschaft-Eingabe 2" xfId="504"/>
     <cellStyle name="wissenschaft-Eingabe_Nestle_LCA_Ricoré_Data_and_Calculs_25Oct2009.xls" xfId="505"/>
+    <cellStyle name="wissenschaft+" xfId="41"/>
     <cellStyle name="zkh" xfId="43"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE06A0D"/>
       <color rgb="FFF7B279"/>
-      <color rgb="FFE06A0D"/>
       <color rgb="FFFAD7A4"/>
       <color rgb="FFF8C984"/>
       <color rgb="FF9DAFCA"/>
@@ -6742,14 +6687,14 @@
           <a:r>
             <a:rPr lang="fr-CH" sz="2000" b="1">
               <a:solidFill>
-                <a:srgbClr val="2B344C"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ALCIG</a:t>
+            <a:t>ALCIG - Agriculture </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CH" sz="2000" b="1">
@@ -6761,7 +6706,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> - Agriculture Life Cycle Inventory Generator</a:t>
+            <a:t>Life Cycle Inventory Generator</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-CH" sz="2000" b="1">
@@ -7811,764 +7756,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Calc"/>
-      <sheetName val="DataIn"/>
-      <sheetName val="Revisions"/>
-      <sheetName val="ResOut"/>
-      <sheetName val="Tables"/>
-      <sheetName val="Input"/>
-      <sheetName val="Pesticide_names"/>
-      <sheetName val="Docu"/>
-      <sheetName val="Output"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="3">
-          <cell r="D3">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>40543</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>40908</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>-1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="D3">
-            <v>1000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="20">
-          <cell r="A20">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="9">
-          <cell r="D9">
-            <v>820</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="3">
-          <cell r="D3">
-            <v>1000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PI_Sunflower"/>
-      <sheetName val="Metadata"/>
-      <sheetName val="crop info_pm"/>
-      <sheetName val="Fertiliser"/>
-      <sheetName val="Pesticides"/>
-      <sheetName val="Machinery"/>
-      <sheetName val="x"/>
-      <sheetName val="calculations"/>
-      <sheetName val="Fertilizer"/>
-      <sheetName val="Irrigation"/>
-      <sheetName val="Drying"/>
-      <sheetName val="precipitation info"/>
-      <sheetName val="xx"/>
-      <sheetName val="PI_pm_Fig x"/>
-      <sheetName val="Factsheet_pm"/>
-      <sheetName val="PI_pm (2)"/>
-      <sheetName val="xxx"/>
-      <sheetName val="Params"/>
-      <sheetName val="Aux"/>
-      <sheetName val="crop info"/>
-      <sheetName val="oil"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="C2">
-            <v>5000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.19</v>
-          </cell>
-          <cell r="C3">
-            <v>0.12</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="UnitConv"/>
-      <sheetName val="FileInfo"/>
-      <sheetName val="FormulaConv"/>
-      <sheetName val="HeizwertConv"/>
-      <sheetName val="Transporte"/>
-      <sheetName val="Einführung"/>
-      <sheetName val="Names"/>
-      <sheetName val="Category"/>
-      <sheetName val="NamesElementary"/>
-      <sheetName val="CategoryElementary"/>
-      <sheetName val="CategoryImpact"/>
-      <sheetName val="X-Person"/>
-      <sheetName val="X-Source"/>
-      <sheetName val="Country"/>
-      <sheetName val="CompanyCode"/>
-      <sheetName val="Unit"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>kg-g</v>
-          </cell>
-          <cell r="D2">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>kg-kg</v>
-          </cell>
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>kg-mg/Einheit</v>
-          </cell>
-          <cell r="D4">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>kg-mg</v>
-          </cell>
-          <cell r="D5">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>kg-t</v>
-          </cell>
-          <cell r="D6">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>m2a-m2-Jahr</v>
-          </cell>
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>m2a-m2a</v>
-          </cell>
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>m3-m3</v>
-          </cell>
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>MJ-MJ</v>
-          </cell>
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>MJ-MJ/kg (MJ/MJ für Elektr.)</v>
-          </cell>
-          <cell r="D11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>Nm3-m3</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>Nm3-Nm3</v>
-          </cell>
-          <cell r="D13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>m2a-m2a</v>
-          </cell>
-          <cell r="D14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>MJ-TJ</v>
-          </cell>
-          <cell r="D15">
-            <v>9.9999999999999995E-7</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>kg.km-tkm</v>
-          </cell>
-          <cell r="D16">
-            <v>1E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>Stk-Stk</v>
-          </cell>
-          <cell r="D17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>h-h</v>
-          </cell>
-          <cell r="D18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>m2-m2</v>
-          </cell>
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>m2-ha</v>
-          </cell>
-          <cell r="D20">
-            <v>1E-4</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>km-km</v>
-          </cell>
-          <cell r="D21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>tkm-kg.km</v>
-          </cell>
-          <cell r="D22">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>m2a-haa</v>
-          </cell>
-          <cell r="D23">
-            <v>1E-4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>haa-m2a</v>
-          </cell>
-          <cell r="D24">
-            <v>10000</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>Kwh-TJ</v>
-          </cell>
-          <cell r="D25">
-            <v>3.6000000000000003E-6</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>Kwh-MJ</v>
-          </cell>
-          <cell r="D26">
-            <v>3.6</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>MJ-Kwh</v>
-          </cell>
-          <cell r="D27">
-            <v>0.27777777777777779</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Info"/>
-      <sheetName val="Region_farm"/>
-      <sheetName val="crop_plan"/>
-      <sheetName val="Fertilisation"/>
-      <sheetName val="PlantProtection"/>
-      <sheetName val="fuel, labour etc."/>
-      <sheetName val="mechanisation"/>
-      <sheetName val="workProcess"/>
-      <sheetName val="1.1.c"/>
-      <sheetName val="1.1."/>
-      <sheetName val="1.2.c"/>
-      <sheetName val="1.2."/>
-      <sheetName val="1.3.c"/>
-      <sheetName val="1.3."/>
-      <sheetName val="1.4.c"/>
-      <sheetName val="1.4."/>
-      <sheetName val="1.5.c"/>
-      <sheetName val="1.5."/>
-      <sheetName val="1.6.c"/>
-      <sheetName val="1.6."/>
-      <sheetName val="1.7.c"/>
-      <sheetName val="1.7."/>
-      <sheetName val="1.8.c"/>
-      <sheetName val="1.8."/>
-      <sheetName val="Analysis CR 1"/>
-      <sheetName val="2.1.c"/>
-      <sheetName val="2.1."/>
-      <sheetName val="2.2.c"/>
-      <sheetName val="2.2."/>
-      <sheetName val="2.3.c"/>
-      <sheetName val="2.3."/>
-      <sheetName val="2.4.c"/>
-      <sheetName val="2.4."/>
-      <sheetName val="2.5.c"/>
-      <sheetName val="2.5."/>
-      <sheetName val="2.6.c"/>
-      <sheetName val="2.6."/>
-      <sheetName val="2.7.c"/>
-      <sheetName val="2.7."/>
-      <sheetName val="2.8.c"/>
-      <sheetName val="2.8."/>
-      <sheetName val="Analysis CR 2"/>
-      <sheetName val="OrgFertiliser_calc"/>
-      <sheetName val="OrgFertiliser_L1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Linuron + Trifluralina</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Challenge</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>Focus Ultra</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>Javelo</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Challenge</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Splendor</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Assert</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Glifosato</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>Dopler N</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>2-4D+ MCPA</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Zeus</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>Granstar</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v xml:space="preserve">Linuron </v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>Alacloro</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Introduction"/>
-      <sheetName val="Description"/>
-      <sheetName val="Metadonnees"/>
-      <sheetName val="PGu1"/>
-      <sheetName val="PGu2"/>
-      <sheetName val="PGu3"/>
-      <sheetName val="PGu4"/>
-      <sheetName val="PGu5"/>
-      <sheetName val="PGu6"/>
-      <sheetName val="PGu7"/>
-      <sheetName val="PGu8"/>
-      <sheetName val="PGu9"/>
-      <sheetName val="PGu10"/>
-      <sheetName val="PDu1"/>
-      <sheetName val="PDu2"/>
-      <sheetName val="PDu3"/>
-      <sheetName val="PDu4"/>
-      <sheetName val="PDu5"/>
-      <sheetName val="PDu6"/>
-      <sheetName val="PDu7"/>
-      <sheetName val="PDu8"/>
-      <sheetName val="PDu9"/>
-      <sheetName val="PDu10"/>
-      <sheetName val="PGi,a1"/>
-      <sheetName val="PDi,a1"/>
-      <sheetName val="Liste"/>
-      <sheetName val="Sources"/>
-      <sheetName val="Gestion des déchets"/>
-      <sheetName val="Ajout de flux"/>
-      <sheetName val="Personnes"/>
-      <sheetName val="PlantProtection"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25">
-        <row r="2">
-          <cell r="AU2">
-            <v>1</v>
-          </cell>
-          <cell r="AV2">
-            <v>1</v>
-          </cell>
-          <cell r="AW2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="AU3">
-            <v>2</v>
-          </cell>
-          <cell r="AV3">
-            <v>2</v>
-          </cell>
-          <cell r="AW3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AU4">
-            <v>3</v>
-          </cell>
-          <cell r="AV4">
-            <v>3</v>
-          </cell>
-          <cell r="AW4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AU5">
-            <v>4</v>
-          </cell>
-          <cell r="AV5">
-            <v>4</v>
-          </cell>
-          <cell r="AW5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AU6">
-            <v>5</v>
-          </cell>
-          <cell r="AV6">
-            <v>5</v>
-          </cell>
-          <cell r="AW6">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AU7">
-            <v>6</v>
-          </cell>
-          <cell r="AV7">
-            <v>0</v>
-          </cell>
-          <cell r="AW7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AU8">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
@@ -8858,28 +8045,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFE06A0D"/>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="162" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="163" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="163" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="163" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="163" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="163" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="163" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="163" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="163" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="163"/>
+    <col min="1" max="1" width="2.6640625" style="162" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="163" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="163" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="163" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="163" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" style="163" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="163" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="163" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="163" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="163"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="1" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="154"/>
       <c r="B1" s="155"/>
       <c r="C1" s="155"/>
@@ -8890,7 +8078,7 @@
       <c r="H1" s="156"/>
       <c r="I1" s="156"/>
     </row>
-    <row r="2" spans="1:9" s="157" customFormat="1" ht="45.75" customHeight="1">
+    <row r="2" spans="1:9" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="154"/>
       <c r="B2" s="158"/>
       <c r="C2" s="158"/>
@@ -8901,7 +8089,7 @@
       <c r="H2" s="156"/>
       <c r="I2" s="156"/>
     </row>
-    <row r="3" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="3" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="154"/>
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
@@ -8912,7 +8100,7 @@
       <c r="H3" s="156"/>
       <c r="I3" s="156"/>
     </row>
-    <row r="4" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="4" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="154"/>
       <c r="B4" s="155"/>
       <c r="C4" s="155"/>
@@ -8923,7 +8111,7 @@
       <c r="H4" s="156"/>
       <c r="I4" s="156"/>
     </row>
-    <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
+    <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="159"/>
       <c r="B5" s="258"/>
       <c r="C5" s="258"/>
@@ -8934,10 +8122,10 @@
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
-    <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="6" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="154"/>
       <c r="B6" s="259" t="s">
-        <v>733</v>
+        <v>974</v>
       </c>
       <c r="C6" s="259"/>
       <c r="D6" s="259"/>
@@ -8947,7 +8135,7 @@
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
-    <row r="7" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="7" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="154"/>
       <c r="B7" s="155"/>
       <c r="C7" s="155"/>
@@ -8958,7 +8146,7 @@
       <c r="H7" s="156"/>
       <c r="I7" s="156"/>
     </row>
-    <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
+    <row r="8" spans="1:9" s="157" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="154"/>
       <c r="B8" s="260" t="s">
         <v>708</v>
@@ -8971,7 +8159,7 @@
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
-    <row r="9" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="9" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="154"/>
       <c r="B9" s="173"/>
       <c r="C9" s="173"/>
@@ -8982,10 +8170,10 @@
       <c r="H9" s="156"/>
       <c r="I9" s="156"/>
     </row>
-    <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="10" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="154"/>
       <c r="B10" s="261" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C10" s="261"/>
       <c r="D10" s="261"/>
@@ -8995,7 +8183,7 @@
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
-    <row r="11" spans="1:9" s="157" customFormat="1" ht="6.95" customHeight="1">
+    <row r="11" spans="1:9" s="157" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
@@ -9006,7 +8194,7 @@
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
-    <row r="12" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="12" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="154"/>
       <c r="B12" s="179" t="s">
         <v>709</v>
@@ -9021,14 +8209,14 @@
       <c r="H12" s="156"/>
       <c r="I12" s="156"/>
     </row>
-    <row r="13" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="13" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="179" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="257" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E13" s="257"/>
       <c r="F13" s="257"/>
@@ -9036,14 +8224,14 @@
       <c r="H13" s="156"/>
       <c r="I13" s="156"/>
     </row>
-    <row r="14" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="14" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="154"/>
       <c r="B14" s="179" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="257" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E14" s="257"/>
       <c r="F14" s="257"/>
@@ -9051,7 +8239,7 @@
       <c r="H14" s="156"/>
       <c r="I14" s="156"/>
     </row>
-    <row r="15" spans="1:9" s="157" customFormat="1" ht="6.95" customHeight="1">
+    <row r="15" spans="1:9" s="157" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="154"/>
       <c r="B15" s="175"/>
       <c r="C15" s="174"/>
@@ -9062,7 +8250,7 @@
       <c r="H15" s="156"/>
       <c r="I15" s="156"/>
     </row>
-    <row r="16" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
+    <row r="16" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="154"/>
       <c r="B16" s="176"/>
       <c r="C16" s="176"/>
@@ -9073,7 +8261,7 @@
       <c r="H16" s="156"/>
       <c r="I16" s="156"/>
     </row>
-    <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
+    <row r="17" spans="1:9" s="157" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="154"/>
       <c r="B17" s="263" t="s">
         <v>711</v>
@@ -9086,7 +8274,7 @@
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
-    <row r="18" spans="1:9" s="160" customFormat="1">
+    <row r="18" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="159"/>
       <c r="B18" s="264" t="s">
         <v>712</v>
@@ -9107,7 +8295,7 @@
       <c r="H18" s="156"/>
       <c r="I18" s="156"/>
     </row>
-    <row r="19" spans="1:9" s="160" customFormat="1">
+    <row r="19" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="159"/>
       <c r="B19" s="265" t="s">
         <v>717</v>
@@ -9117,39 +8305,39 @@
         <v>718</v>
       </c>
       <c r="E19" s="167" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F19" s="168" t="s">
         <v>719</v>
       </c>
       <c r="G19" s="169" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H19" s="156"/>
       <c r="I19" s="156"/>
     </row>
-    <row r="20" spans="1:9" s="160" customFormat="1">
+    <row r="20" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="159"/>
       <c r="B20" s="208" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C20" s="208"/>
       <c r="D20" s="166" t="s">
+        <v>781</v>
+      </c>
+      <c r="E20" s="167" t="s">
         <v>782</v>
       </c>
-      <c r="E20" s="167" t="s">
+      <c r="F20" s="168" t="s">
         <v>783</v>
       </c>
-      <c r="F20" s="168" t="s">
+      <c r="G20" s="169" t="s">
         <v>784</v>
-      </c>
-      <c r="G20" s="169" t="s">
-        <v>785</v>
       </c>
       <c r="H20" s="156"/>
       <c r="I20" s="156"/>
     </row>
-    <row r="21" spans="1:9" s="160" customFormat="1">
+    <row r="21" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="159"/>
       <c r="B21" s="262" t="s">
         <v>720</v>
@@ -9159,7 +8347,7 @@
         <v>721</v>
       </c>
       <c r="E21" s="167" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F21" s="170" t="s">
         <v>722</v>
@@ -9170,7 +8358,7 @@
       <c r="H21" s="156"/>
       <c r="I21" s="156"/>
     </row>
-    <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
+    <row r="22" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="159"/>
       <c r="B22" s="262" t="s">
         <v>724</v>
@@ -9180,7 +8368,7 @@
         <v>725</v>
       </c>
       <c r="E22" s="167" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F22" s="170" t="s">
         <v>726</v>
@@ -9191,7 +8379,7 @@
       <c r="H22" s="156"/>
       <c r="I22" s="156"/>
     </row>
-    <row r="23" spans="1:9" s="157" customFormat="1">
+    <row r="23" spans="1:9" s="157" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="154"/>
       <c r="B23" s="177"/>
       <c r="C23" s="177"/>
@@ -9202,7 +8390,7 @@
       <c r="H23" s="156"/>
       <c r="I23" s="156"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="172"/>
       <c r="C24" s="172"/>
       <c r="D24" s="178"/>
@@ -9210,7 +8398,7 @@
       <c r="F24" s="178"/>
       <c r="G24" s="178"/>
     </row>
-    <row r="25" spans="1:9" s="165" customFormat="1" ht="15.75">
+    <row r="25" spans="1:9" s="165" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="164"/>
       <c r="B25" s="171" t="s">
         <v>727</v>
@@ -9221,10 +8409,10 @@
       <c r="F25" s="178"/>
       <c r="G25" s="178"/>
     </row>
-    <row r="26" spans="1:9" s="165" customFormat="1">
+    <row r="26" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="164"/>
       <c r="B26" s="172" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C26" s="172"/>
       <c r="D26" s="178"/>
@@ -9232,7 +8420,7 @@
       <c r="F26" s="178"/>
       <c r="G26" s="178"/>
     </row>
-    <row r="27" spans="1:9" s="165" customFormat="1">
+    <row r="27" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="164"/>
       <c r="B27" s="172" t="s">
         <v>728</v>
@@ -9243,7 +8431,7 @@
       <c r="F27" s="178"/>
       <c r="G27" s="178"/>
     </row>
-    <row r="28" spans="1:9" s="165" customFormat="1">
+    <row r="28" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="164"/>
       <c r="B28" s="172" t="s">
         <v>729</v>
@@ -9254,7 +8442,7 @@
       <c r="F28" s="178"/>
       <c r="G28" s="178"/>
     </row>
-    <row r="29" spans="1:9" s="165" customFormat="1">
+    <row r="29" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="164"/>
       <c r="B29" s="172" t="s">
         <v>730</v>
@@ -9265,7 +8453,7 @@
       <c r="F29" s="178"/>
       <c r="G29" s="178"/>
     </row>
-    <row r="30" spans="1:9" s="165" customFormat="1">
+    <row r="30" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="164"/>
       <c r="B30" s="172" t="s">
         <v>731</v>
@@ -9276,7 +8464,7 @@
       <c r="F30" s="178"/>
       <c r="G30" s="178"/>
     </row>
-    <row r="31" spans="1:9" s="165" customFormat="1">
+    <row r="31" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="164"/>
       <c r="B31" s="172" t="s">
         <v>732</v>
@@ -9304,6 +8492,7 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="D11:G11"/>
   </mergeCells>
+  <phoneticPr fontId="83" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1"/>
     <hyperlink ref="F21" r:id="rId2"/>
@@ -9312,11 +8501,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId4"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9329,24 +8513,24 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" style="227" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="62" customWidth="1"/>
-    <col min="7" max="53" width="10.85546875" style="4" customWidth="1"/>
-    <col min="54" max="16384" width="10.85546875" style="4"/>
+    <col min="1" max="1" width="22.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="79.5" style="227" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="62" customWidth="1"/>
+    <col min="7" max="53" width="10.83203125" style="4" customWidth="1"/>
+    <col min="54" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1">
+    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="98" t="s">
         <v>355</v>
       </c>
@@ -9360,45 +8544,45 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="266" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C2" s="266"/>
       <c r="D2" s="266"/>
       <c r="E2" s="266"/>
       <c r="F2" s="62"/>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" ht="15.95" customHeight="1">
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15"/>
       <c r="E3" s="210"/>
       <c r="F3" s="63"/>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="60.95" customHeight="1">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="185"/>
       <c r="C4" s="196" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D4" s="267" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E4" s="267"/>
       <c r="F4" s="63"/>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="30.95" customHeight="1">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="185"/>
       <c r="C5" s="196" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D5" s="268" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E5" s="268"/>
       <c r="F5" s="63"/>
     </row>
-    <row r="6" spans="1:6" ht="8.1" customHeight="1">
+    <row r="6" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="153"/>
       <c r="B6" s="135"/>
       <c r="C6" s="181"/>
@@ -9406,7 +8590,7 @@
       <c r="E6" s="211"/>
       <c r="F6" s="97"/>
     </row>
-    <row r="7" spans="1:6" ht="8.1" customHeight="1">
+    <row r="7" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="153"/>
       <c r="B7" s="135"/>
       <c r="C7" s="181"/>
@@ -9414,7 +8598,7 @@
       <c r="E7" s="211"/>
       <c r="F7" s="97"/>
     </row>
-    <row r="8" spans="1:6" ht="35.1" customHeight="1">
+    <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="36"/>
       <c r="C8" s="67" t="s">
         <v>133</v>
@@ -9423,11 +8607,11 @@
         <v>8</v>
       </c>
       <c r="E8" s="243" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:6" outlineLevel="1">
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>241</v>
       </c>
@@ -9442,7 +8626,7 @@
       </c>
       <c r="F9" s="64"/>
     </row>
-    <row r="10" spans="1:6" outlineLevel="1">
+    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>242</v>
       </c>
@@ -9457,7 +8641,7 @@
       </c>
       <c r="F10" s="64"/>
     </row>
-    <row r="11" spans="1:6" outlineLevel="1">
+    <row r="11" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>243</v>
       </c>
@@ -9472,7 +8656,7 @@
       </c>
       <c r="F11" s="64"/>
     </row>
-    <row r="12" spans="1:6" outlineLevel="1">
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>244</v>
       </c>
@@ -9487,7 +8671,7 @@
       </c>
       <c r="F12" s="64"/>
     </row>
-    <row r="13" spans="1:6" outlineLevel="1">
+    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
@@ -9502,7 +8686,7 @@
       </c>
       <c r="F13" s="64"/>
     </row>
-    <row r="14" spans="1:6" outlineLevel="1">
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C14" s="32" t="s">
         <v>707</v>
       </c>
@@ -9510,7 +8694,7 @@
       <c r="E14" s="213"/>
       <c r="F14" s="64"/>
     </row>
-    <row r="15" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="153">
         <v>401</v>
       </c>
@@ -9525,7 +8709,7 @@
       </c>
       <c r="F15" s="64"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="153">
         <v>662</v>
       </c>
@@ -9540,7 +8724,7 @@
       </c>
       <c r="F16" s="64"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="17" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="153">
         <v>493</v>
       </c>
@@ -9555,7 +8739,7 @@
       </c>
       <c r="F17" s="64"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="18" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="153">
         <v>403</v>
       </c>
@@ -9570,7 +8754,7 @@
       </c>
       <c r="F18" s="64"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="153">
         <v>201</v>
       </c>
@@ -9585,7 +8769,7 @@
       </c>
       <c r="F19" s="64"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="153">
         <v>202</v>
       </c>
@@ -9600,7 +8784,7 @@
       </c>
       <c r="F20" s="64"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="153">
         <v>203</v>
       </c>
@@ -9615,7 +8799,7 @@
       </c>
       <c r="F21" s="64"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="153">
         <v>205</v>
       </c>
@@ -9630,7 +8814,7 @@
       </c>
       <c r="F22" s="64"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="153">
         <v>206</v>
       </c>
@@ -9645,7 +8829,7 @@
       </c>
       <c r="F23" s="64"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="153">
         <v>304</v>
       </c>
@@ -9660,7 +8844,7 @@
       </c>
       <c r="F24" s="64"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="153">
         <v>400</v>
       </c>
@@ -9675,7 +8859,7 @@
       </c>
       <c r="F25" s="64"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="153">
         <v>402</v>
       </c>
@@ -9690,7 +8874,7 @@
       </c>
       <c r="F26" s="64"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="153">
         <v>404</v>
       </c>
@@ -9705,7 +8889,7 @@
       </c>
       <c r="F27" s="64"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="28" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="153">
         <v>490</v>
       </c>
@@ -9720,7 +8904,7 @@
       </c>
       <c r="F28" s="64"/>
     </row>
-    <row r="29" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="29" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="153">
         <v>491</v>
       </c>
@@ -9735,7 +8919,7 @@
       </c>
       <c r="F29" s="64"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="30" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="153">
         <v>492</v>
       </c>
@@ -9750,7 +8934,7 @@
       </c>
       <c r="F30" s="64"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="153">
         <v>494</v>
       </c>
@@ -9765,7 +8949,7 @@
       </c>
       <c r="F31" s="64"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="32" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="153">
         <v>495</v>
       </c>
@@ -9780,7 +8964,7 @@
       </c>
       <c r="F32" s="64"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="153">
         <v>496</v>
       </c>
@@ -9795,7 +8979,7 @@
       </c>
       <c r="F33" s="64"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="34" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="153">
         <v>497</v>
       </c>
@@ -9810,7 +8994,7 @@
       </c>
       <c r="F34" s="64"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="153">
         <v>498</v>
       </c>
@@ -9825,7 +9009,7 @@
       </c>
       <c r="F35" s="64"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="153">
         <v>499</v>
       </c>
@@ -9840,7 +9024,7 @@
       </c>
       <c r="F36" s="64"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="37" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="153">
         <v>501</v>
       </c>
@@ -9855,7 +9039,7 @@
       </c>
       <c r="F37" s="64"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="38" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="153">
         <v>502</v>
       </c>
@@ -9870,7 +9054,7 @@
       </c>
       <c r="F38" s="64"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="39" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="153">
         <v>601</v>
       </c>
@@ -9885,7 +9069,7 @@
       </c>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="153">
         <v>602</v>
       </c>
@@ -9900,7 +9084,7 @@
       </c>
       <c r="F40" s="64"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="41" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="153">
         <v>603</v>
       </c>
@@ -9915,7 +9099,7 @@
       </c>
       <c r="F41" s="64"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A42" s="153">
         <v>611</v>
       </c>
@@ -9930,7 +9114,7 @@
       </c>
       <c r="F42" s="64"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A43" s="153">
         <v>663</v>
       </c>
@@ -9945,7 +9129,7 @@
       </c>
       <c r="F43" s="64"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A44" s="153">
         <v>692</v>
       </c>
@@ -9960,7 +9144,7 @@
       </c>
       <c r="F44" s="64"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A45" s="153">
         <v>722</v>
       </c>
@@ -9975,7 +9159,7 @@
       </c>
       <c r="F45" s="64"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A46" s="153">
         <v>724</v>
       </c>
@@ -9990,7 +9174,7 @@
       </c>
       <c r="F46" s="64"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="47" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A47" s="153">
         <v>725</v>
       </c>
@@ -10005,7 +9189,7 @@
       </c>
       <c r="F47" s="64"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="48" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A48" s="153">
         <v>726</v>
       </c>
@@ -10020,7 +9204,7 @@
       </c>
       <c r="F48" s="64"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="49" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A49" s="153">
         <v>727</v>
       </c>
@@ -10035,7 +9219,7 @@
       </c>
       <c r="F49" s="64"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="50" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A50" s="153">
         <v>751</v>
       </c>
@@ -10050,7 +9234,7 @@
       </c>
       <c r="F50" s="64"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="51" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A51" s="153">
         <v>302</v>
       </c>
@@ -10065,7 +9249,7 @@
       </c>
       <c r="F51" s="64"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="52" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A52" s="153">
         <v>756</v>
       </c>
@@ -10080,7 +9264,7 @@
       </c>
       <c r="F52" s="64"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="53" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A53" s="153">
         <v>757</v>
       </c>
@@ -10095,7 +9279,7 @@
       </c>
       <c r="F53" s="64"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="54" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A54" s="153">
         <v>758</v>
       </c>
@@ -10110,7 +9294,7 @@
       </c>
       <c r="F54" s="64"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="55" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A55" s="153">
         <v>759</v>
       </c>
@@ -10125,7 +9309,7 @@
       </c>
       <c r="F55" s="64"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="56" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A56" s="153">
         <v>760</v>
       </c>
@@ -10140,7 +9324,7 @@
       </c>
       <c r="F56" s="64"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="57" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A57" s="153">
         <v>761</v>
       </c>
@@ -10155,7 +9339,7 @@
       </c>
       <c r="F57" s="64"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="58" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A58" s="153">
         <v>762</v>
       </c>
@@ -10170,7 +9354,7 @@
       </c>
       <c r="F58" s="64"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="59" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A59" s="153">
         <v>208</v>
       </c>
@@ -10185,7 +9369,7 @@
       </c>
       <c r="F59" s="64"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="60" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A60" s="153">
         <v>5616</v>
       </c>
@@ -10200,7 +9384,7 @@
       </c>
       <c r="F60" s="64"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="61" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A61" s="153">
         <v>5615</v>
       </c>
@@ -10215,7 +9399,7 @@
       </c>
       <c r="F61" s="64"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" outlineLevel="2">
+    <row r="62" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A62" s="153">
         <v>5619</v>
       </c>
@@ -10230,94 +9414,94 @@
       </c>
       <c r="F62" s="64"/>
     </row>
-    <row r="63" spans="1:6" outlineLevel="1" collapsed="1">
+    <row r="63" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D63" s="142"/>
       <c r="E63" s="143"/>
       <c r="F63" s="64"/>
     </row>
-    <row r="64" spans="1:6" outlineLevel="1">
+    <row r="64" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="153"/>
       <c r="C64" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>812</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>813</v>
-      </c>
       <c r="E64" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F64" s="64"/>
     </row>
-    <row r="65" spans="1:6" outlineLevel="1">
+    <row r="65" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="153"/>
       <c r="C65" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F65" s="64"/>
     </row>
-    <row r="66" spans="1:6" outlineLevel="1">
+    <row r="66" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="153"/>
       <c r="C66" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="64"/>
     </row>
-    <row r="67" spans="1:6" outlineLevel="1">
+    <row r="67" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="153"/>
       <c r="C67" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F67" s="64"/>
     </row>
-    <row r="68" spans="1:6" outlineLevel="1">
+    <row r="68" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="153"/>
       <c r="C68" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F68" s="64"/>
     </row>
-    <row r="69" spans="1:6" outlineLevel="1">
+    <row r="69" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="153"/>
       <c r="C69" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F69" s="64"/>
     </row>
-    <row r="70" spans="1:6" ht="35.1" customHeight="1">
+    <row r="70" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="113"/>
       <c r="C70" s="35" t="s">
         <v>6</v>
@@ -10326,11 +9510,11 @@
         <v>8</v>
       </c>
       <c r="E70" s="242" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F70" s="64"/>
     </row>
-    <row r="71" spans="1:6" outlineLevel="1">
+    <row r="71" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="32" t="s">
         <v>24</v>
       </c>
@@ -10338,7 +9522,7 @@
       <c r="E71" s="213"/>
       <c r="F71" s="64"/>
     </row>
-    <row r="72" spans="1:6" outlineLevel="1">
+    <row r="72" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>246</v>
       </c>
@@ -10353,12 +9537,12 @@
       </c>
       <c r="F72" s="64"/>
     </row>
-    <row r="73" spans="1:6" outlineLevel="1">
+    <row r="73" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -10368,7 +9552,7 @@
       </c>
       <c r="F73" s="64"/>
     </row>
-    <row r="74" spans="1:6" outlineLevel="1">
+    <row r="74" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>248</v>
       </c>
@@ -10383,22 +9567,22 @@
       </c>
       <c r="F74" s="64"/>
     </row>
-    <row r="75" spans="1:6" ht="30" outlineLevel="1">
+    <row r="75" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C75" s="145" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="146"/>
       <c r="E75" s="216" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F75" s="64"/>
     </row>
-    <row r="76" spans="1:6" outlineLevel="1">
+    <row r="76" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>100</v>
@@ -10408,52 +9592,52 @@
       </c>
       <c r="F76" s="64"/>
     </row>
-    <row r="77" spans="1:6" outlineLevel="1">
+    <row r="77" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>100</v>
       </c>
       <c r="E77" s="217" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F77" s="64"/>
     </row>
-    <row r="78" spans="1:6" outlineLevel="1">
+    <row r="78" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>100</v>
       </c>
       <c r="E78" s="217" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F78" s="64"/>
     </row>
-    <row r="79" spans="1:6" outlineLevel="1">
+    <row r="79" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>100</v>
       </c>
       <c r="E79" s="217" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F79" s="64"/>
     </row>
-    <row r="80" spans="1:6" outlineLevel="1">
+    <row r="80" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>253</v>
       </c>
@@ -10468,7 +9652,7 @@
       </c>
       <c r="F80" s="64"/>
     </row>
-    <row r="81" spans="1:6" outlineLevel="1">
+    <row r="81" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>254</v>
       </c>
@@ -10483,7 +9667,7 @@
       </c>
       <c r="F81" s="64"/>
     </row>
-    <row r="82" spans="1:6" outlineLevel="1">
+    <row r="82" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>255</v>
       </c>
@@ -10498,7 +9682,7 @@
       </c>
       <c r="F82" s="64"/>
     </row>
-    <row r="83" spans="1:6" outlineLevel="1">
+    <row r="83" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>256</v>
       </c>
@@ -10513,7 +9697,7 @@
       </c>
       <c r="F83" s="64"/>
     </row>
-    <row r="84" spans="1:6" outlineLevel="1">
+    <row r="84" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>257</v>
       </c>
@@ -10528,7 +9712,7 @@
       </c>
       <c r="F84" s="64"/>
     </row>
-    <row r="85" spans="1:6" ht="35.1" customHeight="1">
+    <row r="85" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="69"/>
       <c r="C85" s="68" t="s">
         <v>5</v>
@@ -10537,11 +9721,11 @@
         <v>8</v>
       </c>
       <c r="E85" s="241" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="1:6" s="6" customFormat="1" outlineLevel="1">
+    <row r="86" spans="1:6" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>258</v>
       </c>
@@ -10557,7 +9741,7 @@
       </c>
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="1:6" outlineLevel="1">
+    <row r="87" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7"/>
       <c r="C87" s="30" t="s">
         <v>16</v>
@@ -10566,12 +9750,12 @@
       <c r="E87" s="219"/>
       <c r="F87" s="64"/>
     </row>
-    <row r="88" spans="1:6" outlineLevel="1">
+    <row r="88" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C88" s="151" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>22</v>
@@ -10581,12 +9765,12 @@
       </c>
       <c r="F88" s="64"/>
     </row>
-    <row r="89" spans="1:6" outlineLevel="1">
+    <row r="89" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>22</v>
@@ -10596,12 +9780,12 @@
       </c>
       <c r="F89" s="64"/>
     </row>
-    <row r="90" spans="1:6" outlineLevel="1">
+    <row r="90" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>22</v>
@@ -10611,12 +9795,12 @@
       </c>
       <c r="F90" s="64"/>
     </row>
-    <row r="91" spans="1:6" outlineLevel="1">
+    <row r="91" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C91" s="151" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>22</v>
@@ -10626,12 +9810,12 @@
       </c>
       <c r="F91" s="64"/>
     </row>
-    <row r="92" spans="1:6" outlineLevel="1">
+    <row r="92" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C92" s="151" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>22</v>
@@ -10641,12 +9825,12 @@
       </c>
       <c r="F92" s="64"/>
     </row>
-    <row r="93" spans="1:6" outlineLevel="1">
+    <row r="93" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C93" s="151" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>22</v>
@@ -10656,12 +9840,12 @@
       </c>
       <c r="F93" s="64"/>
     </row>
-    <row r="94" spans="1:6" outlineLevel="1">
+    <row r="94" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>22</v>
@@ -10671,7 +9855,7 @@
       </c>
       <c r="F94" s="64"/>
     </row>
-    <row r="95" spans="1:6" outlineLevel="1">
+    <row r="95" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
       <c r="C95" s="149" t="s">
         <v>97</v>
@@ -10680,7 +9864,7 @@
       <c r="E95" s="219"/>
       <c r="F95" s="64"/>
     </row>
-    <row r="96" spans="1:6" outlineLevel="1">
+    <row r="96" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>266</v>
       </c>
@@ -10695,7 +9879,7 @@
       </c>
       <c r="F96" s="64"/>
     </row>
-    <row r="97" spans="1:6" outlineLevel="1">
+    <row r="97" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>267</v>
       </c>
@@ -10710,7 +9894,7 @@
       </c>
       <c r="F97" s="64"/>
     </row>
-    <row r="98" spans="1:6" outlineLevel="1">
+    <row r="98" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>268</v>
       </c>
@@ -10725,7 +9909,7 @@
       </c>
       <c r="F98" s="64"/>
     </row>
-    <row r="99" spans="1:6" ht="35.1" customHeight="1">
+    <row r="99" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="53"/>
       <c r="C99" s="55" t="s">
         <v>53</v>
@@ -10734,11 +9918,11 @@
         <v>8</v>
       </c>
       <c r="E99" s="54" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F99" s="18"/>
     </row>
-    <row r="100" spans="1:6" ht="45" outlineLevel="1">
+    <row r="100" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>269</v>
       </c>
@@ -10749,11 +9933,11 @@
         <v>31</v>
       </c>
       <c r="E100" s="214" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F100" s="64"/>
     </row>
-    <row r="101" spans="1:6" ht="35.1" customHeight="1">
+    <row r="101" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="75"/>
       <c r="C101" s="73" t="s">
         <v>4</v>
@@ -10762,11 +9946,11 @@
         <v>8</v>
       </c>
       <c r="E101" s="74" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="1:6" ht="21">
+    <row r="102" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>283</v>
       </c>
@@ -10778,16 +9962,16 @@
         <v>8</v>
       </c>
       <c r="E102" s="72" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F102" s="64"/>
     </row>
-    <row r="103" spans="1:6" ht="15.75" outlineLevel="1">
+    <row r="103" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>37</v>
@@ -10797,7 +9981,7 @@
       </c>
       <c r="F103" s="64"/>
     </row>
-    <row r="104" spans="1:6" outlineLevel="1">
+    <row r="104" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>294</v>
       </c>
@@ -10812,7 +9996,7 @@
       </c>
       <c r="F104" s="64"/>
     </row>
-    <row r="105" spans="1:6" outlineLevel="1">
+    <row r="105" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>285</v>
       </c>
@@ -10827,12 +10011,12 @@
       </c>
       <c r="F105" s="64"/>
     </row>
-    <row r="106" spans="1:6" outlineLevel="1">
+    <row r="106" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>22</v>
@@ -10842,7 +10026,7 @@
       </c>
       <c r="F106" s="64"/>
     </row>
-    <row r="107" spans="1:6" outlineLevel="1">
+    <row r="107" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>292</v>
       </c>
@@ -10857,7 +10041,7 @@
       </c>
       <c r="F107" s="64"/>
     </row>
-    <row r="108" spans="1:6" outlineLevel="1">
+    <row r="108" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>289</v>
       </c>
@@ -10872,7 +10056,7 @@
       </c>
       <c r="F108" s="64"/>
     </row>
-    <row r="109" spans="1:6" outlineLevel="1">
+    <row r="109" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>291</v>
       </c>
@@ -10887,7 +10071,7 @@
       </c>
       <c r="F109" s="64"/>
     </row>
-    <row r="110" spans="1:6" outlineLevel="1">
+    <row r="110" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>288</v>
       </c>
@@ -10902,7 +10086,7 @@
       </c>
       <c r="F110" s="64"/>
     </row>
-    <row r="111" spans="1:6" outlineLevel="1">
+    <row r="111" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>293</v>
       </c>
@@ -10917,7 +10101,7 @@
       </c>
       <c r="F111" s="64"/>
     </row>
-    <row r="112" spans="1:6" outlineLevel="1">
+    <row r="112" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>286</v>
       </c>
@@ -10932,12 +10116,12 @@
       </c>
       <c r="F112" s="64"/>
     </row>
-    <row r="113" spans="1:6" outlineLevel="1">
+    <row r="113" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>22</v>
@@ -10947,7 +10131,7 @@
       </c>
       <c r="F113" s="64"/>
     </row>
-    <row r="114" spans="1:6" ht="21">
+    <row r="114" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>283</v>
       </c>
@@ -10959,16 +10143,16 @@
         <v>8</v>
       </c>
       <c r="E114" s="72" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F114" s="64"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75" outlineLevel="1">
+    <row r="115" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>295</v>
       </c>
       <c r="C115" s="44" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>46</v>
@@ -10978,12 +10162,12 @@
       </c>
       <c r="F115" s="64"/>
     </row>
-    <row r="116" spans="1:6" outlineLevel="1">
+    <row r="116" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>22</v>
@@ -10993,12 +10177,12 @@
       </c>
       <c r="F116" s="66"/>
     </row>
-    <row r="117" spans="1:6" outlineLevel="1">
+    <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>22</v>
@@ -11008,12 +10192,12 @@
       </c>
       <c r="F117" s="66"/>
     </row>
-    <row r="118" spans="1:6" outlineLevel="1">
+    <row r="118" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>22</v>
@@ -11023,12 +10207,12 @@
       </c>
       <c r="F118" s="66"/>
     </row>
-    <row r="119" spans="1:6" outlineLevel="1">
+    <row r="119" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>22</v>
@@ -11038,12 +10222,12 @@
       </c>
       <c r="F119" s="66"/>
     </row>
-    <row r="120" spans="1:6" outlineLevel="1">
+    <row r="120" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>22</v>
@@ -11053,12 +10237,12 @@
       </c>
       <c r="F120" s="66"/>
     </row>
-    <row r="121" spans="1:6" outlineLevel="1">
+    <row r="121" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>22</v>
@@ -11068,12 +10252,12 @@
       </c>
       <c r="F121" s="66"/>
     </row>
-    <row r="122" spans="1:6" outlineLevel="1">
+    <row r="122" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>22</v>
@@ -11083,7 +10267,7 @@
       </c>
       <c r="F122" s="66"/>
     </row>
-    <row r="123" spans="1:6" ht="21">
+    <row r="123" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>283</v>
       </c>
@@ -11095,16 +10279,16 @@
         <v>8</v>
       </c>
       <c r="E123" s="72" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F123" s="64"/>
     </row>
-    <row r="124" spans="1:6" outlineLevel="1">
+    <row r="124" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>47</v>
@@ -11114,7 +10298,7 @@
       </c>
       <c r="F124" s="64"/>
     </row>
-    <row r="125" spans="1:6" outlineLevel="1">
+    <row r="125" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>307</v>
       </c>
@@ -11129,7 +10313,7 @@
       </c>
       <c r="F125" s="66"/>
     </row>
-    <row r="126" spans="1:6" outlineLevel="1">
+    <row r="126" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>306</v>
       </c>
@@ -11144,7 +10328,7 @@
       </c>
       <c r="F126" s="66"/>
     </row>
-    <row r="127" spans="1:6" outlineLevel="1">
+    <row r="127" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>304</v>
       </c>
@@ -11159,7 +10343,7 @@
       </c>
       <c r="F127" s="66"/>
     </row>
-    <row r="128" spans="1:6" outlineLevel="1">
+    <row r="128" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>305</v>
       </c>
@@ -11174,7 +10358,7 @@
       </c>
       <c r="F128" s="66"/>
     </row>
-    <row r="129" spans="1:6" ht="21">
+    <row r="129" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>283</v>
       </c>
@@ -11186,11 +10370,11 @@
         <v>8</v>
       </c>
       <c r="E129" s="72" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F129" s="64"/>
     </row>
-    <row r="130" spans="1:6" outlineLevel="1">
+    <row r="130" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>308</v>
       </c>
@@ -11205,7 +10389,7 @@
       </c>
       <c r="F130" s="18"/>
     </row>
-    <row r="131" spans="1:6" outlineLevel="1">
+    <row r="131" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>309</v>
       </c>
@@ -11220,7 +10404,7 @@
       </c>
       <c r="F131" s="66"/>
     </row>
-    <row r="132" spans="1:6" outlineLevel="1">
+    <row r="132" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>310</v>
       </c>
@@ -11235,7 +10419,7 @@
       </c>
       <c r="F132" s="18"/>
     </row>
-    <row r="133" spans="1:6" outlineLevel="1">
+    <row r="133" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>312</v>
       </c>
@@ -11250,7 +10434,7 @@
       </c>
       <c r="F133" s="66"/>
     </row>
-    <row r="134" spans="1:6" outlineLevel="1">
+    <row r="134" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>311</v>
       </c>
@@ -11265,7 +10449,7 @@
       </c>
       <c r="F134" s="66"/>
     </row>
-    <row r="135" spans="1:6" outlineLevel="1">
+    <row r="135" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>313</v>
       </c>
@@ -11280,7 +10464,7 @@
       </c>
       <c r="F135" s="66"/>
     </row>
-    <row r="136" spans="1:6" ht="21">
+    <row r="136" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="B136" s="70"/>
       <c r="C136" s="71" t="s">
         <v>7</v>
@@ -11289,11 +10473,11 @@
         <v>8</v>
       </c>
       <c r="E136" s="72" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F136" s="64"/>
     </row>
-    <row r="137" spans="1:6" outlineLevel="1">
+    <row r="137" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>270</v>
       </c>
@@ -11308,12 +10492,12 @@
       </c>
       <c r="F137" s="65"/>
     </row>
-    <row r="138" spans="1:6" outlineLevel="1">
+    <row r="138" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C138" s="236" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>22</v>
@@ -11323,12 +10507,12 @@
       </c>
       <c r="F138" s="65"/>
     </row>
-    <row r="139" spans="1:6" outlineLevel="1">
+    <row r="139" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C139" s="236" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>22</v>
@@ -11338,12 +10522,12 @@
       </c>
       <c r="F139" s="65"/>
     </row>
-    <row r="140" spans="1:6" outlineLevel="1">
+    <row r="140" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C140" s="236" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>22</v>
@@ -11353,12 +10537,12 @@
       </c>
       <c r="F140" s="65"/>
     </row>
-    <row r="141" spans="1:6" outlineLevel="1">
+    <row r="141" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C141" s="236" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>22</v>
@@ -11368,7 +10552,7 @@
       </c>
       <c r="F141" s="65"/>
     </row>
-    <row r="142" spans="1:6" outlineLevel="1">
+    <row r="142" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>275</v>
       </c>
@@ -11383,12 +10567,12 @@
       </c>
       <c r="F142" s="65"/>
     </row>
-    <row r="143" spans="1:6" outlineLevel="1">
+    <row r="143" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C143" s="236" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>22</v>
@@ -11398,12 +10582,12 @@
       </c>
       <c r="F143" s="65"/>
     </row>
-    <row r="144" spans="1:6" outlineLevel="1">
+    <row r="144" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C144" s="236" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>22</v>
@@ -11413,12 +10597,12 @@
       </c>
       <c r="F144" s="65"/>
     </row>
-    <row r="145" spans="1:6" outlineLevel="1">
+    <row r="145" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C145" s="236" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>22</v>
@@ -11428,12 +10612,12 @@
       </c>
       <c r="F145" s="65"/>
     </row>
-    <row r="146" spans="1:6" outlineLevel="1">
+    <row r="146" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C146" s="236" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>22</v>
@@ -11443,12 +10627,12 @@
       </c>
       <c r="F146" s="65"/>
     </row>
-    <row r="147" spans="1:6" outlineLevel="1">
+    <row r="147" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C147" s="236" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>22</v>
@@ -11458,12 +10642,12 @@
       </c>
       <c r="F147" s="65"/>
     </row>
-    <row r="148" spans="1:6" outlineLevel="1">
+    <row r="148" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C148" s="245" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>22</v>
@@ -11473,7 +10657,7 @@
       </c>
       <c r="F148" s="65"/>
     </row>
-    <row r="149" spans="1:6" ht="15.75" outlineLevel="1">
+    <row r="149" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>316</v>
       </c>
@@ -11488,7 +10672,7 @@
       </c>
       <c r="F149" s="65"/>
     </row>
-    <row r="150" spans="1:6" outlineLevel="1">
+    <row r="150" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B150" s="127"/>
       <c r="C150" s="246" t="s">
         <v>235</v>
@@ -11501,7 +10685,7 @@
       </c>
       <c r="F150" s="65"/>
     </row>
-    <row r="151" spans="1:6" outlineLevel="1">
+    <row r="151" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B151" s="127"/>
       <c r="C151" s="247" t="s">
         <v>235</v>
@@ -11510,11 +10694,11 @@
         <v>22</v>
       </c>
       <c r="E151" s="220" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F151" s="65"/>
     </row>
-    <row r="152" spans="1:6" ht="15.75" outlineLevel="1">
+    <row r="152" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>317</v>
       </c>
@@ -11525,11 +10709,11 @@
         <v>27</v>
       </c>
       <c r="E152" s="220" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F152" s="65"/>
     </row>
-    <row r="153" spans="1:6" outlineLevel="1">
+    <row r="153" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C153" s="150" t="s">
         <v>370</v>
       </c>
@@ -11537,11 +10721,11 @@
         <v>22</v>
       </c>
       <c r="E153" s="220" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F153" s="65"/>
     </row>
-    <row r="154" spans="1:6" outlineLevel="1">
+    <row r="154" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C154" s="248" t="s">
         <v>370</v>
       </c>
@@ -11549,11 +10733,11 @@
         <v>22</v>
       </c>
       <c r="E154" s="220" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F154" s="65"/>
     </row>
-    <row r="155" spans="1:6" ht="35.1" customHeight="1">
+    <row r="155" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="56"/>
       <c r="C155" s="57" t="s">
         <v>19</v>
@@ -11562,11 +10746,11 @@
         <v>8</v>
       </c>
       <c r="E155" s="232" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F155" s="64"/>
     </row>
-    <row r="156" spans="1:6" ht="30" outlineLevel="1">
+    <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>314</v>
       </c>
@@ -11577,11 +10761,11 @@
         <v>52</v>
       </c>
       <c r="E156" s="222" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F156" s="64"/>
     </row>
-    <row r="157" spans="1:6" ht="21">
+    <row r="157" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="B157" s="58"/>
       <c r="C157" s="58" t="s">
         <v>1</v>
@@ -11590,16 +10774,16 @@
         <v>8</v>
       </c>
       <c r="E157" s="59" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F157" s="64"/>
     </row>
-    <row r="158" spans="1:6" outlineLevel="1">
+    <row r="158" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>52</v>
@@ -11609,7 +10793,7 @@
       </c>
       <c r="F158" s="64"/>
     </row>
-    <row r="159" spans="1:6" outlineLevel="1">
+    <row r="159" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C159" s="150" t="s">
         <v>369</v>
       </c>
@@ -11621,7 +10805,7 @@
       </c>
       <c r="F159" s="64"/>
     </row>
-    <row r="160" spans="1:6" outlineLevel="1">
+    <row r="160" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C160" s="150" t="s">
         <v>369</v>
       </c>
@@ -11633,7 +10817,7 @@
       </c>
       <c r="F160" s="64"/>
     </row>
-    <row r="161" spans="1:6" outlineLevel="1">
+    <row r="161" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C161" s="150" t="s">
         <v>369</v>
       </c>
@@ -11645,7 +10829,7 @@
       </c>
       <c r="F161" s="64"/>
     </row>
-    <row r="162" spans="1:6" outlineLevel="1">
+    <row r="162" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C162" s="46" t="s">
         <v>15</v>
       </c>
@@ -11655,7 +10839,7 @@
       <c r="E162" s="223"/>
       <c r="F162" s="64"/>
     </row>
-    <row r="163" spans="1:6" outlineLevel="1">
+    <row r="163" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C163" s="46" t="s">
         <v>15</v>
       </c>
@@ -11665,7 +10849,7 @@
       <c r="E163" s="223"/>
       <c r="F163" s="64"/>
     </row>
-    <row r="164" spans="1:6" ht="21">
+    <row r="164" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>283</v>
       </c>
@@ -11677,16 +10861,16 @@
         <v>8</v>
       </c>
       <c r="E164" s="59" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F164" s="64"/>
     </row>
-    <row r="165" spans="1:6" outlineLevel="1">
+    <row r="165" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>52</v>
@@ -11696,7 +10880,7 @@
       </c>
       <c r="F165" s="64"/>
     </row>
-    <row r="166" spans="1:6" outlineLevel="1">
+    <row r="166" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C166" s="150" t="s">
         <v>369</v>
       </c>
@@ -11708,7 +10892,7 @@
       </c>
       <c r="F166" s="64"/>
     </row>
-    <row r="167" spans="1:6" outlineLevel="1">
+    <row r="167" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C167" s="150" t="s">
         <v>369</v>
       </c>
@@ -11720,7 +10904,7 @@
       </c>
       <c r="F167" s="64"/>
     </row>
-    <row r="168" spans="1:6" outlineLevel="1">
+    <row r="168" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C168" s="150" t="s">
         <v>369</v>
       </c>
@@ -11732,7 +10916,7 @@
       </c>
       <c r="F168" s="64"/>
     </row>
-    <row r="169" spans="1:6" outlineLevel="1">
+    <row r="169" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C169" s="46" t="s">
         <v>15</v>
       </c>
@@ -11742,7 +10926,7 @@
       <c r="E169" s="223"/>
       <c r="F169" s="64"/>
     </row>
-    <row r="170" spans="1:6" outlineLevel="1">
+    <row r="170" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C170" s="46" t="s">
         <v>15</v>
       </c>
@@ -11752,7 +10936,7 @@
       <c r="E170" s="223"/>
       <c r="F170" s="64"/>
     </row>
-    <row r="171" spans="1:6" ht="21">
+    <row r="171" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>283</v>
       </c>
@@ -11764,16 +10948,16 @@
         <v>8</v>
       </c>
       <c r="E171" s="59" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F171" s="64"/>
     </row>
-    <row r="172" spans="1:6" outlineLevel="1">
+    <row r="172" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>52</v>
@@ -11783,7 +10967,7 @@
       </c>
       <c r="F172" s="64"/>
     </row>
-    <row r="173" spans="1:6" outlineLevel="1">
+    <row r="173" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C173" s="150" t="s">
         <v>369</v>
       </c>
@@ -11795,7 +10979,7 @@
       </c>
       <c r="F173" s="64"/>
     </row>
-    <row r="174" spans="1:6" outlineLevel="1">
+    <row r="174" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C174" s="150" t="s">
         <v>369</v>
       </c>
@@ -11807,7 +10991,7 @@
       </c>
       <c r="F174" s="64"/>
     </row>
-    <row r="175" spans="1:6" outlineLevel="1">
+    <row r="175" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C175" s="150" t="s">
         <v>369</v>
       </c>
@@ -11819,7 +11003,7 @@
       </c>
       <c r="F175" s="64"/>
     </row>
-    <row r="176" spans="1:6" outlineLevel="1">
+    <row r="176" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C176" s="46" t="s">
         <v>15</v>
       </c>
@@ -11829,7 +11013,7 @@
       <c r="E176" s="223"/>
       <c r="F176" s="64"/>
     </row>
-    <row r="177" spans="1:11" outlineLevel="1">
+    <row r="177" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C177" s="46" t="s">
         <v>15</v>
       </c>
@@ -11839,7 +11023,7 @@
       <c r="E177" s="223"/>
       <c r="F177" s="64"/>
     </row>
-    <row r="178" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="178" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>283</v>
       </c>
@@ -11851,11 +11035,11 @@
         <v>8</v>
       </c>
       <c r="E178" s="59" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F178" s="64"/>
     </row>
-    <row r="179" spans="1:11" outlineLevel="1">
+    <row r="179" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>320</v>
       </c>
@@ -11870,7 +11054,7 @@
       </c>
       <c r="F179" s="64"/>
     </row>
-    <row r="180" spans="1:11" ht="35.1" customHeight="1">
+    <row r="180" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="115"/>
       <c r="B180" s="116"/>
       <c r="C180" s="114" t="s">
@@ -11880,17 +11064,17 @@
         <v>8</v>
       </c>
       <c r="E180" s="231" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F180" s="64"/>
     </row>
-    <row r="181" spans="1:11" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="181" spans="1:11" s="11" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
         <v>321</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -11905,7 +11089,7 @@
       <c r="J181" s="90"/>
       <c r="K181" s="91"/>
     </row>
-    <row r="182" spans="1:11" s="194" customFormat="1" ht="21">
+    <row r="182" spans="1:11" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="B182" s="117"/>
       <c r="C182" s="117" t="s">
         <v>159</v>
@@ -11914,17 +11098,17 @@
         <v>8</v>
       </c>
       <c r="E182" s="118" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F182" s="119"/>
     </row>
-    <row r="183" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="183" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A183" s="87" t="s">
         <v>322</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -11939,7 +11123,7 @@
       <c r="J183" s="90"/>
       <c r="K183" s="89"/>
     </row>
-    <row r="184" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="184" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B184" s="12"/>
       <c r="C184" s="129" t="s">
         <v>234</v>
@@ -11948,7 +11132,7 @@
         <v>22</v>
       </c>
       <c r="E184" s="215" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="85"/>
@@ -11957,7 +11141,7 @@
       <c r="J184" s="90"/>
       <c r="K184" s="94"/>
     </row>
-    <row r="185" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="185" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B185" s="12"/>
       <c r="C185" s="128" t="s">
         <v>234</v>
@@ -11966,7 +11150,7 @@
         <v>22</v>
       </c>
       <c r="E185" s="215" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F185" s="84"/>
       <c r="G185" s="85"/>
@@ -11975,7 +11159,7 @@
       <c r="J185" s="90"/>
       <c r="K185" s="94"/>
     </row>
-    <row r="186" spans="1:11" s="194" customFormat="1" ht="21">
+    <row r="186" spans="1:11" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A186" s="194" t="s">
         <v>283</v>
       </c>
@@ -11987,17 +11171,17 @@
         <v>8</v>
       </c>
       <c r="E186" s="118" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F186" s="119"/>
     </row>
-    <row r="187" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="187" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A187" s="87" t="s">
         <v>323</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -12012,7 +11196,7 @@
       <c r="J187" s="90"/>
       <c r="K187" s="94"/>
     </row>
-    <row r="188" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="188" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B188" s="127"/>
       <c r="C188" s="129" t="s">
         <v>234</v>
@@ -12021,7 +11205,7 @@
         <v>22</v>
       </c>
       <c r="E188" s="215" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F188" s="84"/>
       <c r="G188" s="85"/>
@@ -12030,7 +11214,7 @@
       <c r="J188" s="90"/>
       <c r="K188" s="94"/>
     </row>
-    <row r="189" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="189" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B189" s="12"/>
       <c r="C189" s="128" t="s">
         <v>234</v>
@@ -12039,7 +11223,7 @@
         <v>22</v>
       </c>
       <c r="E189" s="215" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F189" s="84"/>
       <c r="G189" s="85"/>
@@ -12048,7 +11232,7 @@
       <c r="J189" s="90"/>
       <c r="K189" s="94"/>
     </row>
-    <row r="190" spans="1:11" s="194" customFormat="1" ht="21">
+    <row r="190" spans="1:11" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A190" s="195" t="s">
         <v>283</v>
       </c>
@@ -12060,17 +11244,17 @@
         <v>8</v>
       </c>
       <c r="E190" s="118" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F190" s="119"/>
     </row>
-    <row r="191" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="191" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A191" s="87" t="s">
         <v>324</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -12085,7 +11269,7 @@
       <c r="J191" s="90"/>
       <c r="K191" s="94"/>
     </row>
-    <row r="192" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="192" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B192" s="12"/>
       <c r="C192" s="129" t="s">
         <v>234</v>
@@ -12094,7 +11278,7 @@
         <v>22</v>
       </c>
       <c r="E192" s="215" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="3"/>
@@ -12103,7 +11287,7 @@
       <c r="J192" s="90"/>
       <c r="K192" s="94"/>
     </row>
-    <row r="193" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="193" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B193" s="12"/>
       <c r="C193" s="128" t="s">
         <v>234</v>
@@ -12112,7 +11296,7 @@
         <v>22</v>
       </c>
       <c r="E193" s="215" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F193" s="84"/>
       <c r="G193" s="3"/>
@@ -12121,7 +11305,7 @@
       <c r="J193" s="90"/>
       <c r="K193" s="94"/>
     </row>
-    <row r="194" spans="1:12" s="194" customFormat="1" ht="21">
+    <row r="194" spans="1:12" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A194" s="195" t="s">
         <v>283</v>
       </c>
@@ -12133,17 +11317,17 @@
         <v>8</v>
       </c>
       <c r="E194" s="118" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F194" s="119"/>
     </row>
-    <row r="195" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="195" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A195" s="87" t="s">
         <v>325</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -12159,7 +11343,7 @@
       <c r="K195" s="94"/>
       <c r="L195" s="96"/>
     </row>
-    <row r="196" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="196" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B196" s="12"/>
       <c r="C196" s="131" t="s">
         <v>234</v>
@@ -12168,7 +11352,7 @@
         <v>22</v>
       </c>
       <c r="E196" s="215" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F196" s="84"/>
       <c r="G196" s="3"/>
@@ -12177,7 +11361,7 @@
       <c r="J196" s="90"/>
       <c r="K196" s="86"/>
     </row>
-    <row r="197" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="197" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B197" s="12"/>
       <c r="C197" s="130" t="s">
         <v>234</v>
@@ -12186,7 +11370,7 @@
         <v>22</v>
       </c>
       <c r="E197" s="215" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F197" s="84"/>
       <c r="G197" s="3"/>
@@ -12195,7 +11379,7 @@
       <c r="J197" s="90"/>
       <c r="K197" s="94"/>
     </row>
-    <row r="198" spans="1:12" s="194" customFormat="1" ht="21">
+    <row r="198" spans="1:12" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A198" s="195" t="s">
         <v>283</v>
       </c>
@@ -12207,17 +11391,17 @@
         <v>8</v>
       </c>
       <c r="E198" s="118" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F198" s="119"/>
     </row>
-    <row r="199" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="199" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A199" s="87" t="s">
         <v>326</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -12232,7 +11416,7 @@
       <c r="J199" s="90"/>
       <c r="K199" s="94"/>
     </row>
-    <row r="200" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="200" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B200" s="127"/>
       <c r="C200" s="129" t="s">
         <v>234</v>
@@ -12241,7 +11425,7 @@
         <v>22</v>
       </c>
       <c r="E200" s="215" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="3"/>
@@ -12251,7 +11435,7 @@
       <c r="K200" s="94"/>
       <c r="L200" s="96"/>
     </row>
-    <row r="201" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="201" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B201" s="12"/>
       <c r="C201" s="128" t="s">
         <v>234</v>
@@ -12260,7 +11444,7 @@
         <v>22</v>
       </c>
       <c r="E201" s="215" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F201" s="84"/>
       <c r="G201" s="3"/>
@@ -12269,7 +11453,7 @@
       <c r="J201" s="90"/>
       <c r="K201" s="94"/>
     </row>
-    <row r="202" spans="1:12" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="202" spans="1:12" s="194" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="195" t="s">
         <v>283</v>
       </c>
@@ -12281,17 +11465,17 @@
         <v>8</v>
       </c>
       <c r="E202" s="118" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F202" s="119"/>
     </row>
-    <row r="203" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="203" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A203" s="87" t="s">
         <v>327</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -12306,7 +11490,7 @@
       <c r="J203" s="90"/>
       <c r="K203" s="94"/>
     </row>
-    <row r="204" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="204" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B204" s="12"/>
       <c r="C204" s="141" t="s">
         <v>234</v>
@@ -12315,7 +11499,7 @@
         <v>22</v>
       </c>
       <c r="E204" s="215" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F204" s="84"/>
       <c r="G204" s="3"/>
@@ -12324,7 +11508,7 @@
       <c r="J204" s="90"/>
       <c r="K204" s="95"/>
     </row>
-    <row r="205" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="205" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B205" s="12"/>
       <c r="C205" s="128" t="s">
         <v>234</v>
@@ -12333,7 +11517,7 @@
         <v>22</v>
       </c>
       <c r="E205" s="215" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F205" s="84"/>
       <c r="G205" s="3"/>
@@ -12342,19 +11526,19 @@
       <c r="J205" s="90"/>
       <c r="K205" s="94"/>
     </row>
-    <row r="206" spans="1:12" ht="35.1" customHeight="1">
+    <row r="206" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
         <v>283</v>
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
       </c>
       <c r="E206" s="123" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="3"/>
@@ -12363,7 +11547,7 @@
       <c r="J206" s="78"/>
       <c r="K206" s="79"/>
     </row>
-    <row r="207" spans="1:12" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="207" spans="1:12" s="198" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="199"/>
       <c r="C207" s="204" t="s">
         <v>140</v>
@@ -12372,7 +11556,7 @@
         <v>8</v>
       </c>
       <c r="E207" s="228" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F207" s="200"/>
       <c r="G207" s="201"/>
@@ -12381,7 +11565,7 @@
       <c r="J207" s="201"/>
       <c r="K207" s="203"/>
     </row>
-    <row r="208" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="208" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>328</v>
       </c>
@@ -12402,13 +11586,13 @@
       <c r="J208" s="78"/>
       <c r="K208" s="82"/>
     </row>
-    <row r="209" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="209" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>329</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>142</v>
@@ -12423,13 +11607,13 @@
       <c r="J209" s="78"/>
       <c r="K209" s="82"/>
     </row>
-    <row r="210" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="210" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>142</v>
@@ -12444,7 +11628,7 @@
       <c r="J210" s="78"/>
       <c r="K210" s="82"/>
     </row>
-    <row r="211" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="211" spans="1:26" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="121"/>
       <c r="C211" s="204" t="s">
         <v>143</v>
@@ -12453,7 +11637,7 @@
         <v>8</v>
       </c>
       <c r="E211" s="228" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F211" s="84"/>
       <c r="G211" s="80"/>
@@ -12476,7 +11660,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="212" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A212" s="106" t="s">
         <v>331</v>
       </c>
@@ -12488,7 +11672,7 @@
         <v>27</v>
       </c>
       <c r="E212" s="226" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F212" s="84"/>
       <c r="G212" s="83"/>
@@ -12511,7 +11695,7 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
     </row>
-    <row r="213" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="213" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A213" s="106" t="s">
         <v>332</v>
       </c>
@@ -12523,7 +11707,7 @@
         <v>27</v>
       </c>
       <c r="E213" s="226" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F213" s="84"/>
       <c r="G213" s="83"/>
@@ -12546,7 +11730,7 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
     </row>
-    <row r="214" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="214" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A214" s="106" t="s">
         <v>333</v>
       </c>
@@ -12558,7 +11742,7 @@
         <v>27</v>
       </c>
       <c r="E214" s="226" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F214" s="84"/>
       <c r="G214" s="83"/>
@@ -12581,7 +11765,7 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
     </row>
-    <row r="215" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="215" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A215" s="106" t="s">
         <v>334</v>
       </c>
@@ -12593,7 +11777,7 @@
         <v>27</v>
       </c>
       <c r="E215" s="226" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F215" s="84"/>
       <c r="G215" s="83"/>
@@ -12616,7 +11800,7 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
-    <row r="216" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="216" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A216" s="106" t="s">
         <v>335</v>
       </c>
@@ -12628,7 +11812,7 @@
         <v>27</v>
       </c>
       <c r="E216" s="226" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F216" s="84"/>
       <c r="G216" s="83"/>
@@ -12651,7 +11835,7 @@
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
     </row>
-    <row r="217" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="217" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A217" s="106" t="s">
         <v>336</v>
       </c>
@@ -12663,7 +11847,7 @@
         <v>150</v>
       </c>
       <c r="E217" s="226" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F217" s="84"/>
       <c r="G217" s="83"/>
@@ -12686,7 +11870,7 @@
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
     </row>
-    <row r="218" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="218" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A218" s="106" t="s">
         <v>337</v>
       </c>
@@ -12698,7 +11882,7 @@
         <v>27</v>
       </c>
       <c r="E218" s="226" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F218" s="84"/>
       <c r="G218" s="83"/>
@@ -12721,7 +11905,7 @@
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
     </row>
-    <row r="219" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="219" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A219" s="106" t="s">
         <v>338</v>
       </c>
@@ -12733,7 +11917,7 @@
         <v>27</v>
       </c>
       <c r="E219" s="226" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F219" s="84"/>
       <c r="G219" s="83"/>
@@ -12756,7 +11940,7 @@
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
     </row>
-    <row r="220" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="220" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A220" s="106" t="s">
         <v>339</v>
       </c>
@@ -12768,7 +11952,7 @@
         <v>27</v>
       </c>
       <c r="E220" s="226" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F220" s="84"/>
       <c r="G220" s="83"/>
@@ -12791,7 +11975,7 @@
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
     </row>
-    <row r="221" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="221" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A221" s="106" t="s">
         <v>340</v>
       </c>
@@ -12826,7 +12010,7 @@
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
     </row>
-    <row r="222" spans="1:26" s="8" customFormat="1" outlineLevel="1">
+    <row r="222" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A222" s="106" t="s">
         <v>341</v>
       </c>
@@ -12861,16 +12045,16 @@
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
     </row>
-    <row r="223" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="223" spans="1:26" s="198" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="199"/>
       <c r="C223" s="204" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
       </c>
       <c r="E223" s="228" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F223" s="200"/>
       <c r="G223" s="201"/>
@@ -12879,7 +12063,7 @@
       <c r="J223" s="201"/>
       <c r="K223" s="203"/>
     </row>
-    <row r="224" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="224" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>328</v>
       </c>
@@ -12900,7 +12084,7 @@
       <c r="J224" s="78"/>
       <c r="K224" s="82"/>
     </row>
-    <row r="225" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="225" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>329</v>
       </c>
@@ -12921,13 +12105,13 @@
       <c r="J225" s="78"/>
       <c r="K225" s="82"/>
     </row>
-    <row r="226" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="226" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>32</v>
@@ -12942,7 +12126,7 @@
       <c r="J226" s="78"/>
       <c r="K226" s="82"/>
     </row>
-    <row r="227" spans="1:26" ht="35.1" customHeight="1">
+    <row r="227" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="61"/>
       <c r="C227" s="60" t="s">
         <v>14</v>
@@ -12951,46 +12135,46 @@
         <v>8</v>
       </c>
       <c r="E227" s="126" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F227" s="18"/>
     </row>
-    <row r="228" spans="1:26" ht="21">
+    <row r="228" spans="1:26" ht="21" x14ac:dyDescent="0.2">
       <c r="B228" s="206"/>
       <c r="C228" s="207" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D228" s="205" t="s">
         <v>8</v>
       </c>
       <c r="E228" s="205" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F228" s="64"/>
     </row>
-    <row r="229" spans="1:26" ht="30" outlineLevel="1">
+    <row r="229" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="26" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E229" s="223" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F229" s="64"/>
     </row>
-    <row r="230" spans="1:26" outlineLevel="1">
+    <row r="230" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>343</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>27</v>
@@ -13000,13 +12184,13 @@
       </c>
       <c r="F230" s="64"/>
     </row>
-    <row r="231" spans="1:26" outlineLevel="1">
+    <row r="231" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>27</v>
@@ -13016,13 +12200,13 @@
       </c>
       <c r="F231" s="64"/>
     </row>
-    <row r="232" spans="1:26" outlineLevel="1">
+    <row r="232" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>345</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>27</v>
@@ -13032,7 +12216,7 @@
       </c>
       <c r="F232" s="64"/>
     </row>
-    <row r="233" spans="1:26" ht="21">
+    <row r="233" spans="1:26" ht="21" x14ac:dyDescent="0.2">
       <c r="B233" s="206"/>
       <c r="C233" s="207" t="s">
         <v>20</v>
@@ -13041,11 +12225,11 @@
         <v>8</v>
       </c>
       <c r="E233" s="205" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F233" s="64"/>
     </row>
-    <row r="234" spans="1:26" outlineLevel="1">
+    <row r="234" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>346</v>
       </c>
@@ -13061,7 +12245,7 @@
       </c>
       <c r="F234" s="64"/>
     </row>
-    <row r="235" spans="1:26" outlineLevel="1">
+    <row r="235" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>347</v>
       </c>
@@ -13077,7 +12261,7 @@
       </c>
       <c r="F235" s="64"/>
     </row>
-    <row r="236" spans="1:26" outlineLevel="1">
+    <row r="236" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>348</v>
       </c>
@@ -13093,7 +12277,7 @@
       </c>
       <c r="F236" s="64"/>
     </row>
-    <row r="237" spans="1:26" outlineLevel="1">
+    <row r="237" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>349</v>
       </c>
@@ -13109,7 +12293,7 @@
       </c>
       <c r="F237" s="64"/>
     </row>
-    <row r="238" spans="1:26" outlineLevel="1">
+    <row r="238" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>350</v>
       </c>
@@ -13125,16 +12309,16 @@
       </c>
       <c r="F238" s="64"/>
     </row>
-    <row r="239" spans="1:26" s="86" customFormat="1" ht="35.1" customHeight="1">
+    <row r="239" spans="1:26" s="86" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E239" s="125" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F239" s="84"/>
       <c r="G239" s="85"/>
@@ -13157,13 +12341,13 @@
       <c r="Y239" s="87"/>
       <c r="Z239" s="87"/>
     </row>
-    <row r="240" spans="1:26" s="87" customFormat="1" outlineLevel="1">
+    <row r="240" spans="1:26" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A240" s="87" t="s">
         <v>351</v>
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D240" s="86" t="s">
         <v>27</v>
@@ -13178,7 +12362,7 @@
       <c r="J240" s="85"/>
       <c r="K240" s="86"/>
     </row>
-    <row r="241" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+    <row r="241" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A241" s="87" t="s">
         <v>352</v>
       </c>
@@ -13199,7 +12383,7 @@
       <c r="J241" s="85"/>
       <c r="K241" s="86"/>
     </row>
-    <row r="242" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+    <row r="242" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A242" s="87" t="s">
         <v>353</v>
       </c>
@@ -13220,13 +12404,13 @@
       <c r="J242" s="85"/>
       <c r="K242" s="86"/>
     </row>
-    <row r="243" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+    <row r="243" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A243" s="87" t="s">
         <v>354</v>
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>32</v>
@@ -13241,13 +12425,13 @@
       <c r="J243" s="85"/>
       <c r="K243" s="86"/>
     </row>
-    <row r="244" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+    <row r="244" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A244" s="87" t="s">
         <v>354</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>32</v>
@@ -13262,16 +12446,16 @@
       <c r="J244" s="85"/>
       <c r="K244" s="86"/>
     </row>
-    <row r="245" spans="1:11" s="87" customFormat="1" outlineLevel="1">
+    <row r="245" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A245" s="87" t="s">
         <v>354</v>
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E245" s="223" t="s">
         <v>99</v>
@@ -13367,9 +12551,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -13382,27 +12563,27 @@
   </sheetPr>
   <dimension ref="A1:AB245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="62" customWidth="1"/>
-    <col min="9" max="55" width="10.85546875" style="4" customWidth="1"/>
-    <col min="56" max="16384" width="10.85546875" style="4"/>
+    <col min="1" max="1" width="22.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="62" customWidth="1"/>
+    <col min="9" max="55" width="10.83203125" style="4" customWidth="1"/>
+    <col min="56" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1">
+    <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="98" t="s">
         <v>355</v>
       </c>
@@ -13422,9 +12603,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="266" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C2" s="266"/>
       <c r="D2" s="266"/>
@@ -13433,7 +12614,7 @@
       <c r="G2" s="266"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="15.95" customHeight="1">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="184"/>
       <c r="C3" s="184"/>
       <c r="D3" s="185"/>
@@ -13442,13 +12623,13 @@
       <c r="G3" s="187"/>
       <c r="H3" s="63"/>
     </row>
-    <row r="4" spans="1:8" ht="21">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="153" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B4" s="188"/>
       <c r="C4" s="192" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D4" s="190" t="s">
         <v>660</v>
@@ -13458,13 +12639,13 @@
       <c r="G4" s="269"/>
       <c r="H4" s="64"/>
     </row>
-    <row r="5" spans="1:8" ht="21">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="153" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B5" s="189"/>
       <c r="C5" s="193" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D5" s="191" t="s">
         <v>661</v>
@@ -13474,7 +12655,7 @@
       <c r="G5" s="270"/>
       <c r="H5" s="64"/>
     </row>
-    <row r="6" spans="1:8" ht="8.1" customHeight="1">
+    <row r="6" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="153"/>
       <c r="B6" s="135"/>
       <c r="C6" s="181"/>
@@ -13484,7 +12665,7 @@
       <c r="G6" s="84"/>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="1:8" ht="8.1" customHeight="1">
+    <row r="7" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="153"/>
       <c r="B7" s="135"/>
       <c r="C7" s="181"/>
@@ -13494,7 +12675,7 @@
       <c r="G7" s="84"/>
       <c r="H7" s="64"/>
     </row>
-    <row r="8" spans="1:8" ht="35.1" customHeight="1">
+    <row r="8" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="36"/>
       <c r="C8" s="67" t="s">
         <v>133</v>
@@ -13513,7 +12694,7 @@
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1">
+    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>241</v>
       </c>
@@ -13530,7 +12711,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1">
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>242</v>
       </c>
@@ -13547,7 +12728,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="64"/>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1">
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>243</v>
       </c>
@@ -13564,7 +12745,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="64"/>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1">
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>244</v>
       </c>
@@ -13581,7 +12762,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1">
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
@@ -13598,7 +12779,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="64"/>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1">
+    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C14" s="32" t="s">
         <v>707</v>
       </c>
@@ -13608,9 +12789,9 @@
       <c r="G14" s="144"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="254" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>662</v>
@@ -13625,9 +12806,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="153" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>663</v>
@@ -13642,9 +12823,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="17" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="153" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>664</v>
@@ -13659,9 +12840,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="18" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="254" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
@@ -13676,9 +12857,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="19" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="153" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>665</v>
@@ -13693,9 +12874,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="153" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>666</v>
@@ -13710,9 +12891,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="64"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="21" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="153" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>667</v>
@@ -13727,9 +12908,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="22" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="153" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>668</v>
@@ -13744,9 +12925,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="23" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="153" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>669</v>
@@ -13761,9 +12942,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="64"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="24" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="153" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>670</v>
@@ -13778,9 +12959,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="25" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="153" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>671</v>
@@ -13795,9 +12976,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="26" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="153" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>672</v>
@@ -13812,9 +12993,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="27" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="153" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>673</v>
@@ -13829,9 +13010,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="28" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="153" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>674</v>
@@ -13846,9 +13027,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="29" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="153" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>675</v>
@@ -13863,9 +13044,9 @@
       <c r="G29" s="3"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="30" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="153" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>676</v>
@@ -13880,9 +13061,9 @@
       <c r="G30" s="3"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="31" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="153" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>677</v>
@@ -13897,9 +13078,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="32" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="153" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>678</v>
@@ -13914,9 +13095,9 @@
       <c r="G32" s="3"/>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="33" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="153" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>679</v>
@@ -13931,9 +13112,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="64"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="34" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="153" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>680</v>
@@ -13948,9 +13129,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="35" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="153" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>681</v>
@@ -13965,9 +13146,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="36" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="153" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>682</v>
@@ -13982,9 +13163,9 @@
       <c r="G36" s="3"/>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="37" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="153" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>683</v>
@@ -13999,9 +13180,9 @@
       <c r="G37" s="3"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="38" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="254" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>684</v>
@@ -14016,9 +13197,9 @@
       <c r="G38" s="3"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="39" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="153" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>685</v>
@@ -14033,9 +13214,9 @@
       <c r="G39" s="3"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="40" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>686</v>
@@ -14050,9 +13231,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="64"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="41" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="153" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>687</v>
@@ -14067,9 +13248,9 @@
       <c r="G41" s="3"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="42" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A42" s="153" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>688</v>
@@ -14084,9 +13265,9 @@
       <c r="G42" s="3"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="43" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A43" s="153" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>689</v>
@@ -14101,9 +13282,9 @@
       <c r="G43" s="3"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="44" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A44" s="153" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>689</v>
@@ -14118,9 +13299,9 @@
       <c r="G44" s="3"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="45" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A45" s="153" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>690</v>
@@ -14135,9 +13316,9 @@
       <c r="G45" s="3"/>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="46" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A46" s="153" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>691</v>
@@ -14152,9 +13333,9 @@
       <c r="G46" s="3"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="47" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A47" s="153" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>692</v>
@@ -14169,9 +13350,9 @@
       <c r="G47" s="3"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="48" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A48" s="153" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>693</v>
@@ -14186,9 +13367,9 @@
       <c r="G48" s="3"/>
       <c r="H48" s="64"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="49" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A49" s="153" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>694</v>
@@ -14203,9 +13384,9 @@
       <c r="G49" s="3"/>
       <c r="H49" s="64"/>
     </row>
-    <row r="50" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="50" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A50" s="153" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>695</v>
@@ -14220,9 +13401,9 @@
       <c r="G50" s="3"/>
       <c r="H50" s="64"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="51" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A51" s="153" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>695</v>
@@ -14237,9 +13418,9 @@
       <c r="G51" s="3"/>
       <c r="H51" s="64"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="52" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A52" s="153" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>696</v>
@@ -14254,9 +13435,9 @@
       <c r="G52" s="3"/>
       <c r="H52" s="64"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="53" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A53" s="153" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>697</v>
@@ -14271,9 +13452,9 @@
       <c r="G53" s="3"/>
       <c r="H53" s="64"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="54" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A54" s="153" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>698</v>
@@ -14288,9 +13469,9 @@
       <c r="G54" s="3"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="55" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A55" s="153" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>699</v>
@@ -14305,9 +13486,9 @@
       <c r="G55" s="3"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="56" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A56" s="153" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>700</v>
@@ -14322,9 +13503,9 @@
       <c r="G56" s="3"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="57" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A57" s="153" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>701</v>
@@ -14339,9 +13520,9 @@
       <c r="G57" s="3"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="58" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A58" s="153" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>702</v>
@@ -14356,9 +13537,9 @@
       <c r="G58" s="3"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="59" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A59" s="153" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>703</v>
@@ -14373,9 +13554,9 @@
       <c r="G59" s="3"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="60" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A60" s="153" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>704</v>
@@ -14390,9 +13571,9 @@
       <c r="G60" s="3"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="61" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A61" s="153" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>705</v>
@@ -14407,9 +13588,9 @@
       <c r="G61" s="3"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" outlineLevel="2">
+    <row r="62" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A62" s="153" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>706</v>
@@ -14424,10 +13605,10 @@
       <c r="G62" s="3"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63" spans="1:8" outlineLevel="1" collapsed="1">
+    <row r="63" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D63" s="142"/>
       <c r="E63" s="143"/>
@@ -14435,15 +13616,15 @@
       <c r="G63" s="144"/>
       <c r="H63" s="64"/>
     </row>
-    <row r="64" spans="1:8" outlineLevel="1">
+    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="153" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C64" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>812</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>813</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>99</v>
@@ -14452,15 +13633,15 @@
       <c r="G64" s="3"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="1:8" outlineLevel="1">
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="153" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>99</v>
@@ -14469,15 +13650,15 @@
       <c r="G65" s="3"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66" spans="1:8" outlineLevel="1">
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="153" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>99</v>
@@ -14486,15 +13667,15 @@
       <c r="G66" s="3"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67" spans="1:8" outlineLevel="1">
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="153" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>99</v>
@@ -14503,15 +13684,15 @@
       <c r="G67" s="3"/>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="1:8" outlineLevel="1">
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="153" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E68" s="33" t="s">
         <v>99</v>
@@ -14520,15 +13701,15 @@
       <c r="G68" s="3"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69" spans="1:8" outlineLevel="1">
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="153" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>99</v>
@@ -14537,7 +13718,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="64"/>
     </row>
-    <row r="70" spans="1:8" ht="35.1" customHeight="1">
+    <row r="70" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="113"/>
       <c r="C70" s="35" t="s">
         <v>6</v>
@@ -14556,7 +13737,7 @@
       </c>
       <c r="H70" s="64"/>
     </row>
-    <row r="71" spans="1:8" outlineLevel="1">
+    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="32" t="s">
         <v>24</v>
       </c>
@@ -14566,7 +13747,7 @@
       <c r="G71" s="144"/>
       <c r="H71" s="64"/>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1">
+    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>246</v>
       </c>
@@ -14583,12 +13764,12 @@
       <c r="G72" s="3"/>
       <c r="H72" s="64"/>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1">
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -14600,7 +13781,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74" spans="1:8" outlineLevel="1">
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>248</v>
       </c>
@@ -14617,7 +13798,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="64"/>
     </row>
-    <row r="75" spans="1:8" outlineLevel="1">
+    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C75" s="145" t="s">
         <v>17</v>
       </c>
@@ -14627,12 +13808,12 @@
       <c r="G75" s="144"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1">
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>100</v>
@@ -14644,12 +13825,12 @@
       <c r="G76" s="7"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77" spans="1:8" outlineLevel="1">
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>100</v>
@@ -14661,12 +13842,12 @@
       <c r="G77" s="7"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78" spans="1:8" outlineLevel="1">
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>100</v>
@@ -14678,12 +13859,12 @@
       <c r="G78" s="7"/>
       <c r="H78" s="64"/>
     </row>
-    <row r="79" spans="1:8" outlineLevel="1">
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>100</v>
@@ -14695,7 +13876,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1">
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>253</v>
       </c>
@@ -14712,7 +13893,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81" spans="1:8" outlineLevel="1">
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>254</v>
       </c>
@@ -14729,7 +13910,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82" spans="1:8" outlineLevel="1">
+    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>255</v>
       </c>
@@ -14746,7 +13927,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83" spans="1:8" outlineLevel="1">
+    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>256</v>
       </c>
@@ -14763,7 +13944,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84" spans="1:8" outlineLevel="1">
+    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>257</v>
       </c>
@@ -14780,7 +13961,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85" spans="1:8" ht="35.1" customHeight="1">
+    <row r="85" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="69"/>
       <c r="C85" s="68" t="s">
         <v>5</v>
@@ -14799,7 +13980,7 @@
       </c>
       <c r="H85" s="18"/>
     </row>
-    <row r="86" spans="1:8" s="6" customFormat="1" outlineLevel="1">
+    <row r="86" spans="1:8" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>258</v>
       </c>
@@ -14817,7 +13998,7 @@
       <c r="G86" s="38"/>
       <c r="H86" s="18"/>
     </row>
-    <row r="87" spans="1:8" outlineLevel="1">
+    <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7"/>
       <c r="C87" s="30" t="s">
         <v>16</v>
@@ -14828,12 +14009,12 @@
       <c r="G87" s="148"/>
       <c r="H87" s="64"/>
     </row>
-    <row r="88" spans="1:8" outlineLevel="1">
+    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C88" s="151" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>22</v>
@@ -14845,12 +14026,12 @@
       <c r="G88" s="13"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89" spans="1:8" outlineLevel="1">
+    <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>22</v>
@@ -14862,12 +14043,12 @@
       <c r="G89" s="13"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90" spans="1:8" outlineLevel="1">
+    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>22</v>
@@ -14879,12 +14060,12 @@
       <c r="G90" s="13"/>
       <c r="H90" s="64"/>
     </row>
-    <row r="91" spans="1:8" outlineLevel="1">
+    <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C91" s="151" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>22</v>
@@ -14896,12 +14077,12 @@
       <c r="G91" s="3"/>
       <c r="H91" s="64"/>
     </row>
-    <row r="92" spans="1:8" outlineLevel="1">
+    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C92" s="151" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>22</v>
@@ -14913,12 +14094,12 @@
       <c r="G92" s="3"/>
       <c r="H92" s="64"/>
     </row>
-    <row r="93" spans="1:8" outlineLevel="1">
+    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C93" s="151" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>22</v>
@@ -14930,12 +14111,12 @@
       <c r="G93" s="3"/>
       <c r="H93" s="64"/>
     </row>
-    <row r="94" spans="1:8" outlineLevel="1">
+    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>22</v>
@@ -14947,7 +14128,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="64"/>
     </row>
-    <row r="95" spans="1:8" outlineLevel="1">
+    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
       <c r="C95" s="149" t="s">
         <v>97</v>
@@ -14958,7 +14139,7 @@
       <c r="G95" s="148"/>
       <c r="H95" s="64"/>
     </row>
-    <row r="96" spans="1:8" outlineLevel="1">
+    <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>266</v>
       </c>
@@ -14975,7 +14156,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="64"/>
     </row>
-    <row r="97" spans="1:8" outlineLevel="1">
+    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>267</v>
       </c>
@@ -14992,7 +14173,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="64"/>
     </row>
-    <row r="98" spans="1:8" outlineLevel="1">
+    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>268</v>
       </c>
@@ -15009,7 +14190,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="64"/>
     </row>
-    <row r="99" spans="1:8" ht="35.1" customHeight="1">
+    <row r="99" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="53"/>
       <c r="C99" s="55" t="s">
         <v>53</v>
@@ -15028,7 +14209,7 @@
       </c>
       <c r="H99" s="18"/>
     </row>
-    <row r="100" spans="1:8" ht="30" outlineLevel="1">
+    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>269</v>
       </c>
@@ -15045,7 +14226,7 @@
       <c r="G100" s="38"/>
       <c r="H100" s="64"/>
     </row>
-    <row r="101" spans="1:8" ht="35.1" customHeight="1">
+    <row r="101" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="75"/>
       <c r="C101" s="73" t="s">
         <v>4</v>
@@ -15064,7 +14245,7 @@
       </c>
       <c r="H101" s="18"/>
     </row>
-    <row r="102" spans="1:8" ht="21">
+    <row r="102" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="B102" s="70"/>
       <c r="C102" s="71" t="s">
         <v>12</v>
@@ -15083,12 +14264,12 @@
       </c>
       <c r="H102" s="64"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" outlineLevel="1">
+    <row r="103" spans="1:8" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>37</v>
@@ -15100,7 +14281,7 @@
       <c r="G103" s="45"/>
       <c r="H103" s="64"/>
     </row>
-    <row r="104" spans="1:8" outlineLevel="1">
+    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>294</v>
       </c>
@@ -15117,7 +14298,7 @@
       <c r="G104" s="38"/>
       <c r="H104" s="64"/>
     </row>
-    <row r="105" spans="1:8" outlineLevel="1">
+    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>285</v>
       </c>
@@ -15134,12 +14315,12 @@
       <c r="G105" s="38"/>
       <c r="H105" s="64"/>
     </row>
-    <row r="106" spans="1:8" outlineLevel="1">
+    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D106" s="39" t="s">
         <v>22</v>
@@ -15151,7 +14332,7 @@
       <c r="G106" s="38"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107" spans="1:8" outlineLevel="1">
+    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>292</v>
       </c>
@@ -15168,7 +14349,7 @@
       <c r="G107" s="38"/>
       <c r="H107" s="64"/>
     </row>
-    <row r="108" spans="1:8" outlineLevel="1">
+    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>289</v>
       </c>
@@ -15185,7 +14366,7 @@
       <c r="G108" s="38"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109" spans="1:8" outlineLevel="1">
+    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>291</v>
       </c>
@@ -15202,7 +14383,7 @@
       <c r="G109" s="38"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110" spans="1:8" outlineLevel="1">
+    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>288</v>
       </c>
@@ -15219,7 +14400,7 @@
       <c r="G110" s="38"/>
       <c r="H110" s="64"/>
     </row>
-    <row r="111" spans="1:8" outlineLevel="1">
+    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>293</v>
       </c>
@@ -15236,7 +14417,7 @@
       <c r="G111" s="38"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:8" outlineLevel="1">
+    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>286</v>
       </c>
@@ -15253,12 +14434,12 @@
       <c r="G112" s="38"/>
       <c r="H112" s="64"/>
     </row>
-    <row r="113" spans="1:8" outlineLevel="1">
+    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D113" s="39" t="s">
         <v>22</v>
@@ -15270,7 +14451,7 @@
       <c r="G113" s="38"/>
       <c r="H113" s="64"/>
     </row>
-    <row r="114" spans="1:8" ht="21">
+    <row r="114" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="B114" s="70"/>
       <c r="C114" s="71" t="s">
         <v>11</v>
@@ -15289,12 +14470,12 @@
       </c>
       <c r="H114" s="64"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" outlineLevel="1">
+    <row r="115" spans="1:8" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>295</v>
       </c>
       <c r="C115" s="44" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>46</v>
@@ -15306,12 +14487,12 @@
       <c r="G115" s="47"/>
       <c r="H115" s="64"/>
     </row>
-    <row r="116" spans="1:8" outlineLevel="1">
+    <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C116" s="238" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D116" s="39" t="s">
         <v>22</v>
@@ -15323,12 +14504,12 @@
       <c r="G116" s="38"/>
       <c r="H116" s="66"/>
     </row>
-    <row r="117" spans="1:8" outlineLevel="1">
+    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C117" s="238" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D117" s="39" t="s">
         <v>22</v>
@@ -15340,12 +14521,12 @@
       <c r="G117" s="38"/>
       <c r="H117" s="66"/>
     </row>
-    <row r="118" spans="1:8" outlineLevel="1">
+    <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D118" s="39" t="s">
         <v>22</v>
@@ -15357,12 +14538,12 @@
       <c r="G118" s="38"/>
       <c r="H118" s="66"/>
     </row>
-    <row r="119" spans="1:8" outlineLevel="1">
+    <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C119" s="238" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D119" s="39" t="s">
         <v>22</v>
@@ -15374,12 +14555,12 @@
       <c r="G119" s="38"/>
       <c r="H119" s="66"/>
     </row>
-    <row r="120" spans="1:8" outlineLevel="1">
+    <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D120" s="39" t="s">
         <v>22</v>
@@ -15391,12 +14572,12 @@
       <c r="G120" s="38"/>
       <c r="H120" s="66"/>
     </row>
-    <row r="121" spans="1:8" outlineLevel="1">
+    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D121" s="39" t="s">
         <v>22</v>
@@ -15408,12 +14589,12 @@
       <c r="G121" s="38"/>
       <c r="H121" s="66"/>
     </row>
-    <row r="122" spans="1:8" outlineLevel="1">
+    <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D122" s="39" t="s">
         <v>22</v>
@@ -15425,7 +14606,7 @@
       <c r="G122" s="38"/>
       <c r="H122" s="66"/>
     </row>
-    <row r="123" spans="1:8" ht="21">
+    <row r="123" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="B123" s="70"/>
       <c r="C123" s="71" t="s">
         <v>13</v>
@@ -15444,12 +14625,12 @@
       </c>
       <c r="H123" s="64"/>
     </row>
-    <row r="124" spans="1:8" outlineLevel="1">
+    <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>47</v>
@@ -15461,7 +14642,7 @@
       <c r="G124" s="45"/>
       <c r="H124" s="64"/>
     </row>
-    <row r="125" spans="1:8" outlineLevel="1">
+    <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>307</v>
       </c>
@@ -15478,7 +14659,7 @@
       <c r="G125" s="38"/>
       <c r="H125" s="66"/>
     </row>
-    <row r="126" spans="1:8" outlineLevel="1">
+    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>306</v>
       </c>
@@ -15495,7 +14676,7 @@
       <c r="G126" s="38"/>
       <c r="H126" s="66"/>
     </row>
-    <row r="127" spans="1:8" outlineLevel="1">
+    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>304</v>
       </c>
@@ -15512,7 +14693,7 @@
       <c r="G127" s="38"/>
       <c r="H127" s="66"/>
     </row>
-    <row r="128" spans="1:8" outlineLevel="1">
+    <row r="128" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>305</v>
       </c>
@@ -15529,10 +14710,10 @@
       <c r="G128" s="38"/>
       <c r="H128" s="66"/>
     </row>
-    <row r="129" spans="1:8" ht="21">
+    <row r="129" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="B129" s="70"/>
       <c r="C129" s="71" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D129" s="72" t="s">
         <v>8</v>
@@ -15548,7 +14729,7 @@
       </c>
       <c r="H129" s="64"/>
     </row>
-    <row r="130" spans="1:8" outlineLevel="1">
+    <row r="130" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>308</v>
       </c>
@@ -15565,7 +14746,7 @@
       <c r="G130" s="43"/>
       <c r="H130" s="18"/>
     </row>
-    <row r="131" spans="1:8" outlineLevel="1">
+    <row r="131" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>309</v>
       </c>
@@ -15582,7 +14763,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="66"/>
     </row>
-    <row r="132" spans="1:8" outlineLevel="1">
+    <row r="132" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>310</v>
       </c>
@@ -15599,7 +14780,7 @@
       <c r="G132" s="43"/>
       <c r="H132" s="18"/>
     </row>
-    <row r="133" spans="1:8" outlineLevel="1">
+    <row r="133" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>312</v>
       </c>
@@ -15616,7 +14797,7 @@
       <c r="G133" s="38"/>
       <c r="H133" s="66"/>
     </row>
-    <row r="134" spans="1:8" outlineLevel="1">
+    <row r="134" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>311</v>
       </c>
@@ -15633,7 +14814,7 @@
       <c r="G134" s="38"/>
       <c r="H134" s="66"/>
     </row>
-    <row r="135" spans="1:8" outlineLevel="1">
+    <row r="135" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>313</v>
       </c>
@@ -15650,7 +14831,7 @@
       <c r="G135" s="38"/>
       <c r="H135" s="66"/>
     </row>
-    <row r="136" spans="1:8" ht="21">
+    <row r="136" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="B136" s="70"/>
       <c r="C136" s="71" t="s">
         <v>7</v>
@@ -15669,7 +14850,7 @@
       </c>
       <c r="H136" s="64"/>
     </row>
-    <row r="137" spans="1:8" outlineLevel="1">
+    <row r="137" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>270</v>
       </c>
@@ -15686,12 +14867,12 @@
       <c r="G137" s="38"/>
       <c r="H137" s="65"/>
     </row>
-    <row r="138" spans="1:8" outlineLevel="1">
+    <row r="138" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C138" s="236" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>22</v>
@@ -15703,12 +14884,12 @@
       <c r="G138" s="38"/>
       <c r="H138" s="65"/>
     </row>
-    <row r="139" spans="1:8" outlineLevel="1">
+    <row r="139" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A139" s="250" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C139" s="236" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>22</v>
@@ -15720,12 +14901,12 @@
       <c r="G139" s="38"/>
       <c r="H139" s="65"/>
     </row>
-    <row r="140" spans="1:8" outlineLevel="1">
+    <row r="140" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A140" s="250" t="s">
         <v>274</v>
       </c>
       <c r="C140" s="236" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>22</v>
@@ -15737,12 +14918,12 @@
       <c r="G140" s="38"/>
       <c r="H140" s="65"/>
     </row>
-    <row r="141" spans="1:8" outlineLevel="1">
+    <row r="141" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A141" s="250" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C141" s="236" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>22</v>
@@ -15754,7 +14935,7 @@
       <c r="G141" s="38"/>
       <c r="H141" s="65"/>
     </row>
-    <row r="142" spans="1:8" outlineLevel="1">
+    <row r="142" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>275</v>
       </c>
@@ -15771,12 +14952,12 @@
       <c r="G142" s="38"/>
       <c r="H142" s="65"/>
     </row>
-    <row r="143" spans="1:8" outlineLevel="1">
+    <row r="143" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C143" s="236" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>22</v>
@@ -15788,12 +14969,12 @@
       <c r="G143" s="38"/>
       <c r="H143" s="65"/>
     </row>
-    <row r="144" spans="1:8" outlineLevel="1">
+    <row r="144" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C144" s="236" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>22</v>
@@ -15805,12 +14986,12 @@
       <c r="G144" s="38"/>
       <c r="H144" s="65"/>
     </row>
-    <row r="145" spans="1:8" outlineLevel="1">
+    <row r="145" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C145" s="236" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>22</v>
@@ -15822,12 +15003,12 @@
       <c r="G145" s="38"/>
       <c r="H145" s="65"/>
     </row>
-    <row r="146" spans="1:8" outlineLevel="1">
+    <row r="146" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C146" s="236" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>22</v>
@@ -15839,12 +15020,12 @@
       <c r="G146" s="38"/>
       <c r="H146" s="65"/>
     </row>
-    <row r="147" spans="1:8" outlineLevel="1">
+    <row r="147" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C147" s="236" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>22</v>
@@ -15856,12 +15037,12 @@
       <c r="G147" s="38"/>
       <c r="H147" s="65"/>
     </row>
-    <row r="148" spans="1:8" outlineLevel="1">
+    <row r="148" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C148" s="236" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>22</v>
@@ -15873,7 +15054,7 @@
       <c r="G148" s="38"/>
       <c r="H148" s="65"/>
     </row>
-    <row r="149" spans="1:8" ht="15.75" outlineLevel="1">
+    <row r="149" spans="1:8" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>316</v>
       </c>
@@ -15890,7 +15071,7 @@
       <c r="G149" s="38"/>
       <c r="H149" s="65"/>
     </row>
-    <row r="150" spans="1:8" outlineLevel="1">
+    <row r="150" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B150" s="127"/>
       <c r="C150" s="133" t="s">
         <v>235</v>
@@ -15905,7 +15086,7 @@
       <c r="G150" s="38"/>
       <c r="H150" s="65"/>
     </row>
-    <row r="151" spans="1:8" outlineLevel="1">
+    <row r="151" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B151" s="127"/>
       <c r="C151" s="133" t="s">
         <v>235</v>
@@ -15920,7 +15101,7 @@
       <c r="G151" s="38"/>
       <c r="H151" s="65"/>
     </row>
-    <row r="152" spans="1:8" ht="15.75" outlineLevel="1">
+    <row r="152" spans="1:8" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>317</v>
       </c>
@@ -15937,7 +15118,7 @@
       <c r="G152" s="38"/>
       <c r="H152" s="65"/>
     </row>
-    <row r="153" spans="1:8" outlineLevel="1">
+    <row r="153" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B153" s="127"/>
       <c r="C153" s="150" t="s">
         <v>370</v>
@@ -15952,7 +15133,7 @@
       <c r="G153" s="38"/>
       <c r="H153" s="65"/>
     </row>
-    <row r="154" spans="1:8" outlineLevel="1">
+    <row r="154" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C154" s="128" t="s">
         <v>370</v>
       </c>
@@ -15966,7 +15147,7 @@
       <c r="G154" s="38"/>
       <c r="H154" s="65"/>
     </row>
-    <row r="155" spans="1:8" ht="35.1" customHeight="1">
+    <row r="155" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>283</v>
       </c>
@@ -15988,7 +15169,7 @@
       </c>
       <c r="H155" s="64"/>
     </row>
-    <row r="156" spans="1:8" ht="30" outlineLevel="1">
+    <row r="156" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>314</v>
       </c>
@@ -16005,7 +15186,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="64"/>
     </row>
-    <row r="157" spans="1:8" ht="21">
+    <row r="157" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="B157" s="58"/>
       <c r="C157" s="58" t="s">
         <v>1</v>
@@ -16024,12 +15205,12 @@
       </c>
       <c r="H157" s="64"/>
     </row>
-    <row r="158" spans="1:8" outlineLevel="1">
+    <row r="158" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>52</v>
@@ -16041,7 +15222,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="64"/>
     </row>
-    <row r="159" spans="1:8" outlineLevel="1">
+    <row r="159" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C159" s="150" t="s">
         <v>369</v>
       </c>
@@ -16055,7 +15236,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="64"/>
     </row>
-    <row r="160" spans="1:8" outlineLevel="1">
+    <row r="160" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C160" s="150" t="s">
         <v>369</v>
       </c>
@@ -16069,7 +15250,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="64"/>
     </row>
-    <row r="161" spans="1:8" outlineLevel="1">
+    <row r="161" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C161" s="150" t="s">
         <v>369</v>
       </c>
@@ -16083,7 +15264,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="64"/>
     </row>
-    <row r="162" spans="1:8" outlineLevel="1">
+    <row r="162" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C162" s="46" t="s">
         <v>15</v>
       </c>
@@ -16097,7 +15278,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="64"/>
     </row>
-    <row r="163" spans="1:8" outlineLevel="1">
+    <row r="163" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C163" s="46" t="s">
         <v>15</v>
       </c>
@@ -16111,7 +15292,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="64"/>
     </row>
-    <row r="164" spans="1:8" ht="21">
+    <row r="164" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>283</v>
       </c>
@@ -16133,12 +15314,12 @@
       </c>
       <c r="H164" s="64"/>
     </row>
-    <row r="165" spans="1:8" outlineLevel="1">
+    <row r="165" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>52</v>
@@ -16150,7 +15331,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="64"/>
     </row>
-    <row r="166" spans="1:8" outlineLevel="1">
+    <row r="166" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C166" s="150" t="s">
         <v>369</v>
       </c>
@@ -16164,7 +15345,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="64"/>
     </row>
-    <row r="167" spans="1:8" outlineLevel="1">
+    <row r="167" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C167" s="150" t="s">
         <v>369</v>
       </c>
@@ -16178,7 +15359,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="64"/>
     </row>
-    <row r="168" spans="1:8" outlineLevel="1">
+    <row r="168" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C168" s="150" t="s">
         <v>369</v>
       </c>
@@ -16192,7 +15373,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="64"/>
     </row>
-    <row r="169" spans="1:8" outlineLevel="1">
+    <row r="169" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C169" s="46" t="s">
         <v>15</v>
       </c>
@@ -16206,7 +15387,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="64"/>
     </row>
-    <row r="170" spans="1:8" outlineLevel="1">
+    <row r="170" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C170" s="46" t="s">
         <v>15</v>
       </c>
@@ -16220,7 +15401,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="64"/>
     </row>
-    <row r="171" spans="1:8" ht="21">
+    <row r="171" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>283</v>
       </c>
@@ -16242,12 +15423,12 @@
       </c>
       <c r="H171" s="64"/>
     </row>
-    <row r="172" spans="1:8" outlineLevel="1">
+    <row r="172" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>52</v>
@@ -16259,7 +15440,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="64"/>
     </row>
-    <row r="173" spans="1:8" outlineLevel="1">
+    <row r="173" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C173" s="150" t="s">
         <v>369</v>
       </c>
@@ -16273,7 +15454,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="64"/>
     </row>
-    <row r="174" spans="1:8" outlineLevel="1">
+    <row r="174" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C174" s="150" t="s">
         <v>369</v>
       </c>
@@ -16287,7 +15468,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="64"/>
     </row>
-    <row r="175" spans="1:8" outlineLevel="1">
+    <row r="175" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C175" s="150" t="s">
         <v>369</v>
       </c>
@@ -16301,7 +15482,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="64"/>
     </row>
-    <row r="176" spans="1:8" outlineLevel="1">
+    <row r="176" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C176" s="46" t="s">
         <v>15</v>
       </c>
@@ -16315,7 +15496,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="64"/>
     </row>
-    <row r="177" spans="1:13" outlineLevel="1">
+    <row r="177" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C177" s="46" t="s">
         <v>15</v>
       </c>
@@ -16329,7 +15510,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="64"/>
     </row>
-    <row r="178" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="178" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>283</v>
       </c>
@@ -16351,7 +15532,7 @@
       </c>
       <c r="H178" s="64"/>
     </row>
-    <row r="179" spans="1:13" outlineLevel="1">
+    <row r="179" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>320</v>
       </c>
@@ -16368,7 +15549,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="64"/>
     </row>
-    <row r="180" spans="1:13" ht="35.1" customHeight="1">
+    <row r="180" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="115"/>
       <c r="B180" s="116"/>
       <c r="C180" s="114" t="s">
@@ -16388,13 +15569,13 @@
       </c>
       <c r="H180" s="64"/>
     </row>
-    <row r="181" spans="1:13" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="181" spans="1:13" s="11" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
         <v>321</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -16411,7 +15592,7 @@
       <c r="L181" s="90"/>
       <c r="M181" s="91"/>
     </row>
-    <row r="182" spans="1:13" s="194" customFormat="1" ht="21">
+    <row r="182" spans="1:13" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="B182" s="117"/>
       <c r="C182" s="117" t="s">
         <v>159</v>
@@ -16430,13 +15611,13 @@
       </c>
       <c r="H182" s="84"/>
     </row>
-    <row r="183" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="183" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A183" s="87" t="s">
         <v>322</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -16453,7 +15634,7 @@
       <c r="L183" s="90"/>
       <c r="M183" s="89"/>
     </row>
-    <row r="184" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="184" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B184" s="12"/>
       <c r="C184" s="129" t="s">
         <v>234</v>
@@ -16473,7 +15654,7 @@
       <c r="L184" s="90"/>
       <c r="M184" s="94"/>
     </row>
-    <row r="185" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="185" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B185" s="12"/>
       <c r="C185" s="129" t="s">
         <v>234</v>
@@ -16493,7 +15674,7 @@
       <c r="L185" s="90"/>
       <c r="M185" s="94"/>
     </row>
-    <row r="186" spans="1:13" s="194" customFormat="1" ht="21">
+    <row r="186" spans="1:13" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A186" s="194" t="s">
         <v>283</v>
       </c>
@@ -16515,13 +15696,13 @@
       </c>
       <c r="H186" s="84"/>
     </row>
-    <row r="187" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="187" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A187" s="87" t="s">
         <v>323</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -16538,7 +15719,7 @@
       <c r="L187" s="90"/>
       <c r="M187" s="94"/>
     </row>
-    <row r="188" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="188" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B188" s="127"/>
       <c r="C188" s="129" t="s">
         <v>234</v>
@@ -16558,7 +15739,7 @@
       <c r="L188" s="90"/>
       <c r="M188" s="94"/>
     </row>
-    <row r="189" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="189" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B189" s="12"/>
       <c r="C189" s="129" t="s">
         <v>234</v>
@@ -16578,7 +15759,7 @@
       <c r="L189" s="90"/>
       <c r="M189" s="94"/>
     </row>
-    <row r="190" spans="1:13" s="194" customFormat="1" ht="21">
+    <row r="190" spans="1:13" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A190" s="195" t="s">
         <v>283</v>
       </c>
@@ -16600,13 +15781,13 @@
       </c>
       <c r="H190" s="84"/>
     </row>
-    <row r="191" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="191" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A191" s="87" t="s">
         <v>324</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -16623,7 +15804,7 @@
       <c r="L191" s="90"/>
       <c r="M191" s="94"/>
     </row>
-    <row r="192" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="192" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B192" s="12"/>
       <c r="C192" s="129" t="s">
         <v>234</v>
@@ -16643,7 +15824,7 @@
       <c r="L192" s="90"/>
       <c r="M192" s="94"/>
     </row>
-    <row r="193" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="193" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B193" s="12"/>
       <c r="C193" s="129" t="s">
         <v>234</v>
@@ -16663,7 +15844,7 @@
       <c r="L193" s="90"/>
       <c r="M193" s="94"/>
     </row>
-    <row r="194" spans="1:14" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="194" spans="1:14" s="194" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="195" t="s">
         <v>283</v>
       </c>
@@ -16685,13 +15866,13 @@
       </c>
       <c r="H194" s="84"/>
     </row>
-    <row r="195" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="195" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A195" s="87" t="s">
         <v>325</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -16709,7 +15890,7 @@
       <c r="M195" s="94"/>
       <c r="N195" s="96"/>
     </row>
-    <row r="196" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="196" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B196" s="12"/>
       <c r="C196" s="131" t="s">
         <v>234</v>
@@ -16729,7 +15910,7 @@
       <c r="L196" s="90"/>
       <c r="M196" s="86"/>
     </row>
-    <row r="197" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="197" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B197" s="12"/>
       <c r="C197" s="131" t="s">
         <v>234</v>
@@ -16749,7 +15930,7 @@
       <c r="L197" s="90"/>
       <c r="M197" s="94"/>
     </row>
-    <row r="198" spans="1:14" s="194" customFormat="1" ht="21">
+    <row r="198" spans="1:14" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A198" s="195" t="s">
         <v>283</v>
       </c>
@@ -16771,13 +15952,13 @@
       </c>
       <c r="H198" s="84"/>
     </row>
-    <row r="199" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="199" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A199" s="87" t="s">
         <v>326</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -16794,7 +15975,7 @@
       <c r="L199" s="90"/>
       <c r="M199" s="94"/>
     </row>
-    <row r="200" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="200" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B200" s="127"/>
       <c r="C200" s="129" t="s">
         <v>234</v>
@@ -16815,7 +15996,7 @@
       <c r="M200" s="94"/>
       <c r="N200" s="96"/>
     </row>
-    <row r="201" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="201" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B201" s="12"/>
       <c r="C201" s="129" t="s">
         <v>234</v>
@@ -16835,7 +16016,7 @@
       <c r="L201" s="90"/>
       <c r="M201" s="94"/>
     </row>
-    <row r="202" spans="1:14" s="194" customFormat="1" ht="21">
+    <row r="202" spans="1:14" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A202" s="195" t="s">
         <v>283</v>
       </c>
@@ -16857,13 +16038,13 @@
       </c>
       <c r="H202" s="84"/>
     </row>
-    <row r="203" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="203" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A203" s="87" t="s">
         <v>327</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -16880,7 +16061,7 @@
       <c r="L203" s="90"/>
       <c r="M203" s="94"/>
     </row>
-    <row r="204" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="204" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B204" s="12"/>
       <c r="C204" s="141" t="s">
         <v>234</v>
@@ -16900,7 +16081,7 @@
       <c r="L204" s="90"/>
       <c r="M204" s="95"/>
     </row>
-    <row r="205" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="205" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B205" s="12"/>
       <c r="C205" s="141" t="s">
         <v>234</v>
@@ -16920,13 +16101,13 @@
       <c r="L205" s="90"/>
       <c r="M205" s="94"/>
     </row>
-    <row r="206" spans="1:14" ht="35.1" customHeight="1">
+    <row r="206" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
         <v>283</v>
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
@@ -16947,7 +16128,7 @@
       <c r="L206" s="78"/>
       <c r="M206" s="79"/>
     </row>
-    <row r="207" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="207" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="197"/>
       <c r="C207" s="204" t="s">
         <v>140</v>
@@ -16971,7 +16152,7 @@
       <c r="L207" s="80"/>
       <c r="M207" s="8"/>
     </row>
-    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>328</v>
       </c>
@@ -16994,13 +16175,13 @@
       <c r="L208" s="78"/>
       <c r="M208" s="82"/>
     </row>
-    <row r="209" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="209" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>329</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>142</v>
@@ -17017,13 +16198,13 @@
       <c r="L209" s="78"/>
       <c r="M209" s="82"/>
     </row>
-    <row r="210" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="210" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>142</v>
@@ -17040,7 +16221,7 @@
       <c r="L210" s="78"/>
       <c r="M210" s="82"/>
     </row>
-    <row r="211" spans="1:28" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="211" spans="1:28" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="197"/>
       <c r="C211" s="204" t="s">
         <v>143</v>
@@ -17078,7 +16259,7 @@
       <c r="AA211" s="4"/>
       <c r="AB211" s="4"/>
     </row>
-    <row r="212" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="212" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A212" s="106" t="s">
         <v>331</v>
       </c>
@@ -17115,7 +16296,7 @@
       <c r="AA212" s="4"/>
       <c r="AB212" s="4"/>
     </row>
-    <row r="213" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
+    <row r="213" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A213" s="106" t="s">
         <v>332</v>
       </c>
@@ -17152,7 +16333,7 @@
       <c r="AA213" s="4"/>
       <c r="AB213" s="4"/>
     </row>
-    <row r="214" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="214" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A214" s="106" t="s">
         <v>333</v>
       </c>
@@ -17189,7 +16370,7 @@
       <c r="AA214" s="4"/>
       <c r="AB214" s="4"/>
     </row>
-    <row r="215" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="215" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A215" s="106" t="s">
         <v>334</v>
       </c>
@@ -17226,7 +16407,7 @@
       <c r="AA215" s="4"/>
       <c r="AB215" s="4"/>
     </row>
-    <row r="216" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="216" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A216" s="106" t="s">
         <v>335</v>
       </c>
@@ -17263,7 +16444,7 @@
       <c r="AA216" s="4"/>
       <c r="AB216" s="4"/>
     </row>
-    <row r="217" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="217" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A217" s="106" t="s">
         <v>336</v>
       </c>
@@ -17300,7 +16481,7 @@
       <c r="AA217" s="4"/>
       <c r="AB217" s="4"/>
     </row>
-    <row r="218" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="218" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A218" s="106" t="s">
         <v>337</v>
       </c>
@@ -17337,7 +16518,7 @@
       <c r="AA218" s="4"/>
       <c r="AB218" s="4"/>
     </row>
-    <row r="219" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="219" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A219" s="106" t="s">
         <v>338</v>
       </c>
@@ -17374,7 +16555,7 @@
       <c r="AA219" s="4"/>
       <c r="AB219" s="4"/>
     </row>
-    <row r="220" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="220" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A220" s="106" t="s">
         <v>339</v>
       </c>
@@ -17411,7 +16592,7 @@
       <c r="AA220" s="4"/>
       <c r="AB220" s="4"/>
     </row>
-    <row r="221" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="221" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A221" s="106" t="s">
         <v>340</v>
       </c>
@@ -17448,7 +16629,7 @@
       <c r="AA221" s="4"/>
       <c r="AB221" s="4"/>
     </row>
-    <row r="222" spans="1:28" s="8" customFormat="1" outlineLevel="1">
+    <row r="222" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A222" s="106" t="s">
         <v>341</v>
       </c>
@@ -17485,10 +16666,10 @@
       <c r="AA222" s="4"/>
       <c r="AB222" s="4"/>
     </row>
-    <row r="223" spans="1:28" ht="20.100000000000001" customHeight="1">
+    <row r="223" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="197"/>
       <c r="C223" s="204" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
@@ -17509,9 +16690,9 @@
       <c r="L223" s="80"/>
       <c r="M223" s="8"/>
     </row>
-    <row r="224" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="224" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A224" s="252" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
@@ -17532,9 +16713,9 @@
       <c r="L224" s="78"/>
       <c r="M224" s="82"/>
     </row>
-    <row r="225" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="225" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="252" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
@@ -17555,9 +16736,9 @@
       <c r="L225" s="78"/>
       <c r="M225" s="82"/>
     </row>
-    <row r="226" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="226" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A226" s="252" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
@@ -17578,7 +16759,7 @@
       <c r="L226" s="78"/>
       <c r="M226" s="82"/>
     </row>
-    <row r="227" spans="1:28" ht="35.1" customHeight="1">
+    <row r="227" spans="1:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="61"/>
       <c r="C227" s="60" t="s">
         <v>14</v>
@@ -17597,10 +16778,10 @@
       </c>
       <c r="H227" s="18"/>
     </row>
-    <row r="228" spans="1:28" ht="21">
+    <row r="228" spans="1:28" ht="21" x14ac:dyDescent="0.2">
       <c r="B228" s="206"/>
       <c r="C228" s="207" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D228" s="205" t="s">
         <v>8</v>
@@ -17616,13 +16797,13 @@
       </c>
       <c r="H228" s="64"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="1">
+    <row r="229" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="26" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>27</v>
@@ -17634,13 +16815,13 @@
       <c r="G229" s="3"/>
       <c r="H229" s="64"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="1">
+    <row r="230" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>343</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>27</v>
@@ -17652,13 +16833,13 @@
       <c r="G230" s="3"/>
       <c r="H230" s="64"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="1">
+    <row r="231" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>27</v>
@@ -17670,13 +16851,13 @@
       <c r="G231" s="3"/>
       <c r="H231" s="64"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="1">
+    <row r="232" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>345</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>27</v>
@@ -17688,7 +16869,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="64"/>
     </row>
-    <row r="233" spans="1:28" ht="21">
+    <row r="233" spans="1:28" ht="21" x14ac:dyDescent="0.2">
       <c r="B233" s="206"/>
       <c r="C233" s="207" t="s">
         <v>20</v>
@@ -17707,7 +16888,7 @@
       </c>
       <c r="H233" s="64"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="1">
+    <row r="234" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>346</v>
       </c>
@@ -17725,7 +16906,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="64"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="1">
+    <row r="235" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>347</v>
       </c>
@@ -17743,7 +16924,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="64"/>
     </row>
-    <row r="236" spans="1:28" outlineLevel="1">
+    <row r="236" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>348</v>
       </c>
@@ -17761,7 +16942,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="64"/>
     </row>
-    <row r="237" spans="1:28" outlineLevel="1">
+    <row r="237" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>349</v>
       </c>
@@ -17779,7 +16960,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="64"/>
     </row>
-    <row r="238" spans="1:28" outlineLevel="1">
+    <row r="238" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>350</v>
       </c>
@@ -17797,10 +16978,10 @@
       <c r="G238" s="3"/>
       <c r="H238" s="64"/>
     </row>
-    <row r="239" spans="1:28" s="86" customFormat="1" ht="35.1" customHeight="1">
+    <row r="239" spans="1:28" s="86" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
@@ -17835,13 +17016,13 @@
       <c r="AA239" s="87"/>
       <c r="AB239" s="87"/>
     </row>
-    <row r="240" spans="1:28" s="87" customFormat="1" outlineLevel="1">
+    <row r="240" spans="1:28" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A240" s="87" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D240" s="86" t="s">
         <v>27</v>
@@ -17858,9 +17039,9 @@
       <c r="L240" s="85"/>
       <c r="M240" s="86"/>
     </row>
-    <row r="241" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+    <row r="241" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A241" s="87" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B241" s="12"/>
       <c r="C241" s="150" t="s">
@@ -17881,9 +17062,9 @@
       <c r="L241" s="85"/>
       <c r="M241" s="86"/>
     </row>
-    <row r="242" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+    <row r="242" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A242" s="87" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B242" s="12"/>
       <c r="C242" s="150" t="s">
@@ -17904,13 +17085,13 @@
       <c r="L242" s="85"/>
       <c r="M242" s="86"/>
     </row>
-    <row r="243" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+    <row r="243" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A243" s="253" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>32</v>
@@ -17927,13 +17108,13 @@
       <c r="L243" s="85"/>
       <c r="M243" s="86"/>
     </row>
-    <row r="244" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+    <row r="244" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A244" s="253" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>32</v>
@@ -17950,16 +17131,16 @@
       <c r="L244" s="85"/>
       <c r="M244" s="86"/>
     </row>
-    <row r="245" spans="1:13" s="87" customFormat="1" outlineLevel="1">
+    <row r="245" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A245" s="253" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E245" s="111" t="s">
         <v>99</v>
@@ -18098,12 +17279,12 @@
       <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="18.85546875" customWidth="1"/>
+    <col min="1" max="15" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="234" customFormat="1" ht="30">
+    <row r="1" spans="1:15" s="234" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="233" t="s">
         <v>117</v>
       </c>
@@ -18135,10 +17316,10 @@
         <v>0</v>
       </c>
       <c r="K1" s="235" t="s">
+        <v>785</v>
+      </c>
+      <c r="L1" s="235" t="s">
         <v>786</v>
-      </c>
-      <c r="L1" s="235" t="s">
-        <v>787</v>
       </c>
       <c r="M1" s="235" t="s">
         <v>114</v>
@@ -18147,10 +17328,10 @@
         <v>115</v>
       </c>
       <c r="O1" s="235" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>367</v>
       </c>
@@ -18197,7 +17378,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -18208,7 +17389,7 @@
         <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>168</v>
@@ -18238,13 +17419,13 @@
         <v>371</v>
       </c>
       <c r="N3" s="256" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O3" s="256" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -18291,7 +17472,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>126</v>
       </c>
@@ -18299,7 +17480,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>180</v>
@@ -18332,13 +17513,13 @@
         <v>373</v>
       </c>
       <c r="N5" s="256" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O5" s="256" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -18352,7 +17533,7 @@
         <v>187</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>188</v>
@@ -18373,13 +17554,13 @@
         <v>374</v>
       </c>
       <c r="N6" s="256" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O6" s="256" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -18390,13 +17571,13 @@
         <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>192</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>193</v>
@@ -18417,7 +17598,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -18443,10 +17624,10 @@
         <v>492</v>
       </c>
       <c r="O8" s="256" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>198</v>
       </c>
@@ -18463,7 +17644,7 @@
         <v>361</v>
       </c>
       <c r="M9" s="256" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N9" s="256" t="s">
         <v>493</v>
@@ -18472,7 +17653,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>201</v>
       </c>
@@ -18498,7 +17679,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>204</v>
       </c>
@@ -18524,9 +17705,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>207</v>
@@ -18538,7 +17719,7 @@
         <v>59</v>
       </c>
       <c r="M12" s="256" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N12" s="256" t="s">
         <v>496</v>
@@ -18547,7 +17728,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>208</v>
       </c>
@@ -18567,9 +17748,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G14" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>232</v>
@@ -18587,7 +17768,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I15" s="1" t="s">
         <v>210</v>
       </c>
@@ -18598,13 +17779,13 @@
         <v>381</v>
       </c>
       <c r="N15" s="256" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O15" s="256" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="s">
         <v>211</v>
       </c>
@@ -18612,7 +17793,7 @@
         <v>64</v>
       </c>
       <c r="M16" s="256" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N16" s="256" t="s">
         <v>499</v>
@@ -18621,7 +17802,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="17" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
         <v>212</v>
       </c>
@@ -18638,7 +17819,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="18" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="18" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
         <v>213</v>
       </c>
@@ -18655,7 +17836,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="19" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="19" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
         <v>214</v>
       </c>
@@ -18663,7 +17844,7 @@
         <v>73</v>
       </c>
       <c r="M19" s="256" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N19" s="256" t="s">
         <v>502</v>
@@ -18672,7 +17853,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
         <v>215</v>
       </c>
@@ -18689,7 +17870,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="21" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
         <v>233</v>
       </c>
@@ -18706,7 +17887,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="22" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
         <v>216</v>
       </c>
@@ -18723,7 +17904,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="23" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
         <v>217</v>
       </c>
@@ -18740,7 +17921,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="24" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
         <v>218</v>
       </c>
@@ -18751,13 +17932,13 @@
         <v>388</v>
       </c>
       <c r="N24" s="256" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O24" s="256" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="25" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="25" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I25" s="1" t="s">
         <v>219</v>
       </c>
@@ -18774,7 +17955,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="26" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="s">
         <v>220</v>
       </c>
@@ -18791,7 +17972,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="27" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I27" s="1" t="s">
         <v>221</v>
       </c>
@@ -18808,7 +17989,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="28" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="28" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I28" s="1" t="s">
         <v>222</v>
       </c>
@@ -18825,7 +18006,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I29" s="1" t="s">
         <v>223</v>
       </c>
@@ -18836,13 +18017,13 @@
         <v>393</v>
       </c>
       <c r="N29" s="256" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O29" s="256" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="30" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I30" s="1" t="s">
         <v>228</v>
       </c>
@@ -18850,7 +18031,7 @@
         <v>83</v>
       </c>
       <c r="M30" s="256" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N30" s="256" t="s">
         <v>510</v>
@@ -18859,7 +18040,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="31" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="31" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I31" s="1" t="s">
         <v>229</v>
       </c>
@@ -18876,7 +18057,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="32" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="32" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
         <v>224</v>
       </c>
@@ -18887,13 +18068,13 @@
         <v>395</v>
       </c>
       <c r="N32" s="256" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O32" s="256" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I33" s="1" t="s">
         <v>230</v>
       </c>
@@ -18907,10 +18088,10 @@
         <v>512</v>
       </c>
       <c r="O33" s="256" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="34" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="s">
         <v>225</v>
       </c>
@@ -18927,7 +18108,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="35" spans="9:15" s="1" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I35" s="1" t="s">
         <v>226</v>
       </c>
@@ -18944,7 +18125,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="36" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="36" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I36" s="1" t="s">
         <v>227</v>
       </c>
@@ -18961,21 +18142,21 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="37" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M37" s="256" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N37" s="256" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O37" s="256" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="38" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J38" s="1" t="s">
         <v>87</v>
       </c>
@@ -18989,7 +18170,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="39" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J39" s="1" t="s">
         <v>88</v>
       </c>
@@ -19003,7 +18184,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="40" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M40" s="256" t="s">
         <v>402</v>
       </c>
@@ -19014,9 +18195,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="41" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M41" s="256" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N41" s="256" t="s">
         <v>519</v>
@@ -19025,7 +18206,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="42" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M42" s="256" t="s">
         <v>404</v>
       </c>
@@ -19036,7 +18217,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="43" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M43" s="256" t="s">
         <v>405</v>
       </c>
@@ -19047,7 +18228,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="44" spans="9:15" s="1" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M44" s="256" t="s">
         <v>406</v>
       </c>
@@ -19058,7 +18239,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="45" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M45" s="256" t="s">
         <v>407</v>
       </c>
@@ -19069,7 +18250,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M46" s="256" t="s">
         <v>408</v>
       </c>
@@ -19080,7 +18261,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="47" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M47" s="256" t="s">
         <v>409</v>
       </c>
@@ -19091,7 +18272,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="48" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="48" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M48" s="256" t="s">
         <v>410</v>
       </c>
@@ -19099,10 +18280,10 @@
         <v>526</v>
       </c>
       <c r="O48" s="256" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="49" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M49" s="256" t="s">
         <v>411</v>
       </c>
@@ -19110,10 +18291,10 @@
         <v>527</v>
       </c>
       <c r="O49" s="256" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="50" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M50" s="256" t="s">
         <v>403</v>
       </c>
@@ -19124,7 +18305,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="51" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="51" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M51" s="256" t="s">
         <v>412</v>
       </c>
@@ -19135,18 +18316,18 @@
         <v>610</v>
       </c>
     </row>
-    <row r="52" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="52" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M52" s="256" t="s">
         <v>413</v>
       </c>
       <c r="N52" s="256" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O52" s="256" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="53" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="53" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M53" s="256" t="s">
         <v>414</v>
       </c>
@@ -19157,7 +18338,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="54" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="54" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M54" s="256" t="s">
         <v>415</v>
       </c>
@@ -19168,9 +18349,9 @@
         <v>613</v>
       </c>
     </row>
-    <row r="55" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="55" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M55" s="256" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N55" s="256" t="s">
         <v>531</v>
@@ -19179,18 +18360,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="56" spans="13:15" s="1" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M56" s="256" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N56" s="256" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O56" s="256" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="57" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="57" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M57" s="256" t="s">
         <v>416</v>
       </c>
@@ -19201,7 +18382,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="58" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="58" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M58" s="256" t="s">
         <v>417</v>
       </c>
@@ -19212,7 +18393,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="59" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="59" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M59" s="256" t="s">
         <v>418</v>
       </c>
@@ -19223,7 +18404,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="60" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="60" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M60" s="256" t="s">
         <v>419</v>
       </c>
@@ -19234,7 +18415,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="61" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="61" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M61" s="256" t="s">
         <v>420</v>
       </c>
@@ -19245,7 +18426,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="62" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="62" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M62" s="256" t="s">
         <v>421</v>
       </c>
@@ -19256,9 +18437,9 @@
         <v>621</v>
       </c>
     </row>
-    <row r="63" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="63" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M63" s="256" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N63" s="256" t="s">
         <v>539</v>
@@ -19267,7 +18448,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="64" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M64" s="256" t="s">
         <v>422</v>
       </c>
@@ -19278,40 +18459,40 @@
         <v>622</v>
       </c>
     </row>
-    <row r="65" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="65" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M65" s="256" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="N65" s="256" t="s">
         <v>541</v>
       </c>
       <c r="O65" s="256" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="66" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M66" s="256" t="s">
         <v>423</v>
       </c>
       <c r="N66" s="256" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O66" s="256" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="67" spans="13:15" ht="15.75" thickBot="1">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M67" s="256" t="s">
         <v>424</v>
       </c>
       <c r="N67" s="256" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O67" s="256" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="13:15" ht="27" thickBot="1">
+    <row r="68" spans="13:15" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M68" s="256" t="s">
         <v>425</v>
       </c>
@@ -19322,9 +18503,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="69" spans="13:15" ht="15.75" thickBot="1">
+    <row r="69" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M69" s="256" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="N69" s="256" t="s">
         <v>543</v>
@@ -19333,9 +18514,9 @@
         <v>625</v>
       </c>
     </row>
-    <row r="70" spans="13:15" ht="15.75" thickBot="1">
+    <row r="70" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M70" s="256" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N70" s="256" t="s">
         <v>544</v>
@@ -19344,18 +18525,18 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="13:15" ht="15.75" thickBot="1">
+    <row r="71" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M71" s="256" t="s">
         <v>426</v>
       </c>
       <c r="N71" s="256" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O71" s="256" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="72" spans="13:15" ht="15.75" thickBot="1">
+    <row r="72" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M72" s="256" t="s">
         <v>427</v>
       </c>
@@ -19363,10 +18544,10 @@
         <v>545</v>
       </c>
       <c r="O72" s="256" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="73" spans="13:15" ht="27" thickBot="1">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="73" spans="13:15" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M73" s="256" t="s">
         <v>428</v>
       </c>
@@ -19377,7 +18558,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="74" spans="13:15" ht="15.75" thickBot="1">
+    <row r="74" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M74" s="256" t="s">
         <v>429</v>
       </c>
@@ -19385,12 +18566,12 @@
         <v>547</v>
       </c>
       <c r="O74" s="256" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="75" spans="13:15" ht="15.75" thickBot="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="75" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M75" s="256" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N75" s="256" t="s">
         <v>548</v>
@@ -19399,7 +18580,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="76" spans="13:15" ht="15.75" thickBot="1">
+    <row r="76" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M76" s="256" t="s">
         <v>431</v>
       </c>
@@ -19407,10 +18588,10 @@
         <v>549</v>
       </c>
       <c r="O76" s="256" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="77" spans="13:15" ht="15.75" thickBot="1">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="77" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M77" s="256" t="s">
         <v>430</v>
       </c>
@@ -19418,10 +18599,10 @@
         <v>550</v>
       </c>
       <c r="O77" s="256" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="78" spans="13:15" ht="15.75" thickBot="1">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="78" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M78" s="256" t="s">
         <v>432</v>
       </c>
@@ -19432,7 +18613,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="79" spans="13:15" ht="27" thickBot="1">
+    <row r="79" spans="13:15" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M79" s="256" t="s">
         <v>433</v>
       </c>
@@ -19443,18 +18624,18 @@
         <v>631</v>
       </c>
     </row>
-    <row r="80" spans="13:15" ht="15.75" thickBot="1">
+    <row r="80" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M80" s="256" t="s">
         <v>434</v>
       </c>
       <c r="N80" s="256" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O80" s="256" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="13:15" ht="15.75" thickBot="1">
+    <row r="81" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M81" s="256" t="s">
         <v>435</v>
       </c>
@@ -19465,7 +18646,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="82" spans="13:15" ht="15.75" thickBot="1">
+    <row r="82" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M82" s="256" t="s">
         <v>436</v>
       </c>
@@ -19473,21 +18654,21 @@
         <v>554</v>
       </c>
       <c r="O82" s="256" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="83" spans="13:15" ht="15.75" thickBot="1">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="83" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M83" s="256" t="s">
         <v>437</v>
       </c>
       <c r="N83" s="256" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O83" s="256" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="84" spans="13:15" ht="15.75" thickBot="1">
+    <row r="84" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M84" s="256" t="s">
         <v>438</v>
       </c>
@@ -19498,7 +18679,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="85" spans="13:15" ht="15.75" thickBot="1">
+    <row r="85" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M85" s="256" t="s">
         <v>439</v>
       </c>
@@ -19509,7 +18690,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="13:15" ht="15.75" thickBot="1">
+    <row r="86" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M86" s="256" t="s">
         <v>440</v>
       </c>
@@ -19520,7 +18701,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="87" spans="13:15" ht="15.75" thickBot="1">
+    <row r="87" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M87" s="256" t="s">
         <v>441</v>
       </c>
@@ -19531,7 +18712,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="88" spans="13:15" ht="15.75" thickBot="1">
+    <row r="88" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M88" s="256" t="s">
         <v>442</v>
       </c>
@@ -19539,10 +18720,10 @@
         <v>559</v>
       </c>
       <c r="O88" s="256" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="89" spans="13:15" ht="15.75" thickBot="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="89" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M89" s="256" t="s">
         <v>443</v>
       </c>
@@ -19550,21 +18731,21 @@
         <v>560</v>
       </c>
       <c r="O89" s="256" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="90" spans="13:15" ht="15.75" thickBot="1">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="90" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M90" s="256" t="s">
         <v>444</v>
       </c>
       <c r="N90" s="256" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O90" s="256" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="91" spans="13:15" ht="15.75" thickBot="1">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="91" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M91" s="256" t="s">
         <v>445</v>
       </c>
@@ -19575,7 +18756,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="92" spans="13:15" ht="15.75" thickBot="1">
+    <row r="92" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M92" s="256" t="s">
         <v>446</v>
       </c>
@@ -19586,9 +18767,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="93" spans="13:15" ht="15.75" thickBot="1">
+    <row r="93" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M93" s="256" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N93" s="256" t="s">
         <v>563</v>
@@ -19597,7 +18778,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" spans="13:15" ht="15.75" thickBot="1">
+    <row r="94" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M94" s="256" t="s">
         <v>447</v>
       </c>
@@ -19608,7 +18789,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="95" spans="13:15" ht="15.75" thickBot="1">
+    <row r="95" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M95" s="256" t="s">
         <v>448</v>
       </c>
@@ -19619,7 +18800,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="96" spans="13:15" ht="15.75" thickBot="1">
+    <row r="96" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M96" s="256" t="s">
         <v>449</v>
       </c>
@@ -19630,7 +18811,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="97" spans="13:15" ht="15.75" thickBot="1">
+    <row r="97" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M97" s="256" t="s">
         <v>450</v>
       </c>
@@ -19641,7 +18822,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="13:15" ht="15.75" thickBot="1">
+    <row r="98" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M98" s="256" t="s">
         <v>451</v>
       </c>
@@ -19652,7 +18833,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="99" spans="13:15" ht="15.75" thickBot="1">
+    <row r="99" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M99" s="256" t="s">
         <v>452</v>
       </c>
@@ -19663,7 +18844,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="100" spans="13:15" ht="15.75" thickBot="1">
+    <row r="100" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M100" s="256" t="s">
         <v>453</v>
       </c>
@@ -19671,10 +18852,10 @@
         <v>570</v>
       </c>
       <c r="O100" s="256" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="101" spans="13:15" ht="15.75" thickBot="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="101" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M101" s="256" t="s">
         <v>454</v>
       </c>
@@ -19685,7 +18866,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="102" spans="13:15" ht="15.75" thickBot="1">
+    <row r="102" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M102" s="256" t="s">
         <v>455</v>
       </c>
@@ -19693,10 +18874,10 @@
         <v>572</v>
       </c>
       <c r="O102" s="256" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="103" spans="13:15" ht="27" thickBot="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="103" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M103" s="256" t="s">
         <v>457</v>
       </c>
@@ -19707,7 +18888,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="13:15" ht="15.75" thickBot="1">
+    <row r="104" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M104" s="256" t="s">
         <v>456</v>
       </c>
@@ -19715,7 +18896,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="13:15" ht="15.75" thickBot="1">
+    <row r="105" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M105" s="256" t="s">
         <v>458</v>
       </c>
@@ -19723,7 +18904,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="13:15" ht="15.75" thickBot="1">
+    <row r="106" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M106" s="256" t="s">
         <v>459</v>
       </c>
@@ -19731,7 +18912,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="107" spans="13:15" ht="27" thickBot="1">
+    <row r="107" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M107" s="256" t="s">
         <v>460</v>
       </c>
@@ -19739,172 +18920,172 @@
         <v>658</v>
       </c>
     </row>
-    <row r="108" spans="13:15" ht="15.75" thickBot="1">
+    <row r="108" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M108" s="256" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="13:15" ht="15.75" thickBot="1">
+    <row r="109" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M109" s="256" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="110" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="256" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="110" spans="13:15" ht="15.75" thickBot="1">
-      <c r="M110" s="256" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="111" spans="13:15" ht="15.75" thickBot="1">
+    <row r="111" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M111" s="256" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="112" spans="13:15" ht="15.75" thickBot="1">
+    <row r="112" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M112" s="256" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="113" spans="13:13" ht="15.75" thickBot="1">
+    <row r="113" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M113" s="256" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="13:13" ht="27" thickBot="1">
+    <row r="114" spans="13:13" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M114" s="256" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="13:13" ht="15.75" thickBot="1">
+    <row r="115" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M115" s="256" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="13:13" ht="15.75" thickBot="1">
+    <row r="116" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M116" s="256" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="13:13" ht="15.75" thickBot="1">
+    <row r="117" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M117" s="256" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="118" spans="13:13" ht="15.75" thickBot="1">
+    <row r="118" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M118" s="256" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="13:13" ht="15.75" thickBot="1">
+    <row r="119" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M119" s="256" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="13:13" ht="15.75" thickBot="1">
+    <row r="120" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M120" s="256" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="121" spans="13:13" ht="15.75" thickBot="1">
+    <row r="121" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M121" s="256" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="13:13" ht="15.75" thickBot="1">
+    <row r="122" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M122" s="256" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="13:13" ht="15.75" thickBot="1">
+    <row r="123" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M123" s="256" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="124" spans="13:13" ht="15.75" thickBot="1">
+    <row r="124" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M124" s="256" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="125" spans="13:13" ht="15.75" thickBot="1">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="125" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M125" s="256" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="126" spans="13:13" ht="15.75" thickBot="1">
+    <row r="126" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M126" s="256" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="127" spans="13:13" ht="15.75" thickBot="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M127" s="256" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="128" spans="13:13" ht="15.75" thickBot="1">
+    <row r="128" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M128" s="256" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="129" spans="13:13" ht="15.75" thickBot="1">
+    <row r="129" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M129" s="256" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="130" spans="13:13" ht="15.75" thickBot="1">
+    <row r="130" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M130" s="256" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="13:13" ht="15.75" thickBot="1">
+    <row r="131" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M131" s="256" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="132" spans="13:13" ht="15.75" thickBot="1">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="132" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M132" s="256" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="133" spans="13:13" ht="15.75" thickBot="1">
+    <row r="133" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M133" s="256" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="134" spans="13:13" ht="15.75" thickBot="1">
+    <row r="134" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M134" s="256" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="135" spans="13:13" ht="15.75" thickBot="1">
+    <row r="135" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M135" s="256" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="13:13" ht="15.75" thickBot="1">
+    <row r="136" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M136" s="256" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="137" spans="13:13" ht="15.75" thickBot="1">
+    <row r="137" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M137" s="256" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="138" spans="13:13" ht="15.75" thickBot="1">
+    <row r="138" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M138" s="256" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="139" spans="13:13" ht="15.75" thickBot="1">
+    <row r="139" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M139" s="256" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="140" spans="13:13" ht="15.75" thickBot="1">
+    <row r="140" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M140" s="256" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="141" spans="13:13" ht="27" thickBot="1">
+    <row r="141" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M141" s="256" t="s">
         <v>489</v>
       </c>
@@ -19916,10 +19097,5 @@
   <phoneticPr fontId="83" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adauriat/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="940" windowWidth="28000" windowHeight="16020" tabRatio="463"/>
+    <workbookView xWindow="120" yWindow="945" windowWidth="24240" windowHeight="13740" tabRatio="463"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="127" r:id="rId1"/>
@@ -2635,9 +2630,6 @@
     <t>Mireille Faist</t>
   </si>
   <si>
-    <t>Is responsible for all the modellind and scientific aspects of the tool</t>
-  </si>
-  <si>
     <t>mireille.faist@quantis-intl.com</t>
   </si>
   <si>
@@ -3257,6 +3249,9 @@
   </si>
   <si>
     <t>v1.0</t>
+  </si>
+  <si>
+    <t>Is responsible for all the modelling and scientific aspects of the tool</t>
   </si>
 </sst>
 </file>
@@ -3291,7 +3286,7 @@
     <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="188" formatCode="0.00E+0;[=0]&quot;0&quot;;0.00E+0"/>
   </numFmts>
-  <fonts count="84" x14ac:knownFonts="1">
+  <fonts count="84">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5875,6 +5870,18 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5886,18 +5893,6 @@
     </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5931,7 +5926,6 @@
     <cellStyle name="Boden" xfId="7"/>
     <cellStyle name="Bold GHG Numbers (0.00)" xfId="8"/>
     <cellStyle name="Bold GHG Numbers (0.00) 2" xfId="214"/>
-    <cellStyle name="Comma" xfId="221" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="467"/>
     <cellStyle name="Comma 3" xfId="468"/>
     <cellStyle name="comment" xfId="9"/>
@@ -5940,8 +5934,8 @@
     <cellStyle name="Duizend" xfId="11"/>
     <cellStyle name="Duizend met sterren" xfId="12"/>
     <cellStyle name="Duizend zonder sterren" xfId="13"/>
+    <cellStyle name="Duizend,0" xfId="14"/>
     <cellStyle name="Duizend_full4" xfId="15"/>
-    <cellStyle name="Duizend,0" xfId="14"/>
     <cellStyle name="EcoTitel" xfId="16"/>
     <cellStyle name="Euro" xfId="17"/>
     <cellStyle name="Excel Built-in Standard 3" xfId="428"/>
@@ -5952,509 +5946,9 @@
     <cellStyle name="F6" xfId="474"/>
     <cellStyle name="F7" xfId="475"/>
     <cellStyle name="F8" xfId="476"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
     <cellStyle name="Gekoppelde cel" xfId="477"/>
     <cellStyle name="Goed" xfId="478"/>
     <cellStyle name="Headline" xfId="18"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="457" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="219"/>
     <cellStyle name="Invoer" xfId="479"/>
     <cellStyle name="kg" xfId="19"/>
@@ -6464,10 +5958,511 @@
     <cellStyle name="Kop 3" xfId="482"/>
     <cellStyle name="Kop 4" xfId="483"/>
     <cellStyle name="l" xfId="20"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="457" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="608" builtinId="9" hidden="1"/>
     <cellStyle name="Luft" xfId="21"/>
     <cellStyle name="m2" xfId="22"/>
     <cellStyle name="m2a" xfId="23"/>
     <cellStyle name="m3" xfId="24"/>
+    <cellStyle name="Milliers" xfId="221" builtinId="3"/>
     <cellStyle name="Milliers 2" xfId="156"/>
     <cellStyle name="Neutraal" xfId="484"/>
     <cellStyle name="Niels" xfId="25"/>
@@ -6491,8 +6486,8 @@
     <cellStyle name="Normalny_Arkusz1" xfId="493"/>
     <cellStyle name="Notitie" xfId="494"/>
     <cellStyle name="Ongeldig" xfId="495"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 3" xfId="496"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Pourcentage 2" xfId="65"/>
     <cellStyle name="Prozent 2" xfId="212"/>
     <cellStyle name="Prozent 3" xfId="218"/>
@@ -6524,10 +6519,10 @@
     <cellStyle name="Wasser" xfId="38"/>
     <cellStyle name="Wasseremission" xfId="39"/>
     <cellStyle name="wissenschaft" xfId="40"/>
+    <cellStyle name="wissenschaft+" xfId="41"/>
     <cellStyle name="wissenschaft-Eingabe" xfId="42"/>
     <cellStyle name="wissenschaft-Eingabe 2" xfId="504"/>
     <cellStyle name="wissenschaft-Eingabe_Nestle_LCA_Ricoré_Data_and_Calculs_25Oct2009.xls" xfId="505"/>
-    <cellStyle name="wissenschaft+" xfId="41"/>
     <cellStyle name="zkh" xfId="43"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6749,8 +6744,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>163034</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8050,24 +8045,24 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="162" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="163" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="163" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="163" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="163" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" style="163" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="163" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="163" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="163" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="163"/>
+    <col min="1" max="1" width="2.7109375" style="162" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="163" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="163" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="163" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="163" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="163" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="163" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="163" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="163" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="163"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A1" s="154"/>
       <c r="B1" s="155"/>
       <c r="C1" s="155"/>
@@ -8078,7 +8073,7 @@
       <c r="H1" s="156"/>
       <c r="I1" s="156"/>
     </row>
-    <row r="2" spans="1:9" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="157" customFormat="1" ht="45.75" customHeight="1">
       <c r="A2" s="154"/>
       <c r="B2" s="158"/>
       <c r="C2" s="158"/>
@@ -8089,7 +8084,7 @@
       <c r="H2" s="156"/>
       <c r="I2" s="156"/>
     </row>
-    <row r="3" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A3" s="154"/>
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
@@ -8100,7 +8095,7 @@
       <c r="H3" s="156"/>
       <c r="I3" s="156"/>
     </row>
-    <row r="4" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A4" s="154"/>
       <c r="B4" s="155"/>
       <c r="C4" s="155"/>
@@ -8111,31 +8106,31 @@
       <c r="H4" s="156"/>
       <c r="I4" s="156"/>
     </row>
-    <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
-    <row r="6" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="259" t="s">
-        <v>974</v>
-      </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
+      <c r="B6" s="263" t="s">
+        <v>973</v>
+      </c>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
-    <row r="7" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A7" s="154"/>
       <c r="B7" s="155"/>
       <c r="C7" s="155"/>
@@ -8146,20 +8141,20 @@
       <c r="H7" s="156"/>
       <c r="I7" s="156"/>
     </row>
-    <row r="8" spans="1:9" s="157" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="157" customFormat="1" ht="15.95">
       <c r="A8" s="154"/>
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="264" t="s">
         <v>708</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
-    <row r="9" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A9" s="154"/>
       <c r="B9" s="173"/>
       <c r="C9" s="173"/>
@@ -8170,31 +8165,31 @@
       <c r="H9" s="156"/>
       <c r="I9" s="156"/>
     </row>
-    <row r="10" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="261" t="s">
+      <c r="B10" s="265" t="s">
         <v>772</v>
       </c>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="261"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
-    <row r="11" spans="1:9" s="157" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="157" customFormat="1" ht="6.95" customHeight="1">
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
-    <row r="12" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A12" s="154"/>
       <c r="B12" s="179" t="s">
         <v>709</v>
@@ -8209,7 +8204,7 @@
       <c r="H12" s="156"/>
       <c r="I12" s="156"/>
     </row>
-    <row r="13" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A13" s="154"/>
       <c r="B13" s="179" t="s">
         <v>737</v>
@@ -8224,7 +8219,7 @@
       <c r="H13" s="156"/>
       <c r="I13" s="156"/>
     </row>
-    <row r="14" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A14" s="154"/>
       <c r="B14" s="179" t="s">
         <v>738</v>
@@ -8239,7 +8234,7 @@
       <c r="H14" s="156"/>
       <c r="I14" s="156"/>
     </row>
-    <row r="15" spans="1:9" s="157" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="157" customFormat="1" ht="6.95" customHeight="1">
       <c r="A15" s="154"/>
       <c r="B15" s="175"/>
       <c r="C15" s="174"/>
@@ -8250,7 +8245,7 @@
       <c r="H15" s="156"/>
       <c r="I15" s="156"/>
     </row>
-    <row r="16" spans="1:9" s="157" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A16" s="154"/>
       <c r="B16" s="176"/>
       <c r="C16" s="176"/>
@@ -8261,25 +8256,25 @@
       <c r="H16" s="156"/>
       <c r="I16" s="156"/>
     </row>
-    <row r="17" spans="1:9" s="157" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="157" customFormat="1" ht="15.95">
       <c r="A17" s="154"/>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="259" t="s">
         <v>711</v>
       </c>
-      <c r="C17" s="263"/>
-      <c r="D17" s="263"/>
-      <c r="E17" s="263"/>
-      <c r="F17" s="263"/>
-      <c r="G17" s="263"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
-    <row r="18" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="160" customFormat="1" ht="14.1">
       <c r="A18" s="159"/>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="260" t="s">
         <v>712</v>
       </c>
-      <c r="C18" s="264"/>
+      <c r="C18" s="260"/>
       <c r="D18" s="180" t="s">
         <v>713</v>
       </c>
@@ -8295,12 +8290,12 @@
       <c r="H18" s="156"/>
       <c r="I18" s="156"/>
     </row>
-    <row r="19" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="160" customFormat="1" ht="14.1">
       <c r="A19" s="159"/>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="261" t="s">
         <v>717</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="261"/>
       <c r="D19" s="166" t="s">
         <v>718</v>
       </c>
@@ -8316,7 +8311,7 @@
       <c r="H19" s="156"/>
       <c r="I19" s="156"/>
     </row>
-    <row r="20" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="160" customFormat="1">
       <c r="A20" s="159"/>
       <c r="B20" s="208" t="s">
         <v>780</v>
@@ -8326,23 +8321,23 @@
         <v>781</v>
       </c>
       <c r="E20" s="167" t="s">
+        <v>974</v>
+      </c>
+      <c r="F20" s="168" t="s">
         <v>782</v>
       </c>
-      <c r="F20" s="168" t="s">
+      <c r="G20" s="169" t="s">
         <v>783</v>
-      </c>
-      <c r="G20" s="169" t="s">
-        <v>784</v>
       </c>
       <c r="H20" s="156"/>
       <c r="I20" s="156"/>
     </row>
-    <row r="21" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="262" t="s">
+      <c r="B21" s="258" t="s">
         <v>720</v>
       </c>
-      <c r="C21" s="262"/>
+      <c r="C21" s="258"/>
       <c r="D21" s="167" t="s">
         <v>721</v>
       </c>
@@ -8358,12 +8353,12 @@
       <c r="H21" s="156"/>
       <c r="I21" s="156"/>
     </row>
-    <row r="22" spans="1:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="258" t="s">
         <v>724</v>
       </c>
-      <c r="C22" s="262"/>
+      <c r="C22" s="258"/>
       <c r="D22" s="167" t="s">
         <v>725</v>
       </c>
@@ -8379,7 +8374,7 @@
       <c r="H22" s="156"/>
       <c r="I22" s="156"/>
     </row>
-    <row r="23" spans="1:9" s="157" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="157" customFormat="1" ht="14.1">
       <c r="A23" s="154"/>
       <c r="B23" s="177"/>
       <c r="C23" s="177"/>
@@ -8390,7 +8385,7 @@
       <c r="H23" s="156"/>
       <c r="I23" s="156"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="14.1">
       <c r="B24" s="172"/>
       <c r="C24" s="172"/>
       <c r="D24" s="178"/>
@@ -8398,7 +8393,7 @@
       <c r="F24" s="178"/>
       <c r="G24" s="178"/>
     </row>
-    <row r="25" spans="1:9" s="165" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="165" customFormat="1" ht="15.95">
       <c r="A25" s="164"/>
       <c r="B25" s="171" t="s">
         <v>727</v>
@@ -8409,7 +8404,7 @@
       <c r="F25" s="178"/>
       <c r="G25" s="178"/>
     </row>
-    <row r="26" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="165" customFormat="1">
       <c r="A26" s="164"/>
       <c r="B26" s="172" t="s">
         <v>771</v>
@@ -8420,7 +8415,7 @@
       <c r="F26" s="178"/>
       <c r="G26" s="178"/>
     </row>
-    <row r="27" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="165" customFormat="1">
       <c r="A27" s="164"/>
       <c r="B27" s="172" t="s">
         <v>728</v>
@@ -8431,7 +8426,7 @@
       <c r="F27" s="178"/>
       <c r="G27" s="178"/>
     </row>
-    <row r="28" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="165" customFormat="1" ht="14.1">
       <c r="A28" s="164"/>
       <c r="B28" s="172" t="s">
         <v>729</v>
@@ -8442,7 +8437,7 @@
       <c r="F28" s="178"/>
       <c r="G28" s="178"/>
     </row>
-    <row r="29" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="165" customFormat="1" ht="14.1">
       <c r="A29" s="164"/>
       <c r="B29" s="172" t="s">
         <v>730</v>
@@ -8453,7 +8448,7 @@
       <c r="F29" s="178"/>
       <c r="G29" s="178"/>
     </row>
-    <row r="30" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="165" customFormat="1" ht="14.1">
       <c r="A30" s="164"/>
       <c r="B30" s="172" t="s">
         <v>731</v>
@@ -8464,7 +8459,7 @@
       <c r="F30" s="178"/>
       <c r="G30" s="178"/>
     </row>
-    <row r="31" spans="1:9" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="165" customFormat="1" ht="14.1">
       <c r="A31" s="164"/>
       <c r="B31" s="172" t="s">
         <v>732</v>
@@ -8477,6 +8472,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -8485,12 +8486,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <phoneticPr fontId="83" type="noConversion"/>
   <hyperlinks>
@@ -8518,19 +8513,19 @@
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="79.5" style="227" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="62" customWidth="1"/>
-    <col min="7" max="53" width="10.83203125" style="4" customWidth="1"/>
-    <col min="54" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="22.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" style="227" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="62" customWidth="1"/>
+    <col min="7" max="53" width="10.85546875" style="4" customWidth="1"/>
+    <col min="54" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" hidden="1">
       <c r="A1" s="98" t="s">
         <v>355</v>
       </c>
@@ -8544,7 +8539,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1">
       <c r="B2" s="266" t="s">
         <v>741</v>
       </c>
@@ -8553,14 +8548,14 @@
       <c r="E2" s="266"/>
       <c r="F2" s="62"/>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="15.95" customHeight="1">
       <c r="B3" s="17"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15"/>
       <c r="E3" s="210"/>
       <c r="F3" s="63"/>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="60.95" customHeight="1">
       <c r="B4" s="185"/>
       <c r="C4" s="196" t="s">
         <v>742</v>
@@ -8571,7 +8566,7 @@
       <c r="E4" s="267"/>
       <c r="F4" s="63"/>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="30.95" customHeight="1">
       <c r="B5" s="185"/>
       <c r="C5" s="196" t="s">
         <v>743</v>
@@ -8582,7 +8577,7 @@
       <c r="E5" s="268"/>
       <c r="F5" s="63"/>
     </row>
-    <row r="6" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="8.1" customHeight="1">
       <c r="A6" s="153"/>
       <c r="B6" s="135"/>
       <c r="C6" s="181"/>
@@ -8590,7 +8585,7 @@
       <c r="E6" s="211"/>
       <c r="F6" s="97"/>
     </row>
-    <row r="7" spans="1:6" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="8.1" customHeight="1">
       <c r="A7" s="153"/>
       <c r="B7" s="135"/>
       <c r="C7" s="181"/>
@@ -8598,7 +8593,7 @@
       <c r="E7" s="211"/>
       <c r="F7" s="97"/>
     </row>
-    <row r="8" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="35.1" customHeight="1">
       <c r="B8" s="36"/>
       <c r="C8" s="67" t="s">
         <v>133</v>
@@ -8611,7 +8606,7 @@
       </c>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" outlineLevel="1">
       <c r="A9" s="4" t="s">
         <v>241</v>
       </c>
@@ -8626,7 +8621,7 @@
       </c>
       <c r="F9" s="64"/>
     </row>
-    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" outlineLevel="1">
       <c r="A10" s="4" t="s">
         <v>242</v>
       </c>
@@ -8641,7 +8636,7 @@
       </c>
       <c r="F10" s="64"/>
     </row>
-    <row r="11" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" outlineLevel="1">
       <c r="A11" s="4" t="s">
         <v>243</v>
       </c>
@@ -8656,7 +8651,7 @@
       </c>
       <c r="F11" s="64"/>
     </row>
-    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" outlineLevel="1">
       <c r="A12" s="4" t="s">
         <v>244</v>
       </c>
@@ -8671,7 +8666,7 @@
       </c>
       <c r="F12" s="64"/>
     </row>
-    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" outlineLevel="1">
       <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
@@ -8686,7 +8681,7 @@
       </c>
       <c r="F13" s="64"/>
     </row>
-    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" outlineLevel="1">
       <c r="C14" s="32" t="s">
         <v>707</v>
       </c>
@@ -8694,7 +8689,7 @@
       <c r="E14" s="213"/>
       <c r="F14" s="64"/>
     </row>
-    <row r="15" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A15" s="153">
         <v>401</v>
       </c>
@@ -8709,7 +8704,7 @@
       </c>
       <c r="F15" s="64"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A16" s="153">
         <v>662</v>
       </c>
@@ -8724,7 +8719,7 @@
       </c>
       <c r="F16" s="64"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A17" s="153">
         <v>493</v>
       </c>
@@ -8739,7 +8734,7 @@
       </c>
       <c r="F17" s="64"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A18" s="153">
         <v>403</v>
       </c>
@@ -8754,7 +8749,7 @@
       </c>
       <c r="F18" s="64"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A19" s="153">
         <v>201</v>
       </c>
@@ -8769,7 +8764,7 @@
       </c>
       <c r="F19" s="64"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A20" s="153">
         <v>202</v>
       </c>
@@ -8784,7 +8779,7 @@
       </c>
       <c r="F20" s="64"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A21" s="153">
         <v>203</v>
       </c>
@@ -8799,7 +8794,7 @@
       </c>
       <c r="F21" s="64"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A22" s="153">
         <v>205</v>
       </c>
@@ -8814,7 +8809,7 @@
       </c>
       <c r="F22" s="64"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A23" s="153">
         <v>206</v>
       </c>
@@ -8829,7 +8824,7 @@
       </c>
       <c r="F23" s="64"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A24" s="153">
         <v>304</v>
       </c>
@@ -8844,7 +8839,7 @@
       </c>
       <c r="F24" s="64"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A25" s="153">
         <v>400</v>
       </c>
@@ -8859,7 +8854,7 @@
       </c>
       <c r="F25" s="64"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A26" s="153">
         <v>402</v>
       </c>
@@ -8874,7 +8869,7 @@
       </c>
       <c r="F26" s="64"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A27" s="153">
         <v>404</v>
       </c>
@@ -8889,7 +8884,7 @@
       </c>
       <c r="F27" s="64"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A28" s="153">
         <v>490</v>
       </c>
@@ -8904,7 +8899,7 @@
       </c>
       <c r="F28" s="64"/>
     </row>
-    <row r="29" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A29" s="153">
         <v>491</v>
       </c>
@@ -8919,7 +8914,7 @@
       </c>
       <c r="F29" s="64"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A30" s="153">
         <v>492</v>
       </c>
@@ -8934,7 +8929,7 @@
       </c>
       <c r="F30" s="64"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A31" s="153">
         <v>494</v>
       </c>
@@ -8949,7 +8944,7 @@
       </c>
       <c r="F31" s="64"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A32" s="153">
         <v>495</v>
       </c>
@@ -8964,7 +8959,7 @@
       </c>
       <c r="F32" s="64"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A33" s="153">
         <v>496</v>
       </c>
@@ -8979,7 +8974,7 @@
       </c>
       <c r="F33" s="64"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A34" s="153">
         <v>497</v>
       </c>
@@ -8994,7 +8989,7 @@
       </c>
       <c r="F34" s="64"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A35" s="153">
         <v>498</v>
       </c>
@@ -9009,7 +9004,7 @@
       </c>
       <c r="F35" s="64"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A36" s="153">
         <v>499</v>
       </c>
@@ -9024,7 +9019,7 @@
       </c>
       <c r="F36" s="64"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A37" s="153">
         <v>501</v>
       </c>
@@ -9039,7 +9034,7 @@
       </c>
       <c r="F37" s="64"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A38" s="153">
         <v>502</v>
       </c>
@@ -9054,7 +9049,7 @@
       </c>
       <c r="F38" s="64"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A39" s="153">
         <v>601</v>
       </c>
@@ -9069,7 +9064,7 @@
       </c>
       <c r="F39" s="64"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A40" s="153">
         <v>602</v>
       </c>
@@ -9084,7 +9079,7 @@
       </c>
       <c r="F40" s="64"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A41" s="153">
         <v>603</v>
       </c>
@@ -9099,7 +9094,7 @@
       </c>
       <c r="F41" s="64"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A42" s="153">
         <v>611</v>
       </c>
@@ -9114,7 +9109,7 @@
       </c>
       <c r="F42" s="64"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A43" s="153">
         <v>663</v>
       </c>
@@ -9129,7 +9124,7 @@
       </c>
       <c r="F43" s="64"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A44" s="153">
         <v>692</v>
       </c>
@@ -9144,7 +9139,7 @@
       </c>
       <c r="F44" s="64"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A45" s="153">
         <v>722</v>
       </c>
@@ -9159,7 +9154,7 @@
       </c>
       <c r="F45" s="64"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A46" s="153">
         <v>724</v>
       </c>
@@ -9174,7 +9169,7 @@
       </c>
       <c r="F46" s="64"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A47" s="153">
         <v>725</v>
       </c>
@@ -9189,7 +9184,7 @@
       </c>
       <c r="F47" s="64"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A48" s="153">
         <v>726</v>
       </c>
@@ -9204,7 +9199,7 @@
       </c>
       <c r="F48" s="64"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A49" s="153">
         <v>727</v>
       </c>
@@ -9219,7 +9214,7 @@
       </c>
       <c r="F49" s="64"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A50" s="153">
         <v>751</v>
       </c>
@@ -9234,7 +9229,7 @@
       </c>
       <c r="F50" s="64"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A51" s="153">
         <v>302</v>
       </c>
@@ -9249,7 +9244,7 @@
       </c>
       <c r="F51" s="64"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A52" s="153">
         <v>756</v>
       </c>
@@ -9264,7 +9259,7 @@
       </c>
       <c r="F52" s="64"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A53" s="153">
         <v>757</v>
       </c>
@@ -9279,7 +9274,7 @@
       </c>
       <c r="F53" s="64"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A54" s="153">
         <v>758</v>
       </c>
@@ -9294,7 +9289,7 @@
       </c>
       <c r="F54" s="64"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A55" s="153">
         <v>759</v>
       </c>
@@ -9309,7 +9304,7 @@
       </c>
       <c r="F55" s="64"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A56" s="153">
         <v>760</v>
       </c>
@@ -9324,7 +9319,7 @@
       </c>
       <c r="F56" s="64"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A57" s="153">
         <v>761</v>
       </c>
@@ -9339,7 +9334,7 @@
       </c>
       <c r="F57" s="64"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A58" s="153">
         <v>762</v>
       </c>
@@ -9354,7 +9349,7 @@
       </c>
       <c r="F58" s="64"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A59" s="153">
         <v>208</v>
       </c>
@@ -9369,7 +9364,7 @@
       </c>
       <c r="F59" s="64"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A60" s="153">
         <v>5616</v>
       </c>
@@ -9384,7 +9379,7 @@
       </c>
       <c r="F60" s="64"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A61" s="153">
         <v>5615</v>
       </c>
@@ -9399,7 +9394,7 @@
       </c>
       <c r="F61" s="64"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" outlineLevel="2">
       <c r="A62" s="153">
         <v>5619</v>
       </c>
@@ -9414,94 +9409,94 @@
       </c>
       <c r="F62" s="64"/>
     </row>
-    <row r="63" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" outlineLevel="1" collapsed="1">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D63" s="142"/>
       <c r="E63" s="143"/>
       <c r="F63" s="64"/>
     </row>
-    <row r="64" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="153"/>
       <c r="C64" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>811</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>812</v>
-      </c>
       <c r="E64" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F64" s="64"/>
     </row>
-    <row r="65" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="153"/>
       <c r="C65" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F65" s="64"/>
     </row>
-    <row r="66" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="153"/>
       <c r="C66" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="64"/>
     </row>
-    <row r="67" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="153"/>
       <c r="C67" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F67" s="64"/>
     </row>
-    <row r="68" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="153"/>
       <c r="C68" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F68" s="64"/>
     </row>
-    <row r="69" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="153"/>
       <c r="C69" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F69" s="64"/>
     </row>
-    <row r="70" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="35.1" customHeight="1">
       <c r="B70" s="113"/>
       <c r="C70" s="35" t="s">
         <v>6</v>
@@ -9514,7 +9509,7 @@
       </c>
       <c r="F70" s="64"/>
     </row>
-    <row r="71" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" outlineLevel="1">
       <c r="C71" s="32" t="s">
         <v>24</v>
       </c>
@@ -9522,7 +9517,7 @@
       <c r="E71" s="213"/>
       <c r="F71" s="64"/>
     </row>
-    <row r="72" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" outlineLevel="1">
       <c r="A72" s="4" t="s">
         <v>246</v>
       </c>
@@ -9537,12 +9532,12 @@
       </c>
       <c r="F72" s="64"/>
     </row>
-    <row r="73" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" outlineLevel="1">
       <c r="A73" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -9552,7 +9547,7 @@
       </c>
       <c r="F73" s="64"/>
     </row>
-    <row r="74" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" outlineLevel="1">
       <c r="A74" s="4" t="s">
         <v>248</v>
       </c>
@@ -9567,7 +9562,7 @@
       </c>
       <c r="F74" s="64"/>
     </row>
-    <row r="75" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="30" outlineLevel="1">
       <c r="C75" s="145" t="s">
         <v>17</v>
       </c>
@@ -9577,12 +9572,12 @@
       </c>
       <c r="F75" s="64"/>
     </row>
-    <row r="76" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" outlineLevel="1">
       <c r="A76" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>100</v>
@@ -9592,12 +9587,12 @@
       </c>
       <c r="F76" s="64"/>
     </row>
-    <row r="77" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" outlineLevel="1">
       <c r="A77" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>100</v>
@@ -9607,12 +9602,12 @@
       </c>
       <c r="F77" s="64"/>
     </row>
-    <row r="78" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" outlineLevel="1">
       <c r="A78" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>100</v>
@@ -9622,12 +9617,12 @@
       </c>
       <c r="F78" s="64"/>
     </row>
-    <row r="79" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" outlineLevel="1">
       <c r="A79" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>100</v>
@@ -9637,7 +9632,7 @@
       </c>
       <c r="F79" s="64"/>
     </row>
-    <row r="80" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" outlineLevel="1">
       <c r="A80" s="4" t="s">
         <v>253</v>
       </c>
@@ -9652,7 +9647,7 @@
       </c>
       <c r="F80" s="64"/>
     </row>
-    <row r="81" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" outlineLevel="1">
       <c r="A81" s="4" t="s">
         <v>254</v>
       </c>
@@ -9667,7 +9662,7 @@
       </c>
       <c r="F81" s="64"/>
     </row>
-    <row r="82" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" outlineLevel="1">
       <c r="A82" s="4" t="s">
         <v>255</v>
       </c>
@@ -9682,7 +9677,7 @@
       </c>
       <c r="F82" s="64"/>
     </row>
-    <row r="83" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" outlineLevel="1">
       <c r="A83" s="4" t="s">
         <v>256</v>
       </c>
@@ -9697,7 +9692,7 @@
       </c>
       <c r="F83" s="64"/>
     </row>
-    <row r="84" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" outlineLevel="1">
       <c r="A84" s="4" t="s">
         <v>257</v>
       </c>
@@ -9712,7 +9707,7 @@
       </c>
       <c r="F84" s="64"/>
     </row>
-    <row r="85" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="35.1" customHeight="1">
       <c r="B85" s="69"/>
       <c r="C85" s="68" t="s">
         <v>5</v>
@@ -9725,7 +9720,7 @@
       </c>
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="1:6" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" s="6" customFormat="1" outlineLevel="1">
       <c r="A86" s="6" t="s">
         <v>258</v>
       </c>
@@ -9741,7 +9736,7 @@
       </c>
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" outlineLevel="1">
       <c r="B87" s="7"/>
       <c r="C87" s="30" t="s">
         <v>16</v>
@@ -9750,12 +9745,12 @@
       <c r="E87" s="219"/>
       <c r="F87" s="64"/>
     </row>
-    <row r="88" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" outlineLevel="1">
       <c r="A88" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C88" s="151" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>22</v>
@@ -9765,12 +9760,12 @@
       </c>
       <c r="F88" s="64"/>
     </row>
-    <row r="89" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" outlineLevel="1">
       <c r="A89" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>22</v>
@@ -9780,12 +9775,12 @@
       </c>
       <c r="F89" s="64"/>
     </row>
-    <row r="90" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" outlineLevel="1">
       <c r="A90" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>22</v>
@@ -9795,12 +9790,12 @@
       </c>
       <c r="F90" s="64"/>
     </row>
-    <row r="91" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" outlineLevel="1">
       <c r="A91" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C91" s="151" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>22</v>
@@ -9810,12 +9805,12 @@
       </c>
       <c r="F91" s="64"/>
     </row>
-    <row r="92" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" outlineLevel="1">
       <c r="A92" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C92" s="151" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>22</v>
@@ -9825,12 +9820,12 @@
       </c>
       <c r="F92" s="64"/>
     </row>
-    <row r="93" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" outlineLevel="1">
       <c r="A93" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C93" s="151" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>22</v>
@@ -9840,12 +9835,12 @@
       </c>
       <c r="F93" s="64"/>
     </row>
-    <row r="94" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>22</v>
@@ -9855,7 +9850,7 @@
       </c>
       <c r="F94" s="64"/>
     </row>
-    <row r="95" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" outlineLevel="1">
       <c r="B95" s="7"/>
       <c r="C95" s="149" t="s">
         <v>97</v>
@@ -9864,7 +9859,7 @@
       <c r="E95" s="219"/>
       <c r="F95" s="64"/>
     </row>
-    <row r="96" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="4" t="s">
         <v>266</v>
       </c>
@@ -9879,7 +9874,7 @@
       </c>
       <c r="F96" s="64"/>
     </row>
-    <row r="97" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="4" t="s">
         <v>267</v>
       </c>
@@ -9894,7 +9889,7 @@
       </c>
       <c r="F97" s="64"/>
     </row>
-    <row r="98" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" outlineLevel="1">
       <c r="A98" s="4" t="s">
         <v>268</v>
       </c>
@@ -9909,7 +9904,7 @@
       </c>
       <c r="F98" s="64"/>
     </row>
-    <row r="99" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="35.1" customHeight="1">
       <c r="B99" s="53"/>
       <c r="C99" s="55" t="s">
         <v>53</v>
@@ -9922,7 +9917,7 @@
       </c>
       <c r="F99" s="18"/>
     </row>
-    <row r="100" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="45" outlineLevel="1">
       <c r="A100" s="4" t="s">
         <v>269</v>
       </c>
@@ -9933,11 +9928,11 @@
         <v>31</v>
       </c>
       <c r="E100" s="214" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F100" s="64"/>
     </row>
-    <row r="101" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="35.1" customHeight="1">
       <c r="B101" s="75"/>
       <c r="C101" s="73" t="s">
         <v>4</v>
@@ -9950,7 +9945,7 @@
       </c>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="21">
       <c r="A102" s="4" t="s">
         <v>283</v>
       </c>
@@ -9966,7 +9961,7 @@
       </c>
       <c r="F102" s="64"/>
     </row>
-    <row r="103" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="15.75" outlineLevel="1">
       <c r="A103" s="4" t="s">
         <v>284</v>
       </c>
@@ -9981,7 +9976,7 @@
       </c>
       <c r="F103" s="64"/>
     </row>
-    <row r="104" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" outlineLevel="1">
       <c r="A104" s="4" t="s">
         <v>294</v>
       </c>
@@ -9996,7 +9991,7 @@
       </c>
       <c r="F104" s="64"/>
     </row>
-    <row r="105" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" outlineLevel="1">
       <c r="A105" s="4" t="s">
         <v>285</v>
       </c>
@@ -10011,12 +10006,12 @@
       </c>
       <c r="F105" s="64"/>
     </row>
-    <row r="106" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>22</v>
@@ -10026,7 +10021,7 @@
       </c>
       <c r="F106" s="64"/>
     </row>
-    <row r="107" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="4" t="s">
         <v>292</v>
       </c>
@@ -10041,7 +10036,7 @@
       </c>
       <c r="F107" s="64"/>
     </row>
-    <row r="108" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="4" t="s">
         <v>289</v>
       </c>
@@ -10056,7 +10051,7 @@
       </c>
       <c r="F108" s="64"/>
     </row>
-    <row r="109" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="4" t="s">
         <v>291</v>
       </c>
@@ -10071,7 +10066,7 @@
       </c>
       <c r="F109" s="64"/>
     </row>
-    <row r="110" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="4" t="s">
         <v>288</v>
       </c>
@@ -10086,7 +10081,7 @@
       </c>
       <c r="F110" s="64"/>
     </row>
-    <row r="111" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="4" t="s">
         <v>293</v>
       </c>
@@ -10101,7 +10096,7 @@
       </c>
       <c r="F111" s="64"/>
     </row>
-    <row r="112" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="4" t="s">
         <v>286</v>
       </c>
@@ -10116,12 +10111,12 @@
       </c>
       <c r="F112" s="64"/>
     </row>
-    <row r="113" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>22</v>
@@ -10131,7 +10126,7 @@
       </c>
       <c r="F113" s="64"/>
     </row>
-    <row r="114" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="21">
       <c r="A114" s="4" t="s">
         <v>283</v>
       </c>
@@ -10147,7 +10142,7 @@
       </c>
       <c r="F114" s="64"/>
     </row>
-    <row r="115" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="15.75" outlineLevel="1">
       <c r="A115" s="4" t="s">
         <v>295</v>
       </c>
@@ -10162,12 +10157,12 @@
       </c>
       <c r="F115" s="64"/>
     </row>
-    <row r="116" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>22</v>
@@ -10177,12 +10172,12 @@
       </c>
       <c r="F116" s="66"/>
     </row>
-    <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>22</v>
@@ -10192,12 +10187,12 @@
       </c>
       <c r="F117" s="66"/>
     </row>
-    <row r="118" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>22</v>
@@ -10207,12 +10202,12 @@
       </c>
       <c r="F118" s="66"/>
     </row>
-    <row r="119" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>22</v>
@@ -10222,12 +10217,12 @@
       </c>
       <c r="F119" s="66"/>
     </row>
-    <row r="120" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>22</v>
@@ -10237,12 +10232,12 @@
       </c>
       <c r="F120" s="66"/>
     </row>
-    <row r="121" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>22</v>
@@ -10252,12 +10247,12 @@
       </c>
       <c r="F121" s="66"/>
     </row>
-    <row r="122" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>22</v>
@@ -10267,7 +10262,7 @@
       </c>
       <c r="F122" s="66"/>
     </row>
-    <row r="123" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="21">
       <c r="A123" s="4" t="s">
         <v>283</v>
       </c>
@@ -10283,7 +10278,7 @@
       </c>
       <c r="F123" s="64"/>
     </row>
-    <row r="124" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" outlineLevel="1">
       <c r="A124" s="4" t="s">
         <v>303</v>
       </c>
@@ -10298,7 +10293,7 @@
       </c>
       <c r="F124" s="64"/>
     </row>
-    <row r="125" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="4" t="s">
         <v>307</v>
       </c>
@@ -10313,7 +10308,7 @@
       </c>
       <c r="F125" s="66"/>
     </row>
-    <row r="126" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="4" t="s">
         <v>306</v>
       </c>
@@ -10328,7 +10323,7 @@
       </c>
       <c r="F126" s="66"/>
     </row>
-    <row r="127" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" outlineLevel="1">
       <c r="A127" s="4" t="s">
         <v>304</v>
       </c>
@@ -10343,7 +10338,7 @@
       </c>
       <c r="F127" s="66"/>
     </row>
-    <row r="128" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" outlineLevel="1">
       <c r="A128" s="4" t="s">
         <v>305</v>
       </c>
@@ -10358,7 +10353,7 @@
       </c>
       <c r="F128" s="66"/>
     </row>
-    <row r="129" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="21">
       <c r="A129" s="4" t="s">
         <v>283</v>
       </c>
@@ -10374,7 +10369,7 @@
       </c>
       <c r="F129" s="64"/>
     </row>
-    <row r="130" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" outlineLevel="1">
       <c r="A130" s="4" t="s">
         <v>308</v>
       </c>
@@ -10389,7 +10384,7 @@
       </c>
       <c r="F130" s="18"/>
     </row>
-    <row r="131" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="4" t="s">
         <v>309</v>
       </c>
@@ -10404,7 +10399,7 @@
       </c>
       <c r="F131" s="66"/>
     </row>
-    <row r="132" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="4" t="s">
         <v>310</v>
       </c>
@@ -10419,7 +10414,7 @@
       </c>
       <c r="F132" s="18"/>
     </row>
-    <row r="133" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="4" t="s">
         <v>312</v>
       </c>
@@ -10434,7 +10429,7 @@
       </c>
       <c r="F133" s="66"/>
     </row>
-    <row r="134" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="4" t="s">
         <v>311</v>
       </c>
@@ -10449,7 +10444,7 @@
       </c>
       <c r="F134" s="66"/>
     </row>
-    <row r="135" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="4" t="s">
         <v>313</v>
       </c>
@@ -10464,7 +10459,7 @@
       </c>
       <c r="F135" s="66"/>
     </row>
-    <row r="136" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="21">
       <c r="B136" s="70"/>
       <c r="C136" s="71" t="s">
         <v>7</v>
@@ -10477,7 +10472,7 @@
       </c>
       <c r="F136" s="64"/>
     </row>
-    <row r="137" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="4" t="s">
         <v>270</v>
       </c>
@@ -10492,12 +10487,12 @@
       </c>
       <c r="F137" s="65"/>
     </row>
-    <row r="138" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C138" s="236" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>22</v>
@@ -10507,12 +10502,12 @@
       </c>
       <c r="F138" s="65"/>
     </row>
-    <row r="139" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C139" s="236" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>22</v>
@@ -10522,12 +10517,12 @@
       </c>
       <c r="F139" s="65"/>
     </row>
-    <row r="140" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C140" s="236" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>22</v>
@@ -10537,12 +10532,12 @@
       </c>
       <c r="F140" s="65"/>
     </row>
-    <row r="141" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" outlineLevel="1">
       <c r="A141" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C141" s="236" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>22</v>
@@ -10552,7 +10547,7 @@
       </c>
       <c r="F141" s="65"/>
     </row>
-    <row r="142" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" outlineLevel="1">
       <c r="A142" s="4" t="s">
         <v>275</v>
       </c>
@@ -10567,12 +10562,12 @@
       </c>
       <c r="F142" s="65"/>
     </row>
-    <row r="143" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" outlineLevel="1">
       <c r="A143" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C143" s="236" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>22</v>
@@ -10582,12 +10577,12 @@
       </c>
       <c r="F143" s="65"/>
     </row>
-    <row r="144" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" outlineLevel="1">
       <c r="A144" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C144" s="236" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>22</v>
@@ -10597,12 +10592,12 @@
       </c>
       <c r="F144" s="65"/>
     </row>
-    <row r="145" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" outlineLevel="1">
       <c r="A145" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C145" s="236" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>22</v>
@@ -10612,12 +10607,12 @@
       </c>
       <c r="F145" s="65"/>
     </row>
-    <row r="146" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" outlineLevel="1">
       <c r="A146" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C146" s="236" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>22</v>
@@ -10627,12 +10622,12 @@
       </c>
       <c r="F146" s="65"/>
     </row>
-    <row r="147" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" outlineLevel="1">
       <c r="A147" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C147" s="236" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>22</v>
@@ -10642,12 +10637,12 @@
       </c>
       <c r="F147" s="65"/>
     </row>
-    <row r="148" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" outlineLevel="1">
       <c r="A148" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C148" s="245" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>22</v>
@@ -10657,7 +10652,7 @@
       </c>
       <c r="F148" s="65"/>
     </row>
-    <row r="149" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="15.75" outlineLevel="1">
       <c r="A149" s="4" t="s">
         <v>316</v>
       </c>
@@ -10672,7 +10667,7 @@
       </c>
       <c r="F149" s="65"/>
     </row>
-    <row r="150" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" outlineLevel="1">
       <c r="B150" s="127"/>
       <c r="C150" s="246" t="s">
         <v>235</v>
@@ -10685,7 +10680,7 @@
       </c>
       <c r="F150" s="65"/>
     </row>
-    <row r="151" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" outlineLevel="1">
       <c r="B151" s="127"/>
       <c r="C151" s="247" t="s">
         <v>235</v>
@@ -10698,7 +10693,7 @@
       </c>
       <c r="F151" s="65"/>
     </row>
-    <row r="152" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="15.75" outlineLevel="1">
       <c r="A152" s="4" t="s">
         <v>317</v>
       </c>
@@ -10713,7 +10708,7 @@
       </c>
       <c r="F152" s="65"/>
     </row>
-    <row r="153" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" outlineLevel="1">
       <c r="C153" s="150" t="s">
         <v>370</v>
       </c>
@@ -10725,7 +10720,7 @@
       </c>
       <c r="F153" s="65"/>
     </row>
-    <row r="154" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" outlineLevel="1">
       <c r="C154" s="248" t="s">
         <v>370</v>
       </c>
@@ -10737,7 +10732,7 @@
       </c>
       <c r="F154" s="65"/>
     </row>
-    <row r="155" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="35.1" customHeight="1">
       <c r="B155" s="56"/>
       <c r="C155" s="57" t="s">
         <v>19</v>
@@ -10750,7 +10745,7 @@
       </c>
       <c r="F155" s="64"/>
     </row>
-    <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="30" outlineLevel="1">
       <c r="A156" s="4" t="s">
         <v>314</v>
       </c>
@@ -10761,11 +10756,11 @@
         <v>52</v>
       </c>
       <c r="E156" s="222" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F156" s="64"/>
     </row>
-    <row r="157" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="21">
       <c r="B157" s="58"/>
       <c r="C157" s="58" t="s">
         <v>1</v>
@@ -10778,7 +10773,7 @@
       </c>
       <c r="F157" s="64"/>
     </row>
-    <row r="158" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" outlineLevel="1">
       <c r="A158" s="4" t="s">
         <v>315</v>
       </c>
@@ -10793,7 +10788,7 @@
       </c>
       <c r="F158" s="64"/>
     </row>
-    <row r="159" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" outlineLevel="1">
       <c r="C159" s="150" t="s">
         <v>369</v>
       </c>
@@ -10805,7 +10800,7 @@
       </c>
       <c r="F159" s="64"/>
     </row>
-    <row r="160" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" outlineLevel="1">
       <c r="C160" s="150" t="s">
         <v>369</v>
       </c>
@@ -10817,7 +10812,7 @@
       </c>
       <c r="F160" s="64"/>
     </row>
-    <row r="161" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" outlineLevel="1">
       <c r="C161" s="150" t="s">
         <v>369</v>
       </c>
@@ -10829,7 +10824,7 @@
       </c>
       <c r="F161" s="64"/>
     </row>
-    <row r="162" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" outlineLevel="1">
       <c r="C162" s="46" t="s">
         <v>15</v>
       </c>
@@ -10839,7 +10834,7 @@
       <c r="E162" s="223"/>
       <c r="F162" s="64"/>
     </row>
-    <row r="163" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" outlineLevel="1">
       <c r="C163" s="46" t="s">
         <v>15</v>
       </c>
@@ -10849,7 +10844,7 @@
       <c r="E163" s="223"/>
       <c r="F163" s="64"/>
     </row>
-    <row r="164" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="21">
       <c r="A164" s="4" t="s">
         <v>283</v>
       </c>
@@ -10865,7 +10860,7 @@
       </c>
       <c r="F164" s="64"/>
     </row>
-    <row r="165" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="4" t="s">
         <v>318</v>
       </c>
@@ -10880,7 +10875,7 @@
       </c>
       <c r="F165" s="64"/>
     </row>
-    <row r="166" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" outlineLevel="1">
       <c r="C166" s="150" t="s">
         <v>369</v>
       </c>
@@ -10892,7 +10887,7 @@
       </c>
       <c r="F166" s="64"/>
     </row>
-    <row r="167" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" outlineLevel="1">
       <c r="C167" s="150" t="s">
         <v>369</v>
       </c>
@@ -10904,7 +10899,7 @@
       </c>
       <c r="F167" s="64"/>
     </row>
-    <row r="168" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" outlineLevel="1">
       <c r="C168" s="150" t="s">
         <v>369</v>
       </c>
@@ -10916,7 +10911,7 @@
       </c>
       <c r="F168" s="64"/>
     </row>
-    <row r="169" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" outlineLevel="1">
       <c r="C169" s="46" t="s">
         <v>15</v>
       </c>
@@ -10926,7 +10921,7 @@
       <c r="E169" s="223"/>
       <c r="F169" s="64"/>
     </row>
-    <row r="170" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" outlineLevel="1">
       <c r="C170" s="46" t="s">
         <v>15</v>
       </c>
@@ -10936,7 +10931,7 @@
       <c r="E170" s="223"/>
       <c r="F170" s="64"/>
     </row>
-    <row r="171" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="21">
       <c r="A171" s="4" t="s">
         <v>283</v>
       </c>
@@ -10952,7 +10947,7 @@
       </c>
       <c r="F171" s="64"/>
     </row>
-    <row r="172" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" outlineLevel="1">
       <c r="A172" s="4" t="s">
         <v>319</v>
       </c>
@@ -10967,7 +10962,7 @@
       </c>
       <c r="F172" s="64"/>
     </row>
-    <row r="173" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" outlineLevel="1">
       <c r="C173" s="150" t="s">
         <v>369</v>
       </c>
@@ -10979,7 +10974,7 @@
       </c>
       <c r="F173" s="64"/>
     </row>
-    <row r="174" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" outlineLevel="1">
       <c r="C174" s="150" t="s">
         <v>369</v>
       </c>
@@ -10991,7 +10986,7 @@
       </c>
       <c r="F174" s="64"/>
     </row>
-    <row r="175" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" outlineLevel="1">
       <c r="C175" s="150" t="s">
         <v>369</v>
       </c>
@@ -11003,7 +10998,7 @@
       </c>
       <c r="F175" s="64"/>
     </row>
-    <row r="176" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" outlineLevel="1">
       <c r="C176" s="46" t="s">
         <v>15</v>
       </c>
@@ -11013,7 +11008,7 @@
       <c r="E176" s="223"/>
       <c r="F176" s="64"/>
     </row>
-    <row r="177" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" outlineLevel="1">
       <c r="C177" s="46" t="s">
         <v>15</v>
       </c>
@@ -11023,7 +11018,7 @@
       <c r="E177" s="223"/>
       <c r="F177" s="64"/>
     </row>
-    <row r="178" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>283</v>
       </c>
@@ -11039,7 +11034,7 @@
       </c>
       <c r="F178" s="64"/>
     </row>
-    <row r="179" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" outlineLevel="1">
       <c r="A179" s="4" t="s">
         <v>320</v>
       </c>
@@ -11054,7 +11049,7 @@
       </c>
       <c r="F179" s="64"/>
     </row>
-    <row r="180" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="35.1" customHeight="1">
       <c r="A180" s="115"/>
       <c r="B180" s="116"/>
       <c r="C180" s="114" t="s">
@@ -11068,13 +11063,13 @@
       </c>
       <c r="F180" s="64"/>
     </row>
-    <row r="181" spans="1:11" s="11" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A181" s="11" t="s">
         <v>321</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -11089,7 +11084,7 @@
       <c r="J181" s="90"/>
       <c r="K181" s="91"/>
     </row>
-    <row r="182" spans="1:11" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" s="194" customFormat="1" ht="21">
       <c r="B182" s="117"/>
       <c r="C182" s="117" t="s">
         <v>159</v>
@@ -11102,13 +11097,13 @@
       </c>
       <c r="F182" s="119"/>
     </row>
-    <row r="183" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A183" s="87" t="s">
         <v>322</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -11123,7 +11118,7 @@
       <c r="J183" s="90"/>
       <c r="K183" s="89"/>
     </row>
-    <row r="184" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B184" s="12"/>
       <c r="C184" s="129" t="s">
         <v>234</v>
@@ -11141,7 +11136,7 @@
       <c r="J184" s="90"/>
       <c r="K184" s="94"/>
     </row>
-    <row r="185" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B185" s="12"/>
       <c r="C185" s="128" t="s">
         <v>234</v>
@@ -11159,7 +11154,7 @@
       <c r="J185" s="90"/>
       <c r="K185" s="94"/>
     </row>
-    <row r="186" spans="1:11" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" s="194" customFormat="1" ht="21">
       <c r="A186" s="194" t="s">
         <v>283</v>
       </c>
@@ -11175,13 +11170,13 @@
       </c>
       <c r="F186" s="119"/>
     </row>
-    <row r="187" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A187" s="87" t="s">
         <v>323</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -11196,7 +11191,7 @@
       <c r="J187" s="90"/>
       <c r="K187" s="94"/>
     </row>
-    <row r="188" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B188" s="127"/>
       <c r="C188" s="129" t="s">
         <v>234</v>
@@ -11214,7 +11209,7 @@
       <c r="J188" s="90"/>
       <c r="K188" s="94"/>
     </row>
-    <row r="189" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B189" s="12"/>
       <c r="C189" s="128" t="s">
         <v>234</v>
@@ -11232,7 +11227,7 @@
       <c r="J189" s="90"/>
       <c r="K189" s="94"/>
     </row>
-    <row r="190" spans="1:11" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" s="194" customFormat="1" ht="21">
       <c r="A190" s="195" t="s">
         <v>283</v>
       </c>
@@ -11248,13 +11243,13 @@
       </c>
       <c r="F190" s="119"/>
     </row>
-    <row r="191" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A191" s="87" t="s">
         <v>324</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -11269,7 +11264,7 @@
       <c r="J191" s="90"/>
       <c r="K191" s="94"/>
     </row>
-    <row r="192" spans="1:11" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B192" s="12"/>
       <c r="C192" s="129" t="s">
         <v>234</v>
@@ -11287,7 +11282,7 @@
       <c r="J192" s="90"/>
       <c r="K192" s="94"/>
     </row>
-    <row r="193" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B193" s="12"/>
       <c r="C193" s="128" t="s">
         <v>234</v>
@@ -11305,7 +11300,7 @@
       <c r="J193" s="90"/>
       <c r="K193" s="94"/>
     </row>
-    <row r="194" spans="1:12" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" s="194" customFormat="1" ht="21">
       <c r="A194" s="195" t="s">
         <v>283</v>
       </c>
@@ -11321,13 +11316,13 @@
       </c>
       <c r="F194" s="119"/>
     </row>
-    <row r="195" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A195" s="87" t="s">
         <v>325</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -11343,7 +11338,7 @@
       <c r="K195" s="94"/>
       <c r="L195" s="96"/>
     </row>
-    <row r="196" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B196" s="12"/>
       <c r="C196" s="131" t="s">
         <v>234</v>
@@ -11361,7 +11356,7 @@
       <c r="J196" s="90"/>
       <c r="K196" s="86"/>
     </row>
-    <row r="197" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B197" s="12"/>
       <c r="C197" s="130" t="s">
         <v>234</v>
@@ -11379,7 +11374,7 @@
       <c r="J197" s="90"/>
       <c r="K197" s="94"/>
     </row>
-    <row r="198" spans="1:12" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" s="194" customFormat="1" ht="21">
       <c r="A198" s="195" t="s">
         <v>283</v>
       </c>
@@ -11395,13 +11390,13 @@
       </c>
       <c r="F198" s="119"/>
     </row>
-    <row r="199" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A199" s="87" t="s">
         <v>326</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -11416,7 +11411,7 @@
       <c r="J199" s="90"/>
       <c r="K199" s="94"/>
     </row>
-    <row r="200" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B200" s="127"/>
       <c r="C200" s="129" t="s">
         <v>234</v>
@@ -11435,7 +11430,7 @@
       <c r="K200" s="94"/>
       <c r="L200" s="96"/>
     </row>
-    <row r="201" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B201" s="12"/>
       <c r="C201" s="128" t="s">
         <v>234</v>
@@ -11453,7 +11448,7 @@
       <c r="J201" s="90"/>
       <c r="K201" s="94"/>
     </row>
-    <row r="202" spans="1:12" s="194" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="195" t="s">
         <v>283</v>
       </c>
@@ -11469,13 +11464,13 @@
       </c>
       <c r="F202" s="119"/>
     </row>
-    <row r="203" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A203" s="87" t="s">
         <v>327</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -11490,7 +11485,7 @@
       <c r="J203" s="90"/>
       <c r="K203" s="94"/>
     </row>
-    <row r="204" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B204" s="12"/>
       <c r="C204" s="141" t="s">
         <v>234</v>
@@ -11508,7 +11503,7 @@
       <c r="J204" s="90"/>
       <c r="K204" s="95"/>
     </row>
-    <row r="205" spans="1:12" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B205" s="12"/>
       <c r="C205" s="128" t="s">
         <v>234</v>
@@ -11526,13 +11521,13 @@
       <c r="J205" s="90"/>
       <c r="K205" s="94"/>
     </row>
-    <row r="206" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="35.1" customHeight="1">
       <c r="A206" s="11" t="s">
         <v>283</v>
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
@@ -11547,7 +11542,7 @@
       <c r="J206" s="78"/>
       <c r="K206" s="79"/>
     </row>
-    <row r="207" spans="1:12" s="198" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B207" s="199"/>
       <c r="C207" s="204" t="s">
         <v>140</v>
@@ -11565,7 +11560,7 @@
       <c r="J207" s="201"/>
       <c r="K207" s="203"/>
     </row>
-    <row r="208" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A208" s="9" t="s">
         <v>328</v>
       </c>
@@ -11586,13 +11581,13 @@
       <c r="J208" s="78"/>
       <c r="K208" s="82"/>
     </row>
-    <row r="209" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A209" s="9" t="s">
         <v>329</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>142</v>
@@ -11607,13 +11602,13 @@
       <c r="J209" s="78"/>
       <c r="K209" s="82"/>
     </row>
-    <row r="210" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A210" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>142</v>
@@ -11628,7 +11623,7 @@
       <c r="J210" s="78"/>
       <c r="K210" s="82"/>
     </row>
-    <row r="211" spans="1:26" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B211" s="121"/>
       <c r="C211" s="204" t="s">
         <v>143</v>
@@ -11660,7 +11655,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A212" s="106" t="s">
         <v>331</v>
       </c>
@@ -11695,7 +11690,7 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
     </row>
-    <row r="213" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A213" s="106" t="s">
         <v>332</v>
       </c>
@@ -11730,7 +11725,7 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
     </row>
-    <row r="214" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A214" s="106" t="s">
         <v>333</v>
       </c>
@@ -11765,7 +11760,7 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
     </row>
-    <row r="215" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A215" s="106" t="s">
         <v>334</v>
       </c>
@@ -11800,7 +11795,7 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
-    <row r="216" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A216" s="106" t="s">
         <v>335</v>
       </c>
@@ -11835,7 +11830,7 @@
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
     </row>
-    <row r="217" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A217" s="106" t="s">
         <v>336</v>
       </c>
@@ -11870,7 +11865,7 @@
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
     </row>
-    <row r="218" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A218" s="106" t="s">
         <v>337</v>
       </c>
@@ -11905,7 +11900,7 @@
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
     </row>
-    <row r="219" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A219" s="106" t="s">
         <v>338</v>
       </c>
@@ -11940,7 +11935,7 @@
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
     </row>
-    <row r="220" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A220" s="106" t="s">
         <v>339</v>
       </c>
@@ -11975,7 +11970,7 @@
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
     </row>
-    <row r="221" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A221" s="106" t="s">
         <v>340</v>
       </c>
@@ -12010,7 +12005,7 @@
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
     </row>
-    <row r="222" spans="1:26" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A222" s="106" t="s">
         <v>341</v>
       </c>
@@ -12045,10 +12040,10 @@
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
     </row>
-    <row r="223" spans="1:26" s="198" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="199"/>
       <c r="C223" s="204" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
@@ -12063,7 +12058,7 @@
       <c r="J223" s="201"/>
       <c r="K223" s="203"/>
     </row>
-    <row r="224" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A224" s="9" t="s">
         <v>328</v>
       </c>
@@ -12084,7 +12079,7 @@
       <c r="J224" s="78"/>
       <c r="K224" s="82"/>
     </row>
-    <row r="225" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A225" s="9" t="s">
         <v>329</v>
       </c>
@@ -12105,13 +12100,13 @@
       <c r="J225" s="78"/>
       <c r="K225" s="82"/>
     </row>
-    <row r="226" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A226" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>32</v>
@@ -12126,7 +12121,7 @@
       <c r="J226" s="78"/>
       <c r="K226" s="82"/>
     </row>
-    <row r="227" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="35.1" customHeight="1">
       <c r="B227" s="61"/>
       <c r="C227" s="60" t="s">
         <v>14</v>
@@ -12139,7 +12134,7 @@
       </c>
       <c r="F227" s="18"/>
     </row>
-    <row r="228" spans="1:26" ht="21" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="21">
       <c r="B228" s="206"/>
       <c r="C228" s="207" t="s">
         <v>745</v>
@@ -12152,7 +12147,7 @@
       </c>
       <c r="F228" s="64"/>
     </row>
-    <row r="229" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="30" outlineLevel="1">
       <c r="A229" s="4" t="s">
         <v>342</v>
       </c>
@@ -12164,11 +12159,11 @@
         <v>27</v>
       </c>
       <c r="E229" s="223" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F229" s="64"/>
     </row>
-    <row r="230" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" outlineLevel="1">
       <c r="A230" s="4" t="s">
         <v>343</v>
       </c>
@@ -12184,7 +12179,7 @@
       </c>
       <c r="F230" s="64"/>
     </row>
-    <row r="231" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" outlineLevel="1">
       <c r="A231" s="4" t="s">
         <v>344</v>
       </c>
@@ -12200,7 +12195,7 @@
       </c>
       <c r="F231" s="64"/>
     </row>
-    <row r="232" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" outlineLevel="1">
       <c r="A232" s="4" t="s">
         <v>345</v>
       </c>
@@ -12216,7 +12211,7 @@
       </c>
       <c r="F232" s="64"/>
     </row>
-    <row r="233" spans="1:26" ht="21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="21">
       <c r="B233" s="206"/>
       <c r="C233" s="207" t="s">
         <v>20</v>
@@ -12229,7 +12224,7 @@
       </c>
       <c r="F233" s="64"/>
     </row>
-    <row r="234" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" outlineLevel="1">
       <c r="A234" s="4" t="s">
         <v>346</v>
       </c>
@@ -12245,7 +12240,7 @@
       </c>
       <c r="F234" s="64"/>
     </row>
-    <row r="235" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" outlineLevel="1">
       <c r="A235" s="4" t="s">
         <v>347</v>
       </c>
@@ -12261,7 +12256,7 @@
       </c>
       <c r="F235" s="64"/>
     </row>
-    <row r="236" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" outlineLevel="1">
       <c r="A236" s="4" t="s">
         <v>348</v>
       </c>
@@ -12277,7 +12272,7 @@
       </c>
       <c r="F236" s="64"/>
     </row>
-    <row r="237" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" outlineLevel="1">
       <c r="A237" s="4" t="s">
         <v>349</v>
       </c>
@@ -12293,7 +12288,7 @@
       </c>
       <c r="F237" s="64"/>
     </row>
-    <row r="238" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" outlineLevel="1">
       <c r="A238" s="4" t="s">
         <v>350</v>
       </c>
@@ -12309,10 +12304,10 @@
       </c>
       <c r="F238" s="64"/>
     </row>
-    <row r="239" spans="1:26" s="86" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
@@ -12341,7 +12336,7 @@
       <c r="Y239" s="87"/>
       <c r="Z239" s="87"/>
     </row>
-    <row r="240" spans="1:26" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" s="87" customFormat="1" outlineLevel="1">
       <c r="A240" s="87" t="s">
         <v>351</v>
       </c>
@@ -12362,7 +12357,7 @@
       <c r="J240" s="85"/>
       <c r="K240" s="86"/>
     </row>
-    <row r="241" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A241" s="87" t="s">
         <v>352</v>
       </c>
@@ -12383,7 +12378,7 @@
       <c r="J241" s="85"/>
       <c r="K241" s="86"/>
     </row>
-    <row r="242" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A242" s="87" t="s">
         <v>353</v>
       </c>
@@ -12404,13 +12399,13 @@
       <c r="J242" s="85"/>
       <c r="K242" s="86"/>
     </row>
-    <row r="243" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A243" s="87" t="s">
         <v>354</v>
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>32</v>
@@ -12425,13 +12420,13 @@
       <c r="J243" s="85"/>
       <c r="K243" s="86"/>
     </row>
-    <row r="244" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A244" s="87" t="s">
         <v>354</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>32</v>
@@ -12446,16 +12441,16 @@
       <c r="J244" s="85"/>
       <c r="K244" s="86"/>
     </row>
-    <row r="245" spans="1:11" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A245" s="87" t="s">
         <v>354</v>
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E245" s="223" t="s">
         <v>99</v>
@@ -12569,21 +12564,21 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="62" customWidth="1"/>
-    <col min="9" max="55" width="10.83203125" style="4" customWidth="1"/>
-    <col min="56" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="22.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="62" customWidth="1"/>
+    <col min="9" max="55" width="10.85546875" style="4" customWidth="1"/>
+    <col min="56" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" hidden="1">
       <c r="A1" s="98" t="s">
         <v>355</v>
       </c>
@@ -12603,7 +12598,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1">
       <c r="B2" s="266" t="s">
         <v>741</v>
       </c>
@@ -12614,7 +12609,7 @@
       <c r="G2" s="266"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="15.95" customHeight="1">
       <c r="B3" s="184"/>
       <c r="C3" s="184"/>
       <c r="D3" s="185"/>
@@ -12623,13 +12618,13 @@
       <c r="G3" s="187"/>
       <c r="H3" s="63"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="21">
       <c r="A4" s="153" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B4" s="188"/>
       <c r="C4" s="192" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D4" s="190" t="s">
         <v>660</v>
@@ -12639,13 +12634,13 @@
       <c r="G4" s="269"/>
       <c r="H4" s="64"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="21">
       <c r="A5" s="153" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B5" s="189"/>
       <c r="C5" s="193" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D5" s="191" t="s">
         <v>661</v>
@@ -12655,7 +12650,7 @@
       <c r="G5" s="270"/>
       <c r="H5" s="64"/>
     </row>
-    <row r="6" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="8.1" customHeight="1">
       <c r="A6" s="153"/>
       <c r="B6" s="135"/>
       <c r="C6" s="181"/>
@@ -12665,7 +12660,7 @@
       <c r="G6" s="84"/>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="8.1" customHeight="1">
       <c r="A7" s="153"/>
       <c r="B7" s="135"/>
       <c r="C7" s="181"/>
@@ -12675,7 +12670,7 @@
       <c r="G7" s="84"/>
       <c r="H7" s="64"/>
     </row>
-    <row r="8" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="35.1" customHeight="1">
       <c r="B8" s="36"/>
       <c r="C8" s="67" t="s">
         <v>133</v>
@@ -12694,7 +12689,7 @@
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" outlineLevel="1">
       <c r="A9" s="4" t="s">
         <v>241</v>
       </c>
@@ -12711,7 +12706,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" outlineLevel="1">
       <c r="A10" s="4" t="s">
         <v>242</v>
       </c>
@@ -12728,7 +12723,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="64"/>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" outlineLevel="1">
       <c r="A11" s="4" t="s">
         <v>243</v>
       </c>
@@ -12745,7 +12740,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="64"/>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" outlineLevel="1">
       <c r="A12" s="4" t="s">
         <v>244</v>
       </c>
@@ -12762,7 +12757,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" outlineLevel="1">
       <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
@@ -12779,7 +12774,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="64"/>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" outlineLevel="1">
       <c r="C14" s="32" t="s">
         <v>707</v>
       </c>
@@ -12789,9 +12784,9 @@
       <c r="G14" s="144"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A15" s="254" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>662</v>
@@ -12806,9 +12801,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A16" s="153" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>663</v>
@@ -12823,9 +12818,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A17" s="153" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>664</v>
@@ -12840,9 +12835,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A18" s="254" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
@@ -12857,9 +12852,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A19" s="153" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>665</v>
@@ -12874,9 +12869,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A20" s="153" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>666</v>
@@ -12891,9 +12886,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="64"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A21" s="153" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>667</v>
@@ -12908,9 +12903,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A22" s="153" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>668</v>
@@ -12925,9 +12920,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A23" s="153" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>669</v>
@@ -12942,9 +12937,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="64"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A24" s="153" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>670</v>
@@ -12959,9 +12954,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A25" s="153" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>671</v>
@@ -12976,9 +12971,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A26" s="153" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>672</v>
@@ -12993,9 +12988,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A27" s="153" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>673</v>
@@ -13010,9 +13005,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A28" s="153" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>674</v>
@@ -13027,9 +13022,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A29" s="153" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>675</v>
@@ -13044,9 +13039,9 @@
       <c r="G29" s="3"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A30" s="153" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>676</v>
@@ -13061,9 +13056,9 @@
       <c r="G30" s="3"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A31" s="153" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>677</v>
@@ -13078,9 +13073,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A32" s="153" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>678</v>
@@ -13095,9 +13090,9 @@
       <c r="G32" s="3"/>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A33" s="153" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>679</v>
@@ -13112,9 +13107,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="64"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A34" s="153" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>680</v>
@@ -13129,9 +13124,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A35" s="153" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>681</v>
@@ -13146,9 +13141,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A36" s="153" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>682</v>
@@ -13163,9 +13158,9 @@
       <c r="G36" s="3"/>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A37" s="153" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>683</v>
@@ -13180,9 +13175,9 @@
       <c r="G37" s="3"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A38" s="254" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>684</v>
@@ -13197,9 +13192,9 @@
       <c r="G38" s="3"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A39" s="153" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>685</v>
@@ -13214,9 +13209,9 @@
       <c r="G39" s="3"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A40" s="153" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>686</v>
@@ -13231,9 +13226,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="64"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A41" s="153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>687</v>
@@ -13248,9 +13243,9 @@
       <c r="G41" s="3"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A42" s="153" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>688</v>
@@ -13265,9 +13260,9 @@
       <c r="G42" s="3"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A43" s="153" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>689</v>
@@ -13282,9 +13277,9 @@
       <c r="G43" s="3"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A44" s="153" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>689</v>
@@ -13299,9 +13294,9 @@
       <c r="G44" s="3"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A45" s="153" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>690</v>
@@ -13316,9 +13311,9 @@
       <c r="G45" s="3"/>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A46" s="153" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>691</v>
@@ -13333,9 +13328,9 @@
       <c r="G46" s="3"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A47" s="153" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>692</v>
@@ -13350,9 +13345,9 @@
       <c r="G47" s="3"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A48" s="153" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>693</v>
@@ -13367,9 +13362,9 @@
       <c r="G48" s="3"/>
       <c r="H48" s="64"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A49" s="153" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>694</v>
@@ -13384,9 +13379,9 @@
       <c r="G49" s="3"/>
       <c r="H49" s="64"/>
     </row>
-    <row r="50" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A50" s="153" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>695</v>
@@ -13401,9 +13396,9 @@
       <c r="G50" s="3"/>
       <c r="H50" s="64"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A51" s="153" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>695</v>
@@ -13418,9 +13413,9 @@
       <c r="G51" s="3"/>
       <c r="H51" s="64"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A52" s="153" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>696</v>
@@ -13435,9 +13430,9 @@
       <c r="G52" s="3"/>
       <c r="H52" s="64"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A53" s="153" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>697</v>
@@ -13452,9 +13447,9 @@
       <c r="G53" s="3"/>
       <c r="H53" s="64"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A54" s="153" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>698</v>
@@ -13469,9 +13464,9 @@
       <c r="G54" s="3"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A55" s="153" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>699</v>
@@ -13486,9 +13481,9 @@
       <c r="G55" s="3"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A56" s="153" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>700</v>
@@ -13503,9 +13498,9 @@
       <c r="G56" s="3"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A57" s="153" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>701</v>
@@ -13520,9 +13515,9 @@
       <c r="G57" s="3"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A58" s="153" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>702</v>
@@ -13537,9 +13532,9 @@
       <c r="G58" s="3"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A59" s="153" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>703</v>
@@ -13554,9 +13549,9 @@
       <c r="G59" s="3"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A60" s="153" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>704</v>
@@ -13571,9 +13566,9 @@
       <c r="G60" s="3"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A61" s="153" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>705</v>
@@ -13588,9 +13583,9 @@
       <c r="G61" s="3"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A62" s="153" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>706</v>
@@ -13605,10 +13600,10 @@
       <c r="G62" s="3"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" outlineLevel="1" collapsed="1">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D63" s="142"/>
       <c r="E63" s="143"/>
@@ -13616,15 +13611,15 @@
       <c r="G63" s="144"/>
       <c r="H63" s="64"/>
     </row>
-    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" outlineLevel="1">
       <c r="A64" s="153" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C64" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>811</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>812</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>99</v>
@@ -13633,15 +13628,15 @@
       <c r="G64" s="3"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" outlineLevel="1">
       <c r="A65" s="153" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>99</v>
@@ -13650,15 +13645,15 @@
       <c r="G65" s="3"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" outlineLevel="1">
       <c r="A66" s="153" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>99</v>
@@ -13667,15 +13662,15 @@
       <c r="G66" s="3"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" outlineLevel="1">
       <c r="A67" s="153" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>99</v>
@@ -13684,15 +13679,15 @@
       <c r="G67" s="3"/>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" outlineLevel="1">
       <c r="A68" s="153" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E68" s="33" t="s">
         <v>99</v>
@@ -13701,15 +13696,15 @@
       <c r="G68" s="3"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" outlineLevel="1">
       <c r="A69" s="153" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>99</v>
@@ -13718,7 +13713,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="64"/>
     </row>
-    <row r="70" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="35.1" customHeight="1">
       <c r="B70" s="113"/>
       <c r="C70" s="35" t="s">
         <v>6</v>
@@ -13737,7 +13732,7 @@
       </c>
       <c r="H70" s="64"/>
     </row>
-    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" outlineLevel="1">
       <c r="C71" s="32" t="s">
         <v>24</v>
       </c>
@@ -13747,7 +13742,7 @@
       <c r="G71" s="144"/>
       <c r="H71" s="64"/>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" outlineLevel="1">
       <c r="A72" s="4" t="s">
         <v>246</v>
       </c>
@@ -13764,12 +13759,12 @@
       <c r="G72" s="3"/>
       <c r="H72" s="64"/>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" outlineLevel="1">
       <c r="A73" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -13781,7 +13776,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" outlineLevel="1">
       <c r="A74" s="4" t="s">
         <v>248</v>
       </c>
@@ -13798,7 +13793,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="64"/>
     </row>
-    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" outlineLevel="1">
       <c r="C75" s="145" t="s">
         <v>17</v>
       </c>
@@ -13808,12 +13803,12 @@
       <c r="G75" s="144"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" outlineLevel="1">
       <c r="A76" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>100</v>
@@ -13825,12 +13820,12 @@
       <c r="G76" s="7"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" outlineLevel="1">
       <c r="A77" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>100</v>
@@ -13842,12 +13837,12 @@
       <c r="G77" s="7"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" outlineLevel="1">
       <c r="A78" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>100</v>
@@ -13859,12 +13854,12 @@
       <c r="G78" s="7"/>
       <c r="H78" s="64"/>
     </row>
-    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" outlineLevel="1">
       <c r="A79" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>100</v>
@@ -13876,7 +13871,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" outlineLevel="1">
       <c r="A80" s="4" t="s">
         <v>253</v>
       </c>
@@ -13893,7 +13888,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" outlineLevel="1">
       <c r="A81" s="4" t="s">
         <v>254</v>
       </c>
@@ -13910,7 +13905,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" outlineLevel="1">
       <c r="A82" s="4" t="s">
         <v>255</v>
       </c>
@@ -13927,7 +13922,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" outlineLevel="1">
       <c r="A83" s="4" t="s">
         <v>256</v>
       </c>
@@ -13944,7 +13939,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" outlineLevel="1">
       <c r="A84" s="4" t="s">
         <v>257</v>
       </c>
@@ -13961,7 +13956,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="35.1" customHeight="1">
       <c r="B85" s="69"/>
       <c r="C85" s="68" t="s">
         <v>5</v>
@@ -13980,7 +13975,7 @@
       </c>
       <c r="H85" s="18"/>
     </row>
-    <row r="86" spans="1:8" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="6" customFormat="1" outlineLevel="1">
       <c r="A86" s="6" t="s">
         <v>258</v>
       </c>
@@ -13998,7 +13993,7 @@
       <c r="G86" s="38"/>
       <c r="H86" s="18"/>
     </row>
-    <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" outlineLevel="1">
       <c r="B87" s="7"/>
       <c r="C87" s="30" t="s">
         <v>16</v>
@@ -14009,12 +14004,12 @@
       <c r="G87" s="148"/>
       <c r="H87" s="64"/>
     </row>
-    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" outlineLevel="1">
       <c r="A88" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C88" s="151" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>22</v>
@@ -14026,12 +14021,12 @@
       <c r="G88" s="13"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" outlineLevel="1">
       <c r="A89" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>22</v>
@@ -14043,12 +14038,12 @@
       <c r="G89" s="13"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" outlineLevel="1">
       <c r="A90" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>22</v>
@@ -14060,12 +14055,12 @@
       <c r="G90" s="13"/>
       <c r="H90" s="64"/>
     </row>
-    <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" outlineLevel="1">
       <c r="A91" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C91" s="151" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>22</v>
@@ -14077,12 +14072,12 @@
       <c r="G91" s="3"/>
       <c r="H91" s="64"/>
     </row>
-    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" outlineLevel="1">
       <c r="A92" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C92" s="151" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>22</v>
@@ -14094,12 +14089,12 @@
       <c r="G92" s="3"/>
       <c r="H92" s="64"/>
     </row>
-    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" outlineLevel="1">
       <c r="A93" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C93" s="151" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>22</v>
@@ -14111,12 +14106,12 @@
       <c r="G93" s="3"/>
       <c r="H93" s="64"/>
     </row>
-    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" outlineLevel="1">
       <c r="A94" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>22</v>
@@ -14128,7 +14123,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="64"/>
     </row>
-    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" outlineLevel="1">
       <c r="B95" s="7"/>
       <c r="C95" s="149" t="s">
         <v>97</v>
@@ -14139,7 +14134,7 @@
       <c r="G95" s="148"/>
       <c r="H95" s="64"/>
     </row>
-    <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" outlineLevel="1">
       <c r="A96" s="4" t="s">
         <v>266</v>
       </c>
@@ -14156,7 +14151,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="64"/>
     </row>
-    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" outlineLevel="1">
       <c r="A97" s="4" t="s">
         <v>267</v>
       </c>
@@ -14173,7 +14168,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="64"/>
     </row>
-    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" outlineLevel="1">
       <c r="A98" s="4" t="s">
         <v>268</v>
       </c>
@@ -14190,7 +14185,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="64"/>
     </row>
-    <row r="99" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="35.1" customHeight="1">
       <c r="B99" s="53"/>
       <c r="C99" s="55" t="s">
         <v>53</v>
@@ -14209,7 +14204,7 @@
       </c>
       <c r="H99" s="18"/>
     </row>
-    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="30" outlineLevel="1">
       <c r="A100" s="4" t="s">
         <v>269</v>
       </c>
@@ -14226,7 +14221,7 @@
       <c r="G100" s="38"/>
       <c r="H100" s="64"/>
     </row>
-    <row r="101" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="35.1" customHeight="1">
       <c r="B101" s="75"/>
       <c r="C101" s="73" t="s">
         <v>4</v>
@@ -14245,7 +14240,7 @@
       </c>
       <c r="H101" s="18"/>
     </row>
-    <row r="102" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="21">
       <c r="B102" s="70"/>
       <c r="C102" s="71" t="s">
         <v>12</v>
@@ -14264,7 +14259,7 @@
       </c>
       <c r="H102" s="64"/>
     </row>
-    <row r="103" spans="1:8" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="15.75" outlineLevel="1">
       <c r="A103" s="4" t="s">
         <v>284</v>
       </c>
@@ -14281,7 +14276,7 @@
       <c r="G103" s="45"/>
       <c r="H103" s="64"/>
     </row>
-    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" outlineLevel="1">
       <c r="A104" s="4" t="s">
         <v>294</v>
       </c>
@@ -14298,7 +14293,7 @@
       <c r="G104" s="38"/>
       <c r="H104" s="64"/>
     </row>
-    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" outlineLevel="1">
       <c r="A105" s="4" t="s">
         <v>285</v>
       </c>
@@ -14315,12 +14310,12 @@
       <c r="G105" s="38"/>
       <c r="H105" s="64"/>
     </row>
-    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" outlineLevel="1">
       <c r="A106" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D106" s="39" t="s">
         <v>22</v>
@@ -14332,7 +14327,7 @@
       <c r="G106" s="38"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" outlineLevel="1">
       <c r="A107" s="4" t="s">
         <v>292</v>
       </c>
@@ -14349,7 +14344,7 @@
       <c r="G107" s="38"/>
       <c r="H107" s="64"/>
     </row>
-    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" outlineLevel="1">
       <c r="A108" s="4" t="s">
         <v>289</v>
       </c>
@@ -14366,7 +14361,7 @@
       <c r="G108" s="38"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" outlineLevel="1">
       <c r="A109" s="4" t="s">
         <v>291</v>
       </c>
@@ -14383,7 +14378,7 @@
       <c r="G109" s="38"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" outlineLevel="1">
       <c r="A110" s="4" t="s">
         <v>288</v>
       </c>
@@ -14400,7 +14395,7 @@
       <c r="G110" s="38"/>
       <c r="H110" s="64"/>
     </row>
-    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" outlineLevel="1">
       <c r="A111" s="4" t="s">
         <v>293</v>
       </c>
@@ -14417,7 +14412,7 @@
       <c r="G111" s="38"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" outlineLevel="1">
       <c r="A112" s="4" t="s">
         <v>286</v>
       </c>
@@ -14434,12 +14429,12 @@
       <c r="G112" s="38"/>
       <c r="H112" s="64"/>
     </row>
-    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" outlineLevel="1">
       <c r="A113" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D113" s="39" t="s">
         <v>22</v>
@@ -14451,7 +14446,7 @@
       <c r="G113" s="38"/>
       <c r="H113" s="64"/>
     </row>
-    <row r="114" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="21">
       <c r="B114" s="70"/>
       <c r="C114" s="71" t="s">
         <v>11</v>
@@ -14470,7 +14465,7 @@
       </c>
       <c r="H114" s="64"/>
     </row>
-    <row r="115" spans="1:8" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="15.75" outlineLevel="1">
       <c r="A115" s="4" t="s">
         <v>295</v>
       </c>
@@ -14487,12 +14482,12 @@
       <c r="G115" s="47"/>
       <c r="H115" s="64"/>
     </row>
-    <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" outlineLevel="1">
       <c r="A116" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C116" s="238" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D116" s="39" t="s">
         <v>22</v>
@@ -14504,12 +14499,12 @@
       <c r="G116" s="38"/>
       <c r="H116" s="66"/>
     </row>
-    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" outlineLevel="1">
       <c r="A117" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C117" s="238" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D117" s="39" t="s">
         <v>22</v>
@@ -14521,12 +14516,12 @@
       <c r="G117" s="38"/>
       <c r="H117" s="66"/>
     </row>
-    <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" outlineLevel="1">
       <c r="A118" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D118" s="39" t="s">
         <v>22</v>
@@ -14538,12 +14533,12 @@
       <c r="G118" s="38"/>
       <c r="H118" s="66"/>
     </row>
-    <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" outlineLevel="1">
       <c r="A119" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C119" s="238" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D119" s="39" t="s">
         <v>22</v>
@@ -14555,12 +14550,12 @@
       <c r="G119" s="38"/>
       <c r="H119" s="66"/>
     </row>
-    <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" outlineLevel="1">
       <c r="A120" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D120" s="39" t="s">
         <v>22</v>
@@ -14572,12 +14567,12 @@
       <c r="G120" s="38"/>
       <c r="H120" s="66"/>
     </row>
-    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" outlineLevel="1">
       <c r="A121" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D121" s="39" t="s">
         <v>22</v>
@@ -14589,12 +14584,12 @@
       <c r="G121" s="38"/>
       <c r="H121" s="66"/>
     </row>
-    <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" outlineLevel="1">
       <c r="A122" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D122" s="39" t="s">
         <v>22</v>
@@ -14606,7 +14601,7 @@
       <c r="G122" s="38"/>
       <c r="H122" s="66"/>
     </row>
-    <row r="123" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="21">
       <c r="B123" s="70"/>
       <c r="C123" s="71" t="s">
         <v>13</v>
@@ -14625,7 +14620,7 @@
       </c>
       <c r="H123" s="64"/>
     </row>
-    <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" outlineLevel="1">
       <c r="A124" s="4" t="s">
         <v>303</v>
       </c>
@@ -14642,7 +14637,7 @@
       <c r="G124" s="45"/>
       <c r="H124" s="64"/>
     </row>
-    <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" outlineLevel="1">
       <c r="A125" s="4" t="s">
         <v>307</v>
       </c>
@@ -14659,7 +14654,7 @@
       <c r="G125" s="38"/>
       <c r="H125" s="66"/>
     </row>
-    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" outlineLevel="1">
       <c r="A126" s="4" t="s">
         <v>306</v>
       </c>
@@ -14676,7 +14671,7 @@
       <c r="G126" s="38"/>
       <c r="H126" s="66"/>
     </row>
-    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" outlineLevel="1">
       <c r="A127" s="4" t="s">
         <v>304</v>
       </c>
@@ -14693,7 +14688,7 @@
       <c r="G127" s="38"/>
       <c r="H127" s="66"/>
     </row>
-    <row r="128" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" outlineLevel="1">
       <c r="A128" s="4" t="s">
         <v>305</v>
       </c>
@@ -14710,10 +14705,10 @@
       <c r="G128" s="38"/>
       <c r="H128" s="66"/>
     </row>
-    <row r="129" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="21">
       <c r="B129" s="70"/>
       <c r="C129" s="71" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D129" s="72" t="s">
         <v>8</v>
@@ -14729,7 +14724,7 @@
       </c>
       <c r="H129" s="64"/>
     </row>
-    <row r="130" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" outlineLevel="1">
       <c r="A130" s="4" t="s">
         <v>308</v>
       </c>
@@ -14746,7 +14741,7 @@
       <c r="G130" s="43"/>
       <c r="H130" s="18"/>
     </row>
-    <row r="131" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" outlineLevel="1">
       <c r="A131" s="4" t="s">
         <v>309</v>
       </c>
@@ -14763,7 +14758,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="66"/>
     </row>
-    <row r="132" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" outlineLevel="1">
       <c r="A132" s="4" t="s">
         <v>310</v>
       </c>
@@ -14780,7 +14775,7 @@
       <c r="G132" s="43"/>
       <c r="H132" s="18"/>
     </row>
-    <row r="133" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" outlineLevel="1">
       <c r="A133" s="4" t="s">
         <v>312</v>
       </c>
@@ -14797,7 +14792,7 @@
       <c r="G133" s="38"/>
       <c r="H133" s="66"/>
     </row>
-    <row r="134" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" outlineLevel="1">
       <c r="A134" s="4" t="s">
         <v>311</v>
       </c>
@@ -14814,7 +14809,7 @@
       <c r="G134" s="38"/>
       <c r="H134" s="66"/>
     </row>
-    <row r="135" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" outlineLevel="1">
       <c r="A135" s="4" t="s">
         <v>313</v>
       </c>
@@ -14831,7 +14826,7 @@
       <c r="G135" s="38"/>
       <c r="H135" s="66"/>
     </row>
-    <row r="136" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="21">
       <c r="B136" s="70"/>
       <c r="C136" s="71" t="s">
         <v>7</v>
@@ -14850,7 +14845,7 @@
       </c>
       <c r="H136" s="64"/>
     </row>
-    <row r="137" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" outlineLevel="1">
       <c r="A137" s="4" t="s">
         <v>270</v>
       </c>
@@ -14867,12 +14862,12 @@
       <c r="G137" s="38"/>
       <c r="H137" s="65"/>
     </row>
-    <row r="138" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" outlineLevel="1">
       <c r="A138" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C138" s="236" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>22</v>
@@ -14884,12 +14879,12 @@
       <c r="G138" s="38"/>
       <c r="H138" s="65"/>
     </row>
-    <row r="139" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" outlineLevel="1">
       <c r="A139" s="250" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C139" s="236" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>22</v>
@@ -14901,12 +14896,12 @@
       <c r="G139" s="38"/>
       <c r="H139" s="65"/>
     </row>
-    <row r="140" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" outlineLevel="1">
       <c r="A140" s="250" t="s">
         <v>274</v>
       </c>
       <c r="C140" s="236" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>22</v>
@@ -14918,12 +14913,12 @@
       <c r="G140" s="38"/>
       <c r="H140" s="65"/>
     </row>
-    <row r="141" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" outlineLevel="1">
       <c r="A141" s="250" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C141" s="236" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>22</v>
@@ -14935,7 +14930,7 @@
       <c r="G141" s="38"/>
       <c r="H141" s="65"/>
     </row>
-    <row r="142" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" outlineLevel="1">
       <c r="A142" s="4" t="s">
         <v>275</v>
       </c>
@@ -14952,12 +14947,12 @@
       <c r="G142" s="38"/>
       <c r="H142" s="65"/>
     </row>
-    <row r="143" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" outlineLevel="1">
       <c r="A143" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C143" s="236" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>22</v>
@@ -14969,12 +14964,12 @@
       <c r="G143" s="38"/>
       <c r="H143" s="65"/>
     </row>
-    <row r="144" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" outlineLevel="1">
       <c r="A144" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C144" s="236" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>22</v>
@@ -14986,12 +14981,12 @@
       <c r="G144" s="38"/>
       <c r="H144" s="65"/>
     </row>
-    <row r="145" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" outlineLevel="1">
       <c r="A145" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C145" s="236" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>22</v>
@@ -15003,12 +14998,12 @@
       <c r="G145" s="38"/>
       <c r="H145" s="65"/>
     </row>
-    <row r="146" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" outlineLevel="1">
       <c r="A146" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C146" s="236" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>22</v>
@@ -15020,12 +15015,12 @@
       <c r="G146" s="38"/>
       <c r="H146" s="65"/>
     </row>
-    <row r="147" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" outlineLevel="1">
       <c r="A147" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C147" s="236" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>22</v>
@@ -15037,12 +15032,12 @@
       <c r="G147" s="38"/>
       <c r="H147" s="65"/>
     </row>
-    <row r="148" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" outlineLevel="1">
       <c r="A148" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C148" s="236" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>22</v>
@@ -15054,7 +15049,7 @@
       <c r="G148" s="38"/>
       <c r="H148" s="65"/>
     </row>
-    <row r="149" spans="1:8" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="15.75" outlineLevel="1">
       <c r="A149" s="4" t="s">
         <v>316</v>
       </c>
@@ -15071,7 +15066,7 @@
       <c r="G149" s="38"/>
       <c r="H149" s="65"/>
     </row>
-    <row r="150" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" outlineLevel="1">
       <c r="B150" s="127"/>
       <c r="C150" s="133" t="s">
         <v>235</v>
@@ -15086,7 +15081,7 @@
       <c r="G150" s="38"/>
       <c r="H150" s="65"/>
     </row>
-    <row r="151" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" outlineLevel="1">
       <c r="B151" s="127"/>
       <c r="C151" s="133" t="s">
         <v>235</v>
@@ -15101,7 +15096,7 @@
       <c r="G151" s="38"/>
       <c r="H151" s="65"/>
     </row>
-    <row r="152" spans="1:8" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="15.75" outlineLevel="1">
       <c r="A152" s="4" t="s">
         <v>317</v>
       </c>
@@ -15118,7 +15113,7 @@
       <c r="G152" s="38"/>
       <c r="H152" s="65"/>
     </row>
-    <row r="153" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" outlineLevel="1">
       <c r="B153" s="127"/>
       <c r="C153" s="150" t="s">
         <v>370</v>
@@ -15133,7 +15128,7 @@
       <c r="G153" s="38"/>
       <c r="H153" s="65"/>
     </row>
-    <row r="154" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" outlineLevel="1">
       <c r="C154" s="128" t="s">
         <v>370</v>
       </c>
@@ -15147,7 +15142,7 @@
       <c r="G154" s="38"/>
       <c r="H154" s="65"/>
     </row>
-    <row r="155" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="35.1" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>283</v>
       </c>
@@ -15169,7 +15164,7 @@
       </c>
       <c r="H155" s="64"/>
     </row>
-    <row r="156" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="30" outlineLevel="1">
       <c r="A156" s="4" t="s">
         <v>314</v>
       </c>
@@ -15186,7 +15181,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="64"/>
     </row>
-    <row r="157" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="21">
       <c r="B157" s="58"/>
       <c r="C157" s="58" t="s">
         <v>1</v>
@@ -15205,7 +15200,7 @@
       </c>
       <c r="H157" s="64"/>
     </row>
-    <row r="158" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" outlineLevel="1">
       <c r="A158" s="4" t="s">
         <v>315</v>
       </c>
@@ -15222,7 +15217,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="64"/>
     </row>
-    <row r="159" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" outlineLevel="1">
       <c r="C159" s="150" t="s">
         <v>369</v>
       </c>
@@ -15236,7 +15231,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="64"/>
     </row>
-    <row r="160" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" outlineLevel="1">
       <c r="C160" s="150" t="s">
         <v>369</v>
       </c>
@@ -15250,7 +15245,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="64"/>
     </row>
-    <row r="161" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" outlineLevel="1">
       <c r="C161" s="150" t="s">
         <v>369</v>
       </c>
@@ -15264,7 +15259,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="64"/>
     </row>
-    <row r="162" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" outlineLevel="1">
       <c r="C162" s="46" t="s">
         <v>15</v>
       </c>
@@ -15278,7 +15273,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="64"/>
     </row>
-    <row r="163" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" outlineLevel="1">
       <c r="C163" s="46" t="s">
         <v>15</v>
       </c>
@@ -15292,7 +15287,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="64"/>
     </row>
-    <row r="164" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="21">
       <c r="A164" s="4" t="s">
         <v>283</v>
       </c>
@@ -15314,7 +15309,7 @@
       </c>
       <c r="H164" s="64"/>
     </row>
-    <row r="165" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" outlineLevel="1">
       <c r="A165" s="4" t="s">
         <v>318</v>
       </c>
@@ -15331,7 +15326,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="64"/>
     </row>
-    <row r="166" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" outlineLevel="1">
       <c r="C166" s="150" t="s">
         <v>369</v>
       </c>
@@ -15345,7 +15340,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="64"/>
     </row>
-    <row r="167" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" outlineLevel="1">
       <c r="C167" s="150" t="s">
         <v>369</v>
       </c>
@@ -15359,7 +15354,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="64"/>
     </row>
-    <row r="168" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" outlineLevel="1">
       <c r="C168" s="150" t="s">
         <v>369</v>
       </c>
@@ -15373,7 +15368,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="64"/>
     </row>
-    <row r="169" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" outlineLevel="1">
       <c r="C169" s="46" t="s">
         <v>15</v>
       </c>
@@ -15387,7 +15382,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="64"/>
     </row>
-    <row r="170" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" outlineLevel="1">
       <c r="C170" s="46" t="s">
         <v>15</v>
       </c>
@@ -15401,7 +15396,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="64"/>
     </row>
-    <row r="171" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="21">
       <c r="A171" s="4" t="s">
         <v>283</v>
       </c>
@@ -15423,7 +15418,7 @@
       </c>
       <c r="H171" s="64"/>
     </row>
-    <row r="172" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" outlineLevel="1">
       <c r="A172" s="4" t="s">
         <v>319</v>
       </c>
@@ -15440,7 +15435,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="64"/>
     </row>
-    <row r="173" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" outlineLevel="1">
       <c r="C173" s="150" t="s">
         <v>369</v>
       </c>
@@ -15454,7 +15449,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="64"/>
     </row>
-    <row r="174" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" outlineLevel="1">
       <c r="C174" s="150" t="s">
         <v>369</v>
       </c>
@@ -15468,7 +15463,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="64"/>
     </row>
-    <row r="175" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" outlineLevel="1">
       <c r="C175" s="150" t="s">
         <v>369</v>
       </c>
@@ -15482,7 +15477,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="64"/>
     </row>
-    <row r="176" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" outlineLevel="1">
       <c r="C176" s="46" t="s">
         <v>15</v>
       </c>
@@ -15496,7 +15491,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="64"/>
     </row>
-    <row r="177" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" outlineLevel="1">
       <c r="C177" s="46" t="s">
         <v>15</v>
       </c>
@@ -15510,7 +15505,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="64"/>
     </row>
-    <row r="178" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>283</v>
       </c>
@@ -15532,7 +15527,7 @@
       </c>
       <c r="H178" s="64"/>
     </row>
-    <row r="179" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" outlineLevel="1">
       <c r="A179" s="4" t="s">
         <v>320</v>
       </c>
@@ -15549,7 +15544,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="64"/>
     </row>
-    <row r="180" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="35.1" customHeight="1">
       <c r="A180" s="115"/>
       <c r="B180" s="116"/>
       <c r="C180" s="114" t="s">
@@ -15569,13 +15564,13 @@
       </c>
       <c r="H180" s="64"/>
     </row>
-    <row r="181" spans="1:13" s="11" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A181" s="11" t="s">
         <v>321</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -15592,7 +15587,7 @@
       <c r="L181" s="90"/>
       <c r="M181" s="91"/>
     </row>
-    <row r="182" spans="1:13" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" s="194" customFormat="1" ht="21">
       <c r="B182" s="117"/>
       <c r="C182" s="117" t="s">
         <v>159</v>
@@ -15611,13 +15606,13 @@
       </c>
       <c r="H182" s="84"/>
     </row>
-    <row r="183" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A183" s="87" t="s">
         <v>322</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -15634,7 +15629,7 @@
       <c r="L183" s="90"/>
       <c r="M183" s="89"/>
     </row>
-    <row r="184" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B184" s="12"/>
       <c r="C184" s="129" t="s">
         <v>234</v>
@@ -15654,7 +15649,7 @@
       <c r="L184" s="90"/>
       <c r="M184" s="94"/>
     </row>
-    <row r="185" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B185" s="12"/>
       <c r="C185" s="129" t="s">
         <v>234</v>
@@ -15674,7 +15669,7 @@
       <c r="L185" s="90"/>
       <c r="M185" s="94"/>
     </row>
-    <row r="186" spans="1:13" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" s="194" customFormat="1" ht="21">
       <c r="A186" s="194" t="s">
         <v>283</v>
       </c>
@@ -15696,13 +15691,13 @@
       </c>
       <c r="H186" s="84"/>
     </row>
-    <row r="187" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A187" s="87" t="s">
         <v>323</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -15719,7 +15714,7 @@
       <c r="L187" s="90"/>
       <c r="M187" s="94"/>
     </row>
-    <row r="188" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B188" s="127"/>
       <c r="C188" s="129" t="s">
         <v>234</v>
@@ -15739,7 +15734,7 @@
       <c r="L188" s="90"/>
       <c r="M188" s="94"/>
     </row>
-    <row r="189" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B189" s="12"/>
       <c r="C189" s="129" t="s">
         <v>234</v>
@@ -15759,7 +15754,7 @@
       <c r="L189" s="90"/>
       <c r="M189" s="94"/>
     </row>
-    <row r="190" spans="1:13" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" s="194" customFormat="1" ht="21">
       <c r="A190" s="195" t="s">
         <v>283</v>
       </c>
@@ -15781,13 +15776,13 @@
       </c>
       <c r="H190" s="84"/>
     </row>
-    <row r="191" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A191" s="87" t="s">
         <v>324</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -15804,7 +15799,7 @@
       <c r="L191" s="90"/>
       <c r="M191" s="94"/>
     </row>
-    <row r="192" spans="1:13" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B192" s="12"/>
       <c r="C192" s="129" t="s">
         <v>234</v>
@@ -15824,7 +15819,7 @@
       <c r="L192" s="90"/>
       <c r="M192" s="94"/>
     </row>
-    <row r="193" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B193" s="12"/>
       <c r="C193" s="129" t="s">
         <v>234</v>
@@ -15844,7 +15839,7 @@
       <c r="L193" s="90"/>
       <c r="M193" s="94"/>
     </row>
-    <row r="194" spans="1:14" s="194" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A194" s="195" t="s">
         <v>283</v>
       </c>
@@ -15866,13 +15861,13 @@
       </c>
       <c r="H194" s="84"/>
     </row>
-    <row r="195" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A195" s="87" t="s">
         <v>325</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -15890,7 +15885,7 @@
       <c r="M195" s="94"/>
       <c r="N195" s="96"/>
     </row>
-    <row r="196" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B196" s="12"/>
       <c r="C196" s="131" t="s">
         <v>234</v>
@@ -15910,7 +15905,7 @@
       <c r="L196" s="90"/>
       <c r="M196" s="86"/>
     </row>
-    <row r="197" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B197" s="12"/>
       <c r="C197" s="131" t="s">
         <v>234</v>
@@ -15930,7 +15925,7 @@
       <c r="L197" s="90"/>
       <c r="M197" s="94"/>
     </row>
-    <row r="198" spans="1:14" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" s="194" customFormat="1" ht="21">
       <c r="A198" s="195" t="s">
         <v>283</v>
       </c>
@@ -15952,13 +15947,13 @@
       </c>
       <c r="H198" s="84"/>
     </row>
-    <row r="199" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A199" s="87" t="s">
         <v>326</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -15975,7 +15970,7 @@
       <c r="L199" s="90"/>
       <c r="M199" s="94"/>
     </row>
-    <row r="200" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B200" s="127"/>
       <c r="C200" s="129" t="s">
         <v>234</v>
@@ -15996,7 +15991,7 @@
       <c r="M200" s="94"/>
       <c r="N200" s="96"/>
     </row>
-    <row r="201" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B201" s="12"/>
       <c r="C201" s="129" t="s">
         <v>234</v>
@@ -16016,7 +16011,7 @@
       <c r="L201" s="90"/>
       <c r="M201" s="94"/>
     </row>
-    <row r="202" spans="1:14" s="194" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" s="194" customFormat="1" ht="21">
       <c r="A202" s="195" t="s">
         <v>283</v>
       </c>
@@ -16038,13 +16033,13 @@
       </c>
       <c r="H202" s="84"/>
     </row>
-    <row r="203" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A203" s="87" t="s">
         <v>327</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -16061,7 +16056,7 @@
       <c r="L203" s="90"/>
       <c r="M203" s="94"/>
     </row>
-    <row r="204" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B204" s="12"/>
       <c r="C204" s="141" t="s">
         <v>234</v>
@@ -16081,7 +16076,7 @@
       <c r="L204" s="90"/>
       <c r="M204" s="95"/>
     </row>
-    <row r="205" spans="1:14" s="87" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B205" s="12"/>
       <c r="C205" s="141" t="s">
         <v>234</v>
@@ -16101,13 +16096,13 @@
       <c r="L205" s="90"/>
       <c r="M205" s="94"/>
     </row>
-    <row r="206" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" ht="35.1" customHeight="1">
       <c r="A206" s="11" t="s">
         <v>283</v>
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
@@ -16128,7 +16123,7 @@
       <c r="L206" s="78"/>
       <c r="M206" s="79"/>
     </row>
-    <row r="207" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="B207" s="197"/>
       <c r="C207" s="204" t="s">
         <v>140</v>
@@ -16152,7 +16147,7 @@
       <c r="L207" s="80"/>
       <c r="M207" s="8"/>
     </row>
-    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A208" s="9" t="s">
         <v>328</v>
       </c>
@@ -16175,13 +16170,13 @@
       <c r="L208" s="78"/>
       <c r="M208" s="82"/>
     </row>
-    <row r="209" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A209" s="9" t="s">
         <v>329</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>142</v>
@@ -16198,13 +16193,13 @@
       <c r="L209" s="78"/>
       <c r="M209" s="82"/>
     </row>
-    <row r="210" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A210" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>142</v>
@@ -16221,7 +16216,7 @@
       <c r="L210" s="78"/>
       <c r="M210" s="82"/>
     </row>
-    <row r="211" spans="1:28" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B211" s="197"/>
       <c r="C211" s="204" t="s">
         <v>143</v>
@@ -16259,7 +16254,7 @@
       <c r="AA211" s="4"/>
       <c r="AB211" s="4"/>
     </row>
-    <row r="212" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A212" s="106" t="s">
         <v>331</v>
       </c>
@@ -16296,7 +16291,7 @@
       <c r="AA212" s="4"/>
       <c r="AB212" s="4"/>
     </row>
-    <row r="213" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A213" s="106" t="s">
         <v>332</v>
       </c>
@@ -16333,7 +16328,7 @@
       <c r="AA213" s="4"/>
       <c r="AB213" s="4"/>
     </row>
-    <row r="214" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A214" s="106" t="s">
         <v>333</v>
       </c>
@@ -16370,7 +16365,7 @@
       <c r="AA214" s="4"/>
       <c r="AB214" s="4"/>
     </row>
-    <row r="215" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A215" s="106" t="s">
         <v>334</v>
       </c>
@@ -16407,7 +16402,7 @@
       <c r="AA215" s="4"/>
       <c r="AB215" s="4"/>
     </row>
-    <row r="216" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A216" s="106" t="s">
         <v>335</v>
       </c>
@@ -16444,7 +16439,7 @@
       <c r="AA216" s="4"/>
       <c r="AB216" s="4"/>
     </row>
-    <row r="217" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A217" s="106" t="s">
         <v>336</v>
       </c>
@@ -16481,7 +16476,7 @@
       <c r="AA217" s="4"/>
       <c r="AB217" s="4"/>
     </row>
-    <row r="218" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A218" s="106" t="s">
         <v>337</v>
       </c>
@@ -16518,7 +16513,7 @@
       <c r="AA218" s="4"/>
       <c r="AB218" s="4"/>
     </row>
-    <row r="219" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A219" s="106" t="s">
         <v>338</v>
       </c>
@@ -16555,7 +16550,7 @@
       <c r="AA219" s="4"/>
       <c r="AB219" s="4"/>
     </row>
-    <row r="220" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A220" s="106" t="s">
         <v>339</v>
       </c>
@@ -16592,7 +16587,7 @@
       <c r="AA220" s="4"/>
       <c r="AB220" s="4"/>
     </row>
-    <row r="221" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A221" s="106" t="s">
         <v>340</v>
       </c>
@@ -16629,7 +16624,7 @@
       <c r="AA221" s="4"/>
       <c r="AB221" s="4"/>
     </row>
-    <row r="222" spans="1:28" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A222" s="106" t="s">
         <v>341</v>
       </c>
@@ -16666,10 +16661,10 @@
       <c r="AA222" s="4"/>
       <c r="AB222" s="4"/>
     </row>
-    <row r="223" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="197"/>
       <c r="C223" s="204" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
@@ -16690,9 +16685,9 @@
       <c r="L223" s="80"/>
       <c r="M223" s="8"/>
     </row>
-    <row r="224" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A224" s="252" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
@@ -16713,9 +16708,9 @@
       <c r="L224" s="78"/>
       <c r="M224" s="82"/>
     </row>
-    <row r="225" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A225" s="252" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
@@ -16736,9 +16731,9 @@
       <c r="L225" s="78"/>
       <c r="M225" s="82"/>
     </row>
-    <row r="226" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A226" s="252" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
@@ -16759,7 +16754,7 @@
       <c r="L226" s="78"/>
       <c r="M226" s="82"/>
     </row>
-    <row r="227" spans="1:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" ht="35.1" customHeight="1">
       <c r="B227" s="61"/>
       <c r="C227" s="60" t="s">
         <v>14</v>
@@ -16778,7 +16773,7 @@
       </c>
       <c r="H227" s="18"/>
     </row>
-    <row r="228" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" ht="21">
       <c r="B228" s="206"/>
       <c r="C228" s="207" t="s">
         <v>745</v>
@@ -16797,7 +16792,7 @@
       </c>
       <c r="H228" s="64"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" outlineLevel="1">
       <c r="A229" s="4" t="s">
         <v>342</v>
       </c>
@@ -16815,7 +16810,7 @@
       <c r="G229" s="3"/>
       <c r="H229" s="64"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" outlineLevel="1">
       <c r="A230" s="4" t="s">
         <v>343</v>
       </c>
@@ -16833,7 +16828,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="64"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" outlineLevel="1">
       <c r="A231" s="4" t="s">
         <v>344</v>
       </c>
@@ -16851,7 +16846,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="64"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" outlineLevel="1">
       <c r="A232" s="4" t="s">
         <v>345</v>
       </c>
@@ -16869,7 +16864,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="64"/>
     </row>
-    <row r="233" spans="1:28" ht="21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" ht="21">
       <c r="B233" s="206"/>
       <c r="C233" s="207" t="s">
         <v>20</v>
@@ -16888,7 +16883,7 @@
       </c>
       <c r="H233" s="64"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" outlineLevel="1">
       <c r="A234" s="4" t="s">
         <v>346</v>
       </c>
@@ -16906,7 +16901,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="64"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" outlineLevel="1">
       <c r="A235" s="4" t="s">
         <v>347</v>
       </c>
@@ -16924,7 +16919,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="64"/>
     </row>
-    <row r="236" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" outlineLevel="1">
       <c r="A236" s="4" t="s">
         <v>348</v>
       </c>
@@ -16942,7 +16937,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="64"/>
     </row>
-    <row r="237" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" outlineLevel="1">
       <c r="A237" s="4" t="s">
         <v>349</v>
       </c>
@@ -16960,7 +16955,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="64"/>
     </row>
-    <row r="238" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" outlineLevel="1">
       <c r="A238" s="4" t="s">
         <v>350</v>
       </c>
@@ -16978,10 +16973,10 @@
       <c r="G238" s="3"/>
       <c r="H238" s="64"/>
     </row>
-    <row r="239" spans="1:28" s="86" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
@@ -17016,9 +17011,9 @@
       <c r="AA239" s="87"/>
       <c r="AB239" s="87"/>
     </row>
-    <row r="240" spans="1:28" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A240" s="87" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="26" t="s">
@@ -17039,9 +17034,9 @@
       <c r="L240" s="85"/>
       <c r="M240" s="86"/>
     </row>
-    <row r="241" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A241" s="87" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B241" s="12"/>
       <c r="C241" s="150" t="s">
@@ -17062,9 +17057,9 @@
       <c r="L241" s="85"/>
       <c r="M241" s="86"/>
     </row>
-    <row r="242" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A242" s="87" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B242" s="12"/>
       <c r="C242" s="150" t="s">
@@ -17085,13 +17080,13 @@
       <c r="L242" s="85"/>
       <c r="M242" s="86"/>
     </row>
-    <row r="243" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A243" s="253" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>32</v>
@@ -17108,13 +17103,13 @@
       <c r="L243" s="85"/>
       <c r="M243" s="86"/>
     </row>
-    <row r="244" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A244" s="253" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>32</v>
@@ -17131,16 +17126,16 @@
       <c r="L244" s="85"/>
       <c r="M244" s="86"/>
     </row>
-    <row r="245" spans="1:13" s="87" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A245" s="253" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E245" s="111" t="s">
         <v>99</v>
@@ -17279,12 +17274,12 @@
       <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="18.83203125" customWidth="1"/>
+    <col min="1" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="234" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="234" customFormat="1">
       <c r="A1" s="233" t="s">
         <v>117</v>
       </c>
@@ -17316,10 +17311,10 @@
         <v>0</v>
       </c>
       <c r="K1" s="235" t="s">
+        <v>784</v>
+      </c>
+      <c r="L1" s="235" t="s">
         <v>785</v>
-      </c>
-      <c r="L1" s="235" t="s">
-        <v>786</v>
       </c>
       <c r="M1" s="235" t="s">
         <v>114</v>
@@ -17328,10 +17323,10 @@
         <v>115</v>
       </c>
       <c r="O1" s="235" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>367</v>
       </c>
@@ -17378,7 +17373,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -17389,7 +17384,7 @@
         <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>168</v>
@@ -17419,13 +17414,13 @@
         <v>371</v>
       </c>
       <c r="N3" s="256" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O3" s="256" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -17472,7 +17467,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>126</v>
       </c>
@@ -17480,7 +17475,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>180</v>
@@ -17513,13 +17508,13 @@
         <v>373</v>
       </c>
       <c r="N5" s="256" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O5" s="256" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -17533,7 +17528,7 @@
         <v>187</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>188</v>
@@ -17554,13 +17549,13 @@
         <v>374</v>
       </c>
       <c r="N6" s="256" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O6" s="256" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -17571,13 +17566,13 @@
         <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>192</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>193</v>
@@ -17598,7 +17593,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -17624,10 +17619,10 @@
         <v>492</v>
       </c>
       <c r="O8" s="256" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="D9" s="1" t="s">
         <v>198</v>
       </c>
@@ -17644,7 +17639,7 @@
         <v>361</v>
       </c>
       <c r="M9" s="256" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N9" s="256" t="s">
         <v>493</v>
@@ -17653,7 +17648,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="D10" s="1" t="s">
         <v>201</v>
       </c>
@@ -17679,7 +17674,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="27.95" thickBot="1">
       <c r="D11" s="1" t="s">
         <v>204</v>
       </c>
@@ -17705,9 +17700,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="D12" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>207</v>
@@ -17719,7 +17714,7 @@
         <v>59</v>
       </c>
       <c r="M12" s="256" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N12" s="256" t="s">
         <v>496</v>
@@ -17728,7 +17723,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="G13" s="1" t="s">
         <v>208</v>
       </c>
@@ -17748,9 +17743,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="G14" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>232</v>
@@ -17768,7 +17763,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I15" s="1" t="s">
         <v>210</v>
       </c>
@@ -17779,13 +17774,13 @@
         <v>381</v>
       </c>
       <c r="N15" s="256" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O15" s="256" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I16" s="1" t="s">
         <v>211</v>
       </c>
@@ -17793,7 +17788,7 @@
         <v>64</v>
       </c>
       <c r="M16" s="256" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N16" s="256" t="s">
         <v>499</v>
@@ -17802,7 +17797,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I17" s="1" t="s">
         <v>212</v>
       </c>
@@ -17819,7 +17814,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="18" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I18" s="1" t="s">
         <v>213</v>
       </c>
@@ -17836,7 +17831,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="19" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I19" s="1" t="s">
         <v>214</v>
       </c>
@@ -17844,7 +17839,7 @@
         <v>73</v>
       </c>
       <c r="M19" s="256" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N19" s="256" t="s">
         <v>502</v>
@@ -17853,7 +17848,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I20" s="1" t="s">
         <v>215</v>
       </c>
@@ -17870,7 +17865,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I21" s="1" t="s">
         <v>233</v>
       </c>
@@ -17887,7 +17882,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I22" s="1" t="s">
         <v>216</v>
       </c>
@@ -17904,7 +17899,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I23" s="1" t="s">
         <v>217</v>
       </c>
@@ -17921,7 +17916,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I24" s="1" t="s">
         <v>218</v>
       </c>
@@ -17932,13 +17927,13 @@
         <v>388</v>
       </c>
       <c r="N24" s="256" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O24" s="256" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="25" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="25" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I25" s="1" t="s">
         <v>219</v>
       </c>
@@ -17955,7 +17950,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I26" s="1" t="s">
         <v>220</v>
       </c>
@@ -17972,7 +17967,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I27" s="1" t="s">
         <v>221</v>
       </c>
@@ -17989,7 +17984,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="28" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I28" s="1" t="s">
         <v>222</v>
       </c>
@@ -18006,7 +18001,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I29" s="1" t="s">
         <v>223</v>
       </c>
@@ -18017,13 +18012,13 @@
         <v>393</v>
       </c>
       <c r="N29" s="256" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O29" s="256" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I30" s="1" t="s">
         <v>228</v>
       </c>
@@ -18031,7 +18026,7 @@
         <v>83</v>
       </c>
       <c r="M30" s="256" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N30" s="256" t="s">
         <v>510</v>
@@ -18040,7 +18035,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="31" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I31" s="1" t="s">
         <v>229</v>
       </c>
@@ -18057,7 +18052,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="32" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I32" s="1" t="s">
         <v>224</v>
       </c>
@@ -18068,13 +18063,13 @@
         <v>395</v>
       </c>
       <c r="N32" s="256" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O32" s="256" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I33" s="1" t="s">
         <v>230</v>
       </c>
@@ -18088,10 +18083,10 @@
         <v>512</v>
       </c>
       <c r="O33" s="256" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="34" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I34" s="1" t="s">
         <v>225</v>
       </c>
@@ -18108,7 +18103,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="9:15" s="1" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:15" s="1" customFormat="1" ht="27.95" thickBot="1">
       <c r="I35" s="1" t="s">
         <v>226</v>
       </c>
@@ -18125,7 +18120,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="36" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="I36" s="1" t="s">
         <v>227</v>
       </c>
@@ -18142,21 +18137,21 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="J37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M37" s="256" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N37" s="256" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O37" s="256" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="38" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="J38" s="1" t="s">
         <v>87</v>
       </c>
@@ -18170,7 +18165,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="J39" s="1" t="s">
         <v>88</v>
       </c>
@@ -18184,7 +18179,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M40" s="256" t="s">
         <v>402</v>
       </c>
@@ -18195,9 +18190,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M41" s="256" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N41" s="256" t="s">
         <v>519</v>
@@ -18206,7 +18201,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M42" s="256" t="s">
         <v>404</v>
       </c>
@@ -18217,7 +18212,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="43" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M43" s="256" t="s">
         <v>405</v>
       </c>
@@ -18228,7 +18223,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="9:15" s="1" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:15" s="1" customFormat="1" ht="27.95" thickBot="1">
       <c r="M44" s="256" t="s">
         <v>406</v>
       </c>
@@ -18239,7 +18234,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M45" s="256" t="s">
         <v>407</v>
       </c>
@@ -18250,7 +18245,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M46" s="256" t="s">
         <v>408</v>
       </c>
@@ -18261,7 +18256,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="47" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M47" s="256" t="s">
         <v>409</v>
       </c>
@@ -18272,7 +18267,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="48" spans="9:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M48" s="256" t="s">
         <v>410</v>
       </c>
@@ -18280,10 +18275,10 @@
         <v>526</v>
       </c>
       <c r="O48" s="256" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="49" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M49" s="256" t="s">
         <v>411</v>
       </c>
@@ -18291,10 +18286,10 @@
         <v>527</v>
       </c>
       <c r="O49" s="256" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="50" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M50" s="256" t="s">
         <v>403</v>
       </c>
@@ -18305,7 +18300,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="51" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M51" s="256" t="s">
         <v>412</v>
       </c>
@@ -18316,18 +18311,18 @@
         <v>610</v>
       </c>
     </row>
-    <row r="52" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M52" s="256" t="s">
         <v>413</v>
       </c>
       <c r="N52" s="256" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O52" s="256" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="53" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M53" s="256" t="s">
         <v>414</v>
       </c>
@@ -18338,7 +18333,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="54" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M54" s="256" t="s">
         <v>415</v>
       </c>
@@ -18349,9 +18344,9 @@
         <v>613</v>
       </c>
     </row>
-    <row r="55" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M55" s="256" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N55" s="256" t="s">
         <v>531</v>
@@ -18360,18 +18355,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="13:15" s="1" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:15" s="1" customFormat="1" ht="27.95" thickBot="1">
       <c r="M56" s="256" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N56" s="256" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O56" s="256" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="57" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M57" s="256" t="s">
         <v>416</v>
       </c>
@@ -18382,7 +18377,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="58" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M58" s="256" t="s">
         <v>417</v>
       </c>
@@ -18393,7 +18388,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="59" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M59" s="256" t="s">
         <v>418</v>
       </c>
@@ -18404,7 +18399,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="60" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M60" s="256" t="s">
         <v>419</v>
       </c>
@@ -18415,7 +18410,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="61" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M61" s="256" t="s">
         <v>420</v>
       </c>
@@ -18426,7 +18421,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="62" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M62" s="256" t="s">
         <v>421</v>
       </c>
@@ -18437,9 +18432,9 @@
         <v>621</v>
       </c>
     </row>
-    <row r="63" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M63" s="256" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N63" s="256" t="s">
         <v>539</v>
@@ -18448,7 +18443,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M64" s="256" t="s">
         <v>422</v>
       </c>
@@ -18459,40 +18454,40 @@
         <v>622</v>
       </c>
     </row>
-    <row r="65" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M65" s="256" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N65" s="256" t="s">
         <v>541</v>
       </c>
       <c r="O65" s="256" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="66" spans="13:15" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
       <c r="M66" s="256" t="s">
         <v>423</v>
       </c>
       <c r="N66" s="256" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O66" s="256" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="67" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" ht="15.95" thickBot="1">
       <c r="M67" s="256" t="s">
         <v>424</v>
       </c>
       <c r="N67" s="256" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O67" s="256" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="13:15" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:15" ht="27.95" thickBot="1">
       <c r="M68" s="256" t="s">
         <v>425</v>
       </c>
@@ -18503,9 +18498,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="69" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:15" ht="15.95" thickBot="1">
       <c r="M69" s="256" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N69" s="256" t="s">
         <v>543</v>
@@ -18514,9 +18509,9 @@
         <v>625</v>
       </c>
     </row>
-    <row r="70" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="13:15" ht="15.95" thickBot="1">
       <c r="M70" s="256" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="N70" s="256" t="s">
         <v>544</v>
@@ -18525,18 +18520,18 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="13:15" ht="15.95" thickBot="1">
       <c r="M71" s="256" t="s">
         <v>426</v>
       </c>
       <c r="N71" s="256" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O71" s="256" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="72" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="13:15" ht="15.95" thickBot="1">
       <c r="M72" s="256" t="s">
         <v>427</v>
       </c>
@@ -18544,10 +18539,10 @@
         <v>545</v>
       </c>
       <c r="O72" s="256" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="73" spans="13:15" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="73" spans="13:15" ht="27.95" thickBot="1">
       <c r="M73" s="256" t="s">
         <v>428</v>
       </c>
@@ -18558,7 +18553,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="74" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="13:15" ht="15.95" thickBot="1">
       <c r="M74" s="256" t="s">
         <v>429</v>
       </c>
@@ -18566,12 +18561,12 @@
         <v>547</v>
       </c>
       <c r="O74" s="256" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="75" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="75" spans="13:15" ht="15.95" thickBot="1">
       <c r="M75" s="256" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N75" s="256" t="s">
         <v>548</v>
@@ -18580,7 +18575,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="76" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="13:15" ht="15.95" thickBot="1">
       <c r="M76" s="256" t="s">
         <v>431</v>
       </c>
@@ -18588,10 +18583,10 @@
         <v>549</v>
       </c>
       <c r="O76" s="256" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="77" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="77" spans="13:15" ht="15.95" thickBot="1">
       <c r="M77" s="256" t="s">
         <v>430</v>
       </c>
@@ -18599,10 +18594,10 @@
         <v>550</v>
       </c>
       <c r="O77" s="256" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="78" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="78" spans="13:15" ht="15.95" thickBot="1">
       <c r="M78" s="256" t="s">
         <v>432</v>
       </c>
@@ -18613,7 +18608,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="79" spans="13:15" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="13:15" ht="27.95" thickBot="1">
       <c r="M79" s="256" t="s">
         <v>433</v>
       </c>
@@ -18624,18 +18619,18 @@
         <v>631</v>
       </c>
     </row>
-    <row r="80" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="13:15" ht="15.95" thickBot="1">
       <c r="M80" s="256" t="s">
         <v>434</v>
       </c>
       <c r="N80" s="256" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O80" s="256" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:15" ht="15.95" thickBot="1">
       <c r="M81" s="256" t="s">
         <v>435</v>
       </c>
@@ -18646,7 +18641,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="82" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:15" ht="15.95" thickBot="1">
       <c r="M82" s="256" t="s">
         <v>436</v>
       </c>
@@ -18654,21 +18649,21 @@
         <v>554</v>
       </c>
       <c r="O82" s="256" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="83" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="83" spans="13:15" ht="15.95" thickBot="1">
       <c r="M83" s="256" t="s">
         <v>437</v>
       </c>
       <c r="N83" s="256" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O83" s="256" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="84" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:15" ht="15.95" thickBot="1">
       <c r="M84" s="256" t="s">
         <v>438</v>
       </c>
@@ -18679,7 +18674,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="85" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="13:15" ht="15.95" thickBot="1">
       <c r="M85" s="256" t="s">
         <v>439</v>
       </c>
@@ -18690,7 +18685,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="13:15" ht="15.95" thickBot="1">
       <c r="M86" s="256" t="s">
         <v>440</v>
       </c>
@@ -18701,7 +18696,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="87" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="13:15" ht="15.95" thickBot="1">
       <c r="M87" s="256" t="s">
         <v>441</v>
       </c>
@@ -18712,7 +18707,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="88" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="13:15" ht="15.95" thickBot="1">
       <c r="M88" s="256" t="s">
         <v>442</v>
       </c>
@@ -18720,10 +18715,10 @@
         <v>559</v>
       </c>
       <c r="O88" s="256" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="89" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="89" spans="13:15" ht="15.95" thickBot="1">
       <c r="M89" s="256" t="s">
         <v>443</v>
       </c>
@@ -18731,21 +18726,21 @@
         <v>560</v>
       </c>
       <c r="O89" s="256" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="90" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="90" spans="13:15" ht="15.95" thickBot="1">
       <c r="M90" s="256" t="s">
         <v>444</v>
       </c>
       <c r="N90" s="256" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O90" s="256" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="91" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="91" spans="13:15" ht="15.95" thickBot="1">
       <c r="M91" s="256" t="s">
         <v>445</v>
       </c>
@@ -18756,7 +18751,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="92" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="13:15" ht="15.95" thickBot="1">
       <c r="M92" s="256" t="s">
         <v>446</v>
       </c>
@@ -18767,9 +18762,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="93" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="13:15" ht="15.95" thickBot="1">
       <c r="M93" s="256" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="N93" s="256" t="s">
         <v>563</v>
@@ -18778,7 +18773,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="13:15" ht="15.95" thickBot="1">
       <c r="M94" s="256" t="s">
         <v>447</v>
       </c>
@@ -18789,7 +18784,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="95" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="13:15" ht="15.95" thickBot="1">
       <c r="M95" s="256" t="s">
         <v>448</v>
       </c>
@@ -18800,7 +18795,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="96" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="13:15" ht="15.95" thickBot="1">
       <c r="M96" s="256" t="s">
         <v>449</v>
       </c>
@@ -18811,7 +18806,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="97" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="13:15" ht="15.95" thickBot="1">
       <c r="M97" s="256" t="s">
         <v>450</v>
       </c>
@@ -18822,7 +18817,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="13:15" ht="15.95" thickBot="1">
       <c r="M98" s="256" t="s">
         <v>451</v>
       </c>
@@ -18833,7 +18828,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="99" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="13:15" ht="15.95" thickBot="1">
       <c r="M99" s="256" t="s">
         <v>452</v>
       </c>
@@ -18844,7 +18839,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="100" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="13:15" ht="15.95" thickBot="1">
       <c r="M100" s="256" t="s">
         <v>453</v>
       </c>
@@ -18852,10 +18847,10 @@
         <v>570</v>
       </c>
       <c r="O100" s="256" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="101" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="101" spans="13:15" ht="15.95" thickBot="1">
       <c r="M101" s="256" t="s">
         <v>454</v>
       </c>
@@ -18866,7 +18861,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="102" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="13:15" ht="15.95" thickBot="1">
       <c r="M102" s="256" t="s">
         <v>455</v>
       </c>
@@ -18874,10 +18869,10 @@
         <v>572</v>
       </c>
       <c r="O102" s="256" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="103" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="103" spans="13:15" ht="15.95" thickBot="1">
       <c r="M103" s="256" t="s">
         <v>457</v>
       </c>
@@ -18888,7 +18883,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="13:15" ht="15.95" thickBot="1">
       <c r="M104" s="256" t="s">
         <v>456</v>
       </c>
@@ -18896,7 +18891,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="13:15" ht="15.95" thickBot="1">
       <c r="M105" s="256" t="s">
         <v>458</v>
       </c>
@@ -18904,7 +18899,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="13:15" ht="15.95" thickBot="1">
       <c r="M106" s="256" t="s">
         <v>459</v>
       </c>
@@ -18912,7 +18907,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="107" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="13:15" ht="15.95" thickBot="1">
       <c r="M107" s="256" t="s">
         <v>460</v>
       </c>
@@ -18920,172 +18915,172 @@
         <v>658</v>
       </c>
     </row>
-    <row r="108" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="13:15" ht="15.95" thickBot="1">
       <c r="M108" s="256" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="13:15" ht="15.95" thickBot="1">
       <c r="M109" s="256" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="110" spans="13:15" ht="15.95" thickBot="1">
+      <c r="M110" s="256" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="110" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M110" s="256" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="111" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="13:15" ht="15.95" thickBot="1">
       <c r="M111" s="256" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="112" spans="13:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="13:15" ht="15.95" thickBot="1">
       <c r="M112" s="256" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="113" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="13:13" ht="15.95" thickBot="1">
       <c r="M113" s="256" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="13:13" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="13:13" ht="27.95" thickBot="1">
       <c r="M114" s="256" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="13:13" ht="15.95" thickBot="1">
       <c r="M115" s="256" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="13:13" ht="15.95" thickBot="1">
       <c r="M116" s="256" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="13:13" ht="15.95" thickBot="1">
       <c r="M117" s="256" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="118" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="13:13" ht="15.95" thickBot="1">
       <c r="M118" s="256" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="13:13" ht="15.95" thickBot="1">
       <c r="M119" s="256" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="13:13" ht="15.95" thickBot="1">
       <c r="M120" s="256" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="121" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="13:13" ht="15.95" thickBot="1">
       <c r="M121" s="256" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="13:13" ht="15.95" thickBot="1">
       <c r="M122" s="256" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="13:13" ht="15.95" thickBot="1">
       <c r="M123" s="256" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="124" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="13:13" ht="15.95" thickBot="1">
       <c r="M124" s="256" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="125" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="125" spans="13:13" ht="15.95" thickBot="1">
       <c r="M125" s="256" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="126" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="13:13" ht="15.95" thickBot="1">
       <c r="M126" s="256" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="127" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13" ht="15.95" thickBot="1">
       <c r="M127" s="256" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="128" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="13:13" ht="15.95" thickBot="1">
       <c r="M128" s="256" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="129" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="13:13" ht="15.95" thickBot="1">
       <c r="M129" s="256" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="130" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="13:13" ht="15.95" thickBot="1">
       <c r="M130" s="256" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="13:13" ht="15.95" thickBot="1">
       <c r="M131" s="256" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="132" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="132" spans="13:13" ht="15.95" thickBot="1">
       <c r="M132" s="256" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="133" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="13:13" ht="15.95" thickBot="1">
       <c r="M133" s="256" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="134" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="13:13" ht="15.95" thickBot="1">
       <c r="M134" s="256" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="135" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="13:13" ht="15.95" thickBot="1">
       <c r="M135" s="256" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="13:13" ht="15.95" thickBot="1">
       <c r="M136" s="256" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="137" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="13:13" ht="15.95" thickBot="1">
       <c r="M137" s="256" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="138" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="13:13" ht="15.95" thickBot="1">
       <c r="M138" s="256" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="139" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="13:13" ht="15.75" thickBot="1">
       <c r="M139" s="256" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="140" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="13:13" ht="15.75" thickBot="1">
       <c r="M140" s="256" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="141" spans="13:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="13:13" ht="27" thickBot="1">
       <c r="M141" s="256" t="s">
         <v>489</v>
       </c>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v1.xlsx
@@ -17,16 +17,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'User Guidance'!$B$2:$E$229</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="989">
   <si>
     <t>Country</t>
   </si>
@@ -3252,6 +3247,48 @@
   </si>
   <si>
     <t>Is responsible for all the modelling and scientific aspects of the tool</t>
+  </si>
+  <si>
+    <t>Bell pepper</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Cashew</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>Chilli</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Flax</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>Guar</t>
+  </si>
+  <si>
+    <t>Hemp</t>
+  </si>
+  <si>
+    <t>Lentil</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Mulberry</t>
   </si>
 </sst>
 </file>
@@ -5175,7 +5212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5870,6 +5907,18 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5882,18 +5931,6 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5909,6 +5946,8 @@
     <xf numFmtId="0" fontId="9" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="613">
     <cellStyle name="(min) Duizend,0" xfId="4"/>
@@ -8045,7 +8084,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -8108,25 +8147,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="259" t="s">
         <v>973</v>
       </c>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -8141,16 +8180,16 @@
       <c r="H7" s="156"/>
       <c r="I7" s="156"/>
     </row>
-    <row r="8" spans="1:9" s="157" customFormat="1" ht="15.95">
+    <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="260" t="s">
         <v>708</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -8167,14 +8206,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="265" t="s">
+      <c r="B10" s="261" t="s">
         <v>772</v>
       </c>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="265"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
+      <c r="G10" s="261"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -8182,10 +8221,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
-      <c r="G11" s="265"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -8256,25 +8295,25 @@
       <c r="H16" s="156"/>
       <c r="I16" s="156"/>
     </row>
-    <row r="17" spans="1:9" s="157" customFormat="1" ht="15.95">
+    <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="259" t="s">
+      <c r="B17" s="263" t="s">
         <v>711</v>
       </c>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="259"/>
-      <c r="G17" s="259"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
-    <row r="18" spans="1:9" s="160" customFormat="1" ht="14.1">
+    <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="260" t="s">
+      <c r="B18" s="264" t="s">
         <v>712</v>
       </c>
-      <c r="C18" s="260"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="180" t="s">
         <v>713</v>
       </c>
@@ -8290,12 +8329,12 @@
       <c r="H18" s="156"/>
       <c r="I18" s="156"/>
     </row>
-    <row r="19" spans="1:9" s="160" customFormat="1" ht="14.1">
+    <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="261" t="s">
+      <c r="B19" s="265" t="s">
         <v>717</v>
       </c>
-      <c r="C19" s="261"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="166" t="s">
         <v>718</v>
       </c>
@@ -8334,10 +8373,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="258" t="s">
+      <c r="B21" s="262" t="s">
         <v>720</v>
       </c>
-      <c r="C21" s="258"/>
+      <c r="C21" s="262"/>
       <c r="D21" s="167" t="s">
         <v>721</v>
       </c>
@@ -8355,10 +8394,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="258" t="s">
+      <c r="B22" s="262" t="s">
         <v>724</v>
       </c>
-      <c r="C22" s="258"/>
+      <c r="C22" s="262"/>
       <c r="D22" s="167" t="s">
         <v>725</v>
       </c>
@@ -8374,7 +8413,7 @@
       <c r="H22" s="156"/>
       <c r="I22" s="156"/>
     </row>
-    <row r="23" spans="1:9" s="157" customFormat="1" ht="14.1">
+    <row r="23" spans="1:9" s="157" customFormat="1">
       <c r="A23" s="154"/>
       <c r="B23" s="177"/>
       <c r="C23" s="177"/>
@@ -8385,7 +8424,7 @@
       <c r="H23" s="156"/>
       <c r="I23" s="156"/>
     </row>
-    <row r="24" spans="1:9" ht="14.1">
+    <row r="24" spans="1:9">
       <c r="B24" s="172"/>
       <c r="C24" s="172"/>
       <c r="D24" s="178"/>
@@ -8393,7 +8432,7 @@
       <c r="F24" s="178"/>
       <c r="G24" s="178"/>
     </row>
-    <row r="25" spans="1:9" s="165" customFormat="1" ht="15.95">
+    <row r="25" spans="1:9" s="165" customFormat="1" ht="15.75">
       <c r="A25" s="164"/>
       <c r="B25" s="171" t="s">
         <v>727</v>
@@ -8426,7 +8465,7 @@
       <c r="F27" s="178"/>
       <c r="G27" s="178"/>
     </row>
-    <row r="28" spans="1:9" s="165" customFormat="1" ht="14.1">
+    <row r="28" spans="1:9" s="165" customFormat="1">
       <c r="A28" s="164"/>
       <c r="B28" s="172" t="s">
         <v>729</v>
@@ -8437,7 +8476,7 @@
       <c r="F28" s="178"/>
       <c r="G28" s="178"/>
     </row>
-    <row r="29" spans="1:9" s="165" customFormat="1" ht="14.1">
+    <row r="29" spans="1:9" s="165" customFormat="1">
       <c r="A29" s="164"/>
       <c r="B29" s="172" t="s">
         <v>730</v>
@@ -8448,7 +8487,7 @@
       <c r="F29" s="178"/>
       <c r="G29" s="178"/>
     </row>
-    <row r="30" spans="1:9" s="165" customFormat="1" ht="14.1">
+    <row r="30" spans="1:9" s="165" customFormat="1">
       <c r="A30" s="164"/>
       <c r="B30" s="172" t="s">
         <v>731</v>
@@ -8459,7 +8498,7 @@
       <c r="F30" s="178"/>
       <c r="G30" s="178"/>
     </row>
-    <row r="31" spans="1:9" s="165" customFormat="1" ht="14.1">
+    <row r="31" spans="1:9" s="165" customFormat="1">
       <c r="A31" s="164"/>
       <c r="B31" s="172" t="s">
         <v>732</v>
@@ -8472,12 +8511,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -8486,6 +8519,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <phoneticPr fontId="83" type="noConversion"/>
   <hyperlinks>
@@ -8509,8 +8548,8 @@
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -12560,7 +12599,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -17239,7 +17278,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$I$2:$I$36</xm:f>
+            <xm:f>Lists!$I$2:$I$50</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
@@ -17268,10 +17307,10 @@
   </sheetPr>
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17279,7 +17318,7 @@
     <col min="1" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="234" customFormat="1">
+    <row r="1" spans="1:15" s="234" customFormat="1" ht="30">
       <c r="A1" s="233" t="s">
         <v>117</v>
       </c>
@@ -17326,7 +17365,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>367</v>
       </c>
@@ -17373,7 +17412,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -17398,7 +17437,7 @@
       <c r="H3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="272" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -17420,7 +17459,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -17445,7 +17484,7 @@
       <c r="H4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="272" t="s">
         <v>179</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -17467,7 +17506,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>126</v>
       </c>
@@ -17492,7 +17531,7 @@
       <c r="H5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="272" t="s">
         <v>185</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -17514,7 +17553,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -17536,7 +17575,7 @@
       <c r="H6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="272" t="s">
         <v>190</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -17555,7 +17594,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -17574,7 +17613,7 @@
       <c r="H7" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="272" t="s">
         <v>193</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -17593,7 +17632,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -17603,8 +17642,8 @@
       <c r="G8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>197</v>
+      <c r="I8" s="271" t="s">
+        <v>975</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>60</v>
@@ -17622,15 +17661,15 @@
         <v>953</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D9" s="1" t="s">
         <v>198</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>200</v>
+      <c r="I9" s="271" t="s">
+        <v>976</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>61</v>
@@ -17648,15 +17687,15 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D10" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>203</v>
+      <c r="I10" s="272" t="s">
+        <v>197</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>62</v>
@@ -17674,15 +17713,15 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="27.95" thickBot="1">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="D11" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>206</v>
+      <c r="I11" s="271" t="s">
+        <v>977</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>63</v>
@@ -17700,15 +17739,15 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D12" s="1" t="s">
         <v>913</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>231</v>
+      <c r="I12" s="271" t="s">
+        <v>978</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>59</v>
@@ -17723,12 +17762,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="G13" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>209</v>
+      <c r="I13" s="271" t="s">
+        <v>979</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>65</v>
@@ -17743,12 +17782,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="G14" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>232</v>
+      <c r="I14" s="272" t="s">
+        <v>200</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>67</v>
@@ -17763,9 +17802,9 @@
         <v>584</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I15" s="1" t="s">
-        <v>210</v>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I15" s="272" t="s">
+        <v>203</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>68</v>
@@ -17780,9 +17819,9 @@
         <v>952</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I16" s="1" t="s">
-        <v>211</v>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I16" s="272" t="s">
+        <v>206</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
@@ -17797,9 +17836,9 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I17" s="1" t="s">
-        <v>212</v>
+    <row r="17" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I17" s="271" t="s">
+        <v>980</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>69</v>
@@ -17814,9 +17853,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="18" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I18" s="1" t="s">
-        <v>213</v>
+    <row r="18" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I18" s="271" t="s">
+        <v>981</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>70</v>
@@ -17831,9 +17870,9 @@
         <v>586</v>
       </c>
     </row>
-    <row r="19" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I19" s="1" t="s">
-        <v>214</v>
+    <row r="19" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I19" s="271" t="s">
+        <v>982</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>73</v>
@@ -17848,9 +17887,9 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I20" s="1" t="s">
-        <v>215</v>
+    <row r="20" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I20" s="271" t="s">
+        <v>983</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>71</v>
@@ -17865,9 +17904,9 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I21" s="1" t="s">
-        <v>233</v>
+    <row r="21" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I21" s="271" t="s">
+        <v>984</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>72</v>
@@ -17882,9 +17921,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I22" s="1" t="s">
-        <v>216</v>
+    <row r="22" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I22" s="271" t="s">
+        <v>985</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>74</v>
@@ -17899,9 +17938,9 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I23" s="1" t="s">
-        <v>217</v>
+    <row r="23" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I23" s="272" t="s">
+        <v>231</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>75</v>
@@ -17916,9 +17955,9 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I24" s="1" t="s">
-        <v>218</v>
+    <row r="24" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I24" s="271" t="s">
+        <v>986</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>77</v>
@@ -17933,9 +17972,9 @@
         <v>954</v>
       </c>
     </row>
-    <row r="25" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I25" s="1" t="s">
-        <v>219</v>
+    <row r="25" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I25" s="272" t="s">
+        <v>209</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>78</v>
@@ -17950,9 +17989,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I26" s="1" t="s">
-        <v>220</v>
+    <row r="26" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I26" s="272" t="s">
+        <v>232</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>79</v>
@@ -17967,9 +18006,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I27" s="1" t="s">
-        <v>221</v>
+    <row r="27" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I27" s="272" t="s">
+        <v>210</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>80</v>
@@ -17984,9 +18023,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="28" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I28" s="1" t="s">
-        <v>222</v>
+    <row r="28" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I28" s="271" t="s">
+        <v>987</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>81</v>
@@ -18001,9 +18040,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I29" s="1" t="s">
-        <v>223</v>
+    <row r="29" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I29" s="272" t="s">
+        <v>211</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>82</v>
@@ -18018,9 +18057,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I30" s="1" t="s">
-        <v>228</v>
+    <row r="30" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I30" s="271" t="s">
+        <v>988</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>83</v>
@@ -18035,9 +18074,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="31" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I31" s="1" t="s">
-        <v>229</v>
+    <row r="31" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I31" s="272" t="s">
+        <v>212</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>89</v>
@@ -18052,9 +18091,9 @@
         <v>652</v>
       </c>
     </row>
-    <row r="32" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I32" s="1" t="s">
-        <v>224</v>
+    <row r="32" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I32" s="272" t="s">
+        <v>213</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>66</v>
@@ -18069,9 +18108,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I33" s="1" t="s">
-        <v>230</v>
+    <row r="33" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I33" s="272" t="s">
+        <v>214</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>76</v>
@@ -18086,9 +18125,9 @@
         <v>955</v>
       </c>
     </row>
-    <row r="34" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I34" s="1" t="s">
-        <v>225</v>
+    <row r="34" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I34" s="272" t="s">
+        <v>215</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>54</v>
@@ -18103,9 +18142,9 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="9:15" s="1" customFormat="1" ht="27.95" thickBot="1">
-      <c r="I35" s="1" t="s">
-        <v>226</v>
+    <row r="35" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I35" s="272" t="s">
+        <v>233</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>84</v>
@@ -18120,9 +18159,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="36" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
-      <c r="I36" s="1" t="s">
-        <v>227</v>
+    <row r="36" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I36" s="272" t="s">
+        <v>216</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>85</v>
@@ -18137,7 +18176,10 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="37" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I37" s="272" t="s">
+        <v>217</v>
+      </c>
       <c r="J37" s="1" t="s">
         <v>86</v>
       </c>
@@ -18151,7 +18193,10 @@
         <v>956</v>
       </c>
     </row>
-    <row r="38" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="38" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I38" s="272" t="s">
+        <v>218</v>
+      </c>
       <c r="J38" s="1" t="s">
         <v>87</v>
       </c>
@@ -18165,7 +18210,10 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="39" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I39" s="272" t="s">
+        <v>219</v>
+      </c>
       <c r="J39" s="1" t="s">
         <v>88</v>
       </c>
@@ -18179,7 +18227,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="40" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I40" s="272" t="s">
+        <v>220</v>
+      </c>
       <c r="M40" s="256" t="s">
         <v>402</v>
       </c>
@@ -18190,7 +18241,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="41" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I41" s="272" t="s">
+        <v>221</v>
+      </c>
       <c r="M41" s="256" t="s">
         <v>919</v>
       </c>
@@ -18201,7 +18255,10 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="42" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I42" s="272" t="s">
+        <v>222</v>
+      </c>
       <c r="M42" s="256" t="s">
         <v>404</v>
       </c>
@@ -18212,7 +18269,10 @@
         <v>603</v>
       </c>
     </row>
-    <row r="43" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="43" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I43" s="272" t="s">
+        <v>223</v>
+      </c>
       <c r="M43" s="256" t="s">
         <v>405</v>
       </c>
@@ -18223,7 +18283,10 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="9:15" s="1" customFormat="1" ht="27.95" thickBot="1">
+    <row r="44" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I44" s="272" t="s">
+        <v>228</v>
+      </c>
       <c r="M44" s="256" t="s">
         <v>406</v>
       </c>
@@ -18234,7 +18297,10 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="45" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I45" s="272" t="s">
+        <v>229</v>
+      </c>
       <c r="M45" s="256" t="s">
         <v>407</v>
       </c>
@@ -18245,7 +18311,10 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="46" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I46" s="272" t="s">
+        <v>224</v>
+      </c>
       <c r="M46" s="256" t="s">
         <v>408</v>
       </c>
@@ -18256,7 +18325,10 @@
         <v>607</v>
       </c>
     </row>
-    <row r="47" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="47" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I47" s="272" t="s">
+        <v>230</v>
+      </c>
       <c r="M47" s="256" t="s">
         <v>409</v>
       </c>
@@ -18267,7 +18339,10 @@
         <v>608</v>
       </c>
     </row>
-    <row r="48" spans="9:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="48" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I48" s="272" t="s">
+        <v>225</v>
+      </c>
       <c r="M48" s="256" t="s">
         <v>410</v>
       </c>
@@ -18278,7 +18353,10 @@
         <v>957</v>
       </c>
     </row>
-    <row r="49" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="49" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I49" s="272" t="s">
+        <v>226</v>
+      </c>
       <c r="M49" s="256" t="s">
         <v>411</v>
       </c>
@@ -18289,7 +18367,10 @@
         <v>958</v>
       </c>
     </row>
-    <row r="50" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="50" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I50" s="272" t="s">
+        <v>227</v>
+      </c>
       <c r="M50" s="256" t="s">
         <v>403</v>
       </c>
@@ -18300,7 +18381,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="51" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="51" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M51" s="256" t="s">
         <v>412</v>
       </c>
@@ -18311,7 +18392,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="52" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="52" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M52" s="256" t="s">
         <v>413</v>
       </c>
@@ -18322,7 +18403,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="53" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="53" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M53" s="256" t="s">
         <v>414</v>
       </c>
@@ -18333,7 +18414,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="54" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="54" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M54" s="256" t="s">
         <v>415</v>
       </c>
@@ -18344,7 +18425,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="55" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="55" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M55" s="256" t="s">
         <v>924</v>
       </c>
@@ -18355,7 +18436,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="13:15" s="1" customFormat="1" ht="27.95" thickBot="1">
+    <row r="56" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M56" s="256" t="s">
         <v>925</v>
       </c>
@@ -18366,7 +18447,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="57" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="57" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M57" s="256" t="s">
         <v>416</v>
       </c>
@@ -18377,7 +18458,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="58" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="58" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M58" s="256" t="s">
         <v>417</v>
       </c>
@@ -18388,7 +18469,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="59" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="59" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M59" s="256" t="s">
         <v>418</v>
       </c>
@@ -18399,7 +18480,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="60" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="60" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M60" s="256" t="s">
         <v>419</v>
       </c>
@@ -18410,7 +18491,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="61" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="61" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M61" s="256" t="s">
         <v>420</v>
       </c>
@@ -18421,7 +18502,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="62" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="62" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M62" s="256" t="s">
         <v>421</v>
       </c>
@@ -18432,7 +18513,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="63" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="63" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M63" s="256" t="s">
         <v>926</v>
       </c>
@@ -18443,7 +18524,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="64" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M64" s="256" t="s">
         <v>422</v>
       </c>
@@ -18454,7 +18535,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="65" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="65" spans="13:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M65" s="256" t="s">
         <v>927</v>
       </c>
@@ -18465,7 +18546,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="66" spans="13:15" s="1" customFormat="1" ht="15.95" thickBot="1">
+    <row r="66" spans="13:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M66" s="256" t="s">
         <v>423</v>
       </c>
@@ -18476,7 +18557,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="67" spans="13:15" ht="15.95" thickBot="1">
+    <row r="67" spans="13:15" ht="15.75" thickBot="1">
       <c r="M67" s="256" t="s">
         <v>424</v>
       </c>
@@ -18487,7 +18568,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="13:15" ht="27.95" thickBot="1">
+    <row r="68" spans="13:15" ht="27" thickBot="1">
       <c r="M68" s="256" t="s">
         <v>425</v>
       </c>
@@ -18498,7 +18579,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="69" spans="13:15" ht="15.95" thickBot="1">
+    <row r="69" spans="13:15" ht="15.75" thickBot="1">
       <c r="M69" s="256" t="s">
         <v>929</v>
       </c>
@@ -18509,7 +18590,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="70" spans="13:15" ht="15.95" thickBot="1">
+    <row r="70" spans="13:15" ht="15.75" thickBot="1">
       <c r="M70" s="256" t="s">
         <v>930</v>
       </c>
@@ -18520,7 +18601,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="13:15" ht="15.95" thickBot="1">
+    <row r="71" spans="13:15" ht="15.75" thickBot="1">
       <c r="M71" s="256" t="s">
         <v>426</v>
       </c>
@@ -18531,7 +18612,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="72" spans="13:15" ht="15.95" thickBot="1">
+    <row r="72" spans="13:15" ht="15.75" thickBot="1">
       <c r="M72" s="256" t="s">
         <v>427</v>
       </c>
@@ -18542,7 +18623,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="73" spans="13:15" ht="27.95" thickBot="1">
+    <row r="73" spans="13:15" ht="27" thickBot="1">
       <c r="M73" s="256" t="s">
         <v>428</v>
       </c>
@@ -18553,7 +18634,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="74" spans="13:15" ht="15.95" thickBot="1">
+    <row r="74" spans="13:15" ht="15.75" thickBot="1">
       <c r="M74" s="256" t="s">
         <v>429</v>
       </c>
@@ -18564,7 +18645,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="75" spans="13:15" ht="15.95" thickBot="1">
+    <row r="75" spans="13:15" ht="15.75" thickBot="1">
       <c r="M75" s="256" t="s">
         <v>931</v>
       </c>
@@ -18575,7 +18656,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="76" spans="13:15" ht="15.95" thickBot="1">
+    <row r="76" spans="13:15" ht="15.75" thickBot="1">
       <c r="M76" s="256" t="s">
         <v>431</v>
       </c>
@@ -18586,7 +18667,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="77" spans="13:15" ht="15.95" thickBot="1">
+    <row r="77" spans="13:15" ht="15.75" thickBot="1">
       <c r="M77" s="256" t="s">
         <v>430</v>
       </c>
@@ -18597,7 +18678,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="78" spans="13:15" ht="15.95" thickBot="1">
+    <row r="78" spans="13:15" ht="15.75" thickBot="1">
       <c r="M78" s="256" t="s">
         <v>432</v>
       </c>
@@ -18608,7 +18689,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="79" spans="13:15" ht="27.95" thickBot="1">
+    <row r="79" spans="13:15" ht="27" thickBot="1">
       <c r="M79" s="256" t="s">
         <v>433</v>
       </c>
@@ -18619,7 +18700,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="80" spans="13:15" ht="15.95" thickBot="1">
+    <row r="80" spans="13:15" ht="15.75" thickBot="1">
       <c r="M80" s="256" t="s">
         <v>434</v>
       </c>
@@ -18630,7 +18711,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="13:15" ht="15.95" thickBot="1">
+    <row r="81" spans="13:15" ht="15.75" thickBot="1">
       <c r="M81" s="256" t="s">
         <v>435</v>
       </c>
@@ -18641,7 +18722,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="82" spans="13:15" ht="15.95" thickBot="1">
+    <row r="82" spans="13:15" ht="15.75" thickBot="1">
       <c r="M82" s="256" t="s">
         <v>436</v>
       </c>
@@ -18652,7 +18733,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="83" spans="13:15" ht="15.95" thickBot="1">
+    <row r="83" spans="13:15" ht="15.75" thickBot="1">
       <c r="M83" s="256" t="s">
         <v>437</v>
       </c>
@@ -18663,7 +18744,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="84" spans="13:15" ht="15.95" thickBot="1">
+    <row r="84" spans="13:15" ht="15.75" thickBot="1">
       <c r="M84" s="256" t="s">
         <v>438</v>
       </c>
@@ -18674,7 +18755,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="85" spans="13:15" ht="15.95" thickBot="1">
+    <row r="85" spans="13:15" ht="15.75" thickBot="1">
       <c r="M85" s="256" t="s">
         <v>439</v>
       </c>
@@ -18685,7 +18766,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="13:15" ht="15.95" thickBot="1">
+    <row r="86" spans="13:15" ht="15.75" thickBot="1">
       <c r="M86" s="256" t="s">
         <v>440</v>
       </c>
@@ -18696,7 +18777,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="87" spans="13:15" ht="15.95" thickBot="1">
+    <row r="87" spans="13:15" ht="15.75" thickBot="1">
       <c r="M87" s="256" t="s">
         <v>441</v>
       </c>
@@ -18707,7 +18788,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="88" spans="13:15" ht="15.95" thickBot="1">
+    <row r="88" spans="13:15" ht="15.75" thickBot="1">
       <c r="M88" s="256" t="s">
         <v>442</v>
       </c>
@@ -18718,7 +18799,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="89" spans="13:15" ht="15.95" thickBot="1">
+    <row r="89" spans="13:15" ht="15.75" thickBot="1">
       <c r="M89" s="256" t="s">
         <v>443</v>
       </c>
@@ -18729,7 +18810,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="90" spans="13:15" ht="15.95" thickBot="1">
+    <row r="90" spans="13:15" ht="15.75" thickBot="1">
       <c r="M90" s="256" t="s">
         <v>444</v>
       </c>
@@ -18740,7 +18821,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="91" spans="13:15" ht="15.95" thickBot="1">
+    <row r="91" spans="13:15" ht="15.75" thickBot="1">
       <c r="M91" s="256" t="s">
         <v>445</v>
       </c>
@@ -18751,7 +18832,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="92" spans="13:15" ht="15.95" thickBot="1">
+    <row r="92" spans="13:15" ht="15.75" thickBot="1">
       <c r="M92" s="256" t="s">
         <v>446</v>
       </c>
@@ -18762,7 +18843,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="93" spans="13:15" ht="15.95" thickBot="1">
+    <row r="93" spans="13:15" ht="15.75" thickBot="1">
       <c r="M93" s="256" t="s">
         <v>934</v>
       </c>
@@ -18773,7 +18854,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" spans="13:15" ht="15.95" thickBot="1">
+    <row r="94" spans="13:15" ht="15.75" thickBot="1">
       <c r="M94" s="256" t="s">
         <v>447</v>
       </c>
@@ -18784,7 +18865,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="95" spans="13:15" ht="15.95" thickBot="1">
+    <row r="95" spans="13:15" ht="15.75" thickBot="1">
       <c r="M95" s="256" t="s">
         <v>448</v>
       </c>
@@ -18795,7 +18876,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="96" spans="13:15" ht="15.95" thickBot="1">
+    <row r="96" spans="13:15" ht="15.75" thickBot="1">
       <c r="M96" s="256" t="s">
         <v>449</v>
       </c>
@@ -18806,7 +18887,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="97" spans="13:15" ht="15.95" thickBot="1">
+    <row r="97" spans="13:15" ht="15.75" thickBot="1">
       <c r="M97" s="256" t="s">
         <v>450</v>
       </c>
@@ -18817,7 +18898,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="13:15" ht="15.95" thickBot="1">
+    <row r="98" spans="13:15" ht="15.75" thickBot="1">
       <c r="M98" s="256" t="s">
         <v>451</v>
       </c>
@@ -18828,7 +18909,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="99" spans="13:15" ht="15.95" thickBot="1">
+    <row r="99" spans="13:15" ht="15.75" thickBot="1">
       <c r="M99" s="256" t="s">
         <v>452</v>
       </c>
@@ -18839,7 +18920,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="100" spans="13:15" ht="15.95" thickBot="1">
+    <row r="100" spans="13:15" ht="15.75" thickBot="1">
       <c r="M100" s="256" t="s">
         <v>453</v>
       </c>
@@ -18850,7 +18931,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="101" spans="13:15" ht="15.95" thickBot="1">
+    <row r="101" spans="13:15" ht="15.75" thickBot="1">
       <c r="M101" s="256" t="s">
         <v>454</v>
       </c>
@@ -18861,7 +18942,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="102" spans="13:15" ht="15.95" thickBot="1">
+    <row r="102" spans="13:15" ht="15.75" thickBot="1">
       <c r="M102" s="256" t="s">
         <v>455</v>
       </c>
@@ -18872,7 +18953,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="103" spans="13:15" ht="15.95" thickBot="1">
+    <row r="103" spans="13:15" ht="27" thickBot="1">
       <c r="M103" s="256" t="s">
         <v>457</v>
       </c>
@@ -18883,7 +18964,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="13:15" ht="15.95" thickBot="1">
+    <row r="104" spans="13:15" ht="15.75" thickBot="1">
       <c r="M104" s="256" t="s">
         <v>456</v>
       </c>
@@ -18891,7 +18972,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="13:15" ht="15.95" thickBot="1">
+    <row r="105" spans="13:15" ht="15.75" thickBot="1">
       <c r="M105" s="256" t="s">
         <v>458</v>
       </c>
@@ -18899,7 +18980,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="13:15" ht="15.95" thickBot="1">
+    <row r="106" spans="13:15" ht="15.75" thickBot="1">
       <c r="M106" s="256" t="s">
         <v>459</v>
       </c>
@@ -18907,7 +18988,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="107" spans="13:15" ht="15.95" thickBot="1">
+    <row r="107" spans="13:15" ht="27" thickBot="1">
       <c r="M107" s="256" t="s">
         <v>460</v>
       </c>
@@ -18915,157 +18996,157 @@
         <v>658</v>
       </c>
     </row>
-    <row r="108" spans="13:15" ht="15.95" thickBot="1">
+    <row r="108" spans="13:15" ht="15.75" thickBot="1">
       <c r="M108" s="256" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="13:15" ht="15.95" thickBot="1">
+    <row r="109" spans="13:15" ht="15.75" thickBot="1">
       <c r="M109" s="256" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="110" spans="13:15" ht="15.95" thickBot="1">
+    <row r="110" spans="13:15" ht="15.75" thickBot="1">
       <c r="M110" s="256" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="111" spans="13:15" ht="15.95" thickBot="1">
+    <row r="111" spans="13:15" ht="15.75" thickBot="1">
       <c r="M111" s="256" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="112" spans="13:15" ht="15.95" thickBot="1">
+    <row r="112" spans="13:15" ht="15.75" thickBot="1">
       <c r="M112" s="256" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="113" spans="13:13" ht="15.95" thickBot="1">
+    <row r="113" spans="13:13" ht="15.75" thickBot="1">
       <c r="M113" s="256" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="13:13" ht="27.95" thickBot="1">
+    <row r="114" spans="13:13" ht="27" thickBot="1">
       <c r="M114" s="256" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="13:13" ht="15.95" thickBot="1">
+    <row r="115" spans="13:13" ht="15.75" thickBot="1">
       <c r="M115" s="256" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="13:13" ht="15.95" thickBot="1">
+    <row r="116" spans="13:13" ht="15.75" thickBot="1">
       <c r="M116" s="256" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="13:13" ht="15.95" thickBot="1">
+    <row r="117" spans="13:13" ht="15.75" thickBot="1">
       <c r="M117" s="256" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="118" spans="13:13" ht="15.95" thickBot="1">
+    <row r="118" spans="13:13" ht="15.75" thickBot="1">
       <c r="M118" s="256" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="13:13" ht="15.95" thickBot="1">
+    <row r="119" spans="13:13" ht="15.75" thickBot="1">
       <c r="M119" s="256" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="13:13" ht="15.95" thickBot="1">
+    <row r="120" spans="13:13" ht="15.75" thickBot="1">
       <c r="M120" s="256" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="121" spans="13:13" ht="15.95" thickBot="1">
+    <row r="121" spans="13:13" ht="15.75" thickBot="1">
       <c r="M121" s="256" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="13:13" ht="15.95" thickBot="1">
+    <row r="122" spans="13:13" ht="15.75" thickBot="1">
       <c r="M122" s="256" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="13:13" ht="15.95" thickBot="1">
+    <row r="123" spans="13:13" ht="15.75" thickBot="1">
       <c r="M123" s="256" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="124" spans="13:13" ht="15.95" thickBot="1">
+    <row r="124" spans="13:13" ht="15.75" thickBot="1">
       <c r="M124" s="256" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="125" spans="13:13" ht="15.95" thickBot="1">
+    <row r="125" spans="13:13" ht="15.75" thickBot="1">
       <c r="M125" s="256" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="126" spans="13:13" ht="15.95" thickBot="1">
+    <row r="126" spans="13:13" ht="15.75" thickBot="1">
       <c r="M126" s="256" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="127" spans="13:13" ht="15.95" thickBot="1">
+    <row r="127" spans="13:13" ht="15.75" thickBot="1">
       <c r="M127" s="256" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="128" spans="13:13" ht="15.95" thickBot="1">
+    <row r="128" spans="13:13" ht="15.75" thickBot="1">
       <c r="M128" s="256" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="129" spans="13:13" ht="15.95" thickBot="1">
+    <row r="129" spans="13:13" ht="15.75" thickBot="1">
       <c r="M129" s="256" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="130" spans="13:13" ht="15.95" thickBot="1">
+    <row r="130" spans="13:13" ht="15.75" thickBot="1">
       <c r="M130" s="256" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="13:13" ht="15.95" thickBot="1">
+    <row r="131" spans="13:13" ht="15.75" thickBot="1">
       <c r="M131" s="256" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="132" spans="13:13" ht="15.95" thickBot="1">
+    <row r="132" spans="13:13" ht="15.75" thickBot="1">
       <c r="M132" s="256" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="133" spans="13:13" ht="15.95" thickBot="1">
+    <row r="133" spans="13:13" ht="15.75" thickBot="1">
       <c r="M133" s="256" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="134" spans="13:13" ht="15.95" thickBot="1">
+    <row r="134" spans="13:13" ht="15.75" thickBot="1">
       <c r="M134" s="256" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="135" spans="13:13" ht="15.95" thickBot="1">
+    <row r="135" spans="13:13" ht="15.75" thickBot="1">
       <c r="M135" s="256" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="13:13" ht="15.95" thickBot="1">
+    <row r="136" spans="13:13" ht="15.75" thickBot="1">
       <c r="M136" s="256" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="137" spans="13:13" ht="15.95" thickBot="1">
+    <row r="137" spans="13:13" ht="15.75" thickBot="1">
       <c r="M137" s="256" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="138" spans="13:13" ht="15.95" thickBot="1">
+    <row r="138" spans="13:13" ht="15.75" thickBot="1">
       <c r="M138" s="256" t="s">
         <v>487</v>
       </c>
